--- a/SeleniumWebDriver/bin/guru99/DataFiles/Guru99_testdata.xlsx
+++ b/SeleniumWebDriver/bin/guru99/DataFiles/Guru99_testdata.xlsx
@@ -1,35 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE2CFFA-9421-4747-A3C4-186A0AB8960B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{B77DBC1B-2DB5-4F4F-871D-70AEB4239DE7}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="7" windowHeight="12648" windowWidth="22260" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="6" r:id="rId1"/>
-    <sheet name="LoginLogout" sheetId="1" r:id="rId2"/>
-    <sheet name="NewCust" sheetId="2" r:id="rId3"/>
-    <sheet name="EditCust" sheetId="3" r:id="rId4"/>
-    <sheet name="DeleteCust" sheetId="7" r:id="rId5"/>
-    <sheet name="NewAcct" sheetId="8" r:id="rId6"/>
-    <sheet name="EditAcct" sheetId="9" r:id="rId7"/>
-    <sheet name="DeleteAcct" sheetId="10" r:id="rId8"/>
-    <sheet name="Deposit" sheetId="18" r:id="rId9"/>
-    <sheet name="Withdrawal" sheetId="12" r:id="rId10"/>
-    <sheet name="FundTransfer" sheetId="13" r:id="rId11"/>
-    <sheet name="BalEnquiry" sheetId="17" r:id="rId12"/>
-    <sheet name="MiniStat" sheetId="15" r:id="rId13"/>
-    <sheet name="CustStat" sheetId="16" r:id="rId14"/>
+    <sheet name="Sheet2" r:id="rId1" sheetId="6"/>
+    <sheet name="LoginLogout" r:id="rId2" sheetId="1"/>
+    <sheet name="NewCust" r:id="rId3" sheetId="2"/>
+    <sheet name="EditCust" r:id="rId4" sheetId="3"/>
+    <sheet name="DeleteCust" r:id="rId5" sheetId="7"/>
+    <sheet name="NewAcct" r:id="rId6" sheetId="8"/>
+    <sheet name="EditAcct" r:id="rId7" sheetId="9"/>
+    <sheet name="DeleteAcct" r:id="rId8" sheetId="10"/>
+    <sheet name="Deposit" r:id="rId9" sheetId="18"/>
+    <sheet name="Withdrawal" r:id="rId10" sheetId="12"/>
+    <sheet name="FundTransfer" r:id="rId11" sheetId="13"/>
+    <sheet name="BalEnquiry" r:id="rId12" sheetId="17"/>
+    <sheet name="MiniStat" r:id="rId13" sheetId="15"/>
+    <sheet name="CustStat" r:id="rId14" sheetId="16"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">NewAcct!$F$1:$F$26</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">NewCust!$M$1:$M$52</definedName>
+    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">NewAcct!$F$1:$F$27</definedName>
+    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">NewCust!$A$1:$O$52</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -42,7 +42,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{C91B75FE-20C6-4B1B-94B5-DE09A4978240}">
+    <comment authorId="0" ref="C26" shapeId="0" xr:uid="{C91B75FE-20C6-4B1B-94B5-DE09A4978240}">
       <text>
         <r>
           <rPr>
@@ -76,7 +76,41 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment authorId="0" ref="C2" shapeId="0" xr:uid="{5314E864-4DAD-48A0-9132-A0FFD5A6ECD7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Customer ids needs to be creared before running addnewAcct function (Marked in yellow color)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="D3" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -104,13 +138,13 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
+    <comment authorId="0" ref="D3" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -138,13 +172,13 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
+    <comment authorId="0" ref="F3" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -172,13 +206,13 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
+    <comment authorId="0" ref="C2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -206,13 +240,13 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
+    <comment authorId="0" ref="D2" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -241,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="576">
   <si>
     <t>testcaseID</t>
   </si>
@@ -1371,571 +1405,611 @@
     <t>Account Deleted Sucessfully</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>You Have Succesfully Logged Out!!</t>
+  </si>
+  <si>
+    <t>pop-up &gt; Account does not exist</t>
+  </si>
+  <si>
+    <t>Existing savings account</t>
+  </si>
+  <si>
+    <t>Existing current account</t>
+  </si>
+  <si>
+    <t>Only Spaces in account number</t>
+  </si>
+  <si>
+    <t>Deleted account number</t>
+  </si>
+  <si>
+    <t>Account number exceeding 10 digits</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>#$%%^</t>
+  </si>
+  <si>
+    <t>Balance Details for Account</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>Pass - Account Number must not be blank</t>
+  </si>
+  <si>
+    <t>Pass - Characters are not allowed</t>
+  </si>
+  <si>
+    <t>Pass - Special characters are not allowed</t>
+  </si>
+  <si>
+    <t>Pass - Account does not exist</t>
+  </si>
+  <si>
+    <t>balBefore</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>currentbal</t>
+  </si>
+  <si>
+    <t>You are not authorize to deposit money in this account!!</t>
+  </si>
+  <si>
+    <t>Transaction details of Deposit for Account</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>savings investment</t>
+  </si>
+  <si>
+    <t>current investment</t>
+  </si>
+  <si>
+    <t>Deleting the account created by a different manager id</t>
+  </si>
+  <si>
+    <t>Deleting the customer id created by a different manager id</t>
+  </si>
+  <si>
+    <t>Account created by a different manager id</t>
+  </si>
+  <si>
+    <t>deleted account</t>
+  </si>
+  <si>
+    <t>Unauthorized account</t>
+  </si>
+  <si>
+    <t>blank account</t>
+  </si>
+  <si>
+    <t>only spaces</t>
+  </si>
+  <si>
+    <t>special characters</t>
+  </si>
+  <si>
+    <t>characters</t>
+  </si>
+  <si>
+    <t>$%^&amp;*</t>
+  </si>
+  <si>
+    <t>Pass - You are not authorize to deposit money in this account!!</t>
+  </si>
+  <si>
+    <t>2300</t>
+  </si>
+  <si>
+    <t>2700</t>
+  </si>
+  <si>
+    <t>Exisitng account with 500 balance</t>
+  </si>
+  <si>
+    <t>Blank amount</t>
+  </si>
+  <si>
+    <t>Only spaces in amount</t>
+  </si>
+  <si>
+    <t>Characters in amount</t>
+  </si>
+  <si>
+    <t>Special characters in amount</t>
+  </si>
+  <si>
+    <t>Amount field must not be blank</t>
+  </si>
+  <si>
+    <t>Blank description</t>
+  </si>
+  <si>
+    <t>Description can not be blank</t>
+  </si>
+  <si>
+    <t>Only spaces in description</t>
+  </si>
+  <si>
+    <t>Numbers in description</t>
+  </si>
+  <si>
+    <t>Special characters in description</t>
+  </si>
+  <si>
+    <t>%^&amp;*(</t>
+  </si>
+  <si>
+    <t>Description exceeding 10 characters</t>
+  </si>
+  <si>
+    <t>SampleDeposit</t>
+  </si>
+  <si>
+    <t>All three fields blank</t>
+  </si>
+  <si>
+    <t>Account Number must not be blankAmount field must not be blankDescription can not be blank</t>
+  </si>
+  <si>
+    <t>Transaction details of Withdrawal for Account</t>
+  </si>
+  <si>
+    <t>You are not authorize to debit money from this account!!</t>
+  </si>
+  <si>
+    <t>HighAmount</t>
+  </si>
+  <si>
+    <t>Transaction Failed. Account Balance Low!!!</t>
+  </si>
+  <si>
+    <t>Amount greater than 999999</t>
+  </si>
+  <si>
+    <t>%^&amp;*</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>Amount greater than balBefore</t>
+  </si>
+  <si>
+    <t>Amount greater than 99999999</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>invest</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>2800</t>
+  </si>
+  <si>
+    <t>490</t>
+  </si>
+  <si>
+    <t>Add a bank account to a customer id created by a different manager</t>
+  </si>
+  <si>
+    <t>You are not authorize to generate statement of this Account!!</t>
+  </si>
+  <si>
+    <t>Payers account No and Payees account No Must Not be Same!!!</t>
+  </si>
+  <si>
+    <t>payersacctnum</t>
+  </si>
+  <si>
+    <t>payeesacctnum</t>
+  </si>
+  <si>
+    <t>Blank payer's account number</t>
+  </si>
+  <si>
+    <t>Only spaces in payer's account number</t>
+  </si>
+  <si>
+    <t>Characters in payer's account number</t>
+  </si>
+  <si>
+    <t>Special characters inpayer's  account number</t>
+  </si>
+  <si>
+    <t>Deleted payer's account number</t>
+  </si>
+  <si>
+    <t>Payer's account created by a different manager id</t>
+  </si>
+  <si>
+    <t>Blank payee's account number</t>
+  </si>
+  <si>
+    <t>Only spaces in payee's account number</t>
+  </si>
+  <si>
+    <t>Characters in payee's account number</t>
+  </si>
+  <si>
+    <t>Special characters in payee's  account number</t>
+  </si>
+  <si>
+    <t>Deleted payee's account number</t>
+  </si>
+  <si>
+    <t>Payee's account created by a different manager id</t>
+  </si>
+  <si>
+    <t>All four fields blank</t>
+  </si>
+  <si>
+    <t>Same payer's and payee's account number</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>#$%</t>
+  </si>
+  <si>
+    <t>Account 98765does not exist!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t>&amp;&amp;^%</t>
+  </si>
+  <si>
+    <t>Account 39946does not exist!!!</t>
+  </si>
+  <si>
+    <t>test desc</t>
+  </si>
+  <si>
+    <t>%^&amp;</t>
+  </si>
+  <si>
+    <t>Amount greater than balance in payer's account</t>
+  </si>
+  <si>
+    <t>Transfer Failed. Account Balance low!!</t>
+  </si>
+  <si>
+    <t>Fund Transfer Details</t>
+  </si>
+  <si>
+    <t>Description exceeding 20 characters</t>
+  </si>
+  <si>
+    <t>Payers Account Number must not be blank</t>
+  </si>
+  <si>
+    <t>Payees Account Number must not be blank</t>
+  </si>
+  <si>
+    <t>Payers Account Number must not be blankPayees Account Number must not be blankAmount field must not be blankDescription can not be blank</t>
+  </si>
+  <si>
+    <t>description exceed 20</t>
+  </si>
+  <si>
+    <t>%^^*</t>
+  </si>
+  <si>
+    <t>same accounts</t>
+  </si>
+  <si>
+    <t>Adding a customer with direct link without logging in</t>
+  </si>
+  <si>
+    <t>Jishna</t>
+  </si>
+  <si>
+    <t>6 9th cross MK road</t>
+  </si>
+  <si>
+    <t>jishna@test.com</t>
+  </si>
+  <si>
+    <t>Editing a customer with direct link without logging in</t>
+  </si>
+  <si>
+    <t>Deleting a customer id with direct link without logging in</t>
+  </si>
+  <si>
+    <t>You are not authorize to get Balance details of this account!!</t>
+  </si>
+  <si>
+    <t>not found page</t>
+  </si>
+  <si>
+    <t>You are not authorize to do fund transfer!!</t>
+  </si>
+  <si>
+    <t>You are not authorize to delete this Account!!</t>
+  </si>
+  <si>
+    <t>You are not authorize to edit this Account!!</t>
+  </si>
+  <si>
+    <t>Blank page</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>Change savings to current</t>
+  </si>
+  <si>
+    <t>Change savings to savings</t>
+  </si>
+  <si>
+    <t>Change current to savings</t>
+  </si>
+  <si>
+    <t>Change current to current</t>
+  </si>
+  <si>
+    <t>No Changes made to Account records</t>
+  </si>
+  <si>
+    <t>Account details updated Successfully!!!</t>
+  </si>
+  <si>
+    <t>Change account type of the account created  by a different manager</t>
+  </si>
+  <si>
+    <t>Last Five Transaction Details for Account No</t>
+  </si>
+  <si>
+    <t>fromdate</t>
+  </si>
+  <si>
+    <t>todate</t>
+  </si>
+  <si>
+    <t>mintransval</t>
+  </si>
+  <si>
+    <t>numoftrans</t>
+  </si>
+  <si>
+    <t>Blank from date</t>
+  </si>
+  <si>
+    <t>Future from date</t>
+  </si>
+  <si>
+    <t>Blank to date</t>
+  </si>
+  <si>
+    <t>Past to date</t>
+  </si>
+  <si>
+    <t>FromDate field should be lower than ToDate field!!</t>
+  </si>
+  <si>
+    <t>From Date Field must not be blank</t>
+  </si>
+  <si>
+    <t>To Date Field must not be blank</t>
+  </si>
+  <si>
+    <t>Blank min trans value</t>
+  </si>
+  <si>
+    <t>Only spaces in min trans value</t>
+  </si>
+  <si>
+    <t>Characters in min trans value</t>
+  </si>
+  <si>
+    <t>Special characters in min trans value</t>
+  </si>
+  <si>
+    <t>No Transaction details found !!!</t>
+  </si>
+  <si>
+    <t>Minimum transaction value exceeding the actual transaction values</t>
+  </si>
+  <si>
+    <t>Blank number of trans</t>
+  </si>
+  <si>
+    <t>Only spaces in number of trans</t>
+  </si>
+  <si>
+    <t>Characters in number of trans</t>
+  </si>
+  <si>
+    <t>Special characters in number of trans</t>
+  </si>
+  <si>
+    <t>Number of transactions is zero</t>
+  </si>
+  <si>
+    <t>mngr137461</t>
+  </si>
+  <si>
+    <t>Guru@2018</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/</t>
+  </si>
+  <si>
+    <t>User is not valid</t>
+  </si>
+  <si>
+    <t>Pass - Guru99 Bank Manager HomePage</t>
+  </si>
+  <si>
+    <t>Pass - User is not valid</t>
+  </si>
+  <si>
+    <t>Pass - User-ID must not be blank</t>
+  </si>
+  <si>
+    <t>Pass - Password must not be blank</t>
+  </si>
+  <si>
+    <t>Pass - User-ID must not be blankPassword must not be blank</t>
+  </si>
+  <si>
+    <t>Pass - You Have Succesfully Logged Out!!</t>
+  </si>
+  <si>
+    <t>Pass - Customer Registered Successfully!!!</t>
+  </si>
+  <si>
+    <t>72172</t>
+  </si>
+  <si>
+    <t>Pass - Customer details updated Successfully!!!</t>
+  </si>
+  <si>
+    <t>Pass - No Changes made to Customer records</t>
+  </si>
+  <si>
+    <t>Pass - Customer ID is required</t>
+  </si>
+  <si>
+    <t>Pass - You are not authorize to edit this customer!!</t>
+  </si>
+  <si>
+    <t>Pass - Customer deleted Successfully</t>
+  </si>
+  <si>
+    <t>Pass - You are not authorize to delete this customer!!</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/addcustomerpage.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/EditCustomer.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/DeleteCustomerInput.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/addAccount.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/editAccount.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/deleteAccountInput.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/DepositInput.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/WithdrawalInput.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/FundTransInput.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/PasswordInput.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/BalEnqInput.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/MiniStatementInput.php</t>
+  </si>
+  <si>
+    <t>http://demo.guru99.com/V5/manager/CustomisedStatementInput.php</t>
+  </si>
+  <si>
+    <t>Pass - Customer could not be deleted!!. First delete all accounts of this customer then delete the customer</t>
+  </si>
+  <si>
+    <t>You are not authorize to Add Account for this Customer</t>
+  </si>
+  <si>
+    <t>NewAcct Failure messages(old)</t>
+  </si>
+  <si>
     <t>Pass - Account Generated Successfully!!!</t>
   </si>
   <si>
-    <t>39283</t>
-  </si>
-  <si>
-    <t>Pass - Account Deleted Sucessfully</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Logout</t>
-  </si>
-  <si>
-    <t>You Have Succesfully Logged Out!!</t>
-  </si>
-  <si>
-    <t>pop-up &gt; Account does not exist</t>
-  </si>
-  <si>
-    <t>Existing savings account</t>
-  </si>
-  <si>
-    <t>Existing current account</t>
-  </si>
-  <si>
-    <t>Only Spaces in account number</t>
-  </si>
-  <si>
-    <t>Deleted account number</t>
-  </si>
-  <si>
-    <t>Account number exceeding 10 digits</t>
-  </si>
-  <si>
-    <t>balance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       </t>
-  </si>
-  <si>
-    <t>account</t>
-  </si>
-  <si>
-    <t>#$%%^</t>
-  </si>
-  <si>
-    <t>Balance Details for Account</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>Pass - Account Number must not be blank</t>
-  </si>
-  <si>
-    <t>Pass - Characters are not allowed</t>
-  </si>
-  <si>
-    <t>Pass - Special characters are not allowed</t>
-  </si>
-  <si>
-    <t>Pass - Account does not exist</t>
-  </si>
-  <si>
-    <t>balBefore</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>currentbal</t>
-  </si>
-  <si>
-    <t>You are not authorize to deposit money in this account!!</t>
-  </si>
-  <si>
-    <t>Transaction details of Deposit for Account</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>savings investment</t>
-  </si>
-  <si>
-    <t>current investment</t>
-  </si>
-  <si>
-    <t>Deleting the account created by a different manager id</t>
-  </si>
-  <si>
-    <t>Deleting the customer id created by a different manager id</t>
-  </si>
-  <si>
-    <t>Account created by a different manager id</t>
-  </si>
-  <si>
-    <t>deleted account</t>
-  </si>
-  <si>
-    <t>Unauthorized account</t>
-  </si>
-  <si>
-    <t>blank account</t>
-  </si>
-  <si>
-    <t>only spaces</t>
-  </si>
-  <si>
-    <t>special characters</t>
-  </si>
-  <si>
-    <t>characters</t>
-  </si>
-  <si>
-    <t>$%^&amp;*</t>
-  </si>
-  <si>
-    <t>Pass - You are not authorize to deposit money in this account!!</t>
-  </si>
-  <si>
-    <t>2300</t>
-  </si>
-  <si>
-    <t>2700</t>
-  </si>
-  <si>
-    <t>Exisitng account with 500 balance</t>
-  </si>
-  <si>
-    <t>Blank amount</t>
-  </si>
-  <si>
-    <t>Only spaces in amount</t>
-  </si>
-  <si>
-    <t>Characters in amount</t>
-  </si>
-  <si>
-    <t>Special characters in amount</t>
-  </si>
-  <si>
-    <t>Amount field must not be blank</t>
-  </si>
-  <si>
-    <t>Blank description</t>
-  </si>
-  <si>
-    <t>Description can not be blank</t>
-  </si>
-  <si>
-    <t>Only spaces in description</t>
-  </si>
-  <si>
-    <t>Numbers in description</t>
-  </si>
-  <si>
-    <t>Special characters in description</t>
-  </si>
-  <si>
-    <t>%^&amp;*(</t>
-  </si>
-  <si>
-    <t>Description exceeding 10 characters</t>
-  </si>
-  <si>
-    <t>SampleDeposit</t>
-  </si>
-  <si>
-    <t>All three fields blank</t>
-  </si>
-  <si>
-    <t>Account Number must not be blankAmount field must not be blankDescription can not be blank</t>
-  </si>
-  <si>
-    <t>Transaction details of Withdrawal for Account</t>
-  </si>
-  <si>
-    <t>You are not authorize to debit money from this account!!</t>
-  </si>
-  <si>
-    <t>HighAmount</t>
-  </si>
-  <si>
-    <t>Transaction Failed. Account Balance Low!!!</t>
-  </si>
-  <si>
-    <t>Amount greater than 999999</t>
-  </si>
-  <si>
-    <t>%^&amp;*</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>Amount greater than balBefore</t>
-  </si>
-  <si>
-    <t>Amount greater than 99999999</t>
-  </si>
-  <si>
-    <t>failure</t>
-  </si>
-  <si>
-    <t>invest</t>
-  </si>
-  <si>
-    <t>390</t>
-  </si>
-  <si>
-    <t>2800</t>
-  </si>
-  <si>
-    <t>490</t>
-  </si>
-  <si>
-    <t>Add a bank account to a customer id created by a different manager</t>
-  </si>
-  <si>
-    <t>You are not authorize to generate statement of this Account!!</t>
-  </si>
-  <si>
-    <t>Payers account No and Payees account No Must Not be Same!!!</t>
-  </si>
-  <si>
-    <t>payersacctnum</t>
-  </si>
-  <si>
-    <t>payeesacctnum</t>
-  </si>
-  <si>
-    <t>Blank payer's account number</t>
-  </si>
-  <si>
-    <t>Only spaces in payer's account number</t>
-  </si>
-  <si>
-    <t>Characters in payer's account number</t>
-  </si>
-  <si>
-    <t>Special characters inpayer's  account number</t>
-  </si>
-  <si>
-    <t>Deleted payer's account number</t>
-  </si>
-  <si>
-    <t>Payer's account created by a different manager id</t>
-  </si>
-  <si>
-    <t>Blank payee's account number</t>
-  </si>
-  <si>
-    <t>Only spaces in payee's account number</t>
-  </si>
-  <si>
-    <t>Characters in payee's account number</t>
-  </si>
-  <si>
-    <t>Special characters in payee's  account number</t>
-  </si>
-  <si>
-    <t>Deleted payee's account number</t>
-  </si>
-  <si>
-    <t>Payee's account created by a different manager id</t>
-  </si>
-  <si>
-    <t>All four fields blank</t>
-  </si>
-  <si>
-    <t>Same payer's and payee's account number</t>
-  </si>
-  <si>
-    <t>bank</t>
-  </si>
-  <si>
-    <t>#$%</t>
-  </si>
-  <si>
-    <t>Account 98765does not exist!!!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      </t>
-  </si>
-  <si>
-    <t>&amp;&amp;^%</t>
-  </si>
-  <si>
-    <t>Account 39946does not exist!!!</t>
-  </si>
-  <si>
-    <t>test desc</t>
-  </si>
-  <si>
-    <t>%^&amp;</t>
-  </si>
-  <si>
-    <t>Amount greater than balance in payer's account</t>
-  </si>
-  <si>
-    <t>Transfer Failed. Account Balance low!!</t>
-  </si>
-  <si>
-    <t>Fund Transfer Details</t>
-  </si>
-  <si>
-    <t>Description exceeding 20 characters</t>
-  </si>
-  <si>
-    <t>Payers Account Number must not be blank</t>
-  </si>
-  <si>
-    <t>Payees Account Number must not be blank</t>
-  </si>
-  <si>
-    <t>Payers Account Number must not be blankPayees Account Number must not be blankAmount field must not be blankDescription can not be blank</t>
-  </si>
-  <si>
-    <t>description exceed 20</t>
-  </si>
-  <si>
-    <t>%^^*</t>
-  </si>
-  <si>
-    <t>same accounts</t>
-  </si>
-  <si>
-    <t>Adding a customer with direct link without logging in</t>
-  </si>
-  <si>
-    <t>Jishna</t>
-  </si>
-  <si>
-    <t>6 9th cross MK road</t>
-  </si>
-  <si>
-    <t>jishna@test.com</t>
-  </si>
-  <si>
-    <t>Editing a customer with direct link without logging in</t>
-  </si>
-  <si>
-    <t>Deleting a customer id with direct link without logging in</t>
-  </si>
-  <si>
-    <t>You are not authorize to get Balance details of this account!!</t>
-  </si>
-  <si>
-    <t>not found page</t>
-  </si>
-  <si>
-    <t>You are not authorize to do fund transfer!!</t>
-  </si>
-  <si>
-    <t>You are not authorize to delete this Account!!</t>
-  </si>
-  <si>
-    <t>You are not authorize to edit this Account!!</t>
-  </si>
-  <si>
-    <t>Blank page</t>
-  </si>
-  <si>
-    <t>current</t>
-  </si>
-  <si>
-    <t>Change savings to current</t>
-  </si>
-  <si>
-    <t>Change savings to savings</t>
-  </si>
-  <si>
-    <t>Change current to savings</t>
-  </si>
-  <si>
-    <t>Change current to current</t>
-  </si>
-  <si>
-    <t>No Changes made to Account records</t>
-  </si>
-  <si>
-    <t>Account details updated Successfully!!!</t>
-  </si>
-  <si>
-    <t>Change account type of the account created  by a different manager</t>
-  </si>
-  <si>
-    <t>Last Five Transaction Details for Account No</t>
-  </si>
-  <si>
-    <t>fromdate</t>
-  </si>
-  <si>
-    <t>todate</t>
-  </si>
-  <si>
-    <t>mintransval</t>
-  </si>
-  <si>
-    <t>numoftrans</t>
-  </si>
-  <si>
-    <t>Blank from date</t>
-  </si>
-  <si>
-    <t>Future from date</t>
-  </si>
-  <si>
-    <t>Blank to date</t>
-  </si>
-  <si>
-    <t>Past to date</t>
-  </si>
-  <si>
-    <t>FromDate field should be lower than ToDate field!!</t>
-  </si>
-  <si>
-    <t>From Date Field must not be blank</t>
-  </si>
-  <si>
-    <t>To Date Field must not be blank</t>
-  </si>
-  <si>
-    <t>Blank min trans value</t>
-  </si>
-  <si>
-    <t>Only spaces in min trans value</t>
-  </si>
-  <si>
-    <t>Characters in min trans value</t>
-  </si>
-  <si>
-    <t>Special characters in min trans value</t>
-  </si>
-  <si>
-    <t>No Transaction details found !!!</t>
-  </si>
-  <si>
-    <t>Minimum transaction value exceeding the actual transaction values</t>
-  </si>
-  <si>
-    <t>Blank number of trans</t>
-  </si>
-  <si>
-    <t>Only spaces in number of trans</t>
-  </si>
-  <si>
-    <t>Characters in number of trans</t>
-  </si>
-  <si>
-    <t>Special characters in number of trans</t>
-  </si>
-  <si>
-    <t>Number of transactions is zero</t>
-  </si>
-  <si>
-    <t>mngr137461</t>
-  </si>
-  <si>
-    <t>Guru@2018</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/V5/</t>
-  </si>
-  <si>
-    <t>User is not valid</t>
-  </si>
-  <si>
-    <t>Pass - Guru99 Bank Manager HomePage</t>
-  </si>
-  <si>
-    <t>Pass - User is not valid</t>
-  </si>
-  <si>
-    <t>Pass - User-ID must not be blank</t>
-  </si>
-  <si>
-    <t>Pass - Password must not be blank</t>
-  </si>
-  <si>
-    <t>Pass - User-ID must not be blankPassword must not be blank</t>
-  </si>
-  <si>
-    <t>Pass - You Have Succesfully Logged Out!!</t>
-  </si>
-  <si>
-    <t>Pass - Customer Registered Successfully!!!</t>
-  </si>
-  <si>
-    <t>72172</t>
-  </si>
-  <si>
-    <t>Pass - Customer details updated Successfully!!!</t>
-  </si>
-  <si>
-    <t>Pass - No Changes made to Customer records</t>
-  </si>
-  <si>
-    <t>Pass - Customer ID is required</t>
-  </si>
-  <si>
-    <t>Pass - You are not authorize to edit this customer!!</t>
-  </si>
-  <si>
-    <t>Pass - Customer deleted Successfully</t>
-  </si>
-  <si>
-    <t>Pass - You are not authorize to delete this customer!!</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/V5/manager/addcustomerpage.php</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/V5/manager/EditCustomer.php</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/V5/manager/DeleteCustomerInput.php</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/V5/manager/addAccount.php</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/V5/manager/editAccount.php</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/V5/manager/deleteAccountInput.php</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/V5/manager/DepositInput.php</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/V5/manager/WithdrawalInput.php</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/V5/manager/FundTransInput.php</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/V5/manager/PasswordInput.php</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/V5/manager/BalEnqInput.php</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/V5/manager/MiniStatementInput.php</t>
-  </si>
-  <si>
-    <t>http://demo.guru99.com/V5/manager/CustomisedStatementInput.php</t>
-  </si>
-  <si>
-    <t>Pass - Customer could not be deleted!!. First delete all accounts of this customer then delete the customer</t>
+    <t>44420</t>
+  </si>
+  <si>
+    <t>44421</t>
+  </si>
+  <si>
+    <t>44422</t>
+  </si>
+  <si>
+    <t>44423</t>
+  </si>
+  <si>
+    <t>44424</t>
+  </si>
+  <si>
+    <t>44425</t>
+  </si>
+  <si>
+    <t>Pass - You are not authorize to Add Account for this Customer</t>
+  </si>
+  <si>
+    <t>44426</t>
+  </si>
+  <si>
+    <t>44427</t>
+  </si>
+  <si>
+    <t>44428</t>
+  </si>
+  <si>
+    <t>44429</t>
+  </si>
+  <si>
+    <t>Pass - Intial deposite must be Rs. 500 or more</t>
+  </si>
+  <si>
+    <t>44433</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2037,7 +2111,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="65">
+  <fills count="92">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2086,16 +2160,6 @@
     <fill>
       <patternFill patternType="none">
         <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
       </patternFill>
     </fill>
     <fill>
@@ -2363,8 +2427,153 @@
         <fgColor indexed="57"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="96">
+  <borders count="132">
     <border>
       <left/>
       <right/>
@@ -3168,36 +3377,6 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="8"/>
@@ -3771,6 +3950,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="8"/>
       </left>
@@ -3785,188 +3973,669 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+  <cellXfs count="177">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="3" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="4" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="7" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="8" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="10" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="21" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="26" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="27" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="38" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="28" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="29" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="30" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="6" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="9" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="12" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="13" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="14" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="15" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="16" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="17" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="18" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="19" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="20" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="22" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="23" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="24" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="25" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="37" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="31" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="32" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="33" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="34" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="35" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="36" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="39" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="40" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="41" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="42" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="43" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="44" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="45" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="46" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="47" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="48" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="9" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="49" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="50" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="51" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="52" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="53" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="36" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="54" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="55" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="56" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="57" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="59" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="65" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="69" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="71" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="73" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="74" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="75" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="76" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="77" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="78" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="79" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="80" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="81" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="82" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="83" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="84" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="85" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="86" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="87" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="88" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="89" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="90" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="91" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="92" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="93" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="94" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="95" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="60" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="26" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="26" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="26" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="58" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="61" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="62" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="63" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="64" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="65" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="66" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="67" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="68" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="69" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="70" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="71" fillId="40" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="72" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="73" fillId="42" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="74" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="75" fillId="44" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="76" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="77" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="78" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="79" fillId="48" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="80" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="81" fillId="50" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="82" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="83" fillId="52" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="9" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="84" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="85" fillId="54" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="86" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="87" fillId="56" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="88" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="89" fillId="58" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="90" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="91" fillId="60" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="92" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="2" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="94" fillId="62" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="95" fillId="63" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="96" fillId="64" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="97" fillId="65" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="98" fillId="66" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="99" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="100" fillId="68" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="101" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="102" fillId="70" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="97" fillId="65" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" borderId="103" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="104" fillId="72" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="105" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="106" fillId="74" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="107" fillId="75" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="108" fillId="76" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="109" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="110" fillId="78" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="111" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="112" fillId="80" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="113" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="114" fillId="82" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="115" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="93" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="123" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="123" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="89" borderId="131" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="91" borderId="131" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3983,10 +4652,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4021,7 +4690,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -4056,7 +4725,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -4150,21 +4819,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -4181,7 +4850,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -4233,26 +4902,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:J62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:K62"/>
   <sheetViews>
-    <sheetView topLeftCell="E14" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F39" sqref="F39:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="37.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.109375" style="23" collapsed="1"/>
-    <col min="8" max="8" width="58" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="46.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" customWidth="true" width="37.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="47.109375" collapsed="true"/>
+    <col min="7" max="7" style="23" width="9.109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="58.0" collapsed="true"/>
+    <col min="9" max="10" bestFit="true" customWidth="true" width="46.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
@@ -4269,8 +4940,8 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="12"/>
-      <c r="H7" s="146" t="s">
-        <v>549</v>
+      <c r="H7" s="143" t="s">
+        <v>546</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>325</v>
@@ -4281,8 +4952,8 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
-      <c r="H8" s="109" t="s">
-        <v>550</v>
+      <c r="H8" s="106" t="s">
+        <v>547</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>326</v>
@@ -4293,8 +4964,8 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="24"/>
-      <c r="H9" s="109" t="s">
-        <v>551</v>
+      <c r="H9" s="106" t="s">
+        <v>548</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>327</v>
@@ -4316,105 +4987,105 @@
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="14"/>
       <c r="H11" s="51" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I11" s="51"/>
-      <c r="J11" s="108" t="s">
-        <v>499</v>
+      <c r="J11" s="105" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="25"/>
       <c r="H12" s="51" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="I12" s="51"/>
       <c r="J12" s="51" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="110"/>
+      <c r="B13" s="107"/>
       <c r="H13" s="51" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="I13" s="51"/>
       <c r="J13" s="51" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="110"/>
+      <c r="B14" s="107"/>
       <c r="H14" s="51" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="I14" s="51"/>
       <c r="J14" s="51" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="110"/>
+      <c r="B15" s="107"/>
       <c r="H15" s="51" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="I15" s="51"/>
       <c r="J15" s="51" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="110"/>
+      <c r="B16" s="107"/>
       <c r="H16" s="51" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="I16" s="51"/>
       <c r="J16" s="51" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="110"/>
+      <c r="B17" s="107"/>
       <c r="H17" s="51" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="I17" s="51"/>
       <c r="J17" s="51" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="110"/>
+      <c r="B18" s="107"/>
       <c r="H18" s="51" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="I18" s="51"/>
       <c r="J18" s="51" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="15"/>
       <c r="H19" s="51" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="I19" s="51"/>
       <c r="J19" s="51" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="26"/>
       <c r="H20" s="51" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="I20" s="51"/>
       <c r="J20" s="51" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="110"/>
+      <c r="B21" s="107"/>
       <c r="H21" s="51"/>
       <c r="I21" s="51"/>
       <c r="J21" s="51"/>
@@ -4425,7 +5096,7 @@
       <c r="I22" s="51"/>
       <c r="J22" s="51"/>
     </row>
-    <row r="23" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row ht="15.6" r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="28"/>
       <c r="H23" s="57" t="s">
         <v>328</v>
@@ -4437,79 +5108,79 @@
         <v>330</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row ht="15.6" r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="29"/>
-      <c r="H24" s="150">
+      <c r="H24" s="171">
         <v>96501</v>
       </c>
-      <c r="I24" s="73">
+      <c r="I24" s="71">
         <v>44363</v>
       </c>
       <c r="J24" s="56"/>
     </row>
-    <row r="25" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row ht="15.6" r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="59"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="73"/>
+      <c r="H25" s="171"/>
+      <c r="I25" s="71"/>
       <c r="J25" s="56"/>
     </row>
-    <row r="26" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row ht="15.6" r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="59"/>
-      <c r="H26" s="150"/>
+      <c r="H26" s="171"/>
       <c r="I26" s="1"/>
       <c r="J26" s="56"/>
     </row>
-    <row r="27" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="78"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="79"/>
+    <row ht="15.6" r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="76"/>
+      <c r="H27" s="171"/>
+      <c r="I27" s="77"/>
       <c r="J27" s="56"/>
     </row>
-    <row r="28" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="78"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="79"/>
+    <row ht="15.6" r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="76"/>
+      <c r="H28" s="171"/>
+      <c r="I28" s="77"/>
       <c r="J28" s="56"/>
     </row>
-    <row r="29" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row ht="15.6" r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="59"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="79"/>
+      <c r="H29" s="171"/>
+      <c r="I29" s="77"/>
       <c r="J29" s="56"/>
     </row>
-    <row r="30" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row ht="15.6" r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="16"/>
-      <c r="H30" s="149"/>
+      <c r="H30" s="170"/>
       <c r="I30" s="56"/>
       <c r="J30" s="56"/>
     </row>
-    <row r="31" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row ht="15.6" r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="17"/>
-      <c r="H31" s="149"/>
+      <c r="H31" s="170"/>
       <c r="I31" s="56"/>
       <c r="J31" s="56"/>
     </row>
-    <row r="32" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row ht="15.6" r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="18"/>
-      <c r="H32" s="149"/>
+      <c r="H32" s="170"/>
       <c r="I32" s="56"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="19"/>
-      <c r="H33" s="149"/>
+      <c r="H33" s="170"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="20"/>
-      <c r="H34" s="149"/>
+      <c r="H34" s="170"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="21"/>
-      <c r="H35" s="149"/>
+      <c r="H35" s="170"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
@@ -4521,72 +5192,135 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="31"/>
+      <c r="E38" s="172" t="s">
+        <v>561</v>
+      </c>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="32"/>
+      <c r="E39" s="172"/>
+      <c r="F39" s="145" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="33"/>
+      <c r="E40" s="172"/>
+      <c r="F40" s="145" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="34"/>
+      <c r="E41" s="172"/>
+      <c r="F41" s="145" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="35"/>
+      <c r="E42" s="172"/>
+      <c r="F42" s="145" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E43" s="172"/>
+      <c r="F43" s="145" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="36"/>
+      <c r="E44" s="172"/>
+      <c r="F44" s="145" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="37"/>
+      <c r="E45" s="172"/>
+      <c r="F45" s="145" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="38"/>
+      <c r="E46" s="172"/>
+      <c r="F46" s="145" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="39"/>
+      <c r="E47" s="172"/>
+      <c r="F47" s="145" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="40"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="E48" s="172"/>
+      <c r="F48" s="145" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E49" s="172"/>
+      <c r="F49" s="145" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E50" s="172"/>
+      <c r="F50" s="145" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="41"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="E51" s="172"/>
+      <c r="F51" s="146" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="42"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="43"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="44"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="45"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="46"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="H30:H32"/>
     <mergeCell ref="H24:H29"/>
     <mergeCell ref="H33:H35"/>
+    <mergeCell ref="E38:E51"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H7" r:id="rId1" display="http://demo.guru99.com/v4/manager/addcustomerpage.php" xr:uid="{5475507B-EF53-4435-967A-8E1DB25565D1}"/>
+    <hyperlink display="http://demo.guru99.com/v4/manager/addcustomerpage.php" r:id="rId1" ref="H7" xr:uid="{5475507B-EF53-4435-967A-8E1DB25565D1}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:I22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -4594,11 +5328,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="87.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.44140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="20.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="87.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -4612,19 +5346,19 @@
         <v>362</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -4635,28 +5369,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C2" s="80">
+        <v>380</v>
+      </c>
+      <c r="C2" s="78">
         <v>39947</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E2" s="50">
         <v>200</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H2" s="50" t="s">
-        <v>448</v>
-      </c>
-      <c r="I2" s="93" t="s">
-        <v>393</v>
+        <v>445</v>
+      </c>
+      <c r="I2" s="91" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -4664,28 +5398,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C3" s="48">
         <v>39948</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E3" s="50">
         <v>400</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>449</v>
-      </c>
-      <c r="I3" s="94" t="s">
-        <v>393</v>
+        <v>446</v>
+      </c>
+      <c r="I3" s="92" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -4693,28 +5427,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C4" s="48">
         <v>39949</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E4" s="50">
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H4" s="50" t="s">
         <v>447</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>450</v>
-      </c>
-      <c r="I4" s="95" t="s">
-        <v>393</v>
+      <c r="I4" s="93" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -4732,13 +5466,13 @@
         <v>100</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -4757,13 +5491,13 @@
         <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -4773,7 +5507,7 @@
         <v>367</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D7" s="1">
         <v>500</v>
@@ -4782,13 +5516,13 @@
         <v>100</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -4798,7 +5532,7 @@
         <v>368</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D8" s="1">
         <v>500</v>
@@ -4807,20 +5541,20 @@
         <v>100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C9" s="1">
         <v>39946</v>
@@ -4832,20 +5566,20 @@
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C10" s="1">
         <v>39908</v>
@@ -4857,20 +5591,20 @@
         <v>100</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
+        <v>435</v>
+      </c>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="89" t="s">
-        <v>422</v>
+      <c r="B11" s="87" t="s">
+        <v>419</v>
       </c>
       <c r="C11" s="1">
         <v>39947</v>
@@ -4880,10 +5614,10 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -4892,8 +5626,8 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="89" t="s">
-        <v>423</v>
+      <c r="B12" s="87" t="s">
+        <v>420</v>
       </c>
       <c r="C12" s="1">
         <v>39947</v>
@@ -4905,7 +5639,7 @@
         <v>302</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>129</v>
@@ -4917,8 +5651,8 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="89" t="s">
-        <v>424</v>
+      <c r="B13" s="87" t="s">
+        <v>421</v>
       </c>
       <c r="C13" s="1">
         <v>39947</v>
@@ -4927,10 +5661,10 @@
         <v>990</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>129</v>
@@ -4942,8 +5676,8 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="89" t="s">
-        <v>425</v>
+      <c r="B14" s="87" t="s">
+        <v>422</v>
       </c>
       <c r="C14" s="1">
         <v>39947</v>
@@ -4952,10 +5686,10 @@
         <v>990</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>119</v>
@@ -4967,10 +5701,10 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="89" t="s">
-        <v>445</v>
-      </c>
-      <c r="C15" s="91">
+      <c r="B15" s="87" t="s">
+        <v>442</v>
+      </c>
+      <c r="C15" s="89">
         <v>39978</v>
       </c>
       <c r="D15" s="1">
@@ -4980,10 +5714,10 @@
         <v>100000000</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -4992,8 +5726,8 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="89" t="s">
-        <v>427</v>
+      <c r="B16" s="87" t="s">
+        <v>424</v>
       </c>
       <c r="C16" s="1">
         <v>39947</v>
@@ -5006,7 +5740,7 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -5015,10 +5749,10 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="89" t="s">
-        <v>429</v>
-      </c>
-      <c r="C17" s="80">
+      <c r="B17" s="87" t="s">
+        <v>426</v>
+      </c>
+      <c r="C17" s="78">
         <v>39974</v>
       </c>
       <c r="D17" s="1">
@@ -5031,7 +5765,7 @@
         <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -5040,10 +5774,10 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="89" t="s">
-        <v>430</v>
-      </c>
-      <c r="C18" s="80">
+      <c r="B18" s="87" t="s">
+        <v>427</v>
+      </c>
+      <c r="C18" s="78">
         <v>39975</v>
       </c>
       <c r="D18" s="1">
@@ -5056,7 +5790,7 @@
         <v>123345</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -5065,10 +5799,10 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="89" t="s">
-        <v>431</v>
-      </c>
-      <c r="C19" s="80">
+      <c r="B19" s="87" t="s">
+        <v>428</v>
+      </c>
+      <c r="C19" s="78">
         <v>39976</v>
       </c>
       <c r="D19" s="1">
@@ -5078,10 +5812,10 @@
         <v>200</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -5090,10 +5824,10 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="89" t="s">
-        <v>433</v>
-      </c>
-      <c r="C20" s="80">
+      <c r="B20" s="87" t="s">
+        <v>430</v>
+      </c>
+      <c r="C20" s="78">
         <v>39977</v>
       </c>
       <c r="D20" s="1">
@@ -5103,10 +5837,10 @@
         <v>100</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>437</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -5115,25 +5849,25 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="89" t="s">
-        <v>435</v>
+      <c r="B21" s="87" t="s">
+        <v>432</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="89">
+      <c r="A22" s="87">
         <v>21</v>
       </c>
-      <c r="B22" s="89" t="s">
-        <v>444</v>
+      <c r="B22" s="87" t="s">
+        <v>441</v>
       </c>
       <c r="C22" s="1">
         <v>39979</v>
@@ -5145,24 +5879,24 @@
         <v>855</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:H28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
@@ -5170,11 +5904,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="133.5546875" style="102" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="99" width="133.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -5185,18 +5919,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="G1" s="100" t="s">
+        <v>398</v>
+      </c>
+      <c r="G1" s="97" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -5208,18 +5942,18 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
+        <v>380</v>
+      </c>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
       <c r="E2" s="1">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="G2" s="99" t="s">
-        <v>480</v>
+        <v>473</v>
+      </c>
+      <c r="G2" s="96" t="s">
+        <v>477</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -5228,18 +5962,18 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
+        <v>381</v>
+      </c>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
       <c r="E3" s="1">
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="G3" s="99" t="s">
-        <v>480</v>
+        <v>473</v>
+      </c>
+      <c r="G3" s="96" t="s">
+        <v>477</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -5248,7 +5982,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C4" s="1">
         <v>12345</v>
@@ -5260,10 +5994,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="G4" s="101" t="s">
-        <v>453</v>
+        <v>484</v>
+      </c>
+      <c r="G4" s="98" t="s">
+        <v>450</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -5272,7 +6006,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
@@ -5280,10 +6014,10 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G5" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -5292,17 +6026,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D6" s="1">
         <v>12345</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G6" t="s">
         <v>129</v>
@@ -5314,17 +6048,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D7" s="1">
         <v>12345</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G7" t="s">
         <v>129</v>
@@ -5336,17 +6070,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D8" s="1">
         <v>12345</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G8" t="s">
         <v>119</v>
@@ -5358,7 +6092,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C9" s="1">
         <v>98765</v>
@@ -5366,10 +6100,10 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="G9" s="101" t="s">
-        <v>472</v>
+        <v>473</v>
+      </c>
+      <c r="G9" s="98" t="s">
+        <v>469</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -5378,7 +6112,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C10" s="1">
         <v>39946</v>
@@ -5386,10 +6120,10 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="G10" s="101" t="s">
-        <v>475</v>
+        <v>473</v>
+      </c>
+      <c r="G10" s="98" t="s">
+        <v>472</v>
       </c>
       <c r="H10" s="1"/>
     </row>
@@ -5398,7 +6132,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C11" s="1">
         <v>12345</v>
@@ -5406,10 +6140,10 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G11" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H11" s="1"/>
     </row>
@@ -5418,17 +6152,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C12" s="1">
         <v>12345</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G12" t="s">
         <v>129</v>
@@ -5440,17 +6174,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C13" s="1">
         <v>12345</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G13" t="s">
         <v>129</v>
@@ -5462,17 +6196,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C14" s="1">
         <v>12345</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G14" t="s">
         <v>119</v>
@@ -5484,7 +6218,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
@@ -5492,10 +6226,10 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="G15" s="101" t="s">
-        <v>472</v>
+        <v>473</v>
+      </c>
+      <c r="G15" s="98" t="s">
+        <v>469</v>
       </c>
       <c r="H15" s="1"/>
     </row>
@@ -5504,7 +6238,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
@@ -5512,10 +6246,10 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="G16" s="101" t="s">
-        <v>475</v>
+        <v>473</v>
+      </c>
+      <c r="G16" s="98" t="s">
+        <v>472</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -5523,8 +6257,8 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="89" t="s">
-        <v>422</v>
+      <c r="B17" s="87" t="s">
+        <v>419</v>
       </c>
       <c r="C17" s="1">
         <v>12345</v>
@@ -5534,10 +6268,10 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="G17" s="102" t="s">
-        <v>426</v>
+        <v>473</v>
+      </c>
+      <c r="G17" s="99" t="s">
+        <v>423</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -5545,8 +6279,8 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="89" t="s">
-        <v>423</v>
+      <c r="B18" s="87" t="s">
+        <v>420</v>
       </c>
       <c r="C18" s="1">
         <v>12345</v>
@@ -5555,12 +6289,12 @@
         <v>12345</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="G18" s="102" t="s">
+      <c r="G18" s="99" t="s">
         <v>129</v>
       </c>
       <c r="H18" s="1"/>
@@ -5569,8 +6303,8 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="89" t="s">
-        <v>424</v>
+      <c r="B19" s="87" t="s">
+        <v>421</v>
       </c>
       <c r="C19" s="1">
         <v>12345</v>
@@ -5579,12 +6313,12 @@
         <v>12345</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="G19" s="102" t="s">
+        <v>473</v>
+      </c>
+      <c r="G19" s="99" t="s">
         <v>129</v>
       </c>
       <c r="H19" s="1"/>
@@ -5593,8 +6327,8 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="89" t="s">
-        <v>425</v>
+      <c r="B20" s="87" t="s">
+        <v>422</v>
       </c>
       <c r="C20" s="1">
         <v>12345</v>
@@ -5603,12 +6337,12 @@
         <v>12345</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="G20" s="102" t="s">
+        <v>473</v>
+      </c>
+      <c r="G20" s="99" t="s">
         <v>119</v>
       </c>
       <c r="H20" s="1"/>
@@ -5617,8 +6351,8 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="89" t="s">
-        <v>478</v>
+      <c r="B21" s="87" t="s">
+        <v>475</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -5626,10 +6360,10 @@
         <v>99999999</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G21" s="98" t="s">
         <v>476</v>
-      </c>
-      <c r="G21" s="101" t="s">
-        <v>479</v>
       </c>
       <c r="H21" s="1"/>
     </row>
@@ -5637,8 +6371,8 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="89" t="s">
-        <v>427</v>
+      <c r="B22" s="87" t="s">
+        <v>424</v>
       </c>
       <c r="C22" s="1">
         <v>12345</v>
@@ -5650,8 +6384,8 @@
         <v>10</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="102" t="s">
-        <v>428</v>
+      <c r="G22" s="99" t="s">
+        <v>425</v>
       </c>
       <c r="H22" s="1"/>
     </row>
@@ -5659,19 +6393,19 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="89" t="s">
-        <v>429</v>
-      </c>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
+      <c r="B23" s="87" t="s">
+        <v>426</v>
+      </c>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="G23" s="101" t="s">
-        <v>480</v>
+        <v>386</v>
+      </c>
+      <c r="G23" s="98" t="s">
+        <v>477</v>
       </c>
       <c r="H23" s="1"/>
     </row>
@@ -5679,19 +6413,19 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="89" t="s">
-        <v>430</v>
-      </c>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
+      <c r="B24" s="87" t="s">
+        <v>427</v>
+      </c>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="1">
         <v>908</v>
       </c>
-      <c r="G24" s="101" t="s">
-        <v>480</v>
+      <c r="G24" s="98" t="s">
+        <v>477</v>
       </c>
       <c r="H24" s="1"/>
     </row>
@@ -5699,19 +6433,19 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="89" t="s">
-        <v>431</v>
-      </c>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
+      <c r="B25" s="87" t="s">
+        <v>428</v>
+      </c>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="G25" s="101" t="s">
-        <v>480</v>
+        <v>483</v>
+      </c>
+      <c r="G25" s="98" t="s">
+        <v>477</v>
       </c>
       <c r="H25" s="1"/>
     </row>
@@ -5719,19 +6453,19 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="89" t="s">
-        <v>481</v>
-      </c>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
+      <c r="B26" s="87" t="s">
+        <v>478</v>
+      </c>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="G26" s="101" t="s">
-        <v>480</v>
+        <v>482</v>
+      </c>
+      <c r="G26" s="98" t="s">
+        <v>477</v>
       </c>
       <c r="H26" s="1"/>
     </row>
@@ -5739,30 +6473,30 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="89" t="s">
-        <v>468</v>
+      <c r="B27" s="87" t="s">
+        <v>465</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="101" t="s">
-        <v>484</v>
+      <c r="G27" s="98" t="s">
+        <v>481</v>
       </c>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="98"/>
+      <c r="A28" s="95"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:S15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B9"/>
@@ -5770,9 +6504,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="34.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="32.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -5789,7 +6523,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
@@ -5800,19 +6534,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C2" s="1">
         <v>39905</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="F2" s="64" t="s">
-        <v>393</v>
+        <v>402</v>
+      </c>
+      <c r="F2" s="62" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -5820,19 +6554,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C3" s="1">
         <v>39906</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>394</v>
-      </c>
-      <c r="F3" s="65" t="s">
-        <v>393</v>
+        <v>391</v>
+      </c>
+      <c r="F3" s="63" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -5847,10 +6581,10 @@
         <v>365</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>379</v>
-      </c>
-      <c r="F4" s="66" t="s">
-        <v>395</v>
+        <v>376</v>
+      </c>
+      <c r="F4" s="64" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -5858,19 +6592,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>379</v>
-      </c>
-      <c r="F5" s="67" t="s">
-        <v>396</v>
+        <v>376</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -5881,16 +6615,16 @@
         <v>367</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="F6" s="68" t="s">
-        <v>396</v>
+        <v>376</v>
+      </c>
+      <c r="F6" s="66" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -5901,16 +6635,16 @@
         <v>368</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="F7" s="69" t="s">
-        <v>397</v>
+        <v>376</v>
+      </c>
+      <c r="F7" s="67" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -5918,7 +6652,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C8" s="1">
         <v>39276</v>
@@ -5927,10 +6661,10 @@
         <v>374</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="F8" s="70" t="s">
-        <v>398</v>
+        <v>376</v>
+      </c>
+      <c r="F8" s="68" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -5938,7 +6672,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C9" s="1">
         <v>34587690128</v>
@@ -5947,37 +6681,37 @@
         <v>374</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="F9" s="71" t="s">
-        <v>398</v>
+        <v>376</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="S13" s="63" t="s">
+      <c r="S13" s="61" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="S14" s="63" t="s">
+      <c r="S14" s="61" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S15" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E9"/>
@@ -5985,9 +6719,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="40.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="34.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="40.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -6012,11 +6746,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -6025,11 +6759,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -6049,10 +6783,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>129</v>
@@ -6067,7 +6801,7 @@
         <v>367</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>129</v>
@@ -6082,7 +6816,7 @@
         <v>368</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>119</v>
@@ -6094,7 +6828,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C8" s="1">
         <v>39946</v>
@@ -6109,7 +6843,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C9" s="1">
         <v>1234589087</v>
@@ -6120,13 +6854,13 @@
       <c r="E9" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:I23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -6134,9 +6868,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="47.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="34.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="47.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -6150,16 +6884,16 @@
         <v>362</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>509</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>512</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>15</v>
@@ -6173,7 +6907,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -6181,7 +6915,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -6190,7 +6924,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -6198,7 +6932,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -6222,10 +6956,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -6244,7 +6978,7 @@
         <v>367</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -6263,7 +6997,7 @@
         <v>368</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -6279,7 +7013,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C8" s="1">
         <v>39946</v>
@@ -6298,7 +7032,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C9" s="1">
         <v>1234589087</v>
@@ -6316,8 +7050,8 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="89" t="s">
-        <v>513</v>
+      <c r="B10" s="87" t="s">
+        <v>510</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -6325,7 +7059,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="I10" s="1"/>
     </row>
@@ -6333,8 +7067,8 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="89" t="s">
-        <v>514</v>
+      <c r="B11" s="87" t="s">
+        <v>511</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -6342,7 +7076,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -6350,8 +7084,8 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="89" t="s">
-        <v>515</v>
+      <c r="B12" s="87" t="s">
+        <v>512</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -6359,7 +7093,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="I12" s="1"/>
     </row>
@@ -6367,8 +7101,8 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="89" t="s">
-        <v>516</v>
+      <c r="B13" s="87" t="s">
+        <v>513</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -6376,7 +7110,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="I13" s="1"/>
     </row>
@@ -6384,8 +7118,8 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="89" t="s">
-        <v>520</v>
+      <c r="B14" s="87" t="s">
+        <v>517</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -6393,7 +7127,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I14" s="1"/>
     </row>
@@ -6401,8 +7135,8 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="89" t="s">
-        <v>521</v>
+      <c r="B15" s="87" t="s">
+        <v>518</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -6418,8 +7152,8 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="89" t="s">
-        <v>522</v>
+      <c r="B16" s="87" t="s">
+        <v>519</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -6435,8 +7169,8 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="89" t="s">
-        <v>523</v>
+      <c r="B17" s="87" t="s">
+        <v>520</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -6452,8 +7186,8 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="89" t="s">
-        <v>525</v>
+      <c r="B18" s="87" t="s">
+        <v>522</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -6461,7 +7195,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="I18" s="1"/>
     </row>
@@ -6469,8 +7203,8 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="89" t="s">
-        <v>526</v>
+      <c r="B19" s="87" t="s">
+        <v>523</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -6478,7 +7212,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I19" s="1"/>
     </row>
@@ -6486,8 +7220,8 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="89" t="s">
-        <v>527</v>
+      <c r="B20" s="87" t="s">
+        <v>524</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -6503,8 +7237,8 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="89" t="s">
-        <v>528</v>
+      <c r="B21" s="87" t="s">
+        <v>525</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -6520,8 +7254,8 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="89" t="s">
-        <v>529</v>
+      <c r="B22" s="87" t="s">
+        <v>526</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -6537,8 +7271,8 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="89" t="s">
-        <v>530</v>
+      <c r="B23" s="87" t="s">
+        <v>527</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -6546,35 +7280,35 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="I23" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="51.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="55.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="51.109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="55.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -6608,19 +7342,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="148" t="s">
-        <v>535</v>
+      <c r="G2" s="175" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -6631,7 +7365,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -6640,10 +7374,10 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="G3" s="113" t="s">
-        <v>536</v>
+        <v>531</v>
+      </c>
+      <c r="G3" s="110" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -6654,19 +7388,19 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="G4" s="114" t="s">
-        <v>536</v>
+        <v>531</v>
+      </c>
+      <c r="G4" s="111" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -6677,7 +7411,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -6686,10 +7420,10 @@
         <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="G5" s="115" t="s">
-        <v>536</v>
+        <v>531</v>
+      </c>
+      <c r="G5" s="112" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -6700,7 +7434,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="4" t="s">
@@ -6709,8 +7443,8 @@
       <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="116" t="s">
-        <v>537</v>
+      <c r="G6" s="113" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -6721,17 +7455,17 @@
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="117" t="s">
-        <v>538</v>
+      <c r="G7" s="114" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -6742,15 +7476,15 @@
         <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="118" t="s">
-        <v>539</v>
+      <c r="G8" s="115" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -6758,70 +7492,70 @@
         <v>8</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="G9" s="119" t="s">
-        <v>540</v>
+        <v>378</v>
+      </c>
+      <c r="G9" s="116" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C10" s="112"/>
+      <c r="C10" s="109"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C11" s="112"/>
+      <c r="C11" s="109"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C12" s="112"/>
+      <c r="C12" s="109"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C13" s="112"/>
+      <c r="C13" s="109"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{A1042357-F7A5-452E-853D-7E0B1747F9AB}"/>
-    <hyperlink ref="E9" r:id="rId2" xr:uid="{93B52504-CADC-47D5-B084-8E8874572F05}"/>
+    <hyperlink r:id="rId1" ref="E2" xr:uid="{A1042357-F7A5-452E-853D-7E0B1747F9AB}"/>
+    <hyperlink r:id="rId2" ref="E9" xr:uid="{93B52504-CADC-47D5-B084-8E8874572F05}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
-    <tabColor theme="9"/>
+    <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="52.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.6640625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="66.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="33.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="39.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="52.88671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="7" width="10.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="33.5546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="39.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -6911,11 +7645,11 @@
       <c r="M2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N2" s="120" t="s">
-        <v>542</v>
-      </c>
-      <c r="O2" s="120" t="s">
-        <v>541</v>
+      <c r="N2" s="117" t="s">
+        <v>539</v>
+      </c>
+      <c r="O2" s="117" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -8983,42 +9717,42 @@
       <c r="M51" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="N51" s="104"/>
+      <c r="N51" s="101"/>
       <c r="O51" s="50"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="89"/>
-      <c r="B52" s="106" t="s">
-        <v>488</v>
-      </c>
-      <c r="C52" s="89" t="s">
-        <v>489</v>
-      </c>
-      <c r="D52" s="89" t="s">
+      <c r="A52" s="87"/>
+      <c r="B52" s="103" t="s">
+        <v>485</v>
+      </c>
+      <c r="C52" s="87" t="s">
+        <v>486</v>
+      </c>
+      <c r="D52" s="87" t="s">
         <v>38</v>
       </c>
       <c r="E52" s="5">
         <v>30537</v>
       </c>
-      <c r="F52" s="89" t="s">
-        <v>490</v>
-      </c>
-      <c r="G52" s="89" t="s">
+      <c r="F52" s="87" t="s">
+        <v>487</v>
+      </c>
+      <c r="G52" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="H52" s="89" t="s">
+      <c r="H52" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="I52" s="89">
+      <c r="I52" s="87">
         <v>667875</v>
       </c>
       <c r="J52" s="8">
         <v>9996278123</v>
       </c>
-      <c r="K52" s="105" t="s">
-        <v>491</v>
-      </c>
-      <c r="L52" s="89" t="s">
+      <c r="K52" s="102" t="s">
+        <v>488</v>
+      </c>
+      <c r="L52" s="87" t="s">
         <v>113</v>
       </c>
       <c r="M52" s="1" t="s">
@@ -9030,82 +9764,82 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="K3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="K4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="K5" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="K6" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="K7" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="K8" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="K9" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="K10" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="K11" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="K12" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="K13" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="K14" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="K15" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="K16" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="K17" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="K18" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="L48" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="K19" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="K20" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="K21" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="K22" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="K23" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="K24" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="K25" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink ref="K26" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink ref="K27" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="K28" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink ref="K29" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink ref="K30" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
-    <hyperlink ref="K31" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
-    <hyperlink ref="K32" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
-    <hyperlink ref="K33" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
-    <hyperlink ref="K34" r:id="rId34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
-    <hyperlink ref="K35" r:id="rId35" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
-    <hyperlink ref="K36" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
-    <hyperlink ref="K37" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
-    <hyperlink ref="K38" r:id="rId38" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
-    <hyperlink ref="K39" r:id="rId39" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
-    <hyperlink ref="K42" r:id="rId40" display="roo@test.com" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
-    <hyperlink ref="K43" r:id="rId41" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
-    <hyperlink ref="K44" r:id="rId42" display="dar@test.com" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
-    <hyperlink ref="K46" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
-    <hyperlink ref="K47" r:id="rId44" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
-    <hyperlink ref="K48" r:id="rId45" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
-    <hyperlink ref="K49" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
-    <hyperlink ref="K50" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
-    <hyperlink ref="K45" r:id="rId48" display="kei@test.com" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
-    <hyperlink ref="K12" r:id="rId49" display="simran@test.com" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
-    <hyperlink ref="K52" r:id="rId50" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
+    <hyperlink r:id="rId1" ref="K2" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink r:id="rId2" ref="K3" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink r:id="rId3" ref="K4" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink r:id="rId4" ref="K5" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink r:id="rId5" ref="K6" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink r:id="rId6" ref="K7" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink r:id="rId7" ref="K8" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink r:id="rId8" ref="K9" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink r:id="rId9" ref="K10" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink r:id="rId10" ref="K11" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink r:id="rId11" ref="K12" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink r:id="rId12" ref="K13" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink r:id="rId13" ref="K14" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink r:id="rId14" ref="K15" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink r:id="rId15" ref="K16" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink r:id="rId16" ref="K17" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink r:id="rId17" ref="K18" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink r:id="rId18" ref="L48" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink r:id="rId19" ref="K19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink r:id="rId20" ref="K20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink r:id="rId21" ref="K21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink r:id="rId22" ref="K22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink r:id="rId23" ref="K23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink r:id="rId24" ref="K24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink r:id="rId25" ref="K25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink r:id="rId26" ref="K26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink r:id="rId27" ref="K27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink r:id="rId28" ref="K28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink r:id="rId29" ref="K29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink r:id="rId30" ref="K30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink r:id="rId31" ref="K31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink r:id="rId32" ref="K32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink r:id="rId33" ref="K33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink r:id="rId34" ref="K34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink r:id="rId35" ref="K35" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink r:id="rId36" ref="K36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink r:id="rId37" ref="K37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink r:id="rId38" ref="K38" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink r:id="rId39" ref="K39" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
+    <hyperlink display="roo@test.com" r:id="rId40" ref="K42" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
+    <hyperlink r:id="rId41" ref="K43" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
+    <hyperlink display="dar@test.com" r:id="rId42" ref="K44" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
+    <hyperlink r:id="rId43" ref="K46" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink r:id="rId44" ref="K47" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
+    <hyperlink r:id="rId45" ref="K48" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
+    <hyperlink r:id="rId46" ref="K49" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
+    <hyperlink r:id="rId47" ref="K50" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
+    <hyperlink display="kei@test.com" r:id="rId48" ref="K45" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
+    <hyperlink display="simran@test.com" r:id="rId49" ref="K12" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
+    <hyperlink r:id="rId50" ref="K52" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId51"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="0" r:id="rId51"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="36" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="43.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="36.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="43.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -9151,7 +9885,7 @@
         <v>304</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>312</v>
@@ -9174,8 +9908,8 @@
       <c r="J2" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="K2" s="128" t="s">
-        <v>543</v>
+      <c r="K2" s="125" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -9186,7 +9920,7 @@
         <v>305</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>39</v>
@@ -9209,8 +9943,8 @@
       <c r="J3" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="K3" s="121" t="s">
-        <v>543</v>
+      <c r="K3" s="118" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -9221,7 +9955,7 @@
         <v>306</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>39</v>
@@ -9244,8 +9978,8 @@
       <c r="J4" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="K4" s="122" t="s">
-        <v>543</v>
+      <c r="K4" s="119" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -9256,7 +9990,7 @@
         <v>307</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>313</v>
@@ -9279,8 +10013,8 @@
       <c r="J5" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="K5" s="123" t="s">
-        <v>543</v>
+      <c r="K5" s="120" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -9291,7 +10025,7 @@
         <v>308</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>314</v>
@@ -9314,8 +10048,8 @@
       <c r="J6" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="K6" s="124" t="s">
-        <v>543</v>
+      <c r="K6" s="121" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -9326,7 +10060,7 @@
         <v>309</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>315</v>
@@ -9349,8 +10083,8 @@
       <c r="J7" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="K7" s="125" t="s">
-        <v>543</v>
+      <c r="K7" s="122" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -9361,7 +10095,7 @@
         <v>320</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>315</v>
@@ -9384,11 +10118,11 @@
       <c r="J8" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="K8" s="126" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K8" s="123" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -9396,7 +10130,7 @@
         <v>310</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -9407,8 +10141,8 @@
       <c r="J9" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="K9" s="127" t="s">
-        <v>543</v>
+      <c r="K9" s="124" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -9428,8 +10162,8 @@
       <c r="J10" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="K10" s="129" t="s">
-        <v>545</v>
+      <c r="K10" s="126" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -9451,8 +10185,8 @@
       <c r="J11" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K11" s="130" t="s">
-        <v>396</v>
+      <c r="K11" s="127" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -9474,8 +10208,8 @@
       <c r="J12" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K12" s="131" t="s">
-        <v>396</v>
+      <c r="K12" s="128" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -9497,8 +10231,8 @@
       <c r="J13" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K13" s="132" t="s">
-        <v>397</v>
+      <c r="K13" s="129" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -9520,8 +10254,8 @@
       <c r="J14" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="K14" s="133" t="s">
-        <v>546</v>
+      <c r="K14" s="130" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -9543,11 +10277,11 @@
       <c r="J15" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="K15" s="134" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="K15" s="131" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row ht="72" r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -9566,16 +10300,16 @@
       <c r="J16" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="K16" s="135" t="s">
-        <v>546</v>
+      <c r="K16" s="132" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="96"/>
-      <c r="B17" s="107" t="s">
-        <v>492</v>
-      </c>
-      <c r="C17" s="96">
+      <c r="A17" s="94"/>
+      <c r="B17" s="104" t="s">
+        <v>489</v>
+      </c>
+      <c r="C17" s="94">
         <v>12345</v>
       </c>
       <c r="J17" t="s">
@@ -9584,33 +10318,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="I5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="I6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="I7" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="I8" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink r:id="rId1" ref="I2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink r:id="rId2" ref="I3" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink r:id="rId3" ref="I4" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink r:id="rId4" ref="I5" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink r:id="rId5" ref="I6" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink r:id="rId6" ref="I7" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink r:id="rId7" ref="I8" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId8"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="0" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="51.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="39.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="34.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="39.88671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="34.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -9845,13 +10582,13 @@
         <v>290</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E18" s="137" t="s">
-        <v>547</v>
+      <c r="E18" s="134" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -9865,8 +10602,8 @@
       <c r="D19" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E19" s="138" t="s">
-        <v>545</v>
+      <c r="E19" s="135" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -9882,8 +10619,8 @@
       <c r="D20" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="139" t="s">
-        <v>396</v>
+      <c r="E20" s="136" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -9899,8 +10636,8 @@
       <c r="D21" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="140" t="s">
-        <v>396</v>
+      <c r="E21" s="137" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -9916,8 +10653,8 @@
       <c r="D22" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E22" s="141" t="s">
-        <v>397</v>
+      <c r="E22" s="138" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -9933,8 +10670,8 @@
       <c r="D23" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E23" s="142" t="s">
-        <v>548</v>
+      <c r="E23" s="139" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -9950,11 +10687,11 @@
       <c r="D24" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E24" s="143" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E24" s="140" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row ht="43.2" r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="49">
         <v>24</v>
       </c>
@@ -9967,81 +10704,83 @@
       <c r="D25" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E25" s="144" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E25" s="141" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row ht="43.2" r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="60">
         <v>25</v>
       </c>
       <c r="B26" s="60" t="s">
         <v>363</v>
       </c>
-      <c r="C26" s="145">
+      <c r="C26" s="142">
         <v>96501</v>
       </c>
       <c r="D26" s="53" t="s">
         <v>334</v>
       </c>
-      <c r="E26" s="147" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="144" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="49">
         <v>26</v>
       </c>
-      <c r="B27" s="136" t="s">
-        <v>409</v>
+      <c r="B27" s="133" t="s">
+        <v>406</v>
       </c>
       <c r="C27" s="1">
         <v>37672</v>
       </c>
-      <c r="D27" s="89" t="s">
+      <c r="D27" s="87" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="51"/>
+    <row customHeight="1" ht="15" r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="94"/>
       <c r="B28" s="51" t="s">
-        <v>493</v>
-      </c>
-      <c r="C28" s="108">
+        <v>490</v>
+      </c>
+      <c r="C28" s="105">
         <v>12345</v>
       </c>
       <c r="D28" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15" r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="52"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="40.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="52.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="34.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="30.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -10077,8 +10816,8 @@
       <c r="B2" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C2" s="1">
-        <v>2102</v>
+      <c r="C2" s="100">
+        <v>73735</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>351</v>
@@ -10089,11 +10828,11 @@
       <c r="F2" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G2" s="61" t="s">
-        <v>377</v>
-      </c>
-      <c r="H2" s="61" t="s">
-        <v>376</v>
+      <c r="G2" s="147" t="s">
+        <v>563</v>
+      </c>
+      <c r="H2" s="147" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -10103,8 +10842,8 @@
       <c r="B3" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C3" s="1">
-        <v>2102</v>
+      <c r="C3" s="100">
+        <v>73735</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>352</v>
@@ -10115,8 +10854,12 @@
       <c r="F3" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="156">
+        <v>44421</v>
+      </c>
+      <c r="H3" s="148" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -10125,8 +10868,8 @@
       <c r="B4" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C4" s="1">
-        <v>89280</v>
+      <c r="C4" s="100">
+        <v>37705</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>351</v>
@@ -10137,8 +10880,12 @@
       <c r="F4" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="149" t="s">
+        <v>565</v>
+      </c>
+      <c r="H4" s="149" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -10147,8 +10894,8 @@
       <c r="B5" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C5" s="1">
-        <v>89280</v>
+      <c r="C5" s="100">
+        <v>37705</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>352</v>
@@ -10159,8 +10906,12 @@
       <c r="F5" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="G5" s="150" t="s">
+        <v>566</v>
+      </c>
+      <c r="H5" s="150" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -10169,8 +10920,8 @@
       <c r="B6" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C6" s="1">
-        <v>2102</v>
+      <c r="C6" s="100">
+        <v>73735</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>351</v>
@@ -10181,8 +10932,12 @@
       <c r="F6" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="151" t="s">
+        <v>567</v>
+      </c>
+      <c r="H6" s="151" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -10191,8 +10946,8 @@
       <c r="B7" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C7" s="1">
-        <v>2102</v>
+      <c r="C7" s="100">
+        <v>73735</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>352</v>
@@ -10203,8 +10958,12 @@
       <c r="F7" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="152" t="s">
+        <v>568</v>
+      </c>
+      <c r="H7" s="152" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -10221,10 +10980,14 @@
         <v>1600</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+        <v>560</v>
+      </c>
+      <c r="G8" s="157" t="s">
+        <v>376</v>
+      </c>
+      <c r="H8" s="157" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -10243,10 +11006,14 @@
         <v>1000</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+        <v>560</v>
+      </c>
+      <c r="G9" s="158" t="s">
+        <v>376</v>
+      </c>
+      <c r="H9" s="158" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -10265,10 +11032,14 @@
         <v>1900</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+        <v>560</v>
+      </c>
+      <c r="G10" s="159" t="s">
+        <v>376</v>
+      </c>
+      <c r="H10" s="159" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -10287,10 +11058,14 @@
         <v>2000</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+        <v>560</v>
+      </c>
+      <c r="G11" s="160" t="s">
+        <v>376</v>
+      </c>
+      <c r="H11" s="160" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -10309,10 +11084,14 @@
         <v>1000</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+        <v>560</v>
+      </c>
+      <c r="G12" s="161" t="s">
+        <v>376</v>
+      </c>
+      <c r="H12" s="161" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -10321,8 +11100,8 @@
       <c r="B13" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C13" s="1">
-        <v>2102</v>
+      <c r="C13" s="100">
+        <v>73735</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
@@ -10331,8 +11110,12 @@
       <c r="F13" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="153" t="s">
+        <v>570</v>
+      </c>
+      <c r="H13" s="153" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -10341,18 +11124,22 @@
       <c r="B14" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C14" s="1">
-        <v>94925</v>
+      <c r="C14" s="100">
+        <v>98487</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>351</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+        <v>358</v>
+      </c>
+      <c r="G14" s="162" t="s">
+        <v>376</v>
+      </c>
+      <c r="H14" s="162" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -10361,8 +11148,8 @@
       <c r="B15" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C15" s="1">
-        <v>94925</v>
+      <c r="C15" s="100">
+        <v>98487</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>351</v>
@@ -10371,10 +11158,14 @@
         <v>91</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+        <v>358</v>
+      </c>
+      <c r="G15" s="163" t="s">
+        <v>376</v>
+      </c>
+      <c r="H15" s="163" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -10383,8 +11174,8 @@
       <c r="B16" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C16" s="1">
-        <v>94925</v>
+      <c r="C16" s="100">
+        <v>98487</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>351</v>
@@ -10393,10 +11184,14 @@
         <v>353</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+        <v>358</v>
+      </c>
+      <c r="G16" s="164" t="s">
+        <v>376</v>
+      </c>
+      <c r="H16" s="164" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -10405,8 +11200,8 @@
       <c r="B17" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C17" s="1">
-        <v>94925</v>
+      <c r="C17" s="100">
+        <v>98487</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>351</v>
@@ -10415,10 +11210,14 @@
         <v>354</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+        <v>358</v>
+      </c>
+      <c r="G17" s="165" t="s">
+        <v>376</v>
+      </c>
+      <c r="H17" s="165" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -10427,8 +11226,8 @@
       <c r="B18" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C18" s="1">
-        <v>94925</v>
+      <c r="C18" s="100">
+        <v>98487</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>351</v>
@@ -10439,8 +11238,12 @@
       <c r="F18" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="166" t="s">
+        <v>376</v>
+      </c>
+      <c r="H18" s="166" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -10449,8 +11252,8 @@
       <c r="B19" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C19" s="1">
-        <v>94925</v>
+      <c r="C19" s="100">
+        <v>98487</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>351</v>
@@ -10461,8 +11264,12 @@
       <c r="F19" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="G19" s="154" t="s">
+        <v>571</v>
+      </c>
+      <c r="H19" s="154" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -10471,8 +11278,8 @@
       <c r="B20" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C20" s="1">
-        <v>94925</v>
+      <c r="C20" s="100">
+        <v>98487</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>351</v>
@@ -10483,8 +11290,12 @@
       <c r="F20" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="G20" s="155" t="s">
+        <v>572</v>
+      </c>
+      <c r="H20" s="155" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -10493,8 +11304,8 @@
       <c r="B21" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C21" s="1">
-        <v>94925</v>
+      <c r="C21" s="100">
+        <v>98487</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>351</v>
@@ -10505,8 +11316,12 @@
       <c r="F21" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="G21" s="169" t="s">
+        <v>575</v>
+      </c>
+      <c r="H21" s="169" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -10515,8 +11330,8 @@
       <c r="B22" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C22" s="1">
-        <v>89280</v>
+      <c r="C22" s="100">
+        <v>98487</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>352</v>
@@ -10527,8 +11342,12 @@
       <c r="F22" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="G22" s="167" t="s">
+        <v>376</v>
+      </c>
+      <c r="H22" s="167" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -10537,8 +11356,8 @@
       <c r="B23" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C23" s="1">
-        <v>89280</v>
+      <c r="C23" s="100">
+        <v>37705</v>
       </c>
       <c r="D23" s="55" t="s">
         <v>352</v>
@@ -10559,8 +11378,8 @@
       <c r="B24" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C24" s="1">
-        <v>89280</v>
+      <c r="C24" s="100">
+        <v>37705</v>
       </c>
       <c r="D24" s="55" t="s">
         <v>352</v>
@@ -10581,8 +11400,8 @@
       <c r="B25" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C25" s="1">
-        <v>89280</v>
+      <c r="C25" s="100">
+        <v>37705</v>
       </c>
       <c r="D25" s="55" t="s">
         <v>352</v>
@@ -10607,40 +11426,43 @@
       <c r="D26" s="55"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>359</v>
+        <v>560</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="96">
+      <c r="A27" s="87">
         <v>26</v>
       </c>
-      <c r="B27" s="97" t="s">
-        <v>451</v>
-      </c>
-      <c r="C27" s="96">
+      <c r="B27" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C27" s="87">
         <v>37672</v>
       </c>
-      <c r="D27" s="96" t="s">
-        <v>500</v>
-      </c>
-      <c r="E27" s="96">
+      <c r="D27" s="87" t="s">
+        <v>497</v>
+      </c>
+      <c r="E27" s="87">
         <v>1000</v>
       </c>
-      <c r="F27" s="96" t="s">
-        <v>289</v>
-      </c>
+      <c r="F27" s="87" t="s">
+        <v>560</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -10648,8 +11470,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="62.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="36.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="62.109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="36.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -10677,14 +11499,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>352</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -10693,14 +11515,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>351</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -10709,14 +11531,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>351</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -10725,14 +11547,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>352</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -10741,7 +11563,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C6" s="1">
         <v>39946</v>
@@ -10755,24 +11577,27 @@
       <c r="F6" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="30.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="31.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="32.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -10800,14 +11625,12 @@
         <v>361</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>379</v>
+        <v>563</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E2" s="62" t="s">
-        <v>378</v>
-      </c>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -10816,7 +11639,9 @@
       <c r="B3" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="48" t="s">
+        <v>564</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>375</v>
       </c>
@@ -10829,7 +11654,9 @@
       <c r="B4" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C4" s="48"/>
+      <c r="C4" s="48" t="s">
+        <v>565</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>375</v>
       </c>
@@ -10842,7 +11669,9 @@
       <c r="B5" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C5" s="48"/>
+      <c r="C5" s="48" t="s">
+        <v>566</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>375</v>
       </c>
@@ -10855,7 +11684,9 @@
       <c r="B6" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C6" s="48"/>
+      <c r="C6" s="48" t="s">
+        <v>567</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>375</v>
       </c>
@@ -10868,7 +11699,9 @@
       <c r="B7" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C7" s="48"/>
+      <c r="C7" s="48" t="s">
+        <v>568</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>375</v>
       </c>
@@ -10881,7 +11714,9 @@
       <c r="B8" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C8" s="48"/>
+      <c r="C8" s="48" t="s">
+        <v>570</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>375</v>
       </c>
@@ -10894,7 +11729,9 @@
       <c r="B9" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C9" s="48"/>
+      <c r="C9" s="48" t="s">
+        <v>571</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>375</v>
       </c>
@@ -10907,7 +11744,9 @@
       <c r="B10" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C10" s="48"/>
+      <c r="C10" s="48" t="s">
+        <v>572</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>375</v>
       </c>
@@ -10920,7 +11759,9 @@
       <c r="B11" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C11" s="48"/>
+      <c r="C11" s="48" t="s">
+        <v>573</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>375</v>
       </c>
@@ -10933,7 +11774,9 @@
       <c r="B12" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C12" s="48"/>
+      <c r="C12" s="48" t="s">
+        <v>575</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>375</v>
       </c>
@@ -11053,7 +11896,7 @@
       </c>
       <c r="E20" s="50"/>
     </row>
-    <row r="21" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row ht="72" r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -11069,8 +11912,8 @@
       <c r="E21" s="50"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="72" t="s">
-        <v>408</v>
+      <c r="B22" s="70" t="s">
+        <v>405</v>
       </c>
       <c r="C22" s="1">
         <v>39946</v>
@@ -11080,14 +11923,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -11095,10 +11938,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="51.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="51.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -11112,19 +11955,19 @@
         <v>362</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -11135,7 +11978,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C2" s="48">
         <v>39905</v>
@@ -11147,16 +11990,16 @@
         <v>200</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="H2" s="81" t="s">
-        <v>420</v>
-      </c>
-      <c r="I2" s="81" t="s">
-        <v>393</v>
+        <v>401</v>
+      </c>
+      <c r="H2" s="79" t="s">
+        <v>417</v>
+      </c>
+      <c r="I2" s="79" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -11164,28 +12007,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C3" s="48">
         <v>39906</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E3" s="50">
         <v>400</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="H3" s="82" t="s">
-        <v>419</v>
-      </c>
-      <c r="I3" s="82" t="s">
-        <v>393</v>
+        <v>401</v>
+      </c>
+      <c r="H3" s="80" t="s">
+        <v>416</v>
+      </c>
+      <c r="I3" s="80" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -11203,16 +12046,16 @@
         <v>100</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="H4" s="83" t="s">
-        <v>379</v>
-      </c>
-      <c r="I4" s="83" t="s">
-        <v>395</v>
+      <c r="H4" s="81" t="s">
+        <v>376</v>
+      </c>
+      <c r="I4" s="81" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -11232,16 +12075,16 @@
         <v>100</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="84" t="s">
-        <v>379</v>
-      </c>
-      <c r="I5" s="84" t="s">
-        <v>396</v>
+      <c r="H5" s="82" t="s">
+        <v>376</v>
+      </c>
+      <c r="I5" s="82" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -11252,7 +12095,7 @@
         <v>367</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D6" s="1">
         <v>500</v>
@@ -11261,16 +12104,16 @@
         <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H6" s="85" t="s">
-        <v>379</v>
-      </c>
-      <c r="I6" s="85" t="s">
-        <v>396</v>
+      <c r="H6" s="83" t="s">
+        <v>376</v>
+      </c>
+      <c r="I6" s="83" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -11281,7 +12124,7 @@
         <v>368</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D7" s="1">
         <v>500</v>
@@ -11290,16 +12133,16 @@
         <v>100</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H7" s="86" t="s">
-        <v>379</v>
-      </c>
-      <c r="I7" s="86" t="s">
-        <v>397</v>
+      <c r="H7" s="84" t="s">
+        <v>376</v>
+      </c>
+      <c r="I7" s="84" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -11307,7 +12150,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C8" s="1">
         <v>39946</v>
@@ -11319,16 +12162,16 @@
         <v>100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="H8" s="87" t="s">
-        <v>379</v>
-      </c>
-      <c r="I8" s="87" t="s">
-        <v>398</v>
+      <c r="H8" s="85" t="s">
+        <v>376</v>
+      </c>
+      <c r="I8" s="85" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -11336,7 +12179,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C9" s="1">
         <v>39908</v>
@@ -11348,31 +12191,31 @@
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="H9" s="88" t="s">
-        <v>379</v>
-      </c>
-      <c r="I9" s="88" t="s">
-        <v>418</v>
+        <v>400</v>
+      </c>
+      <c r="H9" s="86" t="s">
+        <v>376</v>
+      </c>
+      <c r="I9" s="86" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="89" t="s">
-        <v>422</v>
+      <c r="B10" s="87" t="s">
+        <v>419</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -11381,8 +12224,8 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="89" t="s">
-        <v>423</v>
+      <c r="B11" s="87" t="s">
+        <v>420</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -11398,8 +12241,8 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="89" t="s">
-        <v>424</v>
+      <c r="B12" s="87" t="s">
+        <v>421</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -11415,8 +12258,8 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="89" t="s">
-        <v>425</v>
+      <c r="B13" s="87" t="s">
+        <v>422</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -11432,18 +12275,18 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="89" t="s">
-        <v>441</v>
+      <c r="B14" s="87" t="s">
+        <v>438</v>
       </c>
       <c r="C14" s="1"/>
       <c r="E14" s="1">
         <v>1000000</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -11452,15 +12295,15 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="89" t="s">
-        <v>427</v>
+      <c r="B15" s="87" t="s">
+        <v>424</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -11469,8 +12312,8 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="89" t="s">
-        <v>429</v>
+      <c r="B16" s="87" t="s">
+        <v>426</v>
       </c>
       <c r="C16" s="48">
         <v>39905</v>
@@ -11485,7 +12328,7 @@
         <v>91</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -11494,8 +12337,8 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="89" t="s">
-        <v>430</v>
+      <c r="B17" s="87" t="s">
+        <v>427</v>
       </c>
       <c r="C17" s="48">
         <v>39906</v>
@@ -11510,7 +12353,7 @@
         <v>123345</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -11519,8 +12362,8 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="89" t="s">
-        <v>431</v>
+      <c r="B18" s="87" t="s">
+        <v>428</v>
       </c>
       <c r="C18" s="1">
         <v>39905</v>
@@ -11532,10 +12375,10 @@
         <v>200</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -11544,8 +12387,8 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="89" t="s">
-        <v>433</v>
+      <c r="B19" s="87" t="s">
+        <v>430</v>
       </c>
       <c r="C19" s="1">
         <v>39906</v>
@@ -11557,10 +12400,10 @@
         <v>100</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -11569,21 +12412,21 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="89" t="s">
-        <v>435</v>
+      <c r="B20" s="87" t="s">
+        <v>432</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/SeleniumWebDriver/bin/guru99/DataFiles/Guru99_testdata.xlsx
+++ b/SeleniumWebDriver/bin/guru99/DataFiles/Guru99_testdata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{B77DBC1B-2DB5-4F4F-871D-70AEB4239DE7}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33"/>
+  <xr:revisionPtr documentId="13_ncr:1_{9715BB1D-141D-464D-A827-EF6A548A4927}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33"/>
   <bookViews>
-    <workbookView activeTab="7" windowHeight="12648" windowWidth="22260" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
+    <workbookView activeTab="6" firstSheet="1" windowHeight="12648" windowWidth="22260" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" r:id="rId1" sheetId="6"/>
@@ -25,7 +25,7 @@
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">NewAcct!$F$1:$F$27</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">NewCust!$A$1:$O$52</definedName>
+    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">NewCust!$M$1:$M$54</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="583">
   <si>
     <t>testcaseID</t>
   </si>
@@ -1963,46 +1963,67 @@
     <t>NewAcct Failure messages(old)</t>
   </si>
   <si>
+    <t>Pass - Account Deleted Sucessfully</t>
+  </si>
+  <si>
+    <t>$%^&amp;&amp;</t>
+  </si>
+  <si>
     <t>Pass - Account Generated Successfully!!!</t>
   </si>
   <si>
-    <t>44420</t>
-  </si>
-  <si>
-    <t>44421</t>
-  </si>
-  <si>
-    <t>44422</t>
-  </si>
-  <si>
-    <t>44423</t>
-  </si>
-  <si>
-    <t>44424</t>
-  </si>
-  <si>
-    <t>44425</t>
+    <t>39282</t>
+  </si>
+  <si>
+    <t>1239682</t>
+  </si>
+  <si>
+    <t>45003459012</t>
+  </si>
+  <si>
+    <t>44553</t>
+  </si>
+  <si>
+    <t>44554</t>
+  </si>
+  <si>
+    <t>44555</t>
+  </si>
+  <si>
+    <t>44556</t>
+  </si>
+  <si>
+    <t>44557</t>
+  </si>
+  <si>
+    <t>44558</t>
+  </si>
+  <si>
+    <t>44559</t>
+  </si>
+  <si>
+    <t>44560</t>
+  </si>
+  <si>
+    <t>44561</t>
+  </si>
+  <si>
+    <t>44562</t>
+  </si>
+  <si>
+    <t>44563</t>
+  </si>
+  <si>
+    <t>44564</t>
+  </si>
+  <si>
+    <t>44565</t>
   </si>
   <si>
     <t>Pass - You are not authorize to Add Account for this Customer</t>
   </si>
   <si>
-    <t>44426</t>
-  </si>
-  <si>
-    <t>44427</t>
-  </si>
-  <si>
-    <t>44428</t>
-  </si>
-  <si>
-    <t>44429</t>
-  </si>
-  <si>
     <t>Pass - Intial deposite must be Rs. 500 or more</t>
-  </si>
-  <si>
-    <t>44433</t>
   </si>
 </sst>
 </file>
@@ -2111,7 +2132,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="92">
+  <fills count="129">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2533,6 +2554,191 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="none">
         <fgColor indexed="57"/>
       </patternFill>
@@ -2573,7 +2779,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="132">
+  <borders count="181">
     <border>
       <left/>
       <right/>
@@ -4287,6 +4493,585 @@
         <color indexed="8"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
     </border>
     <border>
       <bottom style="thin"/>
@@ -4429,7 +5214,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="207">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
@@ -4600,9 +5385,6 @@
     <xf applyBorder="1" applyFill="1" borderId="100" fillId="68" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="101" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="102" fillId="70" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="97" fillId="65" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
     <xf applyBorder="1" applyFill="1" borderId="103" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="104" fillId="72" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="105" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
@@ -4616,6 +5398,31 @@
     <xf applyBorder="1" applyFill="1" borderId="113" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="114" fillId="82" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="115" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="116" fillId="84" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="117" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="118" fillId="86" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="119" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="120" fillId="88" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="121" fillId="89" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="122" fillId="90" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="123" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="124" fillId="92" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="125" fillId="93" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="126" fillId="94" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="127" fillId="95" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="128" fillId="96" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="129" fillId="97" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="130" fillId="98" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="131" fillId="99" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="132" fillId="100" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="133" fillId="101" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="134" fillId="102" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="135" fillId="103" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="136" fillId="104" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="137" fillId="105" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="138" fillId="106" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="139" fillId="107" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="140" fillId="108" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -4625,10 +5432,16 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="93" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" borderId="123" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="123" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="89" borderId="131" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="91" borderId="131" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="148" fillId="110" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="148" fillId="112" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="156" fillId="114" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="156" fillId="116" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="164" fillId="118" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="164" fillId="120" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="172" fillId="122" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="172" fillId="124" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="126" borderId="180" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="180" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -4912,8 +5725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:K62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="F39:F51"/>
+    <sheetView topLeftCell="H16" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5110,7 +5923,7 @@
     </row>
     <row ht="15.6" r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="29"/>
-      <c r="H24" s="171">
+      <c r="H24" s="195">
         <v>96501</v>
       </c>
       <c r="I24" s="71">
@@ -5120,67 +5933,69 @@
     </row>
     <row ht="15.6" r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="59"/>
-      <c r="H25" s="171"/>
-      <c r="I25" s="71"/>
+      <c r="H25" s="195"/>
+      <c r="I25" s="71">
+        <v>44566</v>
+      </c>
       <c r="J25" s="56"/>
     </row>
     <row ht="15.6" r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="59"/>
-      <c r="H26" s="171"/>
+      <c r="H26" s="195"/>
       <c r="I26" s="1"/>
       <c r="J26" s="56"/>
     </row>
     <row ht="15.6" r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="76"/>
-      <c r="H27" s="171"/>
+      <c r="H27" s="195"/>
       <c r="I27" s="77"/>
       <c r="J27" s="56"/>
     </row>
     <row ht="15.6" r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="76"/>
-      <c r="H28" s="171"/>
+      <c r="H28" s="195"/>
       <c r="I28" s="77"/>
       <c r="J28" s="56"/>
     </row>
     <row ht="15.6" r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="59"/>
-      <c r="H29" s="171"/>
+      <c r="H29" s="195"/>
       <c r="I29" s="77"/>
       <c r="J29" s="56"/>
     </row>
     <row ht="15.6" r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="16"/>
-      <c r="H30" s="170"/>
+      <c r="H30" s="194"/>
       <c r="I30" s="56"/>
       <c r="J30" s="56"/>
     </row>
     <row ht="15.6" r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="17"/>
-      <c r="H31" s="170"/>
+      <c r="H31" s="194"/>
       <c r="I31" s="56"/>
       <c r="J31" s="56"/>
     </row>
     <row ht="15.6" r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="18"/>
-      <c r="H32" s="170"/>
+      <c r="H32" s="194"/>
       <c r="I32" s="56"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="19"/>
-      <c r="H33" s="170"/>
+      <c r="H33" s="194"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="20"/>
-      <c r="H34" s="170"/>
+      <c r="H34" s="194"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="21"/>
-      <c r="H35" s="170"/>
+      <c r="H35" s="194"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
@@ -5192,95 +6007,95 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="31"/>
-      <c r="E38" s="172" t="s">
+      <c r="E38" s="196" t="s">
         <v>561</v>
       </c>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="32"/>
-      <c r="E39" s="172"/>
+      <c r="E39" s="196"/>
       <c r="F39" s="145" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="33"/>
-      <c r="E40" s="172"/>
+      <c r="E40" s="196"/>
       <c r="F40" s="145" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="34"/>
-      <c r="E41" s="172"/>
+      <c r="E41" s="196"/>
       <c r="F41" s="145" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="35"/>
-      <c r="E42" s="172"/>
+      <c r="E42" s="196"/>
       <c r="F42" s="145" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="E43" s="172"/>
+      <c r="E43" s="196"/>
       <c r="F43" s="145" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="36"/>
-      <c r="E44" s="172"/>
+      <c r="E44" s="196"/>
       <c r="F44" s="145" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="37"/>
-      <c r="E45" s="172"/>
+      <c r="E45" s="196"/>
       <c r="F45" s="145" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="38"/>
-      <c r="E46" s="172"/>
+      <c r="E46" s="196"/>
       <c r="F46" s="145" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="39"/>
-      <c r="E47" s="172"/>
+      <c r="E47" s="196"/>
       <c r="F47" s="145" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="40"/>
-      <c r="E48" s="172"/>
+      <c r="E48" s="196"/>
       <c r="F48" s="145" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E49" s="172"/>
+      <c r="E49" s="196"/>
       <c r="F49" s="145" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E50" s="172"/>
+      <c r="E50" s="196"/>
       <c r="F50" s="145" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="41"/>
-      <c r="E51" s="172"/>
+      <c r="E51" s="196"/>
       <c r="F51" s="146" t="s">
         <v>289</v>
       </c>
@@ -7353,7 +8168,7 @@
       <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="175" t="s">
+      <c r="G2" s="205" t="s">
         <v>532</v>
       </c>
     </row>
@@ -7543,8 +8358,8 @@
   </sheetPr>
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7743,38 +8558,40 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="5">
-        <v>31855</v>
+        <v>29938</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="I5" s="1">
-        <v>237876</v>
+        <v>765897</v>
       </c>
       <c r="J5" s="1">
-        <v>9991237890</v>
+        <v>4447895432</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N5" s="50"/>
       <c r="O5" s="50"/>
@@ -7784,40 +8601,38 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="5">
-        <v>31481</v>
+        <v>32527</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="I6" s="1">
-        <v>667897</v>
+        <v>789123</v>
       </c>
       <c r="J6" s="1">
-        <v>5556789087</v>
+        <v>7779081234</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>90</v>
+        <v>205</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N6" s="50"/>
       <c r="O6" s="50"/>
@@ -7827,40 +8642,40 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="1">
-        <v>12334</v>
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" s="5">
-        <v>30477</v>
+        <v>235197</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="I7" s="1">
-        <v>788767</v>
+        <v>786889</v>
       </c>
       <c r="J7" s="1">
-        <v>5554567897</v>
+        <v>7771236789</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N7" s="50"/>
       <c r="O7" s="50"/>
@@ -7870,40 +8685,40 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E8" s="5">
-        <v>28690</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>98</v>
+        <v>32980</v>
+      </c>
+      <c r="F8" s="1">
+        <v>122</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="I8" s="1">
-        <v>897654</v>
+        <v>567987</v>
       </c>
       <c r="J8" s="1">
-        <v>4448960786</v>
+        <v>8786357718</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N8" s="50"/>
       <c r="O8" s="50"/>
@@ -7913,34 +8728,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="5">
-        <v>29938</v>
+        <v>35964</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="I9" s="1">
-        <v>765897</v>
+        <v>657987</v>
       </c>
       <c r="J9" s="1">
-        <v>4447895432</v>
+        <v>4417657812</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>103</v>
+        <v>210</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>113</v>
@@ -7956,32 +8771,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>154</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E10" s="5">
-        <v>32527</v>
+        <v>33437</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>105</v>
+        <v>246</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>106</v>
+        <v>234</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="I10" s="1">
-        <v>789123</v>
+        <v>786433</v>
       </c>
       <c r="J10" s="1">
-        <v>7779081234</v>
+        <v>5557789012</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>113</v>
@@ -7997,38 +8814,40 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5">
+        <v>32971</v>
+      </c>
       <c r="F11" s="1" t="s">
-        <v>108</v>
+        <v>251</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>41</v>
+        <v>237</v>
       </c>
       <c r="I11" s="1">
-        <v>678234</v>
+        <v>767546</v>
       </c>
       <c r="J11" s="1">
-        <v>7776892313</v>
+        <v>1239872361</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="N11" s="50"/>
       <c r="O11" s="50"/>
@@ -8038,34 +8857,34 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="5">
-        <v>235197</v>
+        <v>36025</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>111</v>
+        <v>256</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c r="I12" s="1">
-        <v>786889</v>
+        <v>5654325</v>
       </c>
       <c r="J12" s="1">
-        <v>7771236789</v>
+        <v>5658901234</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>112</v>
+        <v>277</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>113</v>
@@ -8081,38 +8900,40 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" s="5">
-        <v>31397</v>
-      </c>
-      <c r="F13" s="1"/>
+        <v>35527</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>262</v>
+      </c>
       <c r="G13" s="1" t="s">
-        <v>122</v>
+        <v>217</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>123</v>
+        <v>218</v>
       </c>
       <c r="I13" s="1">
-        <v>678543</v>
+        <v>456367</v>
       </c>
       <c r="J13" s="1">
-        <v>2227657890</v>
+        <v>8806785435</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="N13" s="50"/>
       <c r="O13" s="50"/>
@@ -8122,40 +8943,40 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E14" s="5">
-        <v>28071</v>
+        <v>34127</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>137</v>
+        <v>263</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>138</v>
+        <v>213</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="I14" s="1">
-        <v>657545</v>
+        <v>235789</v>
       </c>
       <c r="J14" s="1">
-        <v>90167189172</v>
+        <v>2227658912</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N14" s="50"/>
       <c r="O14" s="50"/>
@@ -8165,37 +8986,37 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="5">
-        <v>32980</v>
-      </c>
-      <c r="F15" s="1">
-        <v>122</v>
+        <v>34096</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="I15" s="1">
-        <v>567987</v>
+        <v>765787</v>
       </c>
       <c r="J15" s="1">
-        <v>8786357718</v>
+        <v>7776528901</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>113</v>
+        <v>203</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>115</v>
@@ -8208,40 +9029,40 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" s="5">
-        <v>33314</v>
+        <v>33376</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>145</v>
+        <v>269</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I16" s="1">
-        <v>657876</v>
+        <v>456456</v>
       </c>
       <c r="J16" s="1">
-        <v>4417678901</v>
+        <v>90165328917</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>209</v>
+        <v>287</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N16" s="50"/>
       <c r="O16" s="50"/>
@@ -8251,37 +9072,37 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="5">
-        <v>35964</v>
+        <v>33708</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>149</v>
+        <v>241</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="I17" s="1">
-        <v>657987</v>
+        <v>897654</v>
       </c>
       <c r="J17" s="1">
-        <v>4417657812</v>
+        <v>9992346781</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>113</v>
+        <v>182</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>115</v>
@@ -8294,38 +9115,40 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="5">
-        <v>34169</v>
+        <v>31173</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="8" t="s">
-        <v>89</v>
+        <v>135</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="I18" s="1">
-        <v>786545</v>
+        <v>676588</v>
       </c>
       <c r="J18" s="1">
-        <v>9997863271</v>
+        <v>2226189271</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="N18" s="50"/>
       <c r="O18" s="50"/>
@@ -8335,40 +9158,38 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>154</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="5">
-        <v>33667</v>
+        <v>31855</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>243</v>
+        <v>93</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>232</v>
+        <v>89</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>214</v>
+        <v>89</v>
       </c>
       <c r="I19" s="1">
-        <v>879656</v>
+        <v>237876</v>
       </c>
       <c r="J19" s="1">
-        <v>6557891271</v>
+        <v>9991237890</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N19" s="50"/>
       <c r="O19" s="50"/>
@@ -8378,40 +9199,40 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E20" s="5">
-        <v>32238</v>
+        <v>31481</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G20" s="1">
-        <v>56687</v>
+        <v>92</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="I20" s="1">
-        <v>667434</v>
+        <v>667897</v>
       </c>
       <c r="J20" s="1">
-        <v>7779874561</v>
+        <v>5556789087</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N20" s="50"/>
       <c r="O20" s="50"/>
@@ -8421,40 +9242,40 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>153</v>
+        <v>47</v>
+      </c>
+      <c r="C21" s="1">
+        <v>12334</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E21" s="5">
-        <v>33773</v>
+        <v>30477</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>245</v>
+        <v>96</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>233</v>
+        <v>94</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="I21" s="1">
-        <v>467543</v>
+        <v>788767</v>
       </c>
       <c r="J21" s="1">
-        <v>7779084515</v>
+        <v>5554567897</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N21" s="50"/>
       <c r="O21" s="50"/>
@@ -8464,40 +9285,40 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E22" s="5">
-        <v>33437</v>
+        <v>28690</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>246</v>
+        <v>98</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>234</v>
+        <v>99</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I22" s="1">
-        <v>786433</v>
+        <v>897654</v>
       </c>
       <c r="J22" s="1">
-        <v>5557789012</v>
+        <v>4448960786</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="N22" s="50"/>
       <c r="O22" s="50"/>
@@ -8507,38 +9328,38 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="5">
-        <v>35859</v>
-      </c>
+      <c r="E23" s="5"/>
       <c r="F23" s="1" t="s">
-        <v>247</v>
+        <v>108</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H23" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="I23" s="1">
-        <v>764367</v>
+        <v>678234</v>
       </c>
       <c r="J23" s="1">
-        <v>1018237829</v>
+        <v>7776892313</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="N23" s="50"/>
       <c r="O23" s="50"/>
@@ -8548,40 +9369,38 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E24" s="5">
-        <v>34158</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>248</v>
-      </c>
+        <v>31397</v>
+      </c>
+      <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>216</v>
+        <v>122</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>235</v>
+        <v>123</v>
       </c>
       <c r="I24" s="1">
-        <v>775645</v>
+        <v>678543</v>
       </c>
       <c r="J24" s="1">
-        <v>1015677890</v>
+        <v>2227657890</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="N24" s="50"/>
       <c r="O24" s="50"/>
@@ -8591,40 +9410,40 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E25" s="5">
-        <v>34432</v>
+        <v>28071</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>249</v>
+        <v>137</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H25" s="1">
-        <v>13345</v>
+        <v>138</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="I25" s="1">
-        <v>665745</v>
+        <v>657545</v>
       </c>
       <c r="J25" s="1">
-        <v>1012237893</v>
+        <v>90167189172</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N25" s="50"/>
       <c r="O25" s="50"/>
@@ -8634,34 +9453,34 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E26" s="5">
-        <v>35163</v>
+        <v>33314</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>250</v>
+        <v>145</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>219</v>
+        <v>146</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>236</v>
+        <v>147</v>
       </c>
       <c r="I26" s="1">
-        <v>765435</v>
+        <v>657876</v>
       </c>
       <c r="J26" s="1">
-        <v>1016738377</v>
+        <v>4417678901</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>113</v>
@@ -8677,40 +9496,38 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E27" s="5">
-        <v>32971</v>
+        <v>34169</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>237</v>
+        <v>212</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="I27" s="1">
-        <v>767546</v>
+        <v>786545</v>
       </c>
       <c r="J27" s="1">
-        <v>1239872361</v>
+        <v>9997863271</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="N27" s="50"/>
       <c r="O27" s="50"/>
@@ -8720,38 +9537,40 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E28" s="5">
-        <v>32975</v>
+        <v>33667</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I28" s="1"/>
+        <v>214</v>
+      </c>
+      <c r="I28" s="1">
+        <v>879656</v>
+      </c>
       <c r="J28" s="1">
-        <v>4417728910</v>
+        <v>6557891271</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="N28" s="50"/>
       <c r="O28" s="50"/>
@@ -8761,40 +9580,40 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E29" s="5">
-        <v>33733</v>
+        <v>32238</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>223</v>
+        <v>244</v>
+      </c>
+      <c r="G29" s="1">
+        <v>56687</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>235</v>
+        <v>41</v>
+      </c>
+      <c r="I29" s="1">
+        <v>667434</v>
       </c>
       <c r="J29" s="1">
-        <v>5657811232</v>
+        <v>7779874561</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N29" s="50"/>
       <c r="O29" s="50"/>
@@ -8804,40 +9623,40 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E30" s="5">
-        <v>34095</v>
+        <v>33773</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>240</v>
+        <v>41</v>
+      </c>
+      <c r="I30" s="1">
+        <v>467543</v>
       </c>
       <c r="J30" s="1">
-        <v>6628725671</v>
+        <v>7779084515</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="N30" s="50"/>
       <c r="O30" s="50"/>
@@ -8847,40 +9666,38 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" s="5">
-        <v>34888</v>
+        <v>35859</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>239</v>
+        <v>215</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1">
+        <v>764367</v>
       </c>
       <c r="J31" s="1">
-        <v>5529874561</v>
+        <v>1018237829</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="N31" s="50"/>
       <c r="O31" s="50"/>
@@ -8890,40 +9707,40 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E32" s="5">
-        <v>36025</v>
+        <v>34158</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="I32" s="1">
-        <v>5654325</v>
+        <v>775645</v>
       </c>
       <c r="J32" s="1">
-        <v>5658901234</v>
+        <v>1015677890</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>277</v>
+        <v>188</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N32" s="50"/>
       <c r="O32" s="50"/>
@@ -8933,40 +9750,40 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E33" s="5">
-        <v>34128</v>
+        <v>34432</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>230</v>
+        <v>217</v>
+      </c>
+      <c r="H33" s="1">
+        <v>13345</v>
       </c>
       <c r="I33" s="1">
-        <v>5664</v>
+        <v>665745</v>
       </c>
       <c r="J33" s="1">
-        <v>9328982123</v>
+        <v>1012237893</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="N33" s="50"/>
       <c r="O33" s="50"/>
@@ -8976,38 +9793,40 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E34" s="5">
-        <v>34523</v>
+        <v>35163</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="I34" s="1">
-        <v>346765</v>
-      </c>
-      <c r="J34" s="1"/>
+        <v>765435</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1016738377</v>
+      </c>
       <c r="K34" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="N34" s="50"/>
       <c r="O34" s="50"/>
@@ -9017,40 +9836,38 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E35" s="5">
-        <v>35162</v>
+        <v>32975</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I35" s="1">
-        <v>457865</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>91</v>
+        <v>147</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1">
+        <v>4417728910</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="N35" s="50"/>
       <c r="O35" s="50"/>
@@ -9060,40 +9877,40 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E36" s="5">
-        <v>35977</v>
+        <v>33733</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>45</v>
+        <v>223</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I36" s="1">
-        <v>778654</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>271</v>
+        <v>224</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J36" s="1">
+        <v>5657811232</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="N36" s="50"/>
       <c r="O36" s="50"/>
@@ -9103,40 +9920,40 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E37" s="5">
-        <v>34351</v>
+        <v>34095</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I37" s="1">
-        <v>326787</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>284</v>
+        <v>226</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J37" s="1">
+        <v>6628725671</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>285</v>
+        <v>194</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="N37" s="50"/>
       <c r="O37" s="50"/>
@@ -9146,40 +9963,40 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E38" s="5">
-        <v>35527</v>
+        <v>34888</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="I38" s="1">
-        <v>456367</v>
+        <v>221</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="J38" s="1">
-        <v>8806785435</v>
+        <v>5529874561</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="N38" s="50"/>
       <c r="O38" s="50"/>
@@ -9189,40 +10006,40 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E39" s="5">
-        <v>34127</v>
+        <v>34128</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>123</v>
+        <v>230</v>
       </c>
       <c r="I39" s="1">
-        <v>235789</v>
+        <v>5664</v>
       </c>
       <c r="J39" s="1">
-        <v>2227658912</v>
+        <v>9328982123</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="N39" s="50"/>
       <c r="O39" s="50"/>
@@ -9232,38 +10049,38 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E40" s="5">
         <v>34523</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>122</v>
+        <v>231</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="I40" s="1">
-        <v>323678</v>
-      </c>
-      <c r="J40" s="1">
-        <v>2225678901</v>
-      </c>
-      <c r="K40" s="2"/>
+        <v>346765</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="K40" s="2" t="s">
+        <v>197</v>
+      </c>
       <c r="L40" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N40" s="50"/>
       <c r="O40" s="50"/>
@@ -9273,34 +10090,34 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E41" s="5">
-        <v>35965</v>
+        <v>35162</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="I41" s="1">
-        <v>234878</v>
-      </c>
-      <c r="J41" s="1">
-        <v>4415427819</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>280</v>
+        <v>457865</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>113</v>
@@ -9316,40 +10133,40 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E42" s="5">
-        <v>34432</v>
+        <v>35977</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="I42" s="1">
-        <v>879453</v>
-      </c>
-      <c r="J42" s="1">
-        <v>4412568916</v>
+        <v>778654</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>281</v>
+        <v>199</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="N42" s="50"/>
       <c r="O42" s="50"/>
@@ -9359,40 +10176,40 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E43" s="5">
-        <v>32966</v>
+        <v>34351</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>94</v>
+        <v>220</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>95</v>
+        <v>221</v>
       </c>
       <c r="I43" s="1">
-        <v>345788</v>
-      </c>
-      <c r="J43" s="1">
-        <v>5557826541</v>
+        <v>326787</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="N43" s="50"/>
       <c r="O43" s="50"/>
@@ -9402,40 +10219,38 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E44" s="5">
-        <v>33333</v>
+        <v>34523</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>215</v>
+        <v>122</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="I44" s="1">
-        <v>653652</v>
+        <v>323678</v>
       </c>
       <c r="J44" s="1">
-        <v>5554237891</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>283</v>
-      </c>
+        <v>2225678901</v>
+      </c>
+      <c r="K44" s="2"/>
       <c r="L44" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N44" s="50"/>
       <c r="O44" s="50"/>
@@ -9445,41 +10260,40 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>274</v>
+        <v>84</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>275</v>
+        <v>173</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E45" s="5">
-        <v>34108</v>
+        <v>35965</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="I45" s="1">
-        <v>453245</v>
+        <v>234878</v>
       </c>
       <c r="J45" s="1">
-        <v>2227893421</v>
-      </c>
-      <c r="K45" s="2" t="str">
-        <f>K2</f>
-        <v>jos@guest.com</v>
+        <v>4415427819</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>280</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>278</v>
+        <v>117</v>
       </c>
       <c r="N45" s="50"/>
       <c r="O45" s="50"/>
@@ -9489,40 +10303,40 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>286</v>
+        <v>75</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E46" s="5">
-        <v>33376</v>
+        <v>34432</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="I46" s="1">
-        <v>456456</v>
+        <v>879453</v>
       </c>
       <c r="J46" s="1">
-        <v>90165328917</v>
+        <v>4412568916</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>113</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="N46" s="50"/>
       <c r="O46" s="50"/>
@@ -9532,38 +10346,40 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E47" s="5">
-        <v>35167</v>
+        <v>32966</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="I47" s="1">
-        <v>345235</v>
+        <v>345788</v>
       </c>
       <c r="J47" s="1">
-        <v>8783426621</v>
+        <v>5557826541</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="L47" s="1"/>
+        <v>282</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="M47" s="1" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="N47" s="50"/>
       <c r="O47" s="50"/>
@@ -9573,40 +10389,40 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E48" s="5">
-        <v>34096</v>
+        <v>33333</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>43</v>
+        <v>215</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="I48" s="1">
-        <v>765787</v>
+        <v>653652</v>
       </c>
       <c r="J48" s="1">
-        <v>7776528901</v>
+        <v>5554237891</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>181</v>
+        <v>283</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="N48" s="50"/>
       <c r="O48" s="50"/>
@@ -9616,40 +10432,41 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>85</v>
+        <v>274</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E49" s="5">
-        <v>33708</v>
+        <v>34108</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="I49" s="1">
-        <v>897654</v>
+        <v>453245</v>
       </c>
       <c r="J49" s="1">
-        <v>9992346781</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>204</v>
+        <v>2227893421</v>
+      </c>
+      <c r="K49" s="2" t="str">
+        <f>K2</f>
+        <v>jos@guest.com</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>182</v>
+        <v>113</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>115</v>
+        <v>278</v>
       </c>
       <c r="N49" s="50"/>
       <c r="O49" s="50"/>
@@ -9659,40 +10476,38 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E50" s="5">
-        <v>31173</v>
+        <v>35167</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="I50" s="1">
-        <v>676588</v>
+        <v>345235</v>
       </c>
       <c r="J50" s="1">
-        <v>2226189271</v>
+        <v>8783426621</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="L50" s="1"/>
       <c r="M50" s="1" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="N50" s="50"/>
       <c r="O50" s="50"/>
@@ -9763,56 +10578,57 @@
       <c r="B53" s="54"/>
     </row>
   </sheetData>
+  <autoFilter ref="M1:M54" xr:uid="{2E414AA0-C410-4901-848C-351179CBD742}"/>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="K2" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink r:id="rId2" ref="K3" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
     <hyperlink r:id="rId3" ref="K4" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink r:id="rId4" ref="K5" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink r:id="rId5" ref="K6" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink r:id="rId6" ref="K7" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink r:id="rId7" ref="K8" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink r:id="rId8" ref="K9" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink r:id="rId9" ref="K10" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink r:id="rId10" ref="K11" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink r:id="rId11" ref="K12" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink r:id="rId12" ref="K13" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink r:id="rId13" ref="K14" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink r:id="rId14" ref="K15" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink r:id="rId15" ref="K16" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink r:id="rId16" ref="K17" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink r:id="rId17" ref="K18" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink r:id="rId18" ref="L48" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink r:id="rId19" ref="K19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink r:id="rId20" ref="K20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink r:id="rId21" ref="K21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink r:id="rId22" ref="K22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink r:id="rId23" ref="K23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink r:id="rId24" ref="K24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink r:id="rId25" ref="K25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink r:id="rId26" ref="K26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink r:id="rId27" ref="K27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink r:id="rId28" ref="K28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink r:id="rId29" ref="K29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink r:id="rId30" ref="K30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
-    <hyperlink r:id="rId31" ref="K31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
-    <hyperlink r:id="rId32" ref="K32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
-    <hyperlink r:id="rId33" ref="K33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
-    <hyperlink r:id="rId34" ref="K34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
-    <hyperlink r:id="rId35" ref="K35" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
-    <hyperlink r:id="rId36" ref="K36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
-    <hyperlink r:id="rId37" ref="K37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
-    <hyperlink r:id="rId38" ref="K38" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
-    <hyperlink r:id="rId39" ref="K39" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
-    <hyperlink display="roo@test.com" r:id="rId40" ref="K42" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
-    <hyperlink r:id="rId41" ref="K43" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
-    <hyperlink display="dar@test.com" r:id="rId42" ref="K44" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
-    <hyperlink r:id="rId43" ref="K46" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
-    <hyperlink r:id="rId44" ref="K47" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
-    <hyperlink r:id="rId45" ref="K48" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
-    <hyperlink r:id="rId46" ref="K49" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
-    <hyperlink r:id="rId47" ref="K50" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
-    <hyperlink display="kei@test.com" r:id="rId48" ref="K45" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
-    <hyperlink display="simran@test.com" r:id="rId49" ref="K12" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
+    <hyperlink r:id="rId4" ref="K19" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink r:id="rId5" ref="K20" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink r:id="rId6" ref="K21" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink r:id="rId7" ref="K22" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink r:id="rId8" ref="K5" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink r:id="rId9" ref="K6" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink r:id="rId10" ref="K23" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink r:id="rId11" ref="K7" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink r:id="rId12" ref="K24" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink r:id="rId13" ref="K25" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink r:id="rId14" ref="K8" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink r:id="rId15" ref="K26" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink r:id="rId16" ref="K9" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink r:id="rId17" ref="K27" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink r:id="rId18" ref="L15" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink r:id="rId19" ref="K28" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink r:id="rId20" ref="K29" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink r:id="rId21" ref="K30" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink r:id="rId22" ref="K10" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink r:id="rId23" ref="K31" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink r:id="rId24" ref="K32" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink r:id="rId25" ref="K33" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink r:id="rId26" ref="K34" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink r:id="rId27" ref="K11" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink r:id="rId28" ref="K35" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink r:id="rId29" ref="K36" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink r:id="rId30" ref="K37" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink r:id="rId31" ref="K38" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink r:id="rId32" ref="K12" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink r:id="rId33" ref="K39" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink r:id="rId34" ref="K40" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink r:id="rId35" ref="K41" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink r:id="rId36" ref="K42" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink r:id="rId37" ref="K43" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink r:id="rId38" ref="K13" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink r:id="rId39" ref="K14" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
+    <hyperlink display="roo@test.com" r:id="rId40" ref="K46" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
+    <hyperlink r:id="rId41" ref="K47" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
+    <hyperlink display="dar@test.com" r:id="rId42" ref="K48" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
+    <hyperlink r:id="rId43" ref="K16" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink r:id="rId44" ref="K50" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
+    <hyperlink r:id="rId45" ref="K15" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
+    <hyperlink r:id="rId46" ref="K17" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
+    <hyperlink r:id="rId47" ref="K18" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
+    <hyperlink display="kei@test.com" r:id="rId48" ref="K49" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
+    <hyperlink display="simran@test.com" r:id="rId49" ref="K7" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
     <hyperlink r:id="rId50" ref="K52" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -9827,8 +10643,8 @@
   </sheetPr>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="F8" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10338,8 +11154,8 @@
   </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10765,10 +11581,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView topLeftCell="D18" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10829,10 +11648,10 @@
         <v>356</v>
       </c>
       <c r="G2" s="147" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -10843,10 +11662,10 @@
         <v>337</v>
       </c>
       <c r="C3" s="100">
-        <v>73735</v>
+        <v>37705</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E3" s="1">
         <v>2000</v>
@@ -10854,11 +11673,11 @@
       <c r="F3" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G3" s="156">
-        <v>44421</v>
+      <c r="G3" s="148" t="s">
+        <v>569</v>
       </c>
       <c r="H3" s="148" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -10869,10 +11688,10 @@
         <v>338</v>
       </c>
       <c r="C4" s="100">
-        <v>37705</v>
+        <v>73735</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E4" s="1">
         <v>3000</v>
@@ -10881,10 +11700,10 @@
         <v>356</v>
       </c>
       <c r="G4" s="149" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="H4" s="149" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -10907,10 +11726,10 @@
         <v>356</v>
       </c>
       <c r="G5" s="150" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="H5" s="150" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -10933,10 +11752,10 @@
         <v>356</v>
       </c>
       <c r="G6" s="151" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="H6" s="151" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -10959,10 +11778,10 @@
         <v>356</v>
       </c>
       <c r="G7" s="152" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="H7" s="152" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -10970,23 +11789,23 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>351</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="C8" s="100">
+        <v>73735</v>
+      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G8" s="157" t="s">
-        <v>376</v>
-      </c>
-      <c r="H8" s="157" t="s">
-        <v>569</v>
+        <v>356</v>
+      </c>
+      <c r="G8" s="153" t="s">
+        <v>574</v>
+      </c>
+      <c r="H8" s="153" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -10994,25 +11813,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
+      </c>
+      <c r="C9" s="100">
+        <v>98487</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>351</v>
       </c>
       <c r="E9" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G9" s="158" t="s">
-        <v>376</v>
-      </c>
-      <c r="H9" s="158" t="s">
-        <v>569</v>
+        <v>356</v>
+      </c>
+      <c r="G9" s="154" t="s">
+        <v>575</v>
+      </c>
+      <c r="H9" s="154" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -11020,25 +11839,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>347</v>
+      </c>
+      <c r="C10" s="100">
+        <v>98487</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>351</v>
       </c>
       <c r="E10" s="1">
-        <v>1900</v>
+        <v>501</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G10" s="159" t="s">
-        <v>376</v>
-      </c>
-      <c r="H10" s="159" t="s">
-        <v>569</v>
+        <v>356</v>
+      </c>
+      <c r="G10" s="155" t="s">
+        <v>576</v>
+      </c>
+      <c r="H10" s="155" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -11046,25 +11865,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
+      </c>
+      <c r="C11" s="100">
+        <v>98487</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>351</v>
       </c>
       <c r="E11" s="1">
-        <v>2000</v>
+        <v>100000000</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G11" s="160" t="s">
-        <v>376</v>
-      </c>
-      <c r="H11" s="160" t="s">
-        <v>569</v>
+        <v>356</v>
+      </c>
+      <c r="G11" s="156" t="s">
+        <v>577</v>
+      </c>
+      <c r="H11" s="156" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -11072,25 +11891,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1234</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
+      </c>
+      <c r="C12" s="100">
+        <v>37705</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>352</v>
       </c>
       <c r="E12" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G12" s="161" t="s">
-        <v>376</v>
-      </c>
-      <c r="H12" s="161" t="s">
-        <v>569</v>
+        <v>356</v>
+      </c>
+      <c r="G12" s="157" t="s">
+        <v>578</v>
+      </c>
+      <c r="H12" s="157" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -11098,23 +11917,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="C13" s="100">
-        <v>73735</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>37705</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>352</v>
+      </c>
       <c r="E13" s="1">
-        <v>600</v>
+        <v>501</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="G13" s="153" t="s">
-        <v>570</v>
-      </c>
-      <c r="H13" s="153" t="s">
-        <v>562</v>
+      <c r="G13" s="158" t="s">
+        <v>579</v>
+      </c>
+      <c r="H13" s="158" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -11122,23 +11943,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C14" s="100">
-        <v>98487</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>37705</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>352</v>
+      </c>
+      <c r="E14" s="1">
+        <v>200000000</v>
+      </c>
       <c r="F14" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="G14" s="162" t="s">
-        <v>376</v>
-      </c>
-      <c r="H14" s="162" t="s">
-        <v>574</v>
+        <v>356</v>
+      </c>
+      <c r="G14" s="159" t="s">
+        <v>580</v>
+      </c>
+      <c r="H14" s="159" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -11146,25 +11969,23 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C15" s="100">
-        <v>98487</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>91</v>
+      <c r="E15" s="1">
+        <v>1600</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="G15" s="163" t="s">
+        <v>560</v>
+      </c>
+      <c r="G15" s="160" t="s">
         <v>376</v>
       </c>
-      <c r="H15" s="163" t="s">
-        <v>574</v>
+      <c r="H15" s="160" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -11172,25 +11993,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C16" s="100">
-        <v>98487</v>
+        <v>294</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>349</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>353</v>
+      <c r="E16" s="1">
+        <v>1000</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="G16" s="164" t="s">
+        <v>560</v>
+      </c>
+      <c r="G16" s="161" t="s">
         <v>376</v>
       </c>
-      <c r="H16" s="164" t="s">
-        <v>574</v>
+      <c r="H16" s="161" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -11198,25 +12019,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C17" s="100">
-        <v>98487</v>
+        <v>295</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>354</v>
+      <c r="E17" s="1">
+        <v>1900</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="G17" s="165" t="s">
+        <v>560</v>
+      </c>
+      <c r="G17" s="162" t="s">
         <v>376</v>
       </c>
-      <c r="H17" s="165" t="s">
-        <v>574</v>
+      <c r="H17" s="162" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -11224,25 +12045,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C18" s="100">
-        <v>98487</v>
+        <v>339</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>351</v>
       </c>
       <c r="E18" s="1">
-        <v>499</v>
+        <v>2000</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="G18" s="166" t="s">
+        <v>560</v>
+      </c>
+      <c r="G18" s="163" t="s">
         <v>376</v>
       </c>
-      <c r="H18" s="166" t="s">
-        <v>574</v>
+      <c r="H18" s="163" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -11250,25 +12071,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C19" s="100">
-        <v>98487</v>
+        <v>340</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1234</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>351</v>
       </c>
       <c r="E19" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G19" s="154" t="s">
-        <v>571</v>
-      </c>
-      <c r="H19" s="154" t="s">
-        <v>562</v>
+        <v>560</v>
+      </c>
+      <c r="G19" s="164" t="s">
+        <v>376</v>
+      </c>
+      <c r="H19" s="164" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -11276,7 +12097,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C20" s="100">
         <v>98487</v>
@@ -11284,17 +12105,15 @@
       <c r="D20" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E20" s="1">
-        <v>501</v>
-      </c>
+      <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G20" s="155" t="s">
-        <v>572</v>
-      </c>
-      <c r="H20" s="155" t="s">
-        <v>562</v>
+        <v>358</v>
+      </c>
+      <c r="G20" s="165" t="s">
+        <v>376</v>
+      </c>
+      <c r="H20" s="165" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -11302,7 +12121,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C21" s="100">
         <v>98487</v>
@@ -11310,17 +12129,17 @@
       <c r="D21" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E21" s="1">
-        <v>100000000</v>
+      <c r="E21" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G21" s="169" t="s">
-        <v>575</v>
-      </c>
-      <c r="H21" s="169" t="s">
-        <v>562</v>
+        <v>358</v>
+      </c>
+      <c r="G21" s="166" t="s">
+        <v>376</v>
+      </c>
+      <c r="H21" s="166" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -11328,16 +12147,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C22" s="100">
         <v>98487</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E22" s="1">
-        <v>499</v>
+        <v>351</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>358</v>
@@ -11346,7 +12165,7 @@
         <v>376</v>
       </c>
       <c r="H22" s="167" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -11354,66 +12173,78 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C23" s="100">
-        <v>37705</v>
-      </c>
-      <c r="D23" s="55" t="s">
-        <v>352</v>
-      </c>
-      <c r="E23" s="1">
-        <v>500</v>
+        <v>98487</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>354</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+        <v>358</v>
+      </c>
+      <c r="G23" s="168" t="s">
+        <v>376</v>
+      </c>
+      <c r="H23" s="168" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C24" s="100">
-        <v>37705</v>
-      </c>
-      <c r="D24" s="55" t="s">
-        <v>352</v>
+        <v>98487</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="E24" s="1">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+        <v>358</v>
+      </c>
+      <c r="G24" s="169" t="s">
+        <v>376</v>
+      </c>
+      <c r="H24" s="169" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C25" s="100">
-        <v>37705</v>
-      </c>
-      <c r="D25" s="55" t="s">
+        <v>98487</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>352</v>
       </c>
       <c r="E25" s="1">
-        <v>200000000</v>
+        <v>499</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+        <v>358</v>
+      </c>
+      <c r="G25" s="170" t="s">
+        <v>376</v>
+      </c>
+      <c r="H25" s="170" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -11428,11 +12259,15 @@
       <c r="F26" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="G26" s="171" t="s">
+        <v>376</v>
+      </c>
+      <c r="H26" s="171" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="87">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -11450,8 +12285,12 @@
       <c r="F27" s="87" t="s">
         <v>560</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="G27" s="172" t="s">
+        <v>376</v>
+      </c>
+      <c r="H27" s="172" t="s">
+        <v>581</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -11462,15 +12301,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" bestFit="true" customWidth="true" width="62.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="36.5546875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -11494,14 +12334,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row ht="15.6" r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="56">
+        <v>44363</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>352</v>
       </c>
@@ -11517,7 +12359,9 @@
       <c r="B3" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1">
+        <v>44363</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>351</v>
       </c>
@@ -11533,7 +12377,9 @@
       <c r="B4" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>44566</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>351</v>
       </c>
@@ -11549,7 +12395,9 @@
       <c r="B5" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>44566</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>352</v>
       </c>
@@ -11576,20 +12424,131 @@
       </c>
       <c r="F6" s="1"/>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C11" s="78">
+        <v>44435</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1000001</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row ht="28.8" r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>371</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12345678901</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11625,12 +12584,14 @@
         <v>361</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>563</v>
+        <v>376</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E2" s="50"/>
+      <c r="E2" s="173" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -11640,12 +12601,14 @@
         <v>361</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>564</v>
+        <v>376</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E3" s="50"/>
+      <c r="E3" s="174" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -11655,12 +12618,14 @@
         <v>361</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>565</v>
+        <v>376</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E4" s="50"/>
+      <c r="E4" s="175" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -11670,12 +12635,14 @@
         <v>361</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>566</v>
+        <v>376</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E5" s="50"/>
+      <c r="E5" s="176" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -11685,12 +12652,14 @@
         <v>361</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>567</v>
+        <v>376</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E6" s="50"/>
+      <c r="E6" s="177" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -11700,12 +12669,14 @@
         <v>361</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>568</v>
+        <v>376</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E7" s="50"/>
+      <c r="E7" s="178" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -11715,12 +12686,14 @@
         <v>361</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>570</v>
+        <v>376</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E8" s="50"/>
+      <c r="E8" s="179" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -11730,12 +12703,14 @@
         <v>361</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>571</v>
+        <v>376</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E9" s="50"/>
+      <c r="E9" s="180" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -11745,12 +12720,14 @@
         <v>361</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>572</v>
+        <v>376</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E10" s="50"/>
+      <c r="E10" s="181" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -11760,12 +12737,14 @@
         <v>361</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>573</v>
+        <v>376</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E11" s="50"/>
+      <c r="E11" s="182" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -11775,12 +12754,14 @@
         <v>361</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>575</v>
+        <v>376</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E12" s="50"/>
+      <c r="E12" s="183" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -11789,11 +12770,15 @@
       <c r="B13" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C13" s="48"/>
+      <c r="C13" s="48" t="s">
+        <v>376</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E13" s="50"/>
+      <c r="E13" s="184" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -11802,11 +12787,15 @@
       <c r="B14" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C14" s="48"/>
+      <c r="C14" s="48" t="s">
+        <v>376</v>
+      </c>
       <c r="D14" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E14" s="50"/>
+      <c r="E14" s="185" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -11815,11 +12804,15 @@
       <c r="B15" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C15" s="48"/>
+      <c r="C15" s="48" t="s">
+        <v>376</v>
+      </c>
       <c r="D15" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="E15" s="50"/>
+      <c r="E15" s="186" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -11834,7 +12827,9 @@
       <c r="D16" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E16" s="50"/>
+      <c r="E16" s="187" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -11849,7 +12844,9 @@
       <c r="D17" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="50"/>
+      <c r="E17" s="188" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -11864,7 +12861,9 @@
       <c r="D18" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="50"/>
+      <c r="E18" s="189" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -11873,13 +12872,15 @@
       <c r="B19" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C19" s="1">
-        <v>39282</v>
+      <c r="C19" s="1" t="s">
+        <v>565</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="E19" s="50"/>
+      <c r="E19" s="190" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -11888,13 +12889,15 @@
       <c r="B20" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C20" s="1">
-        <v>1239682</v>
+      <c r="C20" s="1" t="s">
+        <v>566</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="E20" s="50"/>
+      <c r="E20" s="191" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row ht="72" r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -11903,13 +12906,15 @@
       <c r="B21" s="53" t="s">
         <v>371</v>
       </c>
-      <c r="C21" s="1">
-        <v>45003459012</v>
+      <c r="C21" s="1" t="s">
+        <v>567</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="E21" s="50"/>
+      <c r="E21" s="192" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" s="70" t="s">

--- a/SeleniumWebDriver/bin/guru99/DataFiles/Guru99_testdata.xlsx
+++ b/SeleniumWebDriver/bin/guru99/DataFiles/Guru99_testdata.xlsx
@@ -1,35 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{8BFC7396-AB87-4D52-B24E-7FD7D002E97F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5441AD-8745-4A45-A256-BEAF8AF0D3A3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="2" firstSheet="2" windowHeight="12648" windowWidth="22260" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" r:id="rId1" sheetId="6"/>
-    <sheet name="LoginLogout" r:id="rId2" sheetId="1"/>
-    <sheet name="NewCust" r:id="rId3" sheetId="2"/>
-    <sheet name="EditCust" r:id="rId4" sheetId="3"/>
-    <sheet name="DeleteCust" r:id="rId5" sheetId="7"/>
-    <sheet name="NewAcct" r:id="rId6" sheetId="8"/>
-    <sheet name="EditAcct" r:id="rId7" sheetId="9"/>
-    <sheet name="DeleteAcct" r:id="rId8" sheetId="10"/>
-    <sheet name="Deposit" r:id="rId9" sheetId="18"/>
-    <sheet name="Withdrawal" r:id="rId10" sheetId="12"/>
-    <sheet name="FundTransfer" r:id="rId11" sheetId="13"/>
-    <sheet name="BalEnquiry" r:id="rId12" sheetId="17"/>
-    <sheet name="MiniStat" r:id="rId13" sheetId="15"/>
-    <sheet name="CustStat" r:id="rId14" sheetId="16"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId1"/>
+    <sheet name="LoginLogout" sheetId="1" r:id="rId2"/>
+    <sheet name="NewCust" sheetId="2" r:id="rId3"/>
+    <sheet name="EditCust" sheetId="3" r:id="rId4"/>
+    <sheet name="DeleteCust" sheetId="7" r:id="rId5"/>
+    <sheet name="NewAcct" sheetId="8" r:id="rId6"/>
+    <sheet name="EditAcct" sheetId="9" r:id="rId7"/>
+    <sheet name="DeleteAcct" sheetId="10" r:id="rId8"/>
+    <sheet name="Deposit" sheetId="18" r:id="rId9"/>
+    <sheet name="Withdrawal" sheetId="12" r:id="rId10"/>
+    <sheet name="FundTransfer" sheetId="13" r:id="rId11"/>
+    <sheet name="BalEnquiry" sheetId="17" r:id="rId12"/>
+    <sheet name="MiniStat" sheetId="15" r:id="rId13"/>
+    <sheet name="CustStat" sheetId="16" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="5" name="_xlnm._FilterDatabase">NewAcct!$F$1:$F$27</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">NewCust!$M$1:$M$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">NewAcct!$F$1:$F$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">NewCust!$M$1:$M$54</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -42,7 +42,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C24" shapeId="0" xr:uid="{C91B75FE-20C6-4B1B-94B5-DE09A4978240}">
+    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{C91B75FE-20C6-4B1B-94B5-DE09A4978240}">
       <text>
         <r>
           <rPr>
@@ -76,7 +76,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C2" shapeId="0" xr:uid="{5314E864-4DAD-48A0-9132-A0FFD5A6ECD7}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{5314E864-4DAD-48A0-9132-A0FFD5A6ECD7}">
       <text>
         <r>
           <rPr>
@@ -110,7 +110,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="D3" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -144,7 +144,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="D3" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -178,7 +178,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="F3" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -212,7 +212,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -246,7 +246,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="D2" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="617">
   <si>
     <t>testcaseID</t>
   </si>
@@ -2054,9 +2054,6 @@
   </si>
   <si>
     <t>34355</t>
-  </si>
-  <si>
-    <t>Fail - Customer could not be added !!</t>
   </si>
   <si>
     <t>59449</t>
@@ -2135,7 +2132,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2243,7 +2239,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="184">
+  <fills count="160">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3036,136 +3032,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="240">
+  <borders count="192">
     <border>
       <left/>
       <right/>
@@ -6020,711 +5896,291 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="264">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="3" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="4" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="7" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="8" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="10" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="21" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="26" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="27" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="38" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="28" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="29" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="30" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="6" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="9" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="12" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="13" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="14" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="15" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="16" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="17" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="18" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="19" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="20" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="22" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="23" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="24" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="25" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="37" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="31" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="32" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="33" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="34" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="35" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="36" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="39" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="252">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="40" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="41" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="42" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="43" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="44" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="45" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="46" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="47" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="48" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="9" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="49" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="50" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="51" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="52" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="53" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="36" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="54" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="55" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="56" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="57" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="59" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="26" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="26" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="26" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="58" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" borderId="60" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="61" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="62" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="63" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="64" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="65" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="66" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="67" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="68" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="69" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="70" fillId="40" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="71" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="72" fillId="42" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="73" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="74" fillId="44" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="75" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="76" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="77" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="78" fillId="48" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="79" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="80" fillId="50" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="81" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="2" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="83" fillId="52" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="84" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="85" fillId="54" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="86" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="87" fillId="56" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="88" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="89" fillId="58" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="90" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="91" fillId="60" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="92" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="93" fillId="62" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="94" fillId="63" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="95" fillId="64" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="96" fillId="65" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="97" fillId="66" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="98" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="99" fillId="68" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="100" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="101" fillId="70" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="102" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="103" fillId="72" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="104" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="105" fillId="74" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="106" fillId="75" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="107" fillId="76" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="108" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="109" fillId="78" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="110" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="111" fillId="80" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="112" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="113" fillId="82" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="114" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="115" fillId="84" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="116" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="117" fillId="86" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="118" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="119" fillId="88" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="120" fillId="89" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="121" fillId="90" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="122" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="123" fillId="92" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="124" fillId="93" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="125" fillId="94" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="126" fillId="95" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="127" fillId="96" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="128" fillId="97" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="129" fillId="98" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="130" fillId="99" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="131" fillId="100" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="132" fillId="101" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="133" fillId="102" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="134" fillId="103" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="135" fillId="104" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="136" fillId="105" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="137" fillId="106" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="138" fillId="107" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="139" fillId="108" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="140" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="140" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="140" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="140" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="141" fillId="109" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="142" fillId="110" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="143" fillId="111" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="144" fillId="112" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="145" fillId="113" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="146" fillId="114" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="147" fillId="115" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="148" fillId="116" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="149" fillId="117" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="150" fillId="118" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="151" fillId="119" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="152" fillId="120" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="153" fillId="121" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="154" fillId="122" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="155" fillId="123" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="156" fillId="124" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="157" fillId="125" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="158" fillId="126" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="159" fillId="127" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="160" fillId="128" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="161" fillId="129" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="162" fillId="130" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="163" fillId="131" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="164" fillId="132" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="165" fillId="133" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="166" fillId="134" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="167" fillId="135" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="168" fillId="136" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="169" fillId="137" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="170" fillId="138" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="171" fillId="139" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="172" fillId="140" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="173" fillId="141" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="174" fillId="142" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="175" fillId="143" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="176" fillId="144" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="177" fillId="145" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="178" fillId="146" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="179" fillId="147" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="180" fillId="148" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="181" fillId="149" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="182" fillId="150" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="183" fillId="151" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="184" fillId="152" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="185" fillId="153" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="186" fillId="154" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="187" fillId="155" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="188" fillId="156" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="189" fillId="157" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="190" fillId="158" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="191" fillId="159" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="65" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="69" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="71" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="73" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="74" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="75" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="76" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="77" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="78" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="79" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="80" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="81" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="83" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="84" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="85" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="86" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="87" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="88" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="89" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="90" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="91" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="92" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="93" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="94" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="95" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="96" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="97" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="98" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="99" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="100" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="101" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="102" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="103" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="104" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="105" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="106" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="107" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="108" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="78" borderId="109" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="110" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="80" borderId="111" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="81" borderId="112" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="82" borderId="113" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="114" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="115" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="116" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="117" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="118" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="88" borderId="119" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="89" borderId="120" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="90" borderId="121" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="91" borderId="122" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="92" borderId="123" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="93" borderId="124" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="94" borderId="125" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="126" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="96" borderId="127" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="97" borderId="128" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="98" borderId="129" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="99" borderId="130" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="100" borderId="131" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="101" borderId="132" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="102" borderId="133" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="134" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="104" borderId="135" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="105" borderId="136" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="106" borderId="137" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="107" borderId="138" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="139" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="140" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="140" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="140" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="140" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="109" borderId="141" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="110" borderId="142" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="111" borderId="143" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="112" borderId="144" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="113" borderId="145" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="114" borderId="146" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="115" borderId="147" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="148" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="117" borderId="149" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="118" borderId="150" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="119" borderId="151" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="120" borderId="152" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="121" borderId="153" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="122" borderId="154" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="123" borderId="155" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="156" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="125" borderId="157" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="126" borderId="158" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="127" borderId="159" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="160" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="129" borderId="161" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="130" borderId="162" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="131" borderId="163" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="132" borderId="164" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="133" borderId="165" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="134" borderId="166" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="135" borderId="167" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="168" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="137" borderId="169" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="138" borderId="170" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="139" borderId="171" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="140" borderId="172" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="141" borderId="173" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="142" borderId="174" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="143" borderId="175" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="176" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="145" borderId="177" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="146" borderId="178" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="147" borderId="179" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="148" borderId="180" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="149" borderId="181" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="150" borderId="182" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="151" borderId="183" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="152" borderId="184" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="153" borderId="185" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="154" borderId="186" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="155" borderId="187" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="156" borderId="188" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="157" borderId="189" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="158" borderId="190" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="159" borderId="191" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="82" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" borderId="199" fillId="161" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="199" fillId="163" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="207" fillId="165" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="207" fillId="167" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="215" fillId="169" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="215" fillId="171" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="223" fillId="173" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="223" fillId="175" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="231" fillId="177" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="231" fillId="179" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="181" borderId="239" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="183" borderId="239" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -6741,10 +6197,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -6779,7 +6235,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -6814,7 +6270,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -6908,21 +6364,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -6939,7 +6395,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -6991,15 +6447,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:K62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:J62"/>
   <sheetViews>
     <sheetView topLeftCell="H16" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
@@ -7007,12 +6463,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="37.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="47.109375" collapsed="true"/>
-    <col min="7" max="7" style="23" width="9.109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="58.0" collapsed="true"/>
-    <col min="9" max="10" bestFit="true" customWidth="true" width="46.88671875" collapsed="true"/>
+    <col min="4" max="4" width="37.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="47.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.109375" style="23" collapsed="1"/>
+    <col min="8" max="8" width="58" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="46.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
@@ -7185,7 +6641,7 @@
       <c r="I22" s="50"/>
       <c r="J22" s="50"/>
     </row>
-    <row ht="15.6" r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="28"/>
       <c r="H23" s="56" t="s">
         <v>289</v>
@@ -7197,7 +6653,7 @@
         <v>539</v>
       </c>
     </row>
-    <row ht="15.6" r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="29"/>
       <c r="H24" s="250">
         <v>96501</v>
@@ -7207,7 +6663,7 @@
       </c>
       <c r="J24" s="55"/>
     </row>
-    <row ht="15.6" r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="58"/>
       <c r="H25" s="250"/>
       <c r="I25" s="70">
@@ -7215,7 +6671,7 @@
       </c>
       <c r="J25" s="55"/>
     </row>
-    <row ht="15.6" r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="58"/>
       <c r="H26" s="250"/>
       <c r="I26" s="180">
@@ -7223,37 +6679,37 @@
       </c>
       <c r="J26" s="55"/>
     </row>
-    <row ht="15.6" r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="75"/>
       <c r="H27" s="250"/>
       <c r="I27" s="76"/>
       <c r="J27" s="55"/>
     </row>
-    <row ht="15.6" r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="75"/>
       <c r="H28" s="250"/>
       <c r="I28" s="76"/>
       <c r="J28" s="55"/>
     </row>
-    <row ht="15.6" r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="58"/>
       <c r="H29" s="250"/>
       <c r="I29" s="76"/>
       <c r="J29" s="55"/>
     </row>
-    <row ht="15.6" r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="16"/>
       <c r="H30" s="249"/>
       <c r="I30" s="55"/>
       <c r="J30" s="55"/>
     </row>
-    <row ht="15.6" r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="17"/>
       <c r="H31" s="249"/>
       <c r="I31" s="55"/>
       <c r="J31" s="55"/>
     </row>
-    <row ht="15.6" r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="18"/>
       <c r="H32" s="249"/>
       <c r="I32" s="55"/>
@@ -7404,16 +6860,16 @@
     <mergeCell ref="E38:E51"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink display="http://demo.guru99.com/v4/manager/addcustomerpage.php" r:id="rId1" ref="H7" xr:uid="{5475507B-EF53-4435-967A-8E1DB25565D1}"/>
+    <hyperlink ref="H7" r:id="rId1" display="http://demo.guru99.com/v4/manager/addcustomerpage.php" xr:uid="{5475507B-EF53-4435-967A-8E1DB25565D1}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -7421,11 +6877,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.44140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="20.5546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="87.88671875" collapsed="true"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="87.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -7981,15 +7437,15 @@
       <c r="I22" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:I28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
@@ -7997,11 +7453,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="98" width="133.5546875" collapsed="true"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="133.5546875" style="98" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -8582,14 +8038,14 @@
       <c r="A28" s="94"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:T15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B9"/>
@@ -8597,9 +8053,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="34.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -8796,15 +8252,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E9"/>
@@ -8812,9 +8268,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="34.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="40.33203125" collapsed="true"/>
+    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="40.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -8947,13 +8403,13 @@
       <c r="E9" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:J23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -8961,9 +8417,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="34.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="47.44140625" collapsed="true"/>
+    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -9378,17 +8834,17 @@
       <c r="I23" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -9396,12 +8852,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.6640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="51.109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="55.5546875" collapsed="true"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="51.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="55.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -9446,7 +8902,7 @@
       <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="258" t="s">
+      <c r="G2" s="246" t="s">
         <v>491</v>
       </c>
     </row>
@@ -9621,34 +9077,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E2" xr:uid="{A1042357-F7A5-452E-853D-7E0B1747F9AB}"/>
-    <hyperlink r:id="rId2" ref="E9" xr:uid="{93B52504-CADC-47D5-B084-8E8874572F05}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{A1042357-F7A5-452E-853D-7E0B1747F9AB}"/>
+    <hyperlink ref="E9" r:id="rId2" xr:uid="{93B52504-CADC-47D5-B084-8E8874572F05}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFFC000"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J4" workbookViewId="0">
+    <sheetView topLeftCell="J4" workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="52.88671875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="7" width="10.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="37.6640625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="33.5546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="39.33203125" collapsed="true"/>
+    <col min="2" max="2" width="52.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.6640625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="37.6640625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="33.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="39.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -10066,7 +9522,7 @@
         <v>112</v>
       </c>
       <c r="N9" s="245" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O9" s="245" t="s">
         <v>545</v>
@@ -10113,7 +9569,7 @@
         <v>112</v>
       </c>
       <c r="N10" s="205" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="O10" s="205" t="s">
         <v>545</v>
@@ -10160,7 +9616,7 @@
         <v>112</v>
       </c>
       <c r="N11" s="206" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="O11" s="206" t="s">
         <v>545</v>
@@ -10207,7 +9663,7 @@
         <v>112</v>
       </c>
       <c r="N12" s="207" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="O12" s="207" t="s">
         <v>545</v>
@@ -10254,7 +9710,7 @@
         <v>112</v>
       </c>
       <c r="N13" s="208" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="O13" s="208" t="s">
         <v>545</v>
@@ -10301,7 +9757,7 @@
         <v>112</v>
       </c>
       <c r="N14" s="209" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="O14" s="209" t="s">
         <v>545</v>
@@ -10348,7 +9804,7 @@
         <v>112</v>
       </c>
       <c r="N15" s="210" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O15" s="210" t="s">
         <v>545</v>
@@ -10395,7 +9851,7 @@
         <v>112</v>
       </c>
       <c r="N16" s="211" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O16" s="211" t="s">
         <v>545</v>
@@ -10439,13 +9895,13 @@
         <v>110</v>
       </c>
       <c r="M17" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="N17" s="247" t="s">
+        <v>336</v>
+      </c>
+      <c r="O17" s="247" t="s">
         <v>616</v>
-      </c>
-      <c r="N17" s="260" t="s">
-        <v>336</v>
-      </c>
-      <c r="O17" s="260" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -10486,13 +9942,13 @@
         <v>110</v>
       </c>
       <c r="M18" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="N18" s="248" t="s">
+        <v>336</v>
+      </c>
+      <c r="O18" s="248" t="s">
         <v>616</v>
-      </c>
-      <c r="N18" s="262" t="s">
-        <v>336</v>
-      </c>
-      <c r="O18" s="262" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -10537,7 +9993,7 @@
         <v>336</v>
       </c>
       <c r="O19" s="212" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -10584,7 +10040,7 @@
         <v>336</v>
       </c>
       <c r="O20" s="213" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -10631,7 +10087,7 @@
         <v>336</v>
       </c>
       <c r="O21" s="214" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -10723,7 +10179,7 @@
         <v>336</v>
       </c>
       <c r="O23" s="216" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -10768,7 +10224,7 @@
         <v>336</v>
       </c>
       <c r="O24" s="217" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -10815,7 +10271,7 @@
         <v>336</v>
       </c>
       <c r="O25" s="218" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -10907,7 +10363,7 @@
         <v>336</v>
       </c>
       <c r="O27" s="220" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -10954,7 +10410,7 @@
         <v>336</v>
       </c>
       <c r="O28" s="221" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -11001,7 +10457,7 @@
         <v>336</v>
       </c>
       <c r="O29" s="222" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -11093,7 +10549,7 @@
         <v>336</v>
       </c>
       <c r="O31" s="224" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -11140,7 +10596,7 @@
         <v>336</v>
       </c>
       <c r="O32" s="225" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -11187,7 +10643,7 @@
         <v>336</v>
       </c>
       <c r="O33" s="226" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
@@ -11279,7 +10735,7 @@
         <v>336</v>
       </c>
       <c r="O35" s="228" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -11326,7 +10782,7 @@
         <v>336</v>
       </c>
       <c r="O36" s="229" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -11467,7 +10923,7 @@
         <v>336</v>
       </c>
       <c r="O39" s="232" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -11512,7 +10968,7 @@
         <v>336</v>
       </c>
       <c r="O40" s="233" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -11559,7 +11015,7 @@
         <v>336</v>
       </c>
       <c r="O41" s="234" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -11698,7 +11154,7 @@
         <v>336</v>
       </c>
       <c r="O44" s="237" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -11745,7 +11201,7 @@
         <v>336</v>
       </c>
       <c r="O45" s="238" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -11792,7 +11248,7 @@
         <v>336</v>
       </c>
       <c r="O46" s="239" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -11839,7 +11295,7 @@
         <v>336</v>
       </c>
       <c r="O47" s="240" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -11886,7 +11342,7 @@
         <v>336</v>
       </c>
       <c r="O48" s="241" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -11934,7 +11390,7 @@
         <v>336</v>
       </c>
       <c r="O49" s="242" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -12006,7 +11462,7 @@
         <v>336</v>
       </c>
       <c r="O51" s="244" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
@@ -12054,82 +11510,82 @@
   </sheetData>
   <autoFilter ref="M1:M54" xr:uid="{2E414AA0-C410-4901-848C-351179CBD742}"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="K3" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink r:id="rId2" ref="K4" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink r:id="rId3" ref="K19" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink r:id="rId4" ref="K20" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink r:id="rId5" ref="K21" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink r:id="rId6" ref="K22" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink r:id="rId7" ref="K5" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink r:id="rId8" ref="K6" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink r:id="rId9" ref="K23" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink display="keya@test.com" r:id="rId10" ref="K7" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink r:id="rId11" ref="K24" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink r:id="rId12" ref="K25" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink r:id="rId13" ref="K8" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink r:id="rId14" ref="K26" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink r:id="rId15" ref="K9" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink r:id="rId16" ref="K27" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink r:id="rId17" ref="L13" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink r:id="rId18" ref="K28" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink r:id="rId19" ref="K29" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink r:id="rId20" ref="K30" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink r:id="rId21" ref="K17" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink r:id="rId22" ref="K31" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink r:id="rId23" ref="K32" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink r:id="rId24" ref="K33" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink r:id="rId25" ref="K34" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink r:id="rId26" ref="K18" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink r:id="rId27" ref="K35" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink r:id="rId28" ref="K36" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink r:id="rId29" ref="K37" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
-    <hyperlink r:id="rId30" ref="K38" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
-    <hyperlink r:id="rId31" ref="K10" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
-    <hyperlink r:id="rId32" ref="K39" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
-    <hyperlink r:id="rId33" ref="K40" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
-    <hyperlink r:id="rId34" ref="K41" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
-    <hyperlink r:id="rId35" ref="K42" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
-    <hyperlink r:id="rId36" ref="K43" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
-    <hyperlink r:id="rId37" ref="K11" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
-    <hyperlink r:id="rId38" ref="K12" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
-    <hyperlink display="roo@test.com" r:id="rId39" ref="K46" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
-    <hyperlink r:id="rId40" ref="K47" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
-    <hyperlink display="dar@test.com" r:id="rId41" ref="K48" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
-    <hyperlink r:id="rId42" ref="K14" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
-    <hyperlink r:id="rId43" ref="K50" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
-    <hyperlink r:id="rId44" ref="K13" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
-    <hyperlink r:id="rId45" ref="K15" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
-    <hyperlink r:id="rId46" ref="K16" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
-    <hyperlink display="kei@test.com" r:id="rId47" ref="K49" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
-    <hyperlink r:id="rId48" ref="K7" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
-    <hyperlink r:id="rId49" ref="K52" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
-    <hyperlink display="jos@guest.com" r:id="rId50" ref="K2" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="K4" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="K19" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="K20" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="K21" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="K22" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="K5" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="K6" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="K23" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="K7" r:id="rId10" display="keya@test.com" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="K24" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="K25" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="K8" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="K26" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="K9" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="K27" r:id="rId16" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="L13" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="K28" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="K29" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="K30" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="K17" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="K31" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="K32" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="K33" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="K34" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="K18" r:id="rId26" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="K35" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="K36" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="K37" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="K38" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="K10" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="K39" r:id="rId32" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink ref="K40" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink ref="K41" r:id="rId34" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink ref="K42" r:id="rId35" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink ref="K43" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink ref="K11" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink ref="K12" r:id="rId38" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
+    <hyperlink ref="K46" r:id="rId39" display="roo@test.com" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
+    <hyperlink ref="K47" r:id="rId40" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
+    <hyperlink ref="K48" r:id="rId41" display="dar@test.com" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
+    <hyperlink ref="K14" r:id="rId42" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink ref="K50" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
+    <hyperlink ref="K13" r:id="rId44" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
+    <hyperlink ref="K15" r:id="rId45" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
+    <hyperlink ref="K16" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
+    <hyperlink ref="K49" r:id="rId47" display="kei@test.com" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
+    <hyperlink ref="K7" r:id="rId48" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
+    <hyperlink ref="K52" r:id="rId49" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
+    <hyperlink ref="K2" r:id="rId50" display="jos@guest.com" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="0" r:id="rId51"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId51"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0" zoomScaleNormal="100">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="30.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="36.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="43.109375" collapsed="true"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="36" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="43.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -12412,7 +11868,7 @@
         <v>498</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -12571,7 +12027,7 @@
         <v>500</v>
       </c>
     </row>
-    <row ht="72" r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -12608,36 +12064,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="I4" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink r:id="rId2" ref="I5" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink r:id="rId3" ref="I6" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink r:id="rId4" ref="I7" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink r:id="rId5" ref="I8" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink r:id="rId6" ref="I3" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink r:id="rId7" ref="I2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="I4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="I5" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="I6" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="I7" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="I8" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="I3" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="I2" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="0" r:id="rId8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A25"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="51.33203125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="39.88671875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="34.44140625" collapsed="true"/>
+    <col min="2" max="2" width="51.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="39.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -12770,7 +12226,7 @@
         <v>252</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>250</v>
@@ -12785,7 +12241,7 @@
         <v>252</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>250</v>
@@ -12800,7 +12256,7 @@
         <v>252</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>250</v>
@@ -12815,7 +12271,7 @@
         <v>252</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>250</v>
@@ -12830,7 +12286,7 @@
         <v>252</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>250</v>
@@ -12845,7 +12301,7 @@
         <v>252</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>250</v>
@@ -12860,7 +12316,7 @@
         <v>252</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>250</v>
@@ -12875,7 +12331,7 @@
         <v>252</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>250</v>
@@ -12970,7 +12426,7 @@
       </c>
       <c r="E22" s="49"/>
     </row>
-    <row ht="43.2" r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -12978,14 +12434,14 @@
         <v>261</v>
       </c>
       <c r="C23" s="1">
-        <v>10003459012</v>
+        <v>10003459054</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>255</v>
       </c>
       <c r="E23" s="49"/>
     </row>
-    <row ht="43.2" r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -13000,7 +12456,7 @@
       </c>
       <c r="E24" s="49"/>
     </row>
-    <row customHeight="1" ht="15" r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -13015,7 +12471,7 @@
       </c>
       <c r="E25" s="194"/>
     </row>
-    <row customHeight="1" ht="15" r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="103"/>
       <c r="B26" s="196" t="s">
         <v>449</v>
@@ -13028,7 +12484,7 @@
       </c>
       <c r="E26" s="195"/>
     </row>
-    <row customHeight="1" ht="15" r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="51"/>
       <c r="B27" s="50"/>
       <c r="C27" s="50"/>
@@ -13036,18 +12492,18 @@
       <c r="E27" s="195"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
@@ -13055,14 +12511,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="40.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="52.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="34.5546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="52" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="34.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="30.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -13756,18 +13212,18 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C5"/>
@@ -13775,9 +13231,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="62.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="36.5546875" collapsed="true"/>
+    <col min="2" max="2" width="62.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="36.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -13800,7 +13256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15.6" r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -13836,7 +13292,7 @@
         <v>537</v>
       </c>
     </row>
-    <row ht="15.6" r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -13998,7 +13454,7 @@
         <v>538</v>
       </c>
     </row>
-    <row ht="28.8" r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -14017,17 +13473,17 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
@@ -14035,10 +13491,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="30.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="31.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="32.109375" collapsed="true"/>
+    <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -14381,7 +13837,7 @@
         <v>355</v>
       </c>
     </row>
-    <row ht="72" r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -14410,14 +13866,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:J20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -14425,10 +13881,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="51.88671875" collapsed="true"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="51.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -14913,7 +14369,7 @@
       <c r="I20" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/SeleniumWebDriver/bin/guru99/DataFiles/Guru99_testdata.xlsx
+++ b/SeleniumWebDriver/bin/guru99/DataFiles/Guru99_testdata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5441AD-8745-4A45-A256-BEAF8AF0D3A3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC67D945-847B-4783-B639-0DD5115D3D49}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="6" r:id="rId1"/>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="622">
   <si>
     <t>testcaseID</t>
   </si>
@@ -1843,21 +1843,6 @@
     <t>45003459012</t>
   </si>
   <si>
-    <t>44553</t>
-  </si>
-  <si>
-    <t>44554</t>
-  </si>
-  <si>
-    <t>44555</t>
-  </si>
-  <si>
-    <t>44556</t>
-  </si>
-  <si>
-    <t>44557</t>
-  </si>
-  <si>
     <t>44558</t>
   </si>
   <si>
@@ -2126,6 +2111,41 @@
   </si>
   <si>
     <t>Pass - Customer could not be added !!</t>
+  </si>
+  <si>
+    <t>Pass - Customer deleted Successfully</t>
+  </si>
+  <si>
+    <t>Pass - You are not authorize to delete this customer!!</t>
+  </si>
+  <si>
+    <t>Pass - Customer could not be deleted!!. First delete all accounts of this customer then delete the customer</t>
+  </si>
+  <si>
+    <t>44680</t>
+  </si>
+  <si>
+    <t>44681</t>
+  </si>
+  <si>
+    <t>44682</t>
+  </si>
+  <si>
+    <t>44683</t>
+  </si>
+  <si>
+    <t>44684</t>
+  </si>
+  <si>
+    <t>Fail - org.openqa.selenium.TimeoutException: Expected condition failed: waiting for alert to be present (tried for 15 second(s) with 500 milliseconds interval)
+Build info: version: '3.12.0', revision: '7c6e0b3', time: '2018-05-08T15:15:08.936Z'
+System info: host: 'VINSCORPION', ip: '192.168.1.6', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '10.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, acceptSslCerts: false, applicationCacheEnabled: false, browserConnectionEnabled: false, browserName: chrome, chrome: {chromedriverVersion: 2.38.552522 (437e6fbedfa876..., userDataDir: C:\Users\vinay\AppData\Loca...}, cssSelectorsEnabled: true, databaseEnabled: false, handlesAlerts: true, hasTouchScreen: false, javascriptEnabled: true, locationContextEnabled: true, mobileEmulationEnabled: false, nativeEvents: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: XP, platformName: XP, rotatable: false, setWindowRect: true, takesHeapSnapshot: true, takesScreenshot: true, unexpectedAlertBehaviour: , unhandledPromptBehavior: , version: 67.0.3396.87, webStorageEnabled: true}
+Session ID: 664fd41720c3120226d9cdd2f3345dd8</t>
+  </si>
+  <si>
+    <t>Fail - Message mismatch..No Changes made to Account records</t>
   </si>
 </sst>
 </file>
@@ -2239,7 +2259,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="160">
+  <fills count="185">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3040,8 +3060,133 @@
         <fgColor indexed="57"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="192">
+  <borders count="217">
     <border>
       <left/>
       <right/>
@@ -5015,111 +5160,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -5129,6 +5169,486 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5901,7 +6421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="252">
+  <cellXfs count="276">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -6091,29 +6611,28 @@
     <xf numFmtId="0" fontId="0" fillId="90" borderId="121" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="91" borderId="122" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="92" borderId="123" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="93" borderId="124" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="94" borderId="125" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="95" borderId="126" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="96" borderId="127" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="97" borderId="128" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="98" borderId="129" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="99" borderId="130" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="100" borderId="131" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="101" borderId="132" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="102" borderId="133" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="103" borderId="134" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="104" borderId="135" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="105" borderId="136" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="106" borderId="137" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="107" borderId="138" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="139" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="140" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="140" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="140" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="133" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="133" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="140" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="133" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="102" borderId="134" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="135" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="104" borderId="136" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="105" borderId="137" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="106" borderId="138" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="107" borderId="139" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="140" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="109" borderId="141" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="110" borderId="142" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="111" borderId="143" xfId="0" applyFill="1" applyBorder="1"/>
@@ -6165,6 +6684,31 @@
     <xf numFmtId="0" fontId="0" fillId="157" borderId="189" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="158" borderId="190" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="159" borderId="191" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="160" borderId="192" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="161" borderId="193" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="162" borderId="194" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="163" borderId="195" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="164" borderId="196" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="165" borderId="197" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="166" borderId="198" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="167" borderId="199" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="168" borderId="200" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="169" borderId="201" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="170" borderId="202" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="171" borderId="203" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="172" borderId="204" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="173" borderId="205" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="174" borderId="206" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="175" borderId="207" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="176" borderId="208" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="177" borderId="209" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="178" borderId="210" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="179" borderId="211" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="180" borderId="212" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="181" borderId="213" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="182" borderId="214" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="183" borderId="215" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="184" borderId="216" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6650,12 +7194,12 @@
         <v>290</v>
       </c>
       <c r="J23" s="57" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="29"/>
-      <c r="H24" s="250">
+      <c r="H24" s="274">
         <v>96501</v>
       </c>
       <c r="I24" s="70">
@@ -6665,7 +7209,7 @@
     </row>
     <row r="25" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="58"/>
-      <c r="H25" s="250"/>
+      <c r="H25" s="274"/>
       <c r="I25" s="70">
         <v>44566</v>
       </c>
@@ -6673,63 +7217,63 @@
     </row>
     <row r="26" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="58"/>
-      <c r="H26" s="250"/>
-      <c r="I26" s="180">
+      <c r="H26" s="274"/>
+      <c r="I26" s="175">
         <v>44604</v>
       </c>
       <c r="J26" s="55"/>
     </row>
     <row r="27" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="75"/>
-      <c r="H27" s="250"/>
+      <c r="H27" s="274"/>
       <c r="I27" s="76"/>
       <c r="J27" s="55"/>
     </row>
     <row r="28" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="75"/>
-      <c r="H28" s="250"/>
+      <c r="H28" s="274"/>
       <c r="I28" s="76"/>
       <c r="J28" s="55"/>
     </row>
     <row r="29" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="58"/>
-      <c r="H29" s="250"/>
+      <c r="H29" s="274"/>
       <c r="I29" s="76"/>
       <c r="J29" s="55"/>
     </row>
     <row r="30" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="16"/>
-      <c r="H30" s="249"/>
+      <c r="H30" s="273"/>
       <c r="I30" s="55"/>
       <c r="J30" s="55"/>
     </row>
     <row r="31" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="17"/>
-      <c r="H31" s="249"/>
+      <c r="H31" s="273"/>
       <c r="I31" s="55"/>
       <c r="J31" s="55"/>
     </row>
     <row r="32" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="18"/>
-      <c r="H32" s="249"/>
+      <c r="H32" s="273"/>
       <c r="I32" s="55"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="19"/>
-      <c r="H33" s="249"/>
+      <c r="H33" s="273"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="20"/>
-      <c r="H34" s="249"/>
+      <c r="H34" s="273"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="21"/>
-      <c r="H35" s="249"/>
+      <c r="H35" s="273"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
@@ -6741,95 +7285,95 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="31"/>
-      <c r="E38" s="251" t="s">
+      <c r="E38" s="275" t="s">
         <v>515</v>
       </c>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="32"/>
-      <c r="E39" s="251"/>
+      <c r="E39" s="275"/>
       <c r="F39" s="132" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="33"/>
-      <c r="E40" s="251"/>
+      <c r="E40" s="275"/>
       <c r="F40" s="132" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="34"/>
-      <c r="E41" s="251"/>
+      <c r="E41" s="275"/>
       <c r="F41" s="132" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="35"/>
-      <c r="E42" s="251"/>
+      <c r="E42" s="275"/>
       <c r="F42" s="132" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="E43" s="251"/>
+      <c r="E43" s="275"/>
       <c r="F43" s="132" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="36"/>
-      <c r="E44" s="251"/>
+      <c r="E44" s="275"/>
       <c r="F44" s="132" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="37"/>
-      <c r="E45" s="251"/>
+      <c r="E45" s="275"/>
       <c r="F45" s="132" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="38"/>
-      <c r="E46" s="251"/>
+      <c r="E46" s="275"/>
       <c r="F46" s="132" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="39"/>
-      <c r="E47" s="251"/>
+      <c r="E47" s="275"/>
       <c r="F47" s="132" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="40"/>
-      <c r="E48" s="251"/>
+      <c r="E48" s="275"/>
       <c r="F48" s="132" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E49" s="251"/>
+      <c r="E49" s="275"/>
       <c r="F49" s="132" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E50" s="251"/>
+      <c r="E50" s="275"/>
       <c r="F50" s="132" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="41"/>
-      <c r="E51" s="251"/>
+      <c r="E51" s="275"/>
       <c r="F51" s="133" t="s">
         <v>251</v>
       </c>
@@ -8902,7 +9446,7 @@
       <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="246" t="s">
+      <c r="G2" s="269" t="s">
         <v>491</v>
       </c>
     </row>
@@ -9092,7 +9636,7 @@
   </sheetPr>
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView topLeftCell="J4" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
@@ -9186,7 +9730,7 @@
         <v>7771232345</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>110</v>
@@ -9194,11 +9738,11 @@
       <c r="M2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N2" s="198" t="s">
-        <v>546</v>
-      </c>
-      <c r="O2" s="198" t="s">
-        <v>545</v>
+      <c r="N2" s="190" t="s">
+        <v>541</v>
+      </c>
+      <c r="O2" s="190" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -9233,7 +9777,7 @@
         <v>7778907689</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>110</v>
@@ -9241,11 +9785,11 @@
       <c r="M3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N3" s="199" t="s">
-        <v>587</v>
-      </c>
-      <c r="O3" s="199" t="s">
-        <v>545</v>
+      <c r="N3" s="191" t="s">
+        <v>582</v>
+      </c>
+      <c r="O3" s="191" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -9280,7 +9824,7 @@
         <v>7771237890</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>110</v>
@@ -9288,11 +9832,11 @@
       <c r="M4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N4" s="200" t="s">
-        <v>588</v>
-      </c>
-      <c r="O4" s="200" t="s">
-        <v>545</v>
+      <c r="N4" s="192" t="s">
+        <v>583</v>
+      </c>
+      <c r="O4" s="192" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -9327,7 +9871,7 @@
         <v>4447895432</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>110</v>
@@ -9335,11 +9879,11 @@
       <c r="M5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N5" s="201" t="s">
-        <v>589</v>
-      </c>
-      <c r="O5" s="201" t="s">
-        <v>545</v>
+      <c r="N5" s="193" t="s">
+        <v>584</v>
+      </c>
+      <c r="O5" s="193" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -9372,7 +9916,7 @@
         <v>7779081234</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>110</v>
@@ -9380,11 +9924,11 @@
       <c r="M6" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N6" s="202" t="s">
-        <v>590</v>
-      </c>
-      <c r="O6" s="202" t="s">
-        <v>545</v>
+      <c r="N6" s="194" t="s">
+        <v>585</v>
+      </c>
+      <c r="O6" s="194" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -9419,7 +9963,7 @@
         <v>7771236789</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>110</v>
@@ -9427,11 +9971,11 @@
       <c r="M7" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N7" s="203" t="s">
-        <v>591</v>
-      </c>
-      <c r="O7" s="203" t="s">
-        <v>545</v>
+      <c r="N7" s="195" t="s">
+        <v>586</v>
+      </c>
+      <c r="O7" s="195" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -9466,7 +10010,7 @@
         <v>8786357718</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>110</v>
@@ -9474,11 +10018,11 @@
       <c r="M8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N8" s="204" t="s">
-        <v>592</v>
-      </c>
-      <c r="O8" s="204" t="s">
-        <v>545</v>
+      <c r="N8" s="196" t="s">
+        <v>587</v>
+      </c>
+      <c r="O8" s="196" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -9513,7 +10057,7 @@
         <v>4417657812</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>110</v>
@@ -9521,11 +10065,11 @@
       <c r="M9" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N9" s="245" t="s">
-        <v>614</v>
-      </c>
-      <c r="O9" s="245" t="s">
-        <v>545</v>
+      <c r="N9" s="237" t="s">
+        <v>609</v>
+      </c>
+      <c r="O9" s="237" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -9560,7 +10104,7 @@
         <v>5658901234</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>110</v>
@@ -9568,11 +10112,11 @@
       <c r="M10" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N10" s="205" t="s">
-        <v>593</v>
-      </c>
-      <c r="O10" s="205" t="s">
-        <v>545</v>
+      <c r="N10" s="197" t="s">
+        <v>588</v>
+      </c>
+      <c r="O10" s="197" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -9607,7 +10151,7 @@
         <v>8806785435</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>110</v>
@@ -9615,11 +10159,11 @@
       <c r="M11" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N11" s="206" t="s">
-        <v>594</v>
-      </c>
-      <c r="O11" s="206" t="s">
-        <v>545</v>
+      <c r="N11" s="198" t="s">
+        <v>589</v>
+      </c>
+      <c r="O11" s="198" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -9654,7 +10198,7 @@
         <v>2227658912</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>110</v>
@@ -9662,11 +10206,11 @@
       <c r="M12" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N12" s="207" t="s">
-        <v>595</v>
-      </c>
-      <c r="O12" s="207" t="s">
-        <v>545</v>
+      <c r="N12" s="199" t="s">
+        <v>590</v>
+      </c>
+      <c r="O12" s="199" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -9701,7 +10245,7 @@
         <v>7776528901</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>177</v>
@@ -9709,11 +10253,11 @@
       <c r="M13" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N13" s="208" t="s">
-        <v>596</v>
-      </c>
-      <c r="O13" s="208" t="s">
-        <v>545</v>
+      <c r="N13" s="200" t="s">
+        <v>591</v>
+      </c>
+      <c r="O13" s="200" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -9748,7 +10292,7 @@
         <v>90165328917</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>110</v>
@@ -9756,11 +10300,11 @@
       <c r="M14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N14" s="209" t="s">
-        <v>597</v>
-      </c>
-      <c r="O14" s="209" t="s">
-        <v>545</v>
+      <c r="N14" s="201" t="s">
+        <v>592</v>
+      </c>
+      <c r="O14" s="201" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -9795,7 +10339,7 @@
         <v>9992346781</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>178</v>
@@ -9803,11 +10347,11 @@
       <c r="M15" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N15" s="210" t="s">
-        <v>598</v>
-      </c>
-      <c r="O15" s="210" t="s">
-        <v>545</v>
+      <c r="N15" s="202" t="s">
+        <v>593</v>
+      </c>
+      <c r="O15" s="202" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -9842,7 +10386,7 @@
         <v>2226189271</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>179</v>
@@ -9850,11 +10394,11 @@
       <c r="M16" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N16" s="211" t="s">
-        <v>599</v>
-      </c>
-      <c r="O16" s="211" t="s">
-        <v>545</v>
+      <c r="N16" s="203" t="s">
+        <v>594</v>
+      </c>
+      <c r="O16" s="203" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -9889,19 +10433,19 @@
         <v>5557789012</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>110</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="N17" s="247" t="s">
+        <v>610</v>
+      </c>
+      <c r="N17" s="238" t="s">
         <v>336</v>
       </c>
-      <c r="O17" s="247" t="s">
-        <v>616</v>
+      <c r="O17" s="238" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -9936,19 +10480,19 @@
         <v>1239872361</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>110</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="N18" s="248" t="s">
+        <v>610</v>
+      </c>
+      <c r="N18" s="239" t="s">
         <v>336</v>
       </c>
-      <c r="O18" s="248" t="s">
-        <v>616</v>
+      <c r="O18" s="239" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -9981,7 +10525,7 @@
         <v>9991237890</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>110</v>
@@ -9989,11 +10533,11 @@
       <c r="M19" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N19" s="212" t="s">
+      <c r="N19" s="204" t="s">
         <v>336</v>
       </c>
-      <c r="O19" s="212" t="s">
-        <v>600</v>
+      <c r="O19" s="204" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -10028,7 +10572,7 @@
         <v>5556789087</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>110</v>
@@ -10036,11 +10580,11 @@
       <c r="M20" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N20" s="213" t="s">
+      <c r="N20" s="205" t="s">
         <v>336</v>
       </c>
-      <c r="O20" s="213" t="s">
-        <v>601</v>
+      <c r="O20" s="205" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -10075,7 +10619,7 @@
         <v>5554567897</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>110</v>
@@ -10083,11 +10627,11 @@
       <c r="M21" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N21" s="214" t="s">
+      <c r="N21" s="206" t="s">
         <v>336</v>
       </c>
-      <c r="O21" s="214" t="s">
-        <v>602</v>
+      <c r="O21" s="206" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -10122,7 +10666,7 @@
         <v>4448960786</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>110</v>
@@ -10130,10 +10674,10 @@
       <c r="M22" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N22" s="215" t="s">
+      <c r="N22" s="207" t="s">
         <v>336</v>
       </c>
-      <c r="O22" s="215" t="s">
+      <c r="O22" s="207" t="s">
         <v>354</v>
       </c>
     </row>
@@ -10167,7 +10711,7 @@
         <v>7776892313</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>110</v>
@@ -10175,11 +10719,11 @@
       <c r="M23" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="N23" s="216" t="s">
+      <c r="N23" s="208" t="s">
         <v>336</v>
       </c>
-      <c r="O23" s="216" t="s">
-        <v>603</v>
+      <c r="O23" s="208" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -10212,7 +10756,7 @@
         <v>2227657890</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>110</v>
@@ -10220,11 +10764,11 @@
       <c r="M24" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="N24" s="217" t="s">
+      <c r="N24" s="209" t="s">
         <v>336</v>
       </c>
-      <c r="O24" s="217" t="s">
-        <v>604</v>
+      <c r="O24" s="209" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -10259,7 +10803,7 @@
         <v>90167189172</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>110</v>
@@ -10267,11 +10811,11 @@
       <c r="M25" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N25" s="218" t="s">
+      <c r="N25" s="210" t="s">
         <v>336</v>
       </c>
-      <c r="O25" s="218" t="s">
-        <v>601</v>
+      <c r="O25" s="210" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -10306,7 +10850,7 @@
         <v>4417678901</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>110</v>
@@ -10314,10 +10858,10 @@
       <c r="M26" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N26" s="219" t="s">
+      <c r="N26" s="211" t="s">
         <v>336</v>
       </c>
-      <c r="O26" s="219" t="s">
+      <c r="O26" s="211" t="s">
         <v>354</v>
       </c>
     </row>
@@ -10351,7 +10895,7 @@
         <v>9997863271</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>110</v>
@@ -10359,11 +10903,11 @@
       <c r="M27" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="N27" s="220" t="s">
+      <c r="N27" s="212" t="s">
         <v>336</v>
       </c>
-      <c r="O27" s="220" t="s">
-        <v>605</v>
+      <c r="O27" s="212" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -10398,7 +10942,7 @@
         <v>6557891271</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>110</v>
@@ -10406,11 +10950,11 @@
       <c r="M28" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N28" s="221" t="s">
+      <c r="N28" s="213" t="s">
         <v>336</v>
       </c>
-      <c r="O28" s="221" t="s">
-        <v>601</v>
+      <c r="O28" s="213" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -10445,7 +10989,7 @@
         <v>7779874561</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>110</v>
@@ -10453,11 +10997,11 @@
       <c r="M29" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N29" s="222" t="s">
+      <c r="N29" s="214" t="s">
         <v>336</v>
       </c>
-      <c r="O29" s="222" t="s">
-        <v>602</v>
+      <c r="O29" s="214" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -10492,7 +11036,7 @@
         <v>7779084515</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>110</v>
@@ -10500,10 +11044,10 @@
       <c r="M30" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N30" s="223" t="s">
+      <c r="N30" s="215" t="s">
         <v>336</v>
       </c>
-      <c r="O30" s="223" t="s">
+      <c r="O30" s="215" t="s">
         <v>354</v>
       </c>
     </row>
@@ -10537,7 +11081,7 @@
         <v>1018237829</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>110</v>
@@ -10545,11 +11089,11 @@
       <c r="M31" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N31" s="224" t="s">
+      <c r="N31" s="216" t="s">
         <v>336</v>
       </c>
-      <c r="O31" s="224" t="s">
-        <v>606</v>
+      <c r="O31" s="216" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -10584,7 +11128,7 @@
         <v>1015677890</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>110</v>
@@ -10592,11 +11136,11 @@
       <c r="M32" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N32" s="225" t="s">
+      <c r="N32" s="217" t="s">
         <v>336</v>
       </c>
-      <c r="O32" s="225" t="s">
-        <v>601</v>
+      <c r="O32" s="217" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -10631,7 +11175,7 @@
         <v>1012237893</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>110</v>
@@ -10639,11 +11183,11 @@
       <c r="M33" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N33" s="226" t="s">
+      <c r="N33" s="218" t="s">
         <v>336</v>
       </c>
-      <c r="O33" s="226" t="s">
-        <v>602</v>
+      <c r="O33" s="218" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
@@ -10678,7 +11222,7 @@
         <v>1016738377</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>110</v>
@@ -10686,10 +11230,10 @@
       <c r="M34" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N34" s="227" t="s">
+      <c r="N34" s="219" t="s">
         <v>336</v>
       </c>
-      <c r="O34" s="227" t="s">
+      <c r="O34" s="219" t="s">
         <v>354</v>
       </c>
     </row>
@@ -10723,7 +11267,7 @@
         <v>4417728910</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>110</v>
@@ -10731,11 +11275,11 @@
       <c r="M35" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="N35" s="228" t="s">
+      <c r="N35" s="220" t="s">
         <v>336</v>
       </c>
-      <c r="O35" s="228" t="s">
-        <v>607</v>
+      <c r="O35" s="220" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -10770,7 +11314,7 @@
         <v>5657811232</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>110</v>
@@ -10778,11 +11322,11 @@
       <c r="M36" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N36" s="229" t="s">
+      <c r="N36" s="221" t="s">
         <v>336</v>
       </c>
-      <c r="O36" s="229" t="s">
-        <v>601</v>
+      <c r="O36" s="221" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -10817,7 +11361,7 @@
         <v>6628725671</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>110</v>
@@ -10825,10 +11369,10 @@
       <c r="M37" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N37" s="230" t="s">
+      <c r="N37" s="222" t="s">
         <v>336</v>
       </c>
-      <c r="O37" s="230" t="s">
+      <c r="O37" s="222" t="s">
         <v>353</v>
       </c>
     </row>
@@ -10864,7 +11408,7 @@
         <v>5529874561</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>110</v>
@@ -10872,10 +11416,10 @@
       <c r="M38" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N38" s="231" t="s">
+      <c r="N38" s="223" t="s">
         <v>336</v>
       </c>
-      <c r="O38" s="231" t="s">
+      <c r="O38" s="223" t="s">
         <v>354</v>
       </c>
     </row>
@@ -10911,7 +11455,7 @@
         <v>9328982123</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>110</v>
@@ -10919,11 +11463,11 @@
       <c r="M39" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="N39" s="232" t="s">
+      <c r="N39" s="224" t="s">
         <v>336</v>
       </c>
-      <c r="O39" s="232" t="s">
-        <v>608</v>
+      <c r="O39" s="224" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -10956,7 +11500,7 @@
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="2" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>110</v>
@@ -10964,11 +11508,11 @@
       <c r="M40" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="N40" s="233" t="s">
+      <c r="N40" s="225" t="s">
         <v>336</v>
       </c>
-      <c r="O40" s="233" t="s">
-        <v>609</v>
+      <c r="O40" s="225" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -11003,7 +11547,7 @@
         <v>90</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>110</v>
@@ -11011,11 +11555,11 @@
       <c r="M41" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N41" s="234" t="s">
+      <c r="N41" s="226" t="s">
         <v>336</v>
       </c>
-      <c r="O41" s="234" t="s">
-        <v>601</v>
+      <c r="O41" s="226" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -11050,7 +11594,7 @@
         <v>238</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>110</v>
@@ -11058,10 +11602,10 @@
       <c r="M42" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N42" s="235" t="s">
+      <c r="N42" s="227" t="s">
         <v>336</v>
       </c>
-      <c r="O42" s="235" t="s">
+      <c r="O42" s="227" t="s">
         <v>353</v>
       </c>
     </row>
@@ -11097,7 +11641,7 @@
         <v>248</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>110</v>
@@ -11105,10 +11649,10 @@
       <c r="M43" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N43" s="236" t="s">
+      <c r="N43" s="228" t="s">
         <v>336</v>
       </c>
-      <c r="O43" s="236" t="s">
+      <c r="O43" s="228" t="s">
         <v>354</v>
       </c>
     </row>
@@ -11150,11 +11694,11 @@
       <c r="M44" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="N44" s="237" t="s">
+      <c r="N44" s="229" t="s">
         <v>336</v>
       </c>
-      <c r="O44" s="237" t="s">
-        <v>610</v>
+      <c r="O44" s="229" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -11197,11 +11741,11 @@
       <c r="M45" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N45" s="238" t="s">
+      <c r="N45" s="230" t="s">
         <v>336</v>
       </c>
-      <c r="O45" s="238" t="s">
-        <v>601</v>
+      <c r="O45" s="230" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -11244,11 +11788,11 @@
       <c r="M46" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N46" s="239" t="s">
+      <c r="N46" s="231" t="s">
         <v>336</v>
       </c>
-      <c r="O46" s="239" t="s">
-        <v>611</v>
+      <c r="O46" s="231" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -11291,11 +11835,11 @@
       <c r="M47" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N47" s="240" t="s">
+      <c r="N47" s="232" t="s">
         <v>336</v>
       </c>
-      <c r="O47" s="240" t="s">
-        <v>611</v>
+      <c r="O47" s="232" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -11338,11 +11882,11 @@
       <c r="M48" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N48" s="241" t="s">
+      <c r="N48" s="233" t="s">
         <v>336</v>
       </c>
-      <c r="O48" s="241" t="s">
-        <v>611</v>
+      <c r="O48" s="233" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -11386,11 +11930,11 @@
       <c r="M49" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="N49" s="242" t="s">
+      <c r="N49" s="234" t="s">
         <v>336</v>
       </c>
-      <c r="O49" s="242" t="s">
-        <v>612</v>
+      <c r="O49" s="234" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -11425,16 +11969,16 @@
         <v>8783426621</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N50" s="243" t="s">
+      <c r="N50" s="235" t="s">
         <v>336</v>
       </c>
-      <c r="O50" s="243" t="s">
+      <c r="O50" s="235" t="s">
         <v>494</v>
       </c>
     </row>
@@ -11458,11 +12002,11 @@
       <c r="M51" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="N51" s="244" t="s">
+      <c r="N51" s="236" t="s">
         <v>336</v>
       </c>
-      <c r="O51" s="244" t="s">
-        <v>613</v>
+      <c r="O51" s="236" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
@@ -11495,7 +12039,7 @@
         <v>9996278123</v>
       </c>
       <c r="K52" s="100" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="L52" s="86" t="s">
         <v>110</v>
@@ -11569,7 +12113,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
-    <tabColor theme="9"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
@@ -11631,7 +12175,7 @@
         <v>266</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>274</v>
@@ -11649,7 +12193,7 @@
         <v>7771232345</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>283</v>
@@ -11666,7 +12210,7 @@
         <v>267</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>39</v>
@@ -11684,7 +12228,7 @@
         <v>7771232345</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>283</v>
@@ -11701,7 +12245,7 @@
         <v>268</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>39</v>
@@ -11719,7 +12263,7 @@
         <v>7771232345</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>283</v>
@@ -11736,7 +12280,7 @@
         <v>269</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>275</v>
@@ -11754,7 +12298,7 @@
         <v>7771232345</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>283</v>
@@ -11771,7 +12315,7 @@
         <v>270</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>276</v>
@@ -11789,7 +12333,7 @@
         <v>7778901237</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>283</v>
@@ -11806,7 +12350,7 @@
         <v>271</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>277</v>
@@ -11841,7 +12385,7 @@
         <v>282</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>277</v>
@@ -11876,7 +12420,7 @@
         <v>272</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -12080,12 +12624,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFFC000"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12121,12 +12665,14 @@
         <v>252</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>546</v>
+        <v>336</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E2" s="49"/>
+      <c r="E2" s="240" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -12136,12 +12682,14 @@
         <v>252</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>587</v>
+        <v>336</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E3" s="49"/>
+      <c r="E3" s="241" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -12151,12 +12699,14 @@
         <v>252</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>588</v>
+        <v>336</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E4" s="49"/>
+      <c r="E4" s="242" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -12166,12 +12716,14 @@
         <v>252</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>589</v>
+        <v>336</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E5" s="49"/>
+      <c r="E5" s="243" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -12181,12 +12733,14 @@
         <v>252</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>590</v>
+        <v>336</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E6" s="49"/>
+      <c r="E6" s="244" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -12196,12 +12750,14 @@
         <v>252</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>591</v>
+        <v>336</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E7" s="49"/>
+      <c r="E7" s="245" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -12211,12 +12767,14 @@
         <v>252</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>592</v>
+        <v>336</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E8" s="49"/>
+      <c r="E8" s="246" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -12226,12 +12784,14 @@
         <v>252</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>593</v>
+        <v>336</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E9" s="49"/>
+      <c r="E9" s="247" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -12241,12 +12801,14 @@
         <v>252</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>594</v>
+        <v>336</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E10" s="49"/>
+      <c r="E10" s="248" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -12256,12 +12818,14 @@
         <v>252</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>595</v>
+        <v>336</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E11" s="49"/>
+      <c r="E11" s="249" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -12271,12 +12835,14 @@
         <v>252</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>596</v>
+        <v>336</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E12" s="49"/>
+      <c r="E12" s="250" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -12286,12 +12852,14 @@
         <v>252</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>597</v>
+        <v>336</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E13" s="49"/>
+      <c r="E13" s="251" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -12301,12 +12869,14 @@
         <v>252</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>598</v>
+        <v>336</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E14" s="49"/>
+      <c r="E14" s="252" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -12316,12 +12886,14 @@
         <v>252</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>599</v>
+        <v>336</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E15" s="49"/>
+      <c r="E15" s="253" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -12331,12 +12903,14 @@
         <v>252</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>614</v>
+        <v>336</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E16" s="49"/>
+      <c r="E16" s="254" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -12349,7 +12923,9 @@
       <c r="D17" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E17" s="49"/>
+      <c r="E17" s="255" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -12364,7 +12940,9 @@
       <c r="D18" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E18" s="49"/>
+      <c r="E18" s="256" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -12379,7 +12957,9 @@
       <c r="D19" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="49"/>
+      <c r="E19" s="257" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -12394,7 +12974,9 @@
       <c r="D20" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="49"/>
+      <c r="E20" s="258" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -12409,7 +12991,9 @@
       <c r="D21" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E21" s="49"/>
+      <c r="E21" s="259" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -12424,7 +13008,9 @@
       <c r="D22" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E22" s="49"/>
+      <c r="E22" s="260" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -12439,7 +13025,9 @@
       <c r="D23" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E23" s="49"/>
+      <c r="E23" s="261" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -12454,26 +13042,30 @@
       <c r="D24" s="52" t="s">
         <v>294</v>
       </c>
-      <c r="E24" s="49"/>
+      <c r="E24" s="262" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="197" t="s">
+      <c r="B25" s="189" t="s">
         <v>366</v>
       </c>
-      <c r="C25" s="192">
+      <c r="C25" s="185">
         <v>37672</v>
       </c>
-      <c r="D25" s="193" t="s">
+      <c r="D25" s="186" t="s">
         <v>255</v>
       </c>
-      <c r="E25" s="194"/>
+      <c r="E25" s="263" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="103"/>
-      <c r="B26" s="196" t="s">
+      <c r="B26" s="188" t="s">
         <v>449</v>
       </c>
       <c r="C26" s="103">
@@ -12482,14 +13074,14 @@
       <c r="D26" s="50" t="s">
         <v>285</v>
       </c>
-      <c r="E26" s="195"/>
+      <c r="E26" s="187"/>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="51"/>
       <c r="B27" s="50"/>
       <c r="C27" s="50"/>
       <c r="D27" s="50"/>
-      <c r="E27" s="195"/>
+      <c r="E27" s="187"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12506,7 +13098,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12566,10 +13158,10 @@
       <c r="F2" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G2" s="134" t="s">
-        <v>522</v>
-      </c>
-      <c r="H2" s="134" t="s">
+      <c r="G2" s="264" t="s">
+        <v>615</v>
+      </c>
+      <c r="H2" s="264" t="s">
         <v>518</v>
       </c>
     </row>
@@ -12592,10 +13184,10 @@
       <c r="F3" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G3" s="135" t="s">
-        <v>523</v>
-      </c>
-      <c r="H3" s="135" t="s">
+      <c r="G3" s="265" t="s">
+        <v>616</v>
+      </c>
+      <c r="H3" s="265" t="s">
         <v>518</v>
       </c>
     </row>
@@ -12618,10 +13210,10 @@
       <c r="F4" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G4" s="136" t="s">
-        <v>524</v>
-      </c>
-      <c r="H4" s="136" t="s">
+      <c r="G4" s="266" t="s">
+        <v>617</v>
+      </c>
+      <c r="H4" s="266" t="s">
         <v>518</v>
       </c>
     </row>
@@ -12644,10 +13236,10 @@
       <c r="F5" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G5" s="137" t="s">
-        <v>525</v>
-      </c>
-      <c r="H5" s="137" t="s">
+      <c r="G5" s="267" t="s">
+        <v>618</v>
+      </c>
+      <c r="H5" s="267" t="s">
         <v>518</v>
       </c>
     </row>
@@ -12670,10 +13262,10 @@
       <c r="F6" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G6" s="138" t="s">
-        <v>526</v>
-      </c>
-      <c r="H6" s="138" t="s">
+      <c r="G6" s="268" t="s">
+        <v>619</v>
+      </c>
+      <c r="H6" s="268" t="s">
         <v>518</v>
       </c>
     </row>
@@ -12696,10 +13288,10 @@
       <c r="F7" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G7" s="139" t="s">
-        <v>527</v>
-      </c>
-      <c r="H7" s="139" t="s">
+      <c r="G7" s="134" t="s">
+        <v>522</v>
+      </c>
+      <c r="H7" s="134" t="s">
         <v>518</v>
       </c>
     </row>
@@ -12720,10 +13312,10 @@
       <c r="F8" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G8" s="140" t="s">
-        <v>528</v>
-      </c>
-      <c r="H8" s="140" t="s">
+      <c r="G8" s="135" t="s">
+        <v>523</v>
+      </c>
+      <c r="H8" s="135" t="s">
         <v>518</v>
       </c>
     </row>
@@ -12746,10 +13338,10 @@
       <c r="F9" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G9" s="141" t="s">
-        <v>529</v>
-      </c>
-      <c r="H9" s="141" t="s">
+      <c r="G9" s="136" t="s">
+        <v>524</v>
+      </c>
+      <c r="H9" s="136" t="s">
         <v>518</v>
       </c>
     </row>
@@ -12772,10 +13364,10 @@
       <c r="F10" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G10" s="142" t="s">
-        <v>530</v>
-      </c>
-      <c r="H10" s="142" t="s">
+      <c r="G10" s="137" t="s">
+        <v>525</v>
+      </c>
+      <c r="H10" s="137" t="s">
         <v>518</v>
       </c>
     </row>
@@ -12798,10 +13390,10 @@
       <c r="F11" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G11" s="143" t="s">
-        <v>531</v>
-      </c>
-      <c r="H11" s="143" t="s">
+      <c r="G11" s="138" t="s">
+        <v>526</v>
+      </c>
+      <c r="H11" s="138" t="s">
         <v>518</v>
       </c>
     </row>
@@ -12824,10 +13416,10 @@
       <c r="F12" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G12" s="144" t="s">
-        <v>532</v>
-      </c>
-      <c r="H12" s="144" t="s">
+      <c r="G12" s="139" t="s">
+        <v>527</v>
+      </c>
+      <c r="H12" s="139" t="s">
         <v>518</v>
       </c>
     </row>
@@ -12850,10 +13442,10 @@
       <c r="F13" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G13" s="145" t="s">
-        <v>533</v>
-      </c>
-      <c r="H13" s="145" t="s">
+      <c r="G13" s="140" t="s">
+        <v>528</v>
+      </c>
+      <c r="H13" s="140" t="s">
         <v>518</v>
       </c>
     </row>
@@ -12876,10 +13468,10 @@
       <c r="F14" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G14" s="146" t="s">
-        <v>534</v>
-      </c>
-      <c r="H14" s="146" t="s">
+      <c r="G14" s="141" t="s">
+        <v>529</v>
+      </c>
+      <c r="H14" s="141" t="s">
         <v>518</v>
       </c>
     </row>
@@ -12900,11 +13492,11 @@
       <c r="F15" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="G15" s="147" t="s">
+      <c r="G15" s="142" t="s">
         <v>336</v>
       </c>
-      <c r="H15" s="147" t="s">
-        <v>535</v>
+      <c r="H15" s="142" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -12926,11 +13518,11 @@
       <c r="F16" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="G16" s="148" t="s">
+      <c r="G16" s="143" t="s">
         <v>336</v>
       </c>
-      <c r="H16" s="148" t="s">
-        <v>535</v>
+      <c r="H16" s="143" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -12952,11 +13544,11 @@
       <c r="F17" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="G17" s="149" t="s">
+      <c r="G17" s="144" t="s">
         <v>336</v>
       </c>
-      <c r="H17" s="149" t="s">
-        <v>535</v>
+      <c r="H17" s="144" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -12978,11 +13570,11 @@
       <c r="F18" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="G18" s="150" t="s">
+      <c r="G18" s="145" t="s">
         <v>336</v>
       </c>
-      <c r="H18" s="150" t="s">
-        <v>535</v>
+      <c r="H18" s="145" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -13004,11 +13596,11 @@
       <c r="F19" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="G19" s="151" t="s">
+      <c r="G19" s="146" t="s">
         <v>336</v>
       </c>
-      <c r="H19" s="151" t="s">
-        <v>535</v>
+      <c r="H19" s="146" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -13028,11 +13620,11 @@
       <c r="F20" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G20" s="152" t="s">
+      <c r="G20" s="147" t="s">
         <v>336</v>
       </c>
-      <c r="H20" s="152" t="s">
-        <v>536</v>
+      <c r="H20" s="147" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -13054,11 +13646,11 @@
       <c r="F21" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G21" s="153" t="s">
+      <c r="G21" s="148" t="s">
         <v>336</v>
       </c>
-      <c r="H21" s="153" t="s">
-        <v>536</v>
+      <c r="H21" s="148" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -13080,11 +13672,11 @@
       <c r="F22" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G22" s="154" t="s">
+      <c r="G22" s="149" t="s">
         <v>336</v>
       </c>
-      <c r="H22" s="154" t="s">
-        <v>536</v>
+      <c r="H22" s="149" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -13106,11 +13698,11 @@
       <c r="F23" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G23" s="155" t="s">
+      <c r="G23" s="150" t="s">
         <v>336</v>
       </c>
-      <c r="H23" s="155" t="s">
-        <v>536</v>
+      <c r="H23" s="150" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -13132,11 +13724,11 @@
       <c r="F24" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G24" s="156" t="s">
+      <c r="G24" s="151" t="s">
         <v>336</v>
       </c>
-      <c r="H24" s="156" t="s">
-        <v>536</v>
+      <c r="H24" s="151" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -13158,11 +13750,11 @@
       <c r="F25" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G25" s="157" t="s">
+      <c r="G25" s="152" t="s">
         <v>336</v>
       </c>
-      <c r="H25" s="157" t="s">
-        <v>536</v>
+      <c r="H25" s="152" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -13178,11 +13770,11 @@
       <c r="F26" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="G26" s="158" t="s">
+      <c r="G26" s="153" t="s">
         <v>336</v>
       </c>
-      <c r="H26" s="158" t="s">
-        <v>535</v>
+      <c r="H26" s="153" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -13204,11 +13796,11 @@
       <c r="F27" s="86" t="s">
         <v>514</v>
       </c>
-      <c r="G27" s="159" t="s">
+      <c r="G27" s="154" t="s">
         <v>336</v>
       </c>
-      <c r="H27" s="159" t="s">
-        <v>535</v>
+      <c r="H27" s="154" t="s">
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -13225,8 +13817,8 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13263,15 +13855,17 @@
       <c r="B2" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C2" s="55"/>
+      <c r="C2" s="55" t="s">
+        <v>336</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>312</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="F2" s="181" t="s">
-        <v>540</v>
+      <c r="F2" s="270" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -13281,15 +13875,17 @@
       <c r="B3" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C3" s="180"/>
+      <c r="C3" s="175" t="s">
+        <v>336</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>311</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="F3" s="191" t="s">
-        <v>537</v>
+      <c r="F3" s="271" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -13299,15 +13895,17 @@
       <c r="B4" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C4" s="70"/>
+      <c r="C4" s="70" t="s">
+        <v>336</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>311</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="F4" s="181" t="s">
-        <v>540</v>
+      <c r="F4" s="272" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -13317,15 +13915,17 @@
       <c r="B5" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C5" s="180"/>
+      <c r="C5" s="175" t="s">
+        <v>336</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>312</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="F5" s="182" t="s">
-        <v>537</v>
+      <c r="F5" s="176" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -13344,8 +13944,8 @@
       <c r="E6" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="F6" s="183" t="s">
-        <v>538</v>
+      <c r="F6" s="177" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -13360,8 +13960,8 @@
       <c r="E7" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="F7" s="184" t="s">
-        <v>541</v>
+      <c r="F7" s="178" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -13378,8 +13978,8 @@
       <c r="E8" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="185" t="s">
-        <v>542</v>
+      <c r="F8" s="179" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -13396,8 +13996,8 @@
       <c r="E9" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="186" t="s">
-        <v>542</v>
+      <c r="F9" s="180" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -13414,8 +14014,8 @@
       <c r="E10" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="187" t="s">
-        <v>543</v>
+      <c r="F10" s="181" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -13432,8 +14032,8 @@
       <c r="E11" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="F11" s="188" t="s">
-        <v>538</v>
+      <c r="F11" s="182" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -13450,8 +14050,8 @@
       <c r="E12" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="F12" s="189" t="s">
-        <v>538</v>
+      <c r="F12" s="183" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -13468,8 +14068,8 @@
       <c r="E13" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="F13" s="190" t="s">
-        <v>538</v>
+      <c r="F13" s="184" t="s">
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -13527,7 +14127,7 @@
       <c r="D2" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E2" s="160" t="s">
+      <c r="E2" s="155" t="s">
         <v>516</v>
       </c>
     </row>
@@ -13544,7 +14144,7 @@
       <c r="D3" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E3" s="161" t="s">
+      <c r="E3" s="156" t="s">
         <v>516</v>
       </c>
     </row>
@@ -13561,7 +14161,7 @@
       <c r="D4" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E4" s="162" t="s">
+      <c r="E4" s="157" t="s">
         <v>516</v>
       </c>
     </row>
@@ -13578,7 +14178,7 @@
       <c r="D5" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E5" s="163" t="s">
+      <c r="E5" s="158" t="s">
         <v>516</v>
       </c>
     </row>
@@ -13595,7 +14195,7 @@
       <c r="D6" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E6" s="164" t="s">
+      <c r="E6" s="159" t="s">
         <v>516</v>
       </c>
     </row>
@@ -13612,7 +14212,7 @@
       <c r="D7" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E7" s="165" t="s">
+      <c r="E7" s="160" t="s">
         <v>516</v>
       </c>
     </row>
@@ -13629,7 +14229,7 @@
       <c r="D8" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E8" s="166" t="s">
+      <c r="E8" s="161" t="s">
         <v>516</v>
       </c>
     </row>
@@ -13646,7 +14246,7 @@
       <c r="D9" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E9" s="167" t="s">
+      <c r="E9" s="162" t="s">
         <v>516</v>
       </c>
     </row>
@@ -13663,7 +14263,7 @@
       <c r="D10" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E10" s="168" t="s">
+      <c r="E10" s="163" t="s">
         <v>516</v>
       </c>
     </row>
@@ -13680,7 +14280,7 @@
       <c r="D11" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E11" s="169" t="s">
+      <c r="E11" s="164" t="s">
         <v>516</v>
       </c>
     </row>
@@ -13697,7 +14297,7 @@
       <c r="D12" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E12" s="170" t="s">
+      <c r="E12" s="165" t="s">
         <v>516</v>
       </c>
     </row>
@@ -13714,7 +14314,7 @@
       <c r="D13" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E13" s="171" t="s">
+      <c r="E13" s="166" t="s">
         <v>516</v>
       </c>
     </row>
@@ -13731,7 +14331,7 @@
       <c r="D14" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E14" s="172" t="s">
+      <c r="E14" s="167" t="s">
         <v>516</v>
       </c>
     </row>
@@ -13748,7 +14348,7 @@
       <c r="D15" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E15" s="173" t="s">
+      <c r="E15" s="168" t="s">
         <v>352</v>
       </c>
     </row>
@@ -13765,7 +14365,7 @@
       <c r="D16" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E16" s="174" t="s">
+      <c r="E16" s="169" t="s">
         <v>353</v>
       </c>
     </row>
@@ -13782,7 +14382,7 @@
       <c r="D17" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E17" s="175" t="s">
+      <c r="E17" s="170" t="s">
         <v>353</v>
       </c>
     </row>
@@ -13799,7 +14399,7 @@
       <c r="D18" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="176" t="s">
+      <c r="E18" s="171" t="s">
         <v>354</v>
       </c>
     </row>
@@ -13816,7 +14416,7 @@
       <c r="D19" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E19" s="177" t="s">
+      <c r="E19" s="172" t="s">
         <v>355</v>
       </c>
     </row>
@@ -13833,7 +14433,7 @@
       <c r="D20" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E20" s="178" t="s">
+      <c r="E20" s="173" t="s">
         <v>355</v>
       </c>
     </row>
@@ -13850,7 +14450,7 @@
       <c r="D21" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E21" s="179" t="s">
+      <c r="E21" s="174" t="s">
         <v>355</v>
       </c>
     </row>

--- a/SeleniumWebDriver/bin/guru99/DataFiles/Guru99_testdata.xlsx
+++ b/SeleniumWebDriver/bin/guru99/DataFiles/Guru99_testdata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC67D945-847B-4783-B639-0DD5115D3D49}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A038CD-564F-4F82-B305-D74A4810B9C0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="6" r:id="rId1"/>
@@ -17,9 +17,9 @@
     <sheet name="EditAcct" sheetId="9" r:id="rId7"/>
     <sheet name="DeleteAcct" sheetId="10" r:id="rId8"/>
     <sheet name="Deposit" sheetId="18" r:id="rId9"/>
-    <sheet name="Withdrawal" sheetId="12" r:id="rId10"/>
-    <sheet name="FundTransfer" sheetId="13" r:id="rId11"/>
-    <sheet name="BalEnquiry" sheetId="17" r:id="rId12"/>
+    <sheet name="BalEnquiry" sheetId="17" r:id="rId10"/>
+    <sheet name="Withdrawal" sheetId="12" r:id="rId11"/>
+    <sheet name="FundTransfer" sheetId="13" r:id="rId12"/>
     <sheet name="MiniStat" sheetId="15" r:id="rId13"/>
     <sheet name="CustStat" sheetId="16" r:id="rId14"/>
   </sheets>
@@ -110,7 +110,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{D93B2202-C009-4F57-91A2-C4FFF2CB42EA}">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Author:</t>
         </r>
@@ -127,10 +127,34 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Check for account no insertion while creating the account</t>
+Description can not be blank" is displayed but deposit is completed successfully.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{4565E621-3353-44F7-AB55-1C0494AD1A50}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Need to have this account created beforex</t>
         </r>
       </text>
     </comment>
@@ -212,40 +236,6 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Check for account no insertion while creating the account</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
     <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
       <text>
         <r>
@@ -275,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="628">
   <si>
     <t>testcaseID</t>
   </si>
@@ -1330,9 +1320,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>500</t>
-  </si>
-  <si>
     <t>Pass - Account Number must not be blank</t>
   </si>
   <si>
@@ -1363,9 +1350,6 @@
     <t>Transaction details of Deposit for Account</t>
   </si>
   <si>
-    <t>800</t>
-  </si>
-  <si>
     <t>savings investment</t>
   </si>
   <si>
@@ -1402,15 +1386,6 @@
     <t>$%^&amp;*</t>
   </si>
   <si>
-    <t>Pass - You are not authorize to deposit money in this account!!</t>
-  </si>
-  <si>
-    <t>2300</t>
-  </si>
-  <si>
-    <t>2700</t>
-  </si>
-  <si>
     <t>Exisitng account with 500 balance</t>
   </si>
   <si>
@@ -1843,18 +1818,6 @@
     <t>45003459012</t>
   </si>
   <si>
-    <t>44558</t>
-  </si>
-  <si>
-    <t>44559</t>
-  </si>
-  <si>
-    <t>44560</t>
-  </si>
-  <si>
-    <t>44561</t>
-  </si>
-  <si>
     <t>44562</t>
   </si>
   <si>
@@ -1873,27 +1836,9 @@
     <t>Pass - Intial deposite must be Rs. 500 or more</t>
   </si>
   <si>
-    <t>Pass - No Changes made to Account records</t>
-  </si>
-  <si>
-    <t>Pass -Account does not exist</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
-    <t>Pass - Account details updated Successfully!!!</t>
-  </si>
-  <si>
-    <t>Pass -Account Number must not be blank</t>
-  </si>
-  <si>
-    <t>Pass -Characters are not allowed</t>
-  </si>
-  <si>
-    <t>Pass -Special characters are not allowed</t>
-  </si>
-  <si>
     <t>jos@gtest.com</t>
   </si>
   <si>
@@ -2122,30 +2067,88 @@
     <t>Pass - Customer could not be deleted!!. First delete all accounts of this customer then delete the customer</t>
   </si>
   <si>
-    <t>44680</t>
-  </si>
-  <si>
-    <t>44681</t>
-  </si>
-  <si>
-    <t>44682</t>
-  </si>
-  <si>
-    <t>44683</t>
-  </si>
-  <si>
-    <t>44684</t>
-  </si>
-  <si>
-    <t>Fail - org.openqa.selenium.TimeoutException: Expected condition failed: waiting for alert to be present (tried for 15 second(s) with 500 milliseconds interval)
-Build info: version: '3.12.0', revision: '7c6e0b3', time: '2018-05-08T15:15:08.936Z'
-System info: host: 'VINSCORPION', ip: '192.168.1.6', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '10.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Capabilities {acceptInsecureCerts: false, acceptSslCerts: false, applicationCacheEnabled: false, browserConnectionEnabled: false, browserName: chrome, chrome: {chromedriverVersion: 2.38.552522 (437e6fbedfa876..., userDataDir: C:\Users\vinay\AppData\Loca...}, cssSelectorsEnabled: true, databaseEnabled: false, handlesAlerts: true, hasTouchScreen: false, javascriptEnabled: true, locationContextEnabled: true, mobileEmulationEnabled: false, nativeEvents: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: XP, platformName: XP, rotatable: false, setWindowRect: true, takesHeapSnapshot: true, takesScreenshot: true, unexpectedAlertBehaviour: , unhandledPromptBehavior: , version: 67.0.3396.87, webStorageEnabled: true}
-Session ID: 664fd41720c3120226d9cdd2f3345dd8</t>
-  </si>
-  <si>
-    <t>Fail - Message mismatch..No Changes made to Account records</t>
+    <t>All positive test cases which result in successful creation/modification/deletion of customer id,account id and other related activities must be in the sequential order so that writing the customer id and accound id while adding new customer/account is flawless.</t>
+  </si>
+  <si>
+    <t>Unauthorized</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>2400</t>
+  </si>
+  <si>
+    <t>103000</t>
+  </si>
+  <si>
+    <t>4700</t>
+  </si>
+  <si>
+    <t>1350</t>
+  </si>
+  <si>
+    <t>1600</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>44782</t>
+  </si>
+  <si>
+    <t>44783</t>
+  </si>
+  <si>
+    <t>44784</t>
+  </si>
+  <si>
+    <t>44785</t>
+  </si>
+  <si>
+    <t>44786</t>
+  </si>
+  <si>
+    <t>44787</t>
+  </si>
+  <si>
+    <t>1300</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>$%^</t>
+  </si>
+  <si>
+    <t>Spaces</t>
+  </si>
+  <si>
+    <t>Pass - Amount could not be credited</t>
+  </si>
+  <si>
+    <t>amo</t>
+  </si>
+  <si>
+    <t>Perform any operation in a page which is timedout</t>
+  </si>
+  <si>
+    <t>You are not authorize to………</t>
+  </si>
+  <si>
+    <t>44807</t>
+  </si>
+  <si>
+    <t>44808</t>
+  </si>
+  <si>
+    <t>44809</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>2000</t>
   </si>
 </sst>
 </file>
@@ -2259,7 +2262,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="185">
+  <fills count="187">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2311,86 +2314,6 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="none">
         <fgColor indexed="52"/>
       </patternFill>
@@ -3077,116 +3000,209 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="217">
+  <borders count="236">
     <border>
       <left/>
       <right/>
@@ -3870,126 +3886,6 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="8"/>
@@ -4965,201 +4861,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -5169,6 +4870,606 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -6421,7 +6722,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="276">
+  <cellXfs count="290">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -6489,40 +6790,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6536,188 +6821,220 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="65" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="69" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="71" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="73" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="74" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="75" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="76" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="77" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="78" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="79" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="80" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="81" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="65" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="69" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="71" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="73" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="83" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="84" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="85" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="86" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="87" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="88" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="89" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="90" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="91" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="92" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="93" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="94" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="95" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="96" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="97" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="98" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="99" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="100" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="101" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="102" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="103" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="104" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="105" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="106" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="76" borderId="107" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="108" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="78" borderId="109" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="110" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="80" borderId="111" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="81" borderId="112" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="82" borderId="113" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="114" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="84" borderId="115" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="85" borderId="116" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="86" borderId="117" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="87" borderId="118" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="88" borderId="119" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="89" borderId="120" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="90" borderId="121" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="91" borderId="122" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="92" borderId="123" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="75" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="76" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="77" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="78" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="79" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="80" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="81" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="82" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="83" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="84" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="85" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="86" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="87" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="88" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="89" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="90" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="91" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="92" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="93" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="94" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="95" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="96" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="97" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="98" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="99" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="100" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="101" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="102" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="103" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="104" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="105" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="106" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="107" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="108" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="109" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="110" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="111" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="93" borderId="124" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="94" borderId="125" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="95" borderId="126" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="96" borderId="127" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="97" borderId="128" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="98" borderId="129" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="99" borderId="130" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="100" borderId="131" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="101" borderId="132" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="133" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="133" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="112" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="133" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="102" borderId="134" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="103" borderId="135" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="104" borderId="136" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="105" borderId="137" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="106" borderId="138" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="107" borderId="139" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="140" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="109" borderId="141" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="110" borderId="142" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="111" borderId="143" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="112" borderId="144" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="113" borderId="145" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="114" borderId="146" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="115" borderId="147" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="148" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="117" borderId="149" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="118" borderId="150" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="119" borderId="151" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="120" borderId="152" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="121" borderId="153" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="122" borderId="154" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="123" borderId="155" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="156" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="125" borderId="157" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="126" borderId="158" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="127" borderId="159" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="160" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="129" borderId="161" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="130" borderId="162" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="131" borderId="163" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="132" borderId="164" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="133" borderId="165" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="134" borderId="166" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="135" borderId="167" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="168" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="137" borderId="169" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="138" borderId="170" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="139" borderId="171" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="140" borderId="172" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="141" borderId="173" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="142" borderId="174" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="143" borderId="175" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="144" borderId="176" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="145" borderId="177" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="146" borderId="178" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="147" borderId="179" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="148" borderId="180" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="149" borderId="181" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="150" borderId="182" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="151" borderId="183" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="152" borderId="184" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="153" borderId="185" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="154" borderId="186" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="155" borderId="187" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="156" borderId="188" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="157" borderId="189" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="158" borderId="190" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="159" borderId="191" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="160" borderId="192" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="161" borderId="193" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="162" borderId="194" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="163" borderId="195" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="164" borderId="196" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="165" borderId="197" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="166" borderId="198" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="167" borderId="199" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="168" borderId="200" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="169" borderId="201" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="170" borderId="202" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="171" borderId="203" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="172" borderId="204" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="173" borderId="205" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="174" borderId="206" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="175" borderId="207" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="176" borderId="208" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="177" borderId="209" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="178" borderId="210" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="179" borderId="211" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="180" borderId="212" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="181" borderId="213" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="182" borderId="214" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="183" borderId="215" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="184" borderId="216" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="112" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="113" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="114" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="115" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="116" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="117" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="78" borderId="118" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="119" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="80" borderId="120" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="81" borderId="121" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="82" borderId="122" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="123" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="124" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="125" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="126" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="127" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="88" borderId="128" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="89" borderId="129" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="90" borderId="130" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="91" borderId="131" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="92" borderId="132" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="93" borderId="133" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="94" borderId="134" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="135" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="96" borderId="136" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="97" borderId="137" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="98" borderId="138" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="99" borderId="139" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="100" borderId="140" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="101" borderId="141" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="102" borderId="142" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="143" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="104" borderId="144" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="105" borderId="145" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="106" borderId="146" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="107" borderId="147" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="148" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="109" borderId="149" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="110" borderId="150" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="111" borderId="151" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="112" borderId="152" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="113" borderId="153" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="114" borderId="154" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="115" borderId="155" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="156" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="117" borderId="157" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="118" borderId="158" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="119" borderId="159" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="120" borderId="160" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="121" borderId="161" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="122" borderId="162" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="123" borderId="163" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="164" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="125" borderId="165" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="126" borderId="166" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="127" borderId="167" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="168" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="129" borderId="169" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="130" borderId="170" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="131" borderId="171" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="132" borderId="172" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="133" borderId="173" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="134" borderId="174" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="135" borderId="175" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="176" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="137" borderId="177" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="138" borderId="178" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="139" borderId="179" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="140" borderId="180" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="141" borderId="181" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="142" borderId="182" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="143" borderId="183" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="184" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="145" borderId="185" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="146" borderId="186" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="148" borderId="187" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="149" borderId="188" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="150" borderId="189" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="151" borderId="190" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="152" borderId="191" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="153" borderId="192" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="154" borderId="193" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="155" borderId="194" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="156" borderId="195" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="157" borderId="196" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="158" borderId="197" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="159" borderId="198" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="160" borderId="199" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="161" borderId="200" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="162" borderId="201" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="163" borderId="202" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="164" borderId="203" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="165" borderId="204" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="166" borderId="205" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="167" borderId="206" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="168" borderId="207" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="169" borderId="208" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="170" borderId="209" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="171" borderId="210" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="172" borderId="211" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="173" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="173" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="173" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="174" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="147" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="175" borderId="212" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="176" borderId="213" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="177" borderId="214" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="178" borderId="215" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="179" borderId="228" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="180" borderId="229" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="181" borderId="230" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="182" borderId="231" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="183" borderId="232" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="184" borderId="233" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="185" borderId="234" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="186" borderId="235" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="216" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="217" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="218" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="219" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="220" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="221" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="222" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="223" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="224" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="225" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="226" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="227" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6999,10 +7316,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:J62"/>
+  <dimension ref="B2:J62"/>
   <sheetViews>
-    <sheetView topLeftCell="H16" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="H2" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7015,6 +7332,11 @@
     <col min="9" max="10" width="46.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="H2" s="262" t="s">
+        <v>600</v>
+      </c>
+    </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="10"/>
     </row>
@@ -7026,155 +7348,162 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>
+      <c r="H6" s="258" t="s">
+        <v>621</v>
+      </c>
+      <c r="I6" s="258"/>
+      <c r="J6" s="258" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="12"/>
-      <c r="H7" s="131" t="s">
-        <v>501</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="H7" s="259" t="s">
+        <v>496</v>
+      </c>
+      <c r="I7" s="258" t="s">
         <v>286</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="258" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
-      <c r="H8" s="104" t="s">
-        <v>502</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="H8" s="260" t="s">
+        <v>497</v>
+      </c>
+      <c r="I8" s="258" t="s">
         <v>287</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="258" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="24"/>
-      <c r="H9" s="104" t="s">
-        <v>503</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="H9" s="260" t="s">
+        <v>498</v>
+      </c>
+      <c r="I9" s="258" t="s">
         <v>288</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="258" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="13"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="54" t="s">
+      <c r="H10" s="258"/>
+      <c r="I10" s="261" t="s">
         <v>295</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="258" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="14"/>
-      <c r="H11" s="50" t="s">
-        <v>504</v>
-      </c>
-      <c r="I11" s="50"/>
-      <c r="J11" s="103" t="s">
-        <v>455</v>
+      <c r="H11" s="258" t="s">
+        <v>499</v>
+      </c>
+      <c r="I11" s="258"/>
+      <c r="J11" s="261" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="25"/>
-      <c r="H12" s="50" t="s">
+      <c r="H12" s="258" t="s">
+        <v>500</v>
+      </c>
+      <c r="I12" s="258"/>
+      <c r="J12" s="258" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="88"/>
+      <c r="H13" s="258" t="s">
+        <v>501</v>
+      </c>
+      <c r="I13" s="258"/>
+      <c r="J13" s="258" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="88"/>
+      <c r="H14" s="258" t="s">
+        <v>502</v>
+      </c>
+      <c r="I14" s="258"/>
+      <c r="J14" s="258" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="88"/>
+      <c r="H15" s="258" t="s">
+        <v>503</v>
+      </c>
+      <c r="I15" s="258"/>
+      <c r="J15" s="258" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="88"/>
+      <c r="H16" s="258" t="s">
+        <v>504</v>
+      </c>
+      <c r="I16" s="258"/>
+      <c r="J16" s="258" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="88"/>
+      <c r="H17" s="258" t="s">
         <v>505</v>
       </c>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="105"/>
-      <c r="H13" s="50" t="s">
+      <c r="I17" s="258"/>
+      <c r="J17" s="258" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="88"/>
+      <c r="H18" s="258" t="s">
         <v>506</v>
       </c>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="105"/>
-      <c r="H14" s="50" t="s">
-        <v>507</v>
-      </c>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="105"/>
-      <c r="H15" s="50" t="s">
-        <v>508</v>
-      </c>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="105"/>
-      <c r="H16" s="50" t="s">
-        <v>509</v>
-      </c>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="105"/>
-      <c r="H17" s="50" t="s">
-        <v>510</v>
-      </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="105"/>
-      <c r="H18" s="50" t="s">
-        <v>511</v>
-      </c>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50" t="s">
-        <v>450</v>
+      <c r="I18" s="258"/>
+      <c r="J18" s="258" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="15"/>
-      <c r="H19" s="50" t="s">
-        <v>512</v>
-      </c>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50" t="s">
-        <v>409</v>
+      <c r="H19" s="258" t="s">
+        <v>507</v>
+      </c>
+      <c r="I19" s="258"/>
+      <c r="J19" s="258" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="26"/>
-      <c r="H20" s="50" t="s">
-        <v>513</v>
-      </c>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50" t="s">
-        <v>409</v>
+      <c r="H20" s="258" t="s">
+        <v>508</v>
+      </c>
+      <c r="I20" s="258"/>
+      <c r="J20" s="258" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="105"/>
+      <c r="B21" s="88"/>
       <c r="H21" s="50"/>
       <c r="I21" s="50"/>
       <c r="J21" s="50"/>
@@ -7194,86 +7523,86 @@
         <v>290</v>
       </c>
       <c r="J23" s="57" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="29"/>
-      <c r="H24" s="274">
+      <c r="H24" s="276">
         <v>96501</v>
       </c>
-      <c r="I24" s="70">
+      <c r="I24" s="62">
         <v>44363</v>
       </c>
       <c r="J24" s="55"/>
     </row>
     <row r="25" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="58"/>
-      <c r="H25" s="274"/>
-      <c r="I25" s="70">
+      <c r="H25" s="276"/>
+      <c r="I25" s="62">
         <v>44566</v>
       </c>
       <c r="J25" s="55"/>
     </row>
     <row r="26" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="58"/>
-      <c r="H26" s="274"/>
-      <c r="I26" s="175">
+      <c r="H26" s="276"/>
+      <c r="I26" s="153">
         <v>44604</v>
       </c>
       <c r="J26" s="55"/>
     </row>
     <row r="27" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="75"/>
-      <c r="H27" s="274"/>
-      <c r="I27" s="76"/>
+      <c r="B27" s="67"/>
+      <c r="H27" s="276"/>
+      <c r="I27" s="68"/>
       <c r="J27" s="55"/>
     </row>
     <row r="28" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="75"/>
-      <c r="H28" s="274"/>
-      <c r="I28" s="76"/>
+      <c r="B28" s="67"/>
+      <c r="H28" s="276"/>
+      <c r="I28" s="68"/>
       <c r="J28" s="55"/>
     </row>
     <row r="29" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="58"/>
-      <c r="H29" s="274"/>
-      <c r="I29" s="76"/>
+      <c r="H29" s="276"/>
+      <c r="I29" s="68"/>
       <c r="J29" s="55"/>
     </row>
     <row r="30" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="16"/>
-      <c r="H30" s="273"/>
+      <c r="H30" s="275"/>
       <c r="I30" s="55"/>
       <c r="J30" s="55"/>
     </row>
     <row r="31" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="17"/>
-      <c r="H31" s="273"/>
+      <c r="H31" s="275"/>
       <c r="I31" s="55"/>
       <c r="J31" s="55"/>
     </row>
     <row r="32" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="18"/>
-      <c r="H32" s="273"/>
+      <c r="H32" s="275"/>
       <c r="I32" s="55"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="19"/>
-      <c r="H33" s="273"/>
+      <c r="H33" s="275"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="20"/>
-      <c r="H34" s="273"/>
+      <c r="H34" s="275"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="21"/>
-      <c r="H35" s="273"/>
+      <c r="H35" s="275"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
@@ -7285,96 +7614,96 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="31"/>
-      <c r="E38" s="275" t="s">
-        <v>515</v>
+      <c r="E38" s="277" t="s">
+        <v>510</v>
       </c>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="32"/>
-      <c r="E39" s="275"/>
-      <c r="F39" s="132" t="s">
+      <c r="E39" s="277"/>
+      <c r="F39" s="114" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="33"/>
-      <c r="E40" s="275"/>
-      <c r="F40" s="132" t="s">
+      <c r="E40" s="277"/>
+      <c r="F40" s="114" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="34"/>
-      <c r="E41" s="275"/>
-      <c r="F41" s="132" t="s">
+      <c r="E41" s="277"/>
+      <c r="F41" s="114" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="35"/>
-      <c r="E42" s="275"/>
-      <c r="F42" s="132" t="s">
+      <c r="E42" s="277"/>
+      <c r="F42" s="114" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="E43" s="275"/>
-      <c r="F43" s="132" t="s">
+      <c r="E43" s="277"/>
+      <c r="F43" s="114" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="36"/>
-      <c r="E44" s="275"/>
-      <c r="F44" s="132" t="s">
+      <c r="E44" s="277"/>
+      <c r="F44" s="114" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="37"/>
-      <c r="E45" s="275"/>
-      <c r="F45" s="132" t="s">
+      <c r="E45" s="277"/>
+      <c r="F45" s="114" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="38"/>
-      <c r="E46" s="275"/>
-      <c r="F46" s="132" t="s">
+      <c r="E46" s="277"/>
+      <c r="F46" s="114" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="39"/>
-      <c r="E47" s="275"/>
-      <c r="F47" s="132" t="s">
+      <c r="E47" s="277"/>
+      <c r="F47" s="114" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="40"/>
-      <c r="E48" s="275"/>
-      <c r="F48" s="132" t="s">
+      <c r="E48" s="277"/>
+      <c r="F48" s="114" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E49" s="275"/>
-      <c r="F49" s="132" t="s">
+      <c r="E49" s="277"/>
+      <c r="F49" s="114" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E50" s="275"/>
-      <c r="F50" s="132" t="s">
+      <c r="E50" s="277"/>
+      <c r="F50" s="114" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="41"/>
-      <c r="E51" s="275"/>
-      <c r="F51" s="133" t="s">
+      <c r="E51" s="277"/>
+      <c r="F51" s="115" t="s">
         <v>251</v>
       </c>
     </row>
@@ -7412,6 +7741,223 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:S15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>626</v>
+      </c>
+      <c r="F2" s="267" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>627</v>
+      </c>
+      <c r="F3" s="268" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="F4" s="269" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="F5" s="270" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F6" s="271" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F7" s="272" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C8" s="1">
+        <v>39276</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F8" s="273" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C9" s="1">
+        <v>34587690128</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F9" s="274" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S13" s="60" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S14" s="60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S15" t="s">
+        <v>339</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
@@ -7439,19 +7985,19 @@
         <v>322</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>358</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -7464,25 +8010,25 @@
       <c r="B2" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C2" s="77">
+      <c r="C2" s="69">
         <v>39947</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E2" s="49">
         <v>200</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="H2" s="49" t="s">
-        <v>405</v>
-      </c>
-      <c r="I2" s="90" t="s">
+        <v>400</v>
+      </c>
+      <c r="I2" s="74" t="s">
         <v>350</v>
       </c>
     </row>
@@ -7497,21 +8043,21 @@
         <v>39948</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E3" s="49">
         <v>400</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>406</v>
-      </c>
-      <c r="I3" s="91" t="s">
+        <v>401</v>
+      </c>
+      <c r="I3" s="75" t="s">
         <v>350</v>
       </c>
     </row>
@@ -7520,27 +8066,27 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C4" s="48">
         <v>39949</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E4" s="49">
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>407</v>
-      </c>
-      <c r="I4" s="92" t="s">
+        <v>402</v>
+      </c>
+      <c r="I4" s="76" t="s">
         <v>350</v>
       </c>
     </row>
@@ -7559,13 +8105,13 @@
         <v>100</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -7584,13 +8130,13 @@
         <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -7609,13 +8155,13 @@
         <v>100</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -7625,7 +8171,7 @@
         <v>328</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D8" s="1">
         <v>500</v>
@@ -7634,13 +8180,13 @@
         <v>100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -7659,20 +8205,20 @@
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C10" s="1">
         <v>39908</v>
@@ -7684,20 +8230,20 @@
         <v>100</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
+        <v>390</v>
+      </c>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="86" t="s">
-        <v>379</v>
+      <c r="B11" s="70" t="s">
+        <v>374</v>
       </c>
       <c r="C11" s="1">
         <v>39947</v>
@@ -7707,10 +8253,10 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -7719,8 +8265,8 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="86" t="s">
-        <v>380</v>
+      <c r="B12" s="70" t="s">
+        <v>375</v>
       </c>
       <c r="C12" s="1">
         <v>39947</v>
@@ -7732,7 +8278,7 @@
         <v>264</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>126</v>
@@ -7744,8 +8290,8 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="86" t="s">
-        <v>381</v>
+      <c r="B13" s="70" t="s">
+        <v>376</v>
       </c>
       <c r="C13" s="1">
         <v>39947</v>
@@ -7754,10 +8300,10 @@
         <v>990</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>126</v>
@@ -7769,8 +8315,8 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="86" t="s">
-        <v>382</v>
+      <c r="B14" s="70" t="s">
+        <v>377</v>
       </c>
       <c r="C14" s="1">
         <v>39947</v>
@@ -7779,10 +8325,10 @@
         <v>990</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>116</v>
@@ -7794,10 +8340,10 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="86" t="s">
-        <v>402</v>
-      </c>
-      <c r="C15" s="88">
+      <c r="B15" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="C15" s="72">
         <v>39978</v>
       </c>
       <c r="D15" s="1">
@@ -7807,10 +8353,10 @@
         <v>100000000</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -7819,8 +8365,8 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="86" t="s">
-        <v>384</v>
+      <c r="B16" s="70" t="s">
+        <v>379</v>
       </c>
       <c r="C16" s="1">
         <v>39947</v>
@@ -7833,7 +8379,7 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -7842,10 +8388,10 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="86" t="s">
-        <v>386</v>
-      </c>
-      <c r="C17" s="77">
+      <c r="B17" s="70" t="s">
+        <v>381</v>
+      </c>
+      <c r="C17" s="69">
         <v>39974</v>
       </c>
       <c r="D17" s="1">
@@ -7858,7 +8404,7 @@
         <v>90</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -7867,10 +8413,10 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="86" t="s">
-        <v>387</v>
-      </c>
-      <c r="C18" s="77">
+      <c r="B18" s="70" t="s">
+        <v>382</v>
+      </c>
+      <c r="C18" s="69">
         <v>39975</v>
       </c>
       <c r="D18" s="1">
@@ -7883,7 +8429,7 @@
         <v>123345</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -7892,10 +8438,10 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="86" t="s">
-        <v>388</v>
-      </c>
-      <c r="C19" s="77">
+      <c r="B19" s="70" t="s">
+        <v>383</v>
+      </c>
+      <c r="C19" s="69">
         <v>39976</v>
       </c>
       <c r="D19" s="1">
@@ -7905,10 +8451,10 @@
         <v>200</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -7917,10 +8463,10 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="86" t="s">
-        <v>390</v>
-      </c>
-      <c r="C20" s="77">
+      <c r="B20" s="70" t="s">
+        <v>385</v>
+      </c>
+      <c r="C20" s="69">
         <v>39977</v>
       </c>
       <c r="D20" s="1">
@@ -7930,10 +8476,10 @@
         <v>100</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -7942,25 +8488,25 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="86" t="s">
-        <v>392</v>
+      <c r="B21" s="70" t="s">
+        <v>387</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="86">
+      <c r="A22" s="70">
         <v>21</v>
       </c>
-      <c r="B22" s="86" t="s">
-        <v>401</v>
+      <c r="B22" s="70" t="s">
+        <v>396</v>
       </c>
       <c r="C22" s="1">
         <v>39979</v>
@@ -7972,10 +8518,10 @@
         <v>855</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -7987,7 +8533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
@@ -8001,7 +8547,7 @@
     <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="133.5546875" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="133.5546875" style="82" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -8012,18 +8558,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="G1" s="96" t="s">
+      <c r="G1" s="80" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -8037,16 +8583,16 @@
       <c r="B2" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
       <c r="E2" s="1">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="G2" s="95" t="s">
-        <v>437</v>
+        <v>428</v>
+      </c>
+      <c r="G2" s="79" t="s">
+        <v>432</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -8057,16 +8603,16 @@
       <c r="B3" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="1">
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="G3" s="95" t="s">
-        <v>437</v>
+        <v>428</v>
+      </c>
+      <c r="G3" s="79" t="s">
+        <v>432</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -8075,7 +8621,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C4" s="1">
         <v>12345</v>
@@ -8087,10 +8633,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="G4" s="97" t="s">
-        <v>410</v>
+        <v>439</v>
+      </c>
+      <c r="G4" s="81" t="s">
+        <v>405</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -8099,7 +8645,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
@@ -8107,10 +8653,10 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G5" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -8119,7 +8665,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>346</v>
@@ -8129,7 +8675,7 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G6" t="s">
         <v>126</v>
@@ -8141,17 +8687,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D7" s="1">
         <v>12345</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G7" t="s">
         <v>126</v>
@@ -8163,17 +8709,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D8" s="1">
         <v>12345</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G8" t="s">
         <v>116</v>
@@ -8185,7 +8731,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C9" s="1">
         <v>98765</v>
@@ -8193,10 +8739,10 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="G9" s="97" t="s">
-        <v>429</v>
+        <v>428</v>
+      </c>
+      <c r="G9" s="81" t="s">
+        <v>424</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -8205,7 +8751,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C10" s="1">
         <v>39946</v>
@@ -8213,10 +8759,10 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="G10" s="97" t="s">
-        <v>432</v>
+        <v>428</v>
+      </c>
+      <c r="G10" s="81" t="s">
+        <v>427</v>
       </c>
       <c r="H10" s="1"/>
     </row>
@@ -8225,7 +8771,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C11" s="1">
         <v>12345</v>
@@ -8233,10 +8779,10 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G11" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="H11" s="1"/>
     </row>
@@ -8245,17 +8791,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C12" s="1">
         <v>12345</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G12" t="s">
         <v>126</v>
@@ -8267,17 +8813,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C13" s="1">
         <v>12345</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G13" t="s">
         <v>126</v>
@@ -8289,17 +8835,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C14" s="1">
         <v>12345</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G14" t="s">
         <v>116</v>
@@ -8311,7 +8857,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
@@ -8319,10 +8865,10 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="G15" s="97" t="s">
-        <v>429</v>
+        <v>428</v>
+      </c>
+      <c r="G15" s="81" t="s">
+        <v>424</v>
       </c>
       <c r="H15" s="1"/>
     </row>
@@ -8331,7 +8877,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
@@ -8339,10 +8885,10 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="G16" s="97" t="s">
-        <v>432</v>
+        <v>428</v>
+      </c>
+      <c r="G16" s="81" t="s">
+        <v>427</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -8350,8 +8896,8 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="86" t="s">
-        <v>379</v>
+      <c r="B17" s="70" t="s">
+        <v>374</v>
       </c>
       <c r="C17" s="1">
         <v>12345</v>
@@ -8361,10 +8907,10 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="G17" s="98" t="s">
-        <v>383</v>
+        <v>428</v>
+      </c>
+      <c r="G17" s="82" t="s">
+        <v>378</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -8372,8 +8918,8 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="86" t="s">
-        <v>380</v>
+      <c r="B18" s="70" t="s">
+        <v>375</v>
       </c>
       <c r="C18" s="1">
         <v>12345</v>
@@ -8382,12 +8928,12 @@
         <v>12345</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="G18" s="98" t="s">
+        <v>428</v>
+      </c>
+      <c r="G18" s="82" t="s">
         <v>126</v>
       </c>
       <c r="H18" s="1"/>
@@ -8396,8 +8942,8 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="86" t="s">
-        <v>381</v>
+      <c r="B19" s="70" t="s">
+        <v>376</v>
       </c>
       <c r="C19" s="1">
         <v>12345</v>
@@ -8406,12 +8952,12 @@
         <v>12345</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="G19" s="98" t="s">
+        <v>428</v>
+      </c>
+      <c r="G19" s="82" t="s">
         <v>126</v>
       </c>
       <c r="H19" s="1"/>
@@ -8420,8 +8966,8 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="86" t="s">
-        <v>382</v>
+      <c r="B20" s="70" t="s">
+        <v>377</v>
       </c>
       <c r="C20" s="1">
         <v>12345</v>
@@ -8430,12 +8976,12 @@
         <v>12345</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="G20" s="98" t="s">
+        <v>428</v>
+      </c>
+      <c r="G20" s="82" t="s">
         <v>116</v>
       </c>
       <c r="H20" s="1"/>
@@ -8444,8 +8990,8 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="86" t="s">
-        <v>435</v>
+      <c r="B21" s="70" t="s">
+        <v>430</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -8453,10 +8999,10 @@
         <v>99999999</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="G21" s="97" t="s">
-        <v>436</v>
+        <v>428</v>
+      </c>
+      <c r="G21" s="81" t="s">
+        <v>431</v>
       </c>
       <c r="H21" s="1"/>
     </row>
@@ -8464,8 +9010,8 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="86" t="s">
-        <v>384</v>
+      <c r="B22" s="70" t="s">
+        <v>379</v>
       </c>
       <c r="C22" s="1">
         <v>12345</v>
@@ -8477,8 +9023,8 @@
         <v>10</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="98" t="s">
-        <v>385</v>
+      <c r="G22" s="82" t="s">
+        <v>380</v>
       </c>
       <c r="H22" s="1"/>
     </row>
@@ -8486,19 +9032,19 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="86" t="s">
-        <v>386</v>
-      </c>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
+      <c r="B23" s="70" t="s">
+        <v>381</v>
+      </c>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="G23" s="97" t="s">
-        <v>437</v>
+      <c r="G23" s="81" t="s">
+        <v>432</v>
       </c>
       <c r="H23" s="1"/>
     </row>
@@ -8506,19 +9052,19 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="86" t="s">
-        <v>387</v>
-      </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
+      <c r="B24" s="70" t="s">
+        <v>382</v>
+      </c>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="1">
         <v>908</v>
       </c>
-      <c r="G24" s="97" t="s">
-        <v>437</v>
+      <c r="G24" s="81" t="s">
+        <v>432</v>
       </c>
       <c r="H24" s="1"/>
     </row>
@@ -8526,19 +9072,19 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="86" t="s">
-        <v>388</v>
-      </c>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
+      <c r="B25" s="70" t="s">
+        <v>383</v>
+      </c>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="G25" s="97" t="s">
-        <v>437</v>
+        <v>438</v>
+      </c>
+      <c r="G25" s="81" t="s">
+        <v>432</v>
       </c>
       <c r="H25" s="1"/>
     </row>
@@ -8546,19 +9092,19 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="86" t="s">
-        <v>438</v>
-      </c>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
+      <c r="B26" s="70" t="s">
+        <v>433</v>
+      </c>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="G26" s="97" t="s">
         <v>437</v>
+      </c>
+      <c r="G26" s="81" t="s">
+        <v>432</v>
       </c>
       <c r="H26" s="1"/>
     </row>
@@ -8566,239 +9112,24 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="86" t="s">
-        <v>425</v>
+      <c r="B27" s="70" t="s">
+        <v>420</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="97" t="s">
-        <v>441</v>
+      <c r="G27" s="81" t="s">
+        <v>436</v>
       </c>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="94"/>
+      <c r="A28" s="78"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:S15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C2" s="1">
-        <v>39905</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E2" s="49" t="s">
-        <v>362</v>
-      </c>
-      <c r="F2" s="61" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C3" s="1">
-        <v>39906</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>351</v>
-      </c>
-      <c r="F3" s="62" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>336</v>
-      </c>
-      <c r="F4" s="63" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>336</v>
-      </c>
-      <c r="F5" s="64" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="F6" s="65" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="F7" s="66" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C8" s="1">
-        <v>39276</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="F8" s="67" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C9" s="1">
-        <v>34587690128</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="F9" s="68" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="S13" s="60" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="S14" s="60" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="S15" t="s">
-        <v>339</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8843,7 +9174,7 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -8856,7 +9187,7 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -8879,7 +9210,7 @@
         <v>342</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>126</v>
@@ -8909,7 +9240,7 @@
         <v>328</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>116</v>
@@ -8977,16 +9308,16 @@
         <v>322</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>15</v>
@@ -9008,7 +9339,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -9025,7 +9356,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -9052,7 +9383,7 @@
         <v>342</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -9090,7 +9421,7 @@
         <v>328</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -9143,8 +9474,8 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="86" t="s">
-        <v>469</v>
+      <c r="B10" s="70" t="s">
+        <v>464</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -9152,7 +9483,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="I10" s="1"/>
     </row>
@@ -9160,8 +9491,8 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="86" t="s">
-        <v>470</v>
+      <c r="B11" s="70" t="s">
+        <v>465</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -9169,7 +9500,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -9177,8 +9508,8 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="86" t="s">
-        <v>471</v>
+      <c r="B12" s="70" t="s">
+        <v>466</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -9186,7 +9517,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="I12" s="1"/>
     </row>
@@ -9194,8 +9525,8 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="86" t="s">
-        <v>472</v>
+      <c r="B13" s="70" t="s">
+        <v>467</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -9203,7 +9534,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="I13" s="1"/>
     </row>
@@ -9211,8 +9542,8 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="86" t="s">
-        <v>476</v>
+      <c r="B14" s="70" t="s">
+        <v>471</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -9220,7 +9551,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I14" s="1"/>
     </row>
@@ -9228,8 +9559,8 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="86" t="s">
-        <v>477</v>
+      <c r="B15" s="70" t="s">
+        <v>472</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -9245,8 +9576,8 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="86" t="s">
-        <v>478</v>
+      <c r="B16" s="70" t="s">
+        <v>473</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -9262,8 +9593,8 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="86" t="s">
-        <v>479</v>
+      <c r="B17" s="70" t="s">
+        <v>474</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -9279,8 +9610,8 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="86" t="s">
-        <v>481</v>
+      <c r="B18" s="70" t="s">
+        <v>476</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -9288,7 +9619,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="I18" s="1"/>
     </row>
@@ -9296,8 +9627,8 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="86" t="s">
-        <v>482</v>
+      <c r="B19" s="70" t="s">
+        <v>477</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -9305,7 +9636,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="I19" s="1"/>
     </row>
@@ -9313,8 +9644,8 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="86" t="s">
-        <v>483</v>
+      <c r="B20" s="70" t="s">
+        <v>478</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -9330,8 +9661,8 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="86" t="s">
-        <v>484</v>
+      <c r="B21" s="70" t="s">
+        <v>479</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -9347,8 +9678,8 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="86" t="s">
-        <v>485</v>
+      <c r="B22" s="70" t="s">
+        <v>480</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -9364,8 +9695,8 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="86" t="s">
-        <v>486</v>
+      <c r="B23" s="70" t="s">
+        <v>481</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -9373,7 +9704,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -9435,19 +9766,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="269" t="s">
-        <v>491</v>
+      <c r="G2" s="266" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -9458,7 +9789,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -9467,10 +9798,10 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="G3" s="108" t="s">
-        <v>492</v>
+        <v>485</v>
+      </c>
+      <c r="G3" s="91" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -9481,19 +9812,19 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="G4" s="109" t="s">
-        <v>492</v>
+        <v>485</v>
+      </c>
+      <c r="G4" s="92" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -9504,7 +9835,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -9513,10 +9844,10 @@
         <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="G5" s="110" t="s">
-        <v>492</v>
+        <v>485</v>
+      </c>
+      <c r="G5" s="93" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -9527,7 +9858,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="4" t="s">
@@ -9536,8 +9867,8 @@
       <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="111" t="s">
-        <v>493</v>
+      <c r="G6" s="94" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -9548,17 +9879,17 @@
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="112" t="s">
-        <v>494</v>
+      <c r="G7" s="95" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -9569,15 +9900,15 @@
         <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="113" t="s">
-        <v>495</v>
+      <c r="G8" s="96" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -9588,36 +9919,36 @@
         <v>337</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="G9" s="114" t="s">
-        <v>496</v>
+      <c r="G9" s="97" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C10" s="107"/>
+      <c r="C10" s="90"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C11" s="107"/>
+      <c r="C11" s="90"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C12" s="107"/>
+      <c r="C12" s="90"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C13" s="107"/>
+      <c r="C13" s="90"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9730,7 +10061,7 @@
         <v>7771232345</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>110</v>
@@ -9738,11 +10069,11 @@
       <c r="M2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N2" s="190" t="s">
-        <v>541</v>
-      </c>
-      <c r="O2" s="190" t="s">
-        <v>540</v>
+      <c r="N2" s="159" t="s">
+        <v>526</v>
+      </c>
+      <c r="O2" s="159" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -9777,7 +10108,7 @@
         <v>7778907689</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>110</v>
@@ -9785,11 +10116,11 @@
       <c r="M3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N3" s="191" t="s">
-        <v>582</v>
-      </c>
-      <c r="O3" s="191" t="s">
-        <v>540</v>
+      <c r="N3" s="160" t="s">
+        <v>567</v>
+      </c>
+      <c r="O3" s="160" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -9824,7 +10155,7 @@
         <v>7771237890</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>110</v>
@@ -9832,11 +10163,11 @@
       <c r="M4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N4" s="192" t="s">
-        <v>583</v>
-      </c>
-      <c r="O4" s="192" t="s">
-        <v>540</v>
+      <c r="N4" s="161" t="s">
+        <v>568</v>
+      </c>
+      <c r="O4" s="161" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -9871,7 +10202,7 @@
         <v>4447895432</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>110</v>
@@ -9879,11 +10210,11 @@
       <c r="M5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N5" s="193" t="s">
-        <v>584</v>
-      </c>
-      <c r="O5" s="193" t="s">
-        <v>540</v>
+      <c r="N5" s="162" t="s">
+        <v>569</v>
+      </c>
+      <c r="O5" s="162" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -9916,7 +10247,7 @@
         <v>7779081234</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>110</v>
@@ -9924,11 +10255,11 @@
       <c r="M6" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N6" s="194" t="s">
-        <v>585</v>
-      </c>
-      <c r="O6" s="194" t="s">
-        <v>540</v>
+      <c r="N6" s="163" t="s">
+        <v>570</v>
+      </c>
+      <c r="O6" s="163" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -9963,7 +10294,7 @@
         <v>7771236789</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>110</v>
@@ -9971,11 +10302,11 @@
       <c r="M7" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N7" s="195" t="s">
-        <v>586</v>
-      </c>
-      <c r="O7" s="195" t="s">
-        <v>540</v>
+      <c r="N7" s="164" t="s">
+        <v>571</v>
+      </c>
+      <c r="O7" s="164" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -10010,7 +10341,7 @@
         <v>8786357718</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>110</v>
@@ -10018,11 +10349,11 @@
       <c r="M8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N8" s="196" t="s">
-        <v>587</v>
-      </c>
-      <c r="O8" s="196" t="s">
-        <v>540</v>
+      <c r="N8" s="165" t="s">
+        <v>572</v>
+      </c>
+      <c r="O8" s="165" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -10057,7 +10388,7 @@
         <v>4417657812</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>110</v>
@@ -10065,11 +10396,11 @@
       <c r="M9" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N9" s="237" t="s">
-        <v>609</v>
-      </c>
-      <c r="O9" s="237" t="s">
-        <v>540</v>
+      <c r="N9" s="206" t="s">
+        <v>594</v>
+      </c>
+      <c r="O9" s="206" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -10104,7 +10435,7 @@
         <v>5658901234</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>110</v>
@@ -10112,11 +10443,11 @@
       <c r="M10" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N10" s="197" t="s">
-        <v>588</v>
-      </c>
-      <c r="O10" s="197" t="s">
-        <v>540</v>
+      <c r="N10" s="166" t="s">
+        <v>573</v>
+      </c>
+      <c r="O10" s="166" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -10151,7 +10482,7 @@
         <v>8806785435</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>110</v>
@@ -10159,11 +10490,11 @@
       <c r="M11" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N11" s="198" t="s">
-        <v>589</v>
-      </c>
-      <c r="O11" s="198" t="s">
-        <v>540</v>
+      <c r="N11" s="167" t="s">
+        <v>574</v>
+      </c>
+      <c r="O11" s="167" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -10198,7 +10529,7 @@
         <v>2227658912</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>110</v>
@@ -10206,11 +10537,11 @@
       <c r="M12" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N12" s="199" t="s">
-        <v>590</v>
-      </c>
-      <c r="O12" s="199" t="s">
-        <v>540</v>
+      <c r="N12" s="168" t="s">
+        <v>575</v>
+      </c>
+      <c r="O12" s="168" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -10245,7 +10576,7 @@
         <v>7776528901</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>177</v>
@@ -10253,11 +10584,11 @@
       <c r="M13" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N13" s="200" t="s">
-        <v>591</v>
-      </c>
-      <c r="O13" s="200" t="s">
-        <v>540</v>
+      <c r="N13" s="169" t="s">
+        <v>576</v>
+      </c>
+      <c r="O13" s="169" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -10292,7 +10623,7 @@
         <v>90165328917</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>110</v>
@@ -10300,11 +10631,11 @@
       <c r="M14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N14" s="201" t="s">
-        <v>592</v>
-      </c>
-      <c r="O14" s="201" t="s">
-        <v>540</v>
+      <c r="N14" s="170" t="s">
+        <v>577</v>
+      </c>
+      <c r="O14" s="170" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -10339,7 +10670,7 @@
         <v>9992346781</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>178</v>
@@ -10347,11 +10678,11 @@
       <c r="M15" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N15" s="202" t="s">
-        <v>593</v>
-      </c>
-      <c r="O15" s="202" t="s">
-        <v>540</v>
+      <c r="N15" s="171" t="s">
+        <v>578</v>
+      </c>
+      <c r="O15" s="171" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -10386,7 +10717,7 @@
         <v>2226189271</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>179</v>
@@ -10394,11 +10725,11 @@
       <c r="M16" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N16" s="203" t="s">
-        <v>594</v>
-      </c>
-      <c r="O16" s="203" t="s">
-        <v>540</v>
+      <c r="N16" s="172" t="s">
+        <v>579</v>
+      </c>
+      <c r="O16" s="172" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -10433,19 +10764,19 @@
         <v>5557789012</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>110</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="N17" s="238" t="s">
+        <v>595</v>
+      </c>
+      <c r="N17" s="207" t="s">
         <v>336</v>
       </c>
-      <c r="O17" s="238" t="s">
-        <v>611</v>
+      <c r="O17" s="207" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -10480,19 +10811,19 @@
         <v>1239872361</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>110</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="N18" s="239" t="s">
+        <v>595</v>
+      </c>
+      <c r="N18" s="208" t="s">
         <v>336</v>
       </c>
-      <c r="O18" s="239" t="s">
-        <v>611</v>
+      <c r="O18" s="208" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -10525,7 +10856,7 @@
         <v>9991237890</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>110</v>
@@ -10533,11 +10864,11 @@
       <c r="M19" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N19" s="204" t="s">
+      <c r="N19" s="173" t="s">
         <v>336</v>
       </c>
-      <c r="O19" s="204" t="s">
-        <v>595</v>
+      <c r="O19" s="173" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -10572,7 +10903,7 @@
         <v>5556789087</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>110</v>
@@ -10580,11 +10911,11 @@
       <c r="M20" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N20" s="205" t="s">
+      <c r="N20" s="174" t="s">
         <v>336</v>
       </c>
-      <c r="O20" s="205" t="s">
-        <v>596</v>
+      <c r="O20" s="174" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -10619,7 +10950,7 @@
         <v>5554567897</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>110</v>
@@ -10627,11 +10958,11 @@
       <c r="M21" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N21" s="206" t="s">
+      <c r="N21" s="175" t="s">
         <v>336</v>
       </c>
-      <c r="O21" s="206" t="s">
-        <v>597</v>
+      <c r="O21" s="175" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -10666,7 +10997,7 @@
         <v>4448960786</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>110</v>
@@ -10674,11 +11005,11 @@
       <c r="M22" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N22" s="207" t="s">
+      <c r="N22" s="176" t="s">
         <v>336</v>
       </c>
-      <c r="O22" s="207" t="s">
-        <v>354</v>
+      <c r="O22" s="176" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -10711,7 +11042,7 @@
         <v>7776892313</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>110</v>
@@ -10719,11 +11050,11 @@
       <c r="M23" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="N23" s="208" t="s">
+      <c r="N23" s="177" t="s">
         <v>336</v>
       </c>
-      <c r="O23" s="208" t="s">
-        <v>598</v>
+      <c r="O23" s="177" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -10756,7 +11087,7 @@
         <v>2227657890</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>110</v>
@@ -10764,11 +11095,11 @@
       <c r="M24" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="N24" s="209" t="s">
+      <c r="N24" s="178" t="s">
         <v>336</v>
       </c>
-      <c r="O24" s="209" t="s">
-        <v>599</v>
+      <c r="O24" s="178" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -10803,7 +11134,7 @@
         <v>90167189172</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>110</v>
@@ -10811,11 +11142,11 @@
       <c r="M25" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N25" s="210" t="s">
+      <c r="N25" s="179" t="s">
         <v>336</v>
       </c>
-      <c r="O25" s="210" t="s">
-        <v>596</v>
+      <c r="O25" s="179" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -10850,7 +11181,7 @@
         <v>4417678901</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>110</v>
@@ -10858,11 +11189,11 @@
       <c r="M26" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N26" s="211" t="s">
+      <c r="N26" s="180" t="s">
         <v>336</v>
       </c>
-      <c r="O26" s="211" t="s">
-        <v>354</v>
+      <c r="O26" s="180" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -10895,7 +11226,7 @@
         <v>9997863271</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>110</v>
@@ -10903,11 +11234,11 @@
       <c r="M27" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="N27" s="212" t="s">
+      <c r="N27" s="181" t="s">
         <v>336</v>
       </c>
-      <c r="O27" s="212" t="s">
-        <v>600</v>
+      <c r="O27" s="181" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -10942,7 +11273,7 @@
         <v>6557891271</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>110</v>
@@ -10950,11 +11281,11 @@
       <c r="M28" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N28" s="213" t="s">
+      <c r="N28" s="182" t="s">
         <v>336</v>
       </c>
-      <c r="O28" s="213" t="s">
-        <v>596</v>
+      <c r="O28" s="182" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -10989,7 +11320,7 @@
         <v>7779874561</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>110</v>
@@ -10997,11 +11328,11 @@
       <c r="M29" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N29" s="214" t="s">
+      <c r="N29" s="183" t="s">
         <v>336</v>
       </c>
-      <c r="O29" s="214" t="s">
-        <v>597</v>
+      <c r="O29" s="183" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -11036,7 +11367,7 @@
         <v>7779084515</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>110</v>
@@ -11044,11 +11375,11 @@
       <c r="M30" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N30" s="215" t="s">
+      <c r="N30" s="184" t="s">
         <v>336</v>
       </c>
-      <c r="O30" s="215" t="s">
-        <v>354</v>
+      <c r="O30" s="184" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -11081,7 +11412,7 @@
         <v>1018237829</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>110</v>
@@ -11089,11 +11420,11 @@
       <c r="M31" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N31" s="216" t="s">
+      <c r="N31" s="185" t="s">
         <v>336</v>
       </c>
-      <c r="O31" s="216" t="s">
-        <v>601</v>
+      <c r="O31" s="185" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -11128,7 +11459,7 @@
         <v>1015677890</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>110</v>
@@ -11136,11 +11467,11 @@
       <c r="M32" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N32" s="217" t="s">
+      <c r="N32" s="186" t="s">
         <v>336</v>
       </c>
-      <c r="O32" s="217" t="s">
-        <v>596</v>
+      <c r="O32" s="186" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -11175,7 +11506,7 @@
         <v>1012237893</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>110</v>
@@ -11183,11 +11514,11 @@
       <c r="M33" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N33" s="218" t="s">
+      <c r="N33" s="187" t="s">
         <v>336</v>
       </c>
-      <c r="O33" s="218" t="s">
-        <v>597</v>
+      <c r="O33" s="187" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
@@ -11222,7 +11553,7 @@
         <v>1016738377</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>110</v>
@@ -11230,11 +11561,11 @@
       <c r="M34" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N34" s="219" t="s">
+      <c r="N34" s="188" t="s">
         <v>336</v>
       </c>
-      <c r="O34" s="219" t="s">
-        <v>354</v>
+      <c r="O34" s="188" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -11267,7 +11598,7 @@
         <v>4417728910</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>110</v>
@@ -11275,11 +11606,11 @@
       <c r="M35" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="N35" s="220" t="s">
+      <c r="N35" s="189" t="s">
         <v>336</v>
       </c>
-      <c r="O35" s="220" t="s">
-        <v>602</v>
+      <c r="O35" s="189" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -11314,7 +11645,7 @@
         <v>5657811232</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>110</v>
@@ -11322,11 +11653,11 @@
       <c r="M36" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N36" s="221" t="s">
+      <c r="N36" s="190" t="s">
         <v>336</v>
       </c>
-      <c r="O36" s="221" t="s">
-        <v>596</v>
+      <c r="O36" s="190" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -11361,7 +11692,7 @@
         <v>6628725671</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>110</v>
@@ -11369,11 +11700,11 @@
       <c r="M37" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N37" s="222" t="s">
+      <c r="N37" s="191" t="s">
         <v>336</v>
       </c>
-      <c r="O37" s="222" t="s">
-        <v>353</v>
+      <c r="O37" s="191" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -11408,7 +11739,7 @@
         <v>5529874561</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>110</v>
@@ -11416,11 +11747,11 @@
       <c r="M38" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N38" s="223" t="s">
+      <c r="N38" s="192" t="s">
         <v>336</v>
       </c>
-      <c r="O38" s="223" t="s">
-        <v>354</v>
+      <c r="O38" s="192" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -11455,7 +11786,7 @@
         <v>9328982123</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>110</v>
@@ -11463,11 +11794,11 @@
       <c r="M39" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="N39" s="224" t="s">
+      <c r="N39" s="193" t="s">
         <v>336</v>
       </c>
-      <c r="O39" s="224" t="s">
-        <v>603</v>
+      <c r="O39" s="193" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -11500,7 +11831,7 @@
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="2" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>110</v>
@@ -11508,11 +11839,11 @@
       <c r="M40" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="N40" s="225" t="s">
+      <c r="N40" s="194" t="s">
         <v>336</v>
       </c>
-      <c r="O40" s="225" t="s">
-        <v>604</v>
+      <c r="O40" s="194" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -11547,7 +11878,7 @@
         <v>90</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>110</v>
@@ -11555,11 +11886,11 @@
       <c r="M41" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N41" s="226" t="s">
+      <c r="N41" s="195" t="s">
         <v>336</v>
       </c>
-      <c r="O41" s="226" t="s">
-        <v>596</v>
+      <c r="O41" s="195" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -11594,7 +11925,7 @@
         <v>238</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>110</v>
@@ -11602,11 +11933,11 @@
       <c r="M42" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N42" s="227" t="s">
+      <c r="N42" s="196" t="s">
         <v>336</v>
       </c>
-      <c r="O42" s="227" t="s">
-        <v>353</v>
+      <c r="O42" s="196" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -11641,7 +11972,7 @@
         <v>248</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>110</v>
@@ -11649,11 +11980,11 @@
       <c r="M43" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N43" s="228" t="s">
+      <c r="N43" s="197" t="s">
         <v>336</v>
       </c>
-      <c r="O43" s="228" t="s">
-        <v>354</v>
+      <c r="O43" s="197" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -11694,11 +12025,11 @@
       <c r="M44" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="N44" s="229" t="s">
+      <c r="N44" s="198" t="s">
         <v>336</v>
       </c>
-      <c r="O44" s="229" t="s">
-        <v>605</v>
+      <c r="O44" s="198" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -11741,11 +12072,11 @@
       <c r="M45" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N45" s="230" t="s">
+      <c r="N45" s="199" t="s">
         <v>336</v>
       </c>
-      <c r="O45" s="230" t="s">
-        <v>596</v>
+      <c r="O45" s="199" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -11788,11 +12119,11 @@
       <c r="M46" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N46" s="231" t="s">
+      <c r="N46" s="200" t="s">
         <v>336</v>
       </c>
-      <c r="O46" s="231" t="s">
-        <v>606</v>
+      <c r="O46" s="200" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -11835,11 +12166,11 @@
       <c r="M47" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N47" s="232" t="s">
+      <c r="N47" s="201" t="s">
         <v>336</v>
       </c>
-      <c r="O47" s="232" t="s">
-        <v>606</v>
+      <c r="O47" s="201" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -11882,11 +12213,11 @@
       <c r="M48" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N48" s="233" t="s">
+      <c r="N48" s="202" t="s">
         <v>336</v>
       </c>
-      <c r="O48" s="233" t="s">
-        <v>606</v>
+      <c r="O48" s="202" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -11930,11 +12261,11 @@
       <c r="M49" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="N49" s="234" t="s">
+      <c r="N49" s="203" t="s">
         <v>336</v>
       </c>
-      <c r="O49" s="234" t="s">
-        <v>607</v>
+      <c r="O49" s="203" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -11969,17 +12300,17 @@
         <v>8783426621</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N50" s="235" t="s">
+      <c r="N50" s="204" t="s">
         <v>336</v>
       </c>
-      <c r="O50" s="235" t="s">
-        <v>494</v>
+      <c r="O50" s="204" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
@@ -12002,46 +12333,46 @@
       <c r="M51" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="N51" s="236" t="s">
+      <c r="N51" s="205" t="s">
         <v>336</v>
       </c>
-      <c r="O51" s="236" t="s">
-        <v>608</v>
+      <c r="O51" s="205" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="86"/>
-      <c r="B52" s="101" t="s">
-        <v>445</v>
-      </c>
-      <c r="C52" s="86" t="s">
-        <v>446</v>
-      </c>
-      <c r="D52" s="86" t="s">
+      <c r="A52" s="70"/>
+      <c r="B52" s="85" t="s">
+        <v>440</v>
+      </c>
+      <c r="C52" s="70" t="s">
+        <v>441</v>
+      </c>
+      <c r="D52" s="70" t="s">
         <v>38</v>
       </c>
       <c r="E52" s="5">
         <v>30537</v>
       </c>
-      <c r="F52" s="86" t="s">
-        <v>447</v>
-      </c>
-      <c r="G52" s="86" t="s">
+      <c r="F52" s="70" t="s">
+        <v>442</v>
+      </c>
+      <c r="G52" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="H52" s="86" t="s">
+      <c r="H52" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="I52" s="86">
+      <c r="I52" s="70">
         <v>667875</v>
       </c>
       <c r="J52" s="8">
         <v>9996278123</v>
       </c>
-      <c r="K52" s="100" t="s">
-        <v>581</v>
-      </c>
-      <c r="L52" s="86" t="s">
+      <c r="K52" s="84" t="s">
+        <v>566</v>
+      </c>
+      <c r="L52" s="70" t="s">
         <v>110</v>
       </c>
       <c r="M52" s="1" t="s">
@@ -12175,7 +12506,7 @@
         <v>266</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>274</v>
@@ -12193,13 +12524,13 @@
         <v>7771232345</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K2" s="122" t="s">
-        <v>497</v>
+      <c r="K2" s="105" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -12210,7 +12541,7 @@
         <v>267</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>39</v>
@@ -12228,13 +12559,13 @@
         <v>7771232345</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K3" s="115" t="s">
-        <v>497</v>
+      <c r="K3" s="98" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -12245,7 +12576,7 @@
         <v>268</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>39</v>
@@ -12263,13 +12594,13 @@
         <v>7771232345</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K4" s="116" t="s">
-        <v>497</v>
+      <c r="K4" s="99" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -12280,7 +12611,7 @@
         <v>269</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>275</v>
@@ -12298,13 +12629,13 @@
         <v>7771232345</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K5" s="117" t="s">
-        <v>497</v>
+      <c r="K5" s="100" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -12315,7 +12646,7 @@
         <v>270</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>276</v>
@@ -12333,13 +12664,13 @@
         <v>7778901237</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K6" s="118" t="s">
-        <v>497</v>
+      <c r="K6" s="101" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -12350,7 +12681,7 @@
         <v>271</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>277</v>
@@ -12373,8 +12704,8 @@
       <c r="J7" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K7" s="119" t="s">
-        <v>497</v>
+      <c r="K7" s="102" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -12385,7 +12716,7 @@
         <v>282</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>277</v>
@@ -12408,8 +12739,8 @@
       <c r="J8" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K8" s="120" t="s">
-        <v>498</v>
+      <c r="K8" s="103" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12420,7 +12751,7 @@
         <v>272</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -12431,8 +12762,8 @@
       <c r="J9" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K9" s="121" t="s">
-        <v>497</v>
+      <c r="K9" s="104" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -12452,8 +12783,8 @@
       <c r="J10" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="K10" s="123" t="s">
-        <v>499</v>
+      <c r="K10" s="106" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -12475,8 +12806,8 @@
       <c r="J11" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="K11" s="124" t="s">
-        <v>353</v>
+      <c r="K11" s="107" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -12498,8 +12829,8 @@
       <c r="J12" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="K12" s="125" t="s">
-        <v>353</v>
+      <c r="K12" s="108" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -12521,8 +12852,8 @@
       <c r="J13" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K13" s="126" t="s">
-        <v>354</v>
+      <c r="K13" s="109" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -12544,8 +12875,8 @@
       <c r="J14" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="K14" s="127" t="s">
-        <v>500</v>
+      <c r="K14" s="110" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -12567,8 +12898,8 @@
       <c r="J15" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="K15" s="128" t="s">
-        <v>500</v>
+      <c r="K15" s="111" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="72" x14ac:dyDescent="0.3">
@@ -12590,16 +12921,16 @@
       <c r="J16" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="K16" s="129" t="s">
-        <v>500</v>
+      <c r="K16" s="112" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="93"/>
-      <c r="B17" s="102" t="s">
-        <v>448</v>
-      </c>
-      <c r="C17" s="93">
+      <c r="A17" s="77"/>
+      <c r="B17" s="86" t="s">
+        <v>443</v>
+      </c>
+      <c r="C17" s="77">
         <v>12345</v>
       </c>
       <c r="J17" t="s">
@@ -12670,8 +13001,8 @@
       <c r="D2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E2" s="240" t="s">
-        <v>612</v>
+      <c r="E2" s="209" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -12687,8 +13018,8 @@
       <c r="D3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E3" s="241" t="s">
-        <v>612</v>
+      <c r="E3" s="210" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -12704,8 +13035,8 @@
       <c r="D4" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E4" s="242" t="s">
-        <v>612</v>
+      <c r="E4" s="211" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -12721,8 +13052,8 @@
       <c r="D5" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E5" s="243" t="s">
-        <v>612</v>
+      <c r="E5" s="212" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -12738,8 +13069,8 @@
       <c r="D6" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E6" s="244" t="s">
-        <v>612</v>
+      <c r="E6" s="213" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -12755,8 +13086,8 @@
       <c r="D7" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E7" s="245" t="s">
-        <v>612</v>
+      <c r="E7" s="214" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -12772,8 +13103,8 @@
       <c r="D8" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E8" s="246" t="s">
-        <v>612</v>
+      <c r="E8" s="215" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -12789,8 +13120,8 @@
       <c r="D9" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E9" s="247" t="s">
-        <v>612</v>
+      <c r="E9" s="216" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -12806,8 +13137,8 @@
       <c r="D10" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E10" s="248" t="s">
-        <v>612</v>
+      <c r="E10" s="217" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -12823,8 +13154,8 @@
       <c r="D11" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E11" s="249" t="s">
-        <v>612</v>
+      <c r="E11" s="218" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -12840,8 +13171,8 @@
       <c r="D12" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E12" s="250" t="s">
-        <v>612</v>
+      <c r="E12" s="219" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -12857,8 +13188,8 @@
       <c r="D13" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E13" s="251" t="s">
-        <v>612</v>
+      <c r="E13" s="220" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -12874,8 +13205,8 @@
       <c r="D14" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E14" s="252" t="s">
-        <v>612</v>
+      <c r="E14" s="221" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -12891,8 +13222,8 @@
       <c r="D15" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E15" s="253" t="s">
-        <v>612</v>
+      <c r="E15" s="222" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -12908,8 +13239,8 @@
       <c r="D16" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E16" s="254" t="s">
-        <v>612</v>
+      <c r="E16" s="223" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -12923,8 +13254,8 @@
       <c r="D17" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E17" s="255" t="s">
-        <v>499</v>
+      <c r="E17" s="224" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -12940,8 +13271,8 @@
       <c r="D18" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E18" s="256" t="s">
-        <v>353</v>
+      <c r="E18" s="225" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -12957,8 +13288,8 @@
       <c r="D19" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="257" t="s">
-        <v>353</v>
+      <c r="E19" s="226" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -12974,8 +13305,8 @@
       <c r="D20" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="258" t="s">
-        <v>354</v>
+      <c r="E20" s="227" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -12991,8 +13322,8 @@
       <c r="D21" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E21" s="259" t="s">
-        <v>613</v>
+      <c r="E21" s="228" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -13008,8 +13339,8 @@
       <c r="D22" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E22" s="260" t="s">
-        <v>613</v>
+      <c r="E22" s="229" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -13025,8 +13356,8 @@
       <c r="D23" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E23" s="261" t="s">
-        <v>613</v>
+      <c r="E23" s="230" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -13036,52 +13367,52 @@
       <c r="B24" s="59" t="s">
         <v>323</v>
       </c>
-      <c r="C24" s="130">
+      <c r="C24" s="113">
         <v>96501</v>
       </c>
       <c r="D24" s="52" t="s">
         <v>294</v>
       </c>
-      <c r="E24" s="262" t="s">
-        <v>614</v>
+      <c r="E24" s="231" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="189" t="s">
-        <v>366</v>
-      </c>
-      <c r="C25" s="185">
+      <c r="B25" s="158" t="s">
+        <v>364</v>
+      </c>
+      <c r="C25" s="154">
         <v>37672</v>
       </c>
-      <c r="D25" s="186" t="s">
+      <c r="D25" s="155" t="s">
         <v>255</v>
       </c>
-      <c r="E25" s="263" t="s">
-        <v>613</v>
+      <c r="E25" s="232" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="103"/>
-      <c r="B26" s="188" t="s">
-        <v>449</v>
-      </c>
-      <c r="C26" s="103">
+      <c r="A26" s="87"/>
+      <c r="B26" s="157" t="s">
+        <v>444</v>
+      </c>
+      <c r="C26" s="87">
         <v>12345</v>
       </c>
       <c r="D26" s="50" t="s">
         <v>285</v>
       </c>
-      <c r="E26" s="187"/>
+      <c r="E26" s="156"/>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="51"/>
       <c r="B27" s="50"/>
       <c r="C27" s="50"/>
       <c r="D27" s="50"/>
-      <c r="E27" s="187"/>
+      <c r="E27" s="156"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13097,8 +13428,8 @@
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13146,7 +13477,7 @@
       <c r="B2" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C2" s="99">
+      <c r="C2" s="83">
         <v>73735</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -13158,11 +13489,11 @@
       <c r="F2" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G2" s="264" t="s">
-        <v>615</v>
-      </c>
-      <c r="H2" s="264" t="s">
-        <v>518</v>
+      <c r="G2" s="263" t="s">
+        <v>623</v>
+      </c>
+      <c r="H2" s="263" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -13172,7 +13503,7 @@
       <c r="B3" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C3" s="99">
+      <c r="C3" s="83">
         <v>37705</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -13184,11 +13515,11 @@
       <c r="F3" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G3" s="265" t="s">
-        <v>616</v>
-      </c>
-      <c r="H3" s="265" t="s">
-        <v>518</v>
+      <c r="G3" s="264" t="s">
+        <v>624</v>
+      </c>
+      <c r="H3" s="264" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -13198,7 +13529,7 @@
       <c r="B4" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C4" s="99">
+      <c r="C4" s="83">
         <v>73735</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -13210,11 +13541,11 @@
       <c r="F4" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G4" s="266" t="s">
-        <v>617</v>
-      </c>
-      <c r="H4" s="266" t="s">
-        <v>518</v>
+      <c r="G4" s="265" t="s">
+        <v>625</v>
+      </c>
+      <c r="H4" s="265" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -13224,7 +13555,7 @@
       <c r="B5" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C5" s="99">
+      <c r="C5" s="83">
         <v>37705</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -13236,11 +13567,11 @@
       <c r="F5" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G5" s="267" t="s">
-        <v>618</v>
-      </c>
-      <c r="H5" s="267" t="s">
-        <v>518</v>
+      <c r="G5" s="233" t="s">
+        <v>609</v>
+      </c>
+      <c r="H5" s="233" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -13250,7 +13581,7 @@
       <c r="B6" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C6" s="99">
+      <c r="C6" s="83">
         <v>73735</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -13262,11 +13593,11 @@
       <c r="F6" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G6" s="268" t="s">
-        <v>619</v>
-      </c>
-      <c r="H6" s="268" t="s">
-        <v>518</v>
+      <c r="G6" s="234" t="s">
+        <v>610</v>
+      </c>
+      <c r="H6" s="234" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -13276,7 +13607,7 @@
       <c r="B7" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C7" s="99">
+      <c r="C7" s="83">
         <v>73735</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -13288,11 +13619,11 @@
       <c r="F7" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G7" s="134" t="s">
-        <v>522</v>
-      </c>
-      <c r="H7" s="134" t="s">
-        <v>518</v>
+      <c r="G7" s="235" t="s">
+        <v>611</v>
+      </c>
+      <c r="H7" s="235" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -13302,7 +13633,7 @@
       <c r="B8" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C8" s="99">
+      <c r="C8" s="83">
         <v>73735</v>
       </c>
       <c r="D8" s="1"/>
@@ -13312,11 +13643,11 @@
       <c r="F8" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G8" s="135" t="s">
-        <v>523</v>
-      </c>
-      <c r="H8" s="135" t="s">
-        <v>518</v>
+      <c r="G8" s="236" t="s">
+        <v>612</v>
+      </c>
+      <c r="H8" s="236" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -13326,7 +13657,7 @@
       <c r="B9" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C9" s="99">
+      <c r="C9" s="83">
         <v>98487</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -13338,11 +13669,11 @@
       <c r="F9" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G9" s="136" t="s">
-        <v>524</v>
-      </c>
-      <c r="H9" s="136" t="s">
-        <v>518</v>
+      <c r="G9" s="237" t="s">
+        <v>613</v>
+      </c>
+      <c r="H9" s="237" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -13352,7 +13683,7 @@
       <c r="B10" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C10" s="99">
+      <c r="C10" s="83">
         <v>98487</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -13364,11 +13695,11 @@
       <c r="F10" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G10" s="137" t="s">
-        <v>525</v>
-      </c>
-      <c r="H10" s="137" t="s">
-        <v>518</v>
+      <c r="G10" s="238" t="s">
+        <v>614</v>
+      </c>
+      <c r="H10" s="238" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -13378,7 +13709,7 @@
       <c r="B11" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C11" s="99">
+      <c r="C11" s="83">
         <v>98487</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -13390,11 +13721,11 @@
       <c r="F11" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G11" s="138" t="s">
-        <v>526</v>
-      </c>
-      <c r="H11" s="138" t="s">
-        <v>518</v>
+      <c r="G11" s="116" t="s">
+        <v>517</v>
+      </c>
+      <c r="H11" s="116" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -13404,7 +13735,7 @@
       <c r="B12" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C12" s="99">
+      <c r="C12" s="83">
         <v>37705</v>
       </c>
       <c r="D12" s="54" t="s">
@@ -13416,11 +13747,11 @@
       <c r="F12" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G12" s="139" t="s">
-        <v>527</v>
-      </c>
-      <c r="H12" s="139" t="s">
+      <c r="G12" s="117" t="s">
         <v>518</v>
+      </c>
+      <c r="H12" s="117" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -13430,7 +13761,7 @@
       <c r="B13" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C13" s="99">
+      <c r="C13" s="83">
         <v>37705</v>
       </c>
       <c r="D13" s="54" t="s">
@@ -13442,11 +13773,11 @@
       <c r="F13" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G13" s="140" t="s">
-        <v>528</v>
-      </c>
-      <c r="H13" s="140" t="s">
-        <v>518</v>
+      <c r="G13" s="118" t="s">
+        <v>519</v>
+      </c>
+      <c r="H13" s="118" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -13456,7 +13787,7 @@
       <c r="B14" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C14" s="99">
+      <c r="C14" s="83">
         <v>37705</v>
       </c>
       <c r="D14" s="54" t="s">
@@ -13468,11 +13799,11 @@
       <c r="F14" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G14" s="141" t="s">
-        <v>529</v>
-      </c>
-      <c r="H14" s="141" t="s">
-        <v>518</v>
+      <c r="G14" s="119" t="s">
+        <v>520</v>
+      </c>
+      <c r="H14" s="119" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -13490,13 +13821,13 @@
         <v>1600</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="G15" s="142" t="s">
+        <v>509</v>
+      </c>
+      <c r="G15" s="120" t="s">
         <v>336</v>
       </c>
-      <c r="H15" s="142" t="s">
-        <v>530</v>
+      <c r="H15" s="120" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -13516,13 +13847,13 @@
         <v>1000</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="G16" s="143" t="s">
+        <v>509</v>
+      </c>
+      <c r="G16" s="121" t="s">
         <v>336</v>
       </c>
-      <c r="H16" s="143" t="s">
-        <v>530</v>
+      <c r="H16" s="121" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -13542,13 +13873,13 @@
         <v>1900</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="G17" s="144" t="s">
+        <v>509</v>
+      </c>
+      <c r="G17" s="122" t="s">
         <v>336</v>
       </c>
-      <c r="H17" s="144" t="s">
-        <v>530</v>
+      <c r="H17" s="122" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -13568,13 +13899,13 @@
         <v>2000</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="G18" s="145" t="s">
+        <v>509</v>
+      </c>
+      <c r="G18" s="123" t="s">
         <v>336</v>
       </c>
-      <c r="H18" s="145" t="s">
-        <v>530</v>
+      <c r="H18" s="123" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -13594,13 +13925,13 @@
         <v>1000</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="G19" s="146" t="s">
+        <v>509</v>
+      </c>
+      <c r="G19" s="124" t="s">
         <v>336</v>
       </c>
-      <c r="H19" s="146" t="s">
-        <v>530</v>
+      <c r="H19" s="124" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -13610,7 +13941,7 @@
       <c r="B20" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C20" s="99">
+      <c r="C20" s="83">
         <v>98487</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -13620,11 +13951,11 @@
       <c r="F20" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G20" s="147" t="s">
+      <c r="G20" s="125" t="s">
         <v>336</v>
       </c>
-      <c r="H20" s="147" t="s">
-        <v>531</v>
+      <c r="H20" s="125" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -13634,7 +13965,7 @@
       <c r="B21" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C21" s="99">
+      <c r="C21" s="83">
         <v>98487</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -13646,11 +13977,11 @@
       <c r="F21" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G21" s="148" t="s">
+      <c r="G21" s="126" t="s">
         <v>336</v>
       </c>
-      <c r="H21" s="148" t="s">
-        <v>531</v>
+      <c r="H21" s="126" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -13660,7 +13991,7 @@
       <c r="B22" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C22" s="99">
+      <c r="C22" s="83">
         <v>98487</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -13672,11 +14003,11 @@
       <c r="F22" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G22" s="149" t="s">
+      <c r="G22" s="127" t="s">
         <v>336</v>
       </c>
-      <c r="H22" s="149" t="s">
-        <v>531</v>
+      <c r="H22" s="127" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -13686,7 +14017,7 @@
       <c r="B23" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C23" s="99">
+      <c r="C23" s="83">
         <v>98487</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -13698,11 +14029,11 @@
       <c r="F23" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G23" s="150" t="s">
+      <c r="G23" s="128" t="s">
         <v>336</v>
       </c>
-      <c r="H23" s="150" t="s">
-        <v>531</v>
+      <c r="H23" s="128" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -13712,7 +14043,7 @@
       <c r="B24" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C24" s="99">
+      <c r="C24" s="83">
         <v>98487</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -13724,11 +14055,11 @@
       <c r="F24" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G24" s="151" t="s">
+      <c r="G24" s="129" t="s">
         <v>336</v>
       </c>
-      <c r="H24" s="151" t="s">
-        <v>531</v>
+      <c r="H24" s="129" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -13738,7 +14069,7 @@
       <c r="B25" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C25" s="99">
+      <c r="C25" s="83">
         <v>98487</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -13750,11 +14081,11 @@
       <c r="F25" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G25" s="152" t="s">
+      <c r="G25" s="130" t="s">
         <v>336</v>
       </c>
-      <c r="H25" s="152" t="s">
-        <v>531</v>
+      <c r="H25" s="130" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -13768,13 +14099,13 @@
       <c r="D26" s="54"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="G26" s="153" t="s">
+        <v>509</v>
+      </c>
+      <c r="G26" s="131" t="s">
         <v>336</v>
       </c>
-      <c r="H26" s="153" t="s">
-        <v>530</v>
+      <c r="H26" s="131" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -13782,25 +14113,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="C27" s="86">
+        <v>403</v>
+      </c>
+      <c r="C27" s="70">
         <v>37672</v>
       </c>
-      <c r="D27" s="86" t="s">
-        <v>456</v>
-      </c>
-      <c r="E27" s="86">
+      <c r="D27" s="70" t="s">
+        <v>451</v>
+      </c>
+      <c r="E27" s="70">
         <v>1000</v>
       </c>
-      <c r="F27" s="86" t="s">
-        <v>514</v>
-      </c>
-      <c r="G27" s="154" t="s">
+      <c r="F27" s="70" t="s">
+        <v>509</v>
+      </c>
+      <c r="G27" s="132" t="s">
         <v>336</v>
       </c>
-      <c r="H27" s="154" t="s">
-        <v>530</v>
+      <c r="H27" s="132" t="s">
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -13813,12 +14144,12 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13826,6 +14157,7 @@
     <col min="2" max="2" width="62.109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="36.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="38.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -13848,92 +14180,84 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="C2" s="55" t="s">
+        <v>452</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>336</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>312</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="F2" s="270" t="s">
-        <v>535</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="F2" s="278"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C3" s="175" t="s">
+        <v>453</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>336</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>311</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="F3" s="271" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+      <c r="F3" s="279"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C4" s="70" t="s">
+        <v>454</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>336</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>311</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="F4" s="272" t="s">
-        <v>621</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="F4" s="280"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="C5" s="175" t="s">
+        <v>455</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>336</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>312</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="F5" s="176" t="s">
-        <v>532</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="F5" s="281"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C6" s="1">
         <v>39946</v>
@@ -13944,9 +14268,7 @@
       <c r="E6" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="F6" s="177" t="s">
-        <v>533</v>
-      </c>
+      <c r="F6" s="282"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -13960,9 +14282,7 @@
       <c r="E7" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="F7" s="178" t="s">
-        <v>536</v>
-      </c>
+      <c r="F7" s="283"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -13978,9 +14298,7 @@
       <c r="E8" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="179" t="s">
-        <v>537</v>
-      </c>
+      <c r="F8" s="284"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -13996,9 +14314,7 @@
       <c r="E9" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="180" t="s">
-        <v>537</v>
-      </c>
+      <c r="F9" s="285"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -14008,15 +14324,13 @@
         <v>328</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="181" t="s">
-        <v>538</v>
-      </c>
+      <c r="F10" s="286"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -14025,16 +14339,14 @@
       <c r="B11" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C11" s="77">
+      <c r="C11" s="69">
         <v>44435</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="F11" s="182" t="s">
-        <v>533</v>
-      </c>
+      <c r="F11" s="287"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -14050,9 +14362,7 @@
       <c r="E12" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="F12" s="183" t="s">
-        <v>533</v>
-      </c>
+      <c r="F12" s="288"/>
     </row>
     <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -14068,9 +14378,7 @@
       <c r="E13" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="F13" s="184" t="s">
-        <v>533</v>
-      </c>
+      <c r="F13" s="289"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14086,7 +14394,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14121,14 +14429,12 @@
       <c r="B2" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C2" s="48" t="s">
-        <v>336</v>
-      </c>
+      <c r="C2" s="48"/>
       <c r="D2" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E2" s="155" t="s">
-        <v>516</v>
+      <c r="E2" s="133" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -14138,14 +14444,12 @@
       <c r="B3" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C3" s="48" t="s">
-        <v>336</v>
-      </c>
+      <c r="C3" s="48"/>
       <c r="D3" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E3" s="156" t="s">
-        <v>516</v>
+      <c r="E3" s="134" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -14155,14 +14459,12 @@
       <c r="B4" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C4" s="48" t="s">
-        <v>336</v>
-      </c>
+      <c r="C4" s="48"/>
       <c r="D4" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E4" s="157" t="s">
-        <v>516</v>
+      <c r="E4" s="135" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -14172,14 +14474,12 @@
       <c r="B5" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C5" s="48" t="s">
-        <v>336</v>
-      </c>
+      <c r="C5" s="48"/>
       <c r="D5" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E5" s="158" t="s">
-        <v>516</v>
+      <c r="E5" s="136" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -14189,14 +14489,12 @@
       <c r="B6" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C6" s="48" t="s">
-        <v>336</v>
-      </c>
+      <c r="C6" s="48"/>
       <c r="D6" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E6" s="159" t="s">
-        <v>516</v>
+      <c r="E6" s="137" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -14206,14 +14504,12 @@
       <c r="B7" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C7" s="48" t="s">
-        <v>336</v>
-      </c>
+      <c r="C7" s="48"/>
       <c r="D7" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E7" s="160" t="s">
-        <v>516</v>
+      <c r="E7" s="138" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -14223,14 +14519,12 @@
       <c r="B8" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C8" s="48" t="s">
-        <v>336</v>
-      </c>
+      <c r="C8" s="48"/>
       <c r="D8" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E8" s="161" t="s">
-        <v>516</v>
+      <c r="E8" s="139" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -14240,14 +14534,12 @@
       <c r="B9" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C9" s="48" t="s">
-        <v>336</v>
-      </c>
+      <c r="C9" s="48"/>
       <c r="D9" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E9" s="162" t="s">
-        <v>516</v>
+      <c r="E9" s="140" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -14257,14 +14549,12 @@
       <c r="B10" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C10" s="48" t="s">
-        <v>336</v>
-      </c>
+      <c r="C10" s="48"/>
       <c r="D10" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E10" s="163" t="s">
-        <v>516</v>
+      <c r="E10" s="141" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -14280,8 +14570,8 @@
       <c r="D11" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E11" s="164" t="s">
-        <v>516</v>
+      <c r="E11" s="142" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -14297,8 +14587,8 @@
       <c r="D12" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E12" s="165" t="s">
-        <v>516</v>
+      <c r="E12" s="143" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -14314,8 +14604,8 @@
       <c r="D13" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E13" s="166" t="s">
-        <v>516</v>
+      <c r="E13" s="144" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -14331,8 +14621,8 @@
       <c r="D14" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E14" s="167" t="s">
-        <v>516</v>
+      <c r="E14" s="145" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -14348,8 +14638,8 @@
       <c r="D15" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E15" s="168" t="s">
-        <v>352</v>
+      <c r="E15" s="146" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -14365,8 +14655,8 @@
       <c r="D16" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E16" s="169" t="s">
-        <v>353</v>
+      <c r="E16" s="147" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -14382,8 +14672,8 @@
       <c r="D17" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E17" s="170" t="s">
-        <v>353</v>
+      <c r="E17" s="148" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -14399,8 +14689,8 @@
       <c r="D18" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="171" t="s">
-        <v>354</v>
+      <c r="E18" s="149" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -14411,13 +14701,13 @@
         <v>329</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E19" s="172" t="s">
-        <v>355</v>
+      <c r="E19" s="150" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -14428,13 +14718,13 @@
         <v>330</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E20" s="173" t="s">
-        <v>355</v>
+      <c r="E20" s="151" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="72" x14ac:dyDescent="0.3">
@@ -14445,18 +14735,18 @@
         <v>331</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E21" s="174" t="s">
-        <v>355</v>
+      <c r="E21" s="152" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="69" t="s">
-        <v>365</v>
+      <c r="B22" s="61" t="s">
+        <v>363</v>
       </c>
       <c r="C22" s="1">
         <v>39946</v>
@@ -14473,10 +14763,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C2" sqref="C2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14485,6 +14778,7 @@
     <col min="4" max="4" width="14.6640625" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="51.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="30.77734375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -14498,19 +14792,19 @@
         <v>322</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>358</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -14523,25 +14817,21 @@
       <c r="B2" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C2" s="48">
-        <v>39905</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2810</v>
-      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="1"/>
       <c r="E2" s="49">
         <v>200</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="H2" s="78" t="s">
-        <v>377</v>
-      </c>
-      <c r="I2" s="78" t="s">
+        <v>360</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>602</v>
+      </c>
+      <c r="I2" s="239" t="s">
         <v>350</v>
       </c>
     </row>
@@ -14552,25 +14842,21 @@
       <c r="B3" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C3" s="48">
-        <v>39906</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2300</v>
-      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="1"/>
       <c r="E3" s="49">
         <v>400</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="H3" s="79" t="s">
-        <v>376</v>
-      </c>
-      <c r="I3" s="79" t="s">
+        <v>360</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>603</v>
+      </c>
+      <c r="I3" s="240" t="s">
         <v>350</v>
       </c>
     </row>
@@ -14578,395 +14864,468 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>324</v>
+      <c r="B4" s="70" t="s">
+        <v>393</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1">
-        <v>500</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H4" s="80" t="s">
-        <v>336</v>
-      </c>
-      <c r="I4" s="80" t="s">
-        <v>352</v>
+        <v>360</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>604</v>
+      </c>
+      <c r="I4" s="241" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D5" s="1">
-        <v>500</v>
+      <c r="B5" s="70" t="s">
+        <v>381</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>336</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="E5" s="1">
         <v>100</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>371</v>
+        <v>90</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H5" s="81" t="s">
-        <v>336</v>
-      </c>
-      <c r="I5" s="81" t="s">
-        <v>353</v>
+        <v>360</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>605</v>
+      </c>
+      <c r="I5" s="242" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D6" s="1">
-        <v>500</v>
+      <c r="B6" s="70" t="s">
+        <v>382</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>336</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="E6" s="1">
-        <v>100</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>373</v>
+        <v>150</v>
+      </c>
+      <c r="F6" s="1">
+        <v>123345</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H6" s="82" t="s">
-        <v>336</v>
-      </c>
-      <c r="I6" s="82" t="s">
-        <v>353</v>
+        <v>360</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>606</v>
+      </c>
+      <c r="I6" s="243" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>328</v>
+      <c r="B7" s="70" t="s">
+        <v>383</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D7" s="1">
-        <v>500</v>
+        <v>336</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="E7" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H7" s="83" t="s">
-        <v>336</v>
-      </c>
-      <c r="I7" s="83" t="s">
-        <v>354</v>
+        <v>360</v>
+      </c>
+      <c r="H7" s="49" t="s">
+        <v>607</v>
+      </c>
+      <c r="I7" s="244" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C8" s="1">
-        <v>39946</v>
-      </c>
-      <c r="D8" s="1">
-        <v>500</v>
+      <c r="B8" s="70" t="s">
+        <v>385</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="E8" s="1">
         <v>100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H8" s="84" t="s">
-        <v>336</v>
-      </c>
-      <c r="I8" s="84" t="s">
-        <v>355</v>
+        <v>360</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>608</v>
+      </c>
+      <c r="I8" s="245" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C9" s="1">
-        <v>39908</v>
-      </c>
-      <c r="D9" s="1">
-        <v>500</v>
+      <c r="B9" s="70" t="s">
+        <v>379</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="E9" s="1">
-        <v>100</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>369</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="H9" s="85" t="s">
-        <v>336</v>
-      </c>
-      <c r="I9" s="85" t="s">
-        <v>375</v>
+      <c r="H9" s="49" t="s">
+        <v>615</v>
+      </c>
+      <c r="I9" s="246" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="86" t="s">
-        <v>379</v>
+      <c r="B10" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="D10" s="1">
+        <v>500</v>
+      </c>
+      <c r="E10" s="1">
+        <v>100</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>368</v>
+      </c>
       <c r="G10" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+        <v>325</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>616</v>
+      </c>
+      <c r="I10" s="247" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="86" t="s">
-        <v>380</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="1">
+        <v>500</v>
+      </c>
+      <c r="E11" s="1">
+        <v>100</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>369</v>
+      </c>
       <c r="G11" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="H11" s="49" t="s">
+        <v>616</v>
+      </c>
+      <c r="I11" s="248" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="86" t="s">
-        <v>381</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D12" s="1">
+        <v>500</v>
+      </c>
+      <c r="E12" s="1">
+        <v>100</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>371</v>
+      </c>
       <c r="G12" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="H12" s="49" t="s">
+        <v>616</v>
+      </c>
+      <c r="I12" s="249" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="86" t="s">
-        <v>382</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D13" s="1">
+        <v>500</v>
+      </c>
+      <c r="E13" s="1">
+        <v>100</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>370</v>
+      </c>
       <c r="G13" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="H13" s="49" t="s">
+        <v>616</v>
+      </c>
+      <c r="I13" s="250" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="86" t="s">
-        <v>398</v>
-      </c>
-      <c r="C14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C14" s="1">
+        <v>39946</v>
+      </c>
+      <c r="D14" s="1">
+        <v>500</v>
+      </c>
       <c r="E14" s="1">
-        <v>1000000</v>
+        <v>100</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>396</v>
+        <v>366</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+        <v>334</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>616</v>
+      </c>
+      <c r="I14" s="251" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="86" t="s">
-        <v>384</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C15" s="1">
+        <v>39908</v>
+      </c>
+      <c r="D15" s="1">
+        <v>500</v>
+      </c>
+      <c r="E15" s="1">
+        <v>100</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>601</v>
+      </c>
       <c r="G15" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+        <v>334</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>616</v>
+      </c>
+      <c r="I15" s="252" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="86" t="s">
-        <v>386</v>
-      </c>
-      <c r="C16" s="48">
-        <v>39905</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2810</v>
-      </c>
-      <c r="E16" s="1">
-        <v>100</v>
-      </c>
+      <c r="B16" s="70" t="s">
+        <v>374</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44566</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>90</v>
+        <v>374</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+        <v>378</v>
+      </c>
+      <c r="H16" s="49" t="s">
+        <v>616</v>
+      </c>
+      <c r="I16" s="254" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="86" t="s">
-        <v>387</v>
-      </c>
-      <c r="C17" s="48">
-        <v>39906</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2300</v>
-      </c>
-      <c r="E17" s="1">
-        <v>150</v>
-      </c>
-      <c r="F17" s="1">
-        <v>123345</v>
+      <c r="B17" s="70" t="s">
+        <v>375</v>
+      </c>
+      <c r="C17" s="1">
+        <v>44566</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>618</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>616</v>
+      </c>
+      <c r="I17" s="255" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="86" t="s">
-        <v>388</v>
+      <c r="B18" s="70" t="s">
+        <v>376</v>
       </c>
       <c r="C18" s="1">
-        <v>39905</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2810</v>
-      </c>
-      <c r="E18" s="1">
-        <v>200</v>
+        <v>44566</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>620</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>616</v>
+      </c>
+      <c r="I18" s="256" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="86" t="s">
-        <v>390</v>
+      <c r="B19" s="70" t="s">
+        <v>377</v>
       </c>
       <c r="C19" s="1">
-        <v>39906</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2300</v>
-      </c>
-      <c r="E19" s="1">
-        <v>100</v>
+        <v>44566</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>617</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="H19" s="49" t="s">
+        <v>616</v>
+      </c>
+      <c r="I19" s="257" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="86" t="s">
-        <v>392</v>
+      <c r="B20" s="70" t="s">
+        <v>387</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+        <v>388</v>
+      </c>
+      <c r="H20" s="49" t="s">
+        <v>616</v>
+      </c>
+      <c r="I20" s="253" t="s">
+        <v>354</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SeleniumWebDriver/bin/guru99/DataFiles/Guru99_testdata.xlsx
+++ b/SeleniumWebDriver/bin/guru99/DataFiles/Guru99_testdata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A038CD-564F-4F82-B305-D74A4810B9C0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22A81A4-7DAC-4DAD-B777-61F0EF284C99}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="6" r:id="rId1"/>
@@ -26,6 +26,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">NewAcct!$F$1:$F$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">NewCust!$M$1:$M$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Withdrawal!$G$1:$G$21</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -96,7 +97,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Customer ids needs to be creared before running addnewAcct function (Marked in yellow color)</t>
+Need to insert customer ids created as part of NewCust method</t>
         </r>
       </text>
     </comment>
@@ -154,7 +155,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Need to have this account created beforex</t>
+Need to have this account created before</t>
         </r>
       </text>
     </comment>
@@ -188,7 +189,79 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Check for the account no insertion while creating the account</t>
+Acct no from NewAcct method and balBefore from Deposit method</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{9466747F-1830-404E-99F1-63DADE873657}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Description can not be blank" is displayed but withdrawal is completed successfully.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{80B8E614-1454-4BAA-9757-7AF0FDDF07AB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Need to have this account created before</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{C6D136EA-879E-429E-B06F-A2122D47BAE9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Error is shown sometimes in alert when characters are given in amount field otherwise the alert says Amount could not be debited!!!!</t>
         </r>
       </text>
     </comment>
@@ -265,7 +338,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="631">
   <si>
     <t>testcaseID</t>
   </si>
@@ -1155,9 +1228,6 @@
     <t>Trying to delete a customer with account tagged customer id</t>
   </si>
   <si>
-    <t>Add a new  savings account</t>
-  </si>
-  <si>
     <t>Add a new current account</t>
   </si>
   <si>
@@ -1386,9 +1456,6 @@
     <t>$%^&amp;*</t>
   </si>
   <si>
-    <t>Exisitng account with 500 balance</t>
-  </si>
-  <si>
     <t>Blank amount</t>
   </si>
   <si>
@@ -1467,15 +1534,6 @@
     <t>invest</t>
   </si>
   <si>
-    <t>390</t>
-  </si>
-  <si>
-    <t>2800</t>
-  </si>
-  <si>
-    <t>490</t>
-  </si>
-  <si>
     <t>Add a bank account to a customer id created by a different manager</t>
   </si>
   <si>
@@ -2076,39 +2134,6 @@
     <t>1200</t>
   </si>
   <si>
-    <t>2400</t>
-  </si>
-  <si>
-    <t>103000</t>
-  </si>
-  <si>
-    <t>4700</t>
-  </si>
-  <si>
-    <t>1350</t>
-  </si>
-  <si>
-    <t>1600</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>44782</t>
-  </si>
-  <si>
-    <t>44783</t>
-  </si>
-  <si>
-    <t>44784</t>
-  </si>
-  <si>
-    <t>44785</t>
-  </si>
-  <si>
-    <t>44786</t>
-  </si>
-  <si>
     <t>44787</t>
   </si>
   <si>
@@ -2136,19 +2161,76 @@
     <t>You are not authorize to………</t>
   </si>
   <si>
-    <t>44807</t>
-  </si>
-  <si>
-    <t>44808</t>
-  </si>
-  <si>
-    <t>44809</t>
-  </si>
-  <si>
     <t>1000</t>
   </si>
   <si>
     <t>2000</t>
+  </si>
+  <si>
+    <t>Existing account with 500 balanace</t>
+  </si>
+  <si>
+    <t>44846</t>
+  </si>
+  <si>
+    <t>44847</t>
+  </si>
+  <si>
+    <t>44848</t>
+  </si>
+  <si>
+    <t>44849</t>
+  </si>
+  <si>
+    <t>44850</t>
+  </si>
+  <si>
+    <t>44851</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>44852</t>
+  </si>
+  <si>
+    <t>6100</t>
+  </si>
+  <si>
+    <t>104600</t>
+  </si>
+  <si>
+    <t>1550</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>5800</t>
+  </si>
+  <si>
+    <t>99600</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>722</t>
+  </si>
+  <si>
+    <t>Pass - Amount could not be debited!!</t>
+  </si>
+  <si>
+    <t>Fail - Message Mismatch..Transaction Failed. Account Balance Low!!!</t>
+  </si>
+  <si>
+    <t>Pass - Transaction Failed. Account Balance Low!!!</t>
   </si>
 </sst>
 </file>
@@ -2262,7 +2344,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="187">
+  <fills count="202">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2985,21 +3067,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3066,71 +3133,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3201,8 +3203,163 @@
         <fgColor indexed="57"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="236">
+  <borders count="250">
     <border>
       <left/>
       <right/>
@@ -3836,124 +3993,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -6190,6 +6229,324 @@
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -6722,7 +7079,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="290">
+  <cellXfs count="305">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -6792,22 +7149,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6825,216 +7173,240 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="65" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="69" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="71" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="73" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="65" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="75" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="76" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="77" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="78" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="79" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="80" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="81" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="82" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="83" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="84" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="85" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="86" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="87" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="88" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="89" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="90" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="91" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="92" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="93" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="94" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="95" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="96" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="97" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="98" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="99" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="100" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="101" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="102" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="103" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="104" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="105" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="106" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="107" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="108" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="109" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="110" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="111" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="69" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="71" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="73" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="74" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="75" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="76" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="77" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="78" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="79" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="80" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="81" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="82" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="83" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="84" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="85" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="86" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="87" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="88" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="89" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="90" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="91" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="92" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="93" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="94" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="95" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="96" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="97" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="98" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="99" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="100" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="101" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="102" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="103" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="112" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="104" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="104" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="112" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="113" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="114" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="115" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="76" borderId="116" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="117" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="78" borderId="118" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="119" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="80" borderId="120" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="81" borderId="121" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="82" borderId="122" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="123" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="84" borderId="124" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="85" borderId="125" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="86" borderId="126" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="87" borderId="127" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="88" borderId="128" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="89" borderId="129" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="90" borderId="130" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="91" borderId="131" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="92" borderId="132" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="93" borderId="133" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="94" borderId="134" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="95" borderId="135" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="96" borderId="136" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="97" borderId="137" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="98" borderId="138" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="99" borderId="139" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="100" borderId="140" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="101" borderId="141" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="102" borderId="142" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="103" borderId="143" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="104" borderId="144" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="105" borderId="145" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="106" borderId="146" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="107" borderId="147" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="148" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="109" borderId="149" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="110" borderId="150" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="111" borderId="151" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="112" borderId="152" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="113" borderId="153" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="114" borderId="154" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="115" borderId="155" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="156" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="117" borderId="157" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="118" borderId="158" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="119" borderId="159" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="120" borderId="160" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="121" borderId="161" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="122" borderId="162" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="123" borderId="163" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="164" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="125" borderId="165" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="126" borderId="166" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="127" borderId="167" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="168" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="129" borderId="169" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="130" borderId="170" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="131" borderId="171" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="132" borderId="172" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="133" borderId="173" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="134" borderId="174" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="135" borderId="175" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="176" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="137" borderId="177" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="138" borderId="178" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="139" borderId="179" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="140" borderId="180" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="141" borderId="181" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="142" borderId="182" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="143" borderId="183" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="144" borderId="184" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="145" borderId="185" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="146" borderId="186" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="148" borderId="187" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="149" borderId="188" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="150" borderId="189" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="151" borderId="190" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="152" borderId="191" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="153" borderId="192" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="154" borderId="193" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="155" borderId="194" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="156" borderId="195" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="157" borderId="196" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="158" borderId="197" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="159" borderId="198" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="160" borderId="199" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="161" borderId="200" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="162" borderId="201" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="163" borderId="202" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="164" borderId="203" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="165" borderId="204" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="166" borderId="205" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="167" borderId="206" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="168" borderId="207" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="169" borderId="208" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="170" borderId="209" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="171" borderId="210" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="172" borderId="211" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="173" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="173" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="173" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="174" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="147" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="104" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="105" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="106" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="107" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="108" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="109" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="110" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="111" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="112" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="78" borderId="113" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="114" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="80" borderId="115" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="81" borderId="116" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="82" borderId="117" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="118" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="119" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="120" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="121" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="122" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="88" borderId="123" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="89" borderId="124" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="90" borderId="125" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="91" borderId="126" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="92" borderId="127" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="93" borderId="128" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="94" borderId="129" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="130" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="96" borderId="131" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="97" borderId="132" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="98" borderId="133" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="99" borderId="134" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="100" borderId="135" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="101" borderId="136" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="102" borderId="137" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="138" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="104" borderId="139" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="105" borderId="140" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="106" borderId="141" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="107" borderId="142" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="143" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="109" borderId="144" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="110" borderId="145" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="111" borderId="146" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="112" borderId="147" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="113" borderId="148" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="114" borderId="149" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="115" borderId="150" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="151" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="117" borderId="152" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="118" borderId="153" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="119" borderId="154" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="120" borderId="155" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="121" borderId="156" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="122" borderId="157" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="123" borderId="158" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="159" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="125" borderId="160" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="126" borderId="161" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="127" borderId="162" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="163" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="129" borderId="164" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="130" borderId="165" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="131" borderId="166" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="132" borderId="167" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="133" borderId="168" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="134" borderId="169" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="135" borderId="170" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="171" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="137" borderId="172" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="138" borderId="173" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="139" borderId="174" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="140" borderId="175" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="141" borderId="176" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="142" borderId="177" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="143" borderId="178" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="145" borderId="179" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="146" borderId="180" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="147" borderId="181" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="148" borderId="182" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="149" borderId="183" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="150" borderId="184" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="151" borderId="185" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="152" borderId="186" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="153" borderId="187" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="154" borderId="188" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="155" borderId="189" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="156" borderId="190" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="157" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="157" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="157" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="158" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="175" borderId="212" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="176" borderId="213" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="177" borderId="214" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="178" borderId="215" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="179" borderId="228" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="180" borderId="229" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="181" borderId="230" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="182" borderId="231" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="183" borderId="232" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="184" borderId="233" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="185" borderId="234" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="186" borderId="235" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="159" borderId="203" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="160" borderId="204" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="161" borderId="205" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="162" borderId="206" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="163" borderId="207" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="164" borderId="208" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="165" borderId="209" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="166" borderId="210" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="191" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="192" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="193" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="194" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="195" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="196" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="197" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="198" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="199" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="200" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="201" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="202" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="211" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="211" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="212" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="213" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="214" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="104" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="167" borderId="215" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="168" borderId="216" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="169" borderId="217" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="170" borderId="218" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="171" borderId="219" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="172" borderId="220" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="173" borderId="221" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="174" borderId="222" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="175" borderId="223" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="176" borderId="224" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="177" borderId="225" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="178" borderId="226" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="179" borderId="227" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="180" borderId="228" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="181" borderId="229" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="182" borderId="230" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="183" borderId="231" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="184" borderId="232" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="185" borderId="233" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="186" borderId="234" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="187" borderId="235" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="188" borderId="236" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="189" borderId="237" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="190" borderId="238" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="191" borderId="239" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="192" borderId="240" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="193" borderId="241" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="194" borderId="242" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="195" borderId="243" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="196" borderId="244" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="197" borderId="245" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="198" borderId="246" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="199" borderId="247" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="200" borderId="248" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="201" borderId="249" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="216" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="217" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="218" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="219" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="220" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="221" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="222" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="223" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="224" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="225" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="226" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="227" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7318,8 +7690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J62"/>
   <sheetViews>
-    <sheetView topLeftCell="H2" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="H13" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7333,8 +7705,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="H2" s="262" t="s">
-        <v>600</v>
+      <c r="H2" s="240" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
@@ -7348,162 +7720,162 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>
-      <c r="H6" s="258" t="s">
-        <v>621</v>
-      </c>
-      <c r="I6" s="258"/>
-      <c r="J6" s="258" t="s">
-        <v>622</v>
+      <c r="H6" s="236" t="s">
+        <v>605</v>
+      </c>
+      <c r="I6" s="236"/>
+      <c r="J6" s="236" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="12"/>
-      <c r="H7" s="259" t="s">
-        <v>496</v>
-      </c>
-      <c r="I7" s="258" t="s">
+      <c r="H7" s="237" t="s">
+        <v>491</v>
+      </c>
+      <c r="I7" s="236" t="s">
         <v>286</v>
       </c>
-      <c r="J7" s="258" t="s">
+      <c r="J7" s="236" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
-      <c r="H8" s="260" t="s">
-        <v>497</v>
-      </c>
-      <c r="I8" s="258" t="s">
+      <c r="H8" s="238" t="s">
+        <v>492</v>
+      </c>
+      <c r="I8" s="236" t="s">
         <v>287</v>
       </c>
-      <c r="J8" s="258" t="s">
+      <c r="J8" s="236" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="24"/>
-      <c r="H9" s="260" t="s">
-        <v>498</v>
-      </c>
-      <c r="I9" s="258" t="s">
+      <c r="H9" s="238" t="s">
+        <v>493</v>
+      </c>
+      <c r="I9" s="236" t="s">
         <v>288</v>
       </c>
-      <c r="J9" s="258" t="s">
+      <c r="J9" s="236" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="13"/>
-      <c r="H10" s="258"/>
-      <c r="I10" s="261" t="s">
+      <c r="H10" s="236"/>
+      <c r="I10" s="239" t="s">
         <v>295</v>
       </c>
-      <c r="J10" s="258" t="s">
+      <c r="J10" s="236" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="14"/>
-      <c r="H11" s="258" t="s">
-        <v>499</v>
-      </c>
-      <c r="I11" s="258"/>
-      <c r="J11" s="261" t="s">
-        <v>450</v>
+      <c r="H11" s="236" t="s">
+        <v>494</v>
+      </c>
+      <c r="I11" s="236"/>
+      <c r="J11" s="239" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="25"/>
-      <c r="H12" s="258" t="s">
+      <c r="H12" s="236" t="s">
+        <v>495</v>
+      </c>
+      <c r="I12" s="236"/>
+      <c r="J12" s="236" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="79"/>
+      <c r="H13" s="236" t="s">
+        <v>496</v>
+      </c>
+      <c r="I13" s="236"/>
+      <c r="J13" s="236" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="79"/>
+      <c r="H14" s="236" t="s">
+        <v>497</v>
+      </c>
+      <c r="I14" s="236"/>
+      <c r="J14" s="236" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="79"/>
+      <c r="H15" s="236" t="s">
+        <v>498</v>
+      </c>
+      <c r="I15" s="236"/>
+      <c r="J15" s="236" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="79"/>
+      <c r="H16" s="236" t="s">
+        <v>499</v>
+      </c>
+      <c r="I16" s="236"/>
+      <c r="J16" s="236" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="79"/>
+      <c r="H17" s="236" t="s">
         <v>500</v>
       </c>
-      <c r="I12" s="258"/>
-      <c r="J12" s="258" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="88"/>
-      <c r="H13" s="258" t="s">
+      <c r="I17" s="236"/>
+      <c r="J17" s="236" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="79"/>
+      <c r="H18" s="236" t="s">
         <v>501</v>
       </c>
-      <c r="I13" s="258"/>
-      <c r="J13" s="258" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="88"/>
-      <c r="H14" s="258" t="s">
-        <v>502</v>
-      </c>
-      <c r="I14" s="258"/>
-      <c r="J14" s="258" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="88"/>
-      <c r="H15" s="258" t="s">
-        <v>503</v>
-      </c>
-      <c r="I15" s="258"/>
-      <c r="J15" s="258" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="88"/>
-      <c r="H16" s="258" t="s">
-        <v>504</v>
-      </c>
-      <c r="I16" s="258"/>
-      <c r="J16" s="258" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="88"/>
-      <c r="H17" s="258" t="s">
-        <v>505</v>
-      </c>
-      <c r="I17" s="258"/>
-      <c r="J17" s="258" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="88"/>
-      <c r="H18" s="258" t="s">
-        <v>506</v>
-      </c>
-      <c r="I18" s="258"/>
-      <c r="J18" s="258" t="s">
-        <v>445</v>
+      <c r="I18" s="236"/>
+      <c r="J18" s="236" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="15"/>
-      <c r="H19" s="258" t="s">
-        <v>507</v>
-      </c>
-      <c r="I19" s="258"/>
-      <c r="J19" s="258" t="s">
-        <v>404</v>
+      <c r="H19" s="236" t="s">
+        <v>502</v>
+      </c>
+      <c r="I19" s="236"/>
+      <c r="J19" s="236" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="26"/>
-      <c r="H20" s="258" t="s">
-        <v>508</v>
-      </c>
-      <c r="I20" s="258"/>
-      <c r="J20" s="258" t="s">
-        <v>404</v>
+      <c r="H20" s="236" t="s">
+        <v>503</v>
+      </c>
+      <c r="I20" s="236"/>
+      <c r="J20" s="236" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="88"/>
+      <c r="B21" s="79"/>
       <c r="H21" s="50"/>
       <c r="I21" s="50"/>
       <c r="J21" s="50"/>
@@ -7523,12 +7895,12 @@
         <v>290</v>
       </c>
       <c r="J23" s="57" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="29"/>
-      <c r="H24" s="276">
+      <c r="H24" s="303">
         <v>96501</v>
       </c>
       <c r="I24" s="62">
@@ -7538,7 +7910,7 @@
     </row>
     <row r="25" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="58"/>
-      <c r="H25" s="276"/>
+      <c r="H25" s="303"/>
       <c r="I25" s="62">
         <v>44566</v>
       </c>
@@ -7546,63 +7918,63 @@
     </row>
     <row r="26" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="58"/>
-      <c r="H26" s="276"/>
-      <c r="I26" s="153">
+      <c r="H26" s="303"/>
+      <c r="I26" s="144">
         <v>44604</v>
       </c>
       <c r="J26" s="55"/>
     </row>
     <row r="27" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="67"/>
-      <c r="H27" s="276"/>
-      <c r="I27" s="68"/>
+      <c r="B27" s="63"/>
+      <c r="H27" s="303"/>
+      <c r="I27" s="64"/>
       <c r="J27" s="55"/>
     </row>
     <row r="28" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="67"/>
-      <c r="H28" s="276"/>
-      <c r="I28" s="68"/>
+      <c r="B28" s="63"/>
+      <c r="H28" s="303"/>
+      <c r="I28" s="64"/>
       <c r="J28" s="55"/>
     </row>
     <row r="29" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="58"/>
-      <c r="H29" s="276"/>
-      <c r="I29" s="68"/>
+      <c r="H29" s="303"/>
+      <c r="I29" s="64"/>
       <c r="J29" s="55"/>
     </row>
     <row r="30" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="16"/>
-      <c r="H30" s="275"/>
+      <c r="H30" s="302"/>
       <c r="I30" s="55"/>
       <c r="J30" s="55"/>
     </row>
     <row r="31" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="17"/>
-      <c r="H31" s="275"/>
+      <c r="H31" s="302"/>
       <c r="I31" s="55"/>
       <c r="J31" s="55"/>
     </row>
     <row r="32" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="18"/>
-      <c r="H32" s="275"/>
+      <c r="H32" s="302"/>
       <c r="I32" s="55"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="19"/>
-      <c r="H33" s="275"/>
+      <c r="H33" s="302"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="20"/>
-      <c r="H34" s="275"/>
+      <c r="H34" s="302"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="21"/>
-      <c r="H35" s="275"/>
+      <c r="H35" s="302"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
@@ -7614,96 +7986,96 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="31"/>
-      <c r="E38" s="277" t="s">
-        <v>510</v>
+      <c r="E38" s="304" t="s">
+        <v>505</v>
       </c>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="32"/>
-      <c r="E39" s="277"/>
-      <c r="F39" s="114" t="s">
+      <c r="E39" s="304"/>
+      <c r="F39" s="105" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="33"/>
-      <c r="E40" s="277"/>
-      <c r="F40" s="114" t="s">
+      <c r="E40" s="304"/>
+      <c r="F40" s="105" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="34"/>
-      <c r="E41" s="277"/>
-      <c r="F41" s="114" t="s">
+      <c r="E41" s="304"/>
+      <c r="F41" s="105" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="35"/>
-      <c r="E42" s="277"/>
-      <c r="F42" s="114" t="s">
+      <c r="E42" s="304"/>
+      <c r="F42" s="105" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="E43" s="277"/>
-      <c r="F43" s="114" t="s">
+      <c r="E43" s="304"/>
+      <c r="F43" s="105" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="36"/>
-      <c r="E44" s="277"/>
-      <c r="F44" s="114" t="s">
-        <v>317</v>
+      <c r="E44" s="304"/>
+      <c r="F44" s="105" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="37"/>
-      <c r="E45" s="277"/>
-      <c r="F45" s="114" t="s">
+      <c r="E45" s="304"/>
+      <c r="F45" s="105" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="38"/>
-      <c r="E46" s="277"/>
-      <c r="F46" s="114" t="s">
+      <c r="E46" s="304"/>
+      <c r="F46" s="105" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="39"/>
-      <c r="E47" s="277"/>
-      <c r="F47" s="114" t="s">
+      <c r="E47" s="304"/>
+      <c r="F47" s="105" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="40"/>
-      <c r="E48" s="277"/>
-      <c r="F48" s="114" t="s">
+      <c r="E48" s="304"/>
+      <c r="F48" s="105" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E49" s="304"/>
+      <c r="F49" s="105" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E50" s="304"/>
+      <c r="F50" s="105" t="s">
         <v>318</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E49" s="277"/>
-      <c r="F49" s="114" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E50" s="277"/>
-      <c r="F50" s="114" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="41"/>
-      <c r="E51" s="277"/>
-      <c r="F51" s="115" t="s">
+      <c r="E51" s="304"/>
+      <c r="F51" s="106" t="s">
         <v>251</v>
       </c>
     </row>
@@ -7743,7 +8115,7 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:S15"/>
   <sheetViews>
@@ -7766,13 +8138,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
@@ -7783,19 +8155,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>336</v>
+        <v>610</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>607</v>
+      </c>
+      <c r="F2" s="241" t="s">
         <v>349</v>
-      </c>
-      <c r="E2" s="49" t="s">
-        <v>626</v>
-      </c>
-      <c r="F2" s="267" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -7803,19 +8175,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>608</v>
+      </c>
+      <c r="F3" s="242" t="s">
         <v>349</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>627</v>
-      </c>
-      <c r="F3" s="268" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -7823,17 +8195,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>336</v>
-      </c>
-      <c r="F4" s="269" t="s">
-        <v>351</v>
+        <v>335</v>
+      </c>
+      <c r="F4" s="243" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -7841,7 +8213,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>200</v>
@@ -7850,10 +8222,10 @@
         <v>126</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>336</v>
-      </c>
-      <c r="F5" s="270" t="s">
-        <v>352</v>
+        <v>335</v>
+      </c>
+      <c r="F5" s="244" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -7861,19 +8233,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>126</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="F6" s="271" t="s">
-        <v>352</v>
+        <v>335</v>
+      </c>
+      <c r="F6" s="245" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -7881,19 +8253,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>116</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="F7" s="272" t="s">
-        <v>353</v>
+        <v>335</v>
+      </c>
+      <c r="F7" s="246" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -7901,19 +8273,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C8" s="1">
         <v>39276</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="F8" s="273" t="s">
-        <v>354</v>
+        <v>335</v>
+      </c>
+      <c r="F8" s="247" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -7921,19 +8293,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C9" s="1">
         <v>34587690128</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="F9" s="274" t="s">
-        <v>354</v>
+        <v>335</v>
+      </c>
+      <c r="F9" s="248" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -7948,7 +8320,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="S15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -7959,10 +8331,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:I22"/>
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7982,24 +8357,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="I1" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="I1" s="266" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8008,28 +8383,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C2" s="69">
-        <v>39947</v>
+        <v>339</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>335</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E2" s="49">
         <v>400</v>
       </c>
-      <c r="E2" s="49">
-        <v>200</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="H2" s="49" t="s">
-        <v>400</v>
-      </c>
-      <c r="I2" s="74" t="s">
-        <v>350</v>
+        <v>387</v>
+      </c>
+      <c r="H2" s="261" t="s">
+        <v>622</v>
+      </c>
+      <c r="I2" s="281" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -8037,28 +8412,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C3" s="48">
-        <v>39948</v>
+        <v>609</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>335</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>401</v>
+        <v>335</v>
       </c>
       <c r="E3" s="49">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="H3" s="49" t="s">
-        <v>401</v>
-      </c>
-      <c r="I3" s="75" t="s">
-        <v>350</v>
+        <v>387</v>
+      </c>
+      <c r="H3" s="261" t="s">
+        <v>623</v>
+      </c>
+      <c r="I3" s="282" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -8066,163 +8441,181 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C4" s="48">
-        <v>39949</v>
+        <v>340</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>335</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>402</v>
+        <v>335</v>
       </c>
       <c r="E4" s="49">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>402</v>
-      </c>
-      <c r="I4" s="76" t="s">
-        <v>350</v>
+        <v>387</v>
+      </c>
+      <c r="H4" s="261" t="s">
+        <v>624</v>
+      </c>
+      <c r="I4" s="283" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1">
-        <v>500</v>
+      <c r="B5" s="66" t="s">
+        <v>379</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>335</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="E5" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>368</v>
+        <v>90</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
+        <v>387</v>
+      </c>
+      <c r="H5" s="262" t="s">
+        <v>622</v>
+      </c>
+      <c r="I5" s="284" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D6" s="1">
-        <v>500</v>
+      <c r="B6" s="66" t="s">
+        <v>380</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>335</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="E6" s="1">
-        <v>100</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>369</v>
+        <v>150</v>
+      </c>
+      <c r="F6" s="1">
+        <v>123345</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
+        <v>387</v>
+      </c>
+      <c r="H6" s="262" t="s">
+        <v>625</v>
+      </c>
+      <c r="I6" s="285" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D7" s="1">
-        <v>500</v>
+      <c r="B7" s="66" t="s">
+        <v>381</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>335</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="E7" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
+        <v>387</v>
+      </c>
+      <c r="H7" s="262" t="s">
+        <v>616</v>
+      </c>
+      <c r="I7" s="286" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D8" s="1">
-        <v>500</v>
+      <c r="B8" s="66" t="s">
+        <v>383</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>335</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="E8" s="1">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
+        <v>387</v>
+      </c>
+      <c r="H8" s="262" t="s">
+        <v>626</v>
+      </c>
+      <c r="I8" s="287" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C9" s="1">
-        <v>39946</v>
-      </c>
-      <c r="D9" s="1">
-        <v>500</v>
+      <c r="B9" s="66" t="s">
+        <v>377</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D9" s="144" t="s">
+        <v>335</v>
       </c>
       <c r="E9" s="1">
-        <v>100</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>366</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
+        <v>387</v>
+      </c>
+      <c r="H9" s="262" t="s">
+        <v>627</v>
+      </c>
+      <c r="I9" s="288" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C10" s="1">
-        <v>39908</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1">
         <v>500</v>
       </c>
@@ -8233,302 +8626,350 @@
         <v>367</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
+        <v>324</v>
+      </c>
+      <c r="H10" s="263" t="s">
+        <v>600</v>
+      </c>
+      <c r="I10" s="289" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="70" t="s">
-        <v>374</v>
-      </c>
-      <c r="C11" s="1">
-        <v>39947</v>
+      <c r="B11" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="D11" s="1">
-        <v>990</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>500</v>
+      </c>
+      <c r="E11" s="1">
+        <v>100</v>
+      </c>
       <c r="F11" s="1" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="H11" s="264" t="s">
+        <v>600</v>
+      </c>
+      <c r="I11" s="291" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="70" t="s">
-        <v>375</v>
-      </c>
-      <c r="C12" s="1">
-        <v>39947</v>
+      <c r="B12" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="D12" s="1">
-        <v>990</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>264</v>
+        <v>500</v>
+      </c>
+      <c r="E12" s="1">
+        <v>100</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="H12" s="264" t="s">
+        <v>600</v>
+      </c>
+      <c r="I12" s="292" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="70" t="s">
-        <v>376</v>
-      </c>
-      <c r="C13" s="1">
-        <v>39947</v>
+      <c r="B13" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>371</v>
       </c>
       <c r="D13" s="1">
-        <v>990</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>356</v>
+        <v>500</v>
+      </c>
+      <c r="E13" s="1">
+        <v>100</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="H13" s="264" t="s">
+        <v>600</v>
+      </c>
+      <c r="I13" s="293" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="70" t="s">
-        <v>377</v>
+      <c r="B14" s="1" t="s">
+        <v>342</v>
       </c>
       <c r="C14" s="1">
-        <v>39947</v>
+        <v>39946</v>
       </c>
       <c r="D14" s="1">
-        <v>990</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>394</v>
+        <v>500</v>
+      </c>
+      <c r="E14" s="1">
+        <v>100</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+        <v>333</v>
+      </c>
+      <c r="H14" s="264" t="s">
+        <v>600</v>
+      </c>
+      <c r="I14" s="294" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="70" t="s">
-        <v>397</v>
-      </c>
-      <c r="C15" s="72">
-        <v>39978</v>
+      <c r="B15" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C15" s="1">
+        <v>39908</v>
       </c>
       <c r="D15" s="1">
-        <v>9043732</v>
+        <v>500</v>
       </c>
       <c r="E15" s="1">
-        <v>100000000</v>
+        <v>100</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+        <v>333</v>
+      </c>
+      <c r="H15" s="265" t="s">
+        <v>600</v>
+      </c>
+      <c r="I15" s="295" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="70" t="s">
-        <v>379</v>
+      <c r="B16" s="66" t="s">
+        <v>372</v>
       </c>
       <c r="C16" s="1">
-        <v>39947</v>
+        <v>44566</v>
       </c>
       <c r="D16" s="1">
         <v>990</v>
       </c>
-      <c r="E16" s="1">
-        <v>100</v>
-      </c>
-      <c r="F16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>393</v>
+      </c>
       <c r="G16" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+        <v>376</v>
+      </c>
+      <c r="H16" s="262" t="s">
+        <v>600</v>
+      </c>
+      <c r="I16" s="296" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="70" t="s">
-        <v>381</v>
-      </c>
-      <c r="C17" s="69">
-        <v>39974</v>
+      <c r="B17" s="66" t="s">
+        <v>373</v>
+      </c>
+      <c r="C17" s="1">
+        <v>44566</v>
       </c>
       <c r="D17" s="1">
-        <v>4000</v>
-      </c>
-      <c r="E17" s="1">
-        <v>50</v>
+        <v>990</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>90</v>
+        <v>393</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="H17" s="262" t="s">
+        <v>600</v>
+      </c>
+      <c r="I17" s="297" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="70" t="s">
-        <v>382</v>
-      </c>
-      <c r="C18" s="69">
-        <v>39975</v>
+      <c r="B18" s="66" t="s">
+        <v>374</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44566</v>
       </c>
       <c r="D18" s="1">
-        <v>3600</v>
-      </c>
-      <c r="E18" s="1">
-        <v>100</v>
-      </c>
-      <c r="F18" s="1">
-        <v>123345</v>
+        <v>990</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="H18" s="262" t="s">
+        <v>600</v>
+      </c>
+      <c r="I18" s="298" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="70" t="s">
-        <v>383</v>
-      </c>
-      <c r="C19" s="69">
-        <v>39976</v>
+      <c r="B19" s="66" t="s">
+        <v>375</v>
+      </c>
+      <c r="C19" s="1">
+        <v>44566</v>
       </c>
       <c r="D19" s="1">
-        <v>5000</v>
-      </c>
-      <c r="E19" s="1">
-        <v>200</v>
+        <v>990</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="H19" s="262" t="s">
+        <v>600</v>
+      </c>
+      <c r="I19" s="299" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="66" t="s">
         <v>385</v>
       </c>
-      <c r="C20" s="69">
-        <v>39977</v>
-      </c>
-      <c r="D20" s="1">
-        <v>6500</v>
-      </c>
-      <c r="E20" s="1">
-        <v>100</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="H20" s="262" t="s">
+        <v>600</v>
+      </c>
+      <c r="I20" s="300" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="66" t="s">
+        <v>394</v>
+      </c>
+      <c r="C21" s="1">
+        <v>44566</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1745</v>
+      </c>
+      <c r="E21" s="1">
+        <v>8000</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="H21" s="262" t="s">
+        <v>600</v>
+      </c>
+      <c r="I21" s="301" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="66" t="s">
+        <v>395</v>
+      </c>
+      <c r="C23" s="67">
+        <v>39978</v>
+      </c>
+      <c r="D23" s="1">
+        <v>9043732</v>
+      </c>
+      <c r="E23" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="70">
-        <v>21</v>
-      </c>
-      <c r="B22" s="70" t="s">
-        <v>396</v>
-      </c>
-      <c r="C22" s="1">
-        <v>39979</v>
-      </c>
-      <c r="D22" s="1">
-        <v>850</v>
-      </c>
-      <c r="E22" s="1">
-        <v>855</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -8547,7 +8988,7 @@
     <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="133.5546875" style="82" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="133.5546875" style="73" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -8558,18 +8999,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="G1" s="80" t="s">
+      <c r="G1" s="71" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -8581,18 +9022,18 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
+        <v>339</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
       <c r="E2" s="1">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G2" s="79" t="s">
-        <v>432</v>
+        <v>423</v>
+      </c>
+      <c r="G2" s="70" t="s">
+        <v>427</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -8601,18 +9042,18 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
+        <v>340</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="1">
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G3" s="79" t="s">
-        <v>432</v>
+        <v>423</v>
+      </c>
+      <c r="G3" s="70" t="s">
+        <v>427</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -8621,7 +9062,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C4" s="1">
         <v>12345</v>
@@ -8633,10 +9074,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="G4" s="81" t="s">
-        <v>405</v>
+        <v>434</v>
+      </c>
+      <c r="G4" s="72" t="s">
+        <v>400</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -8645,7 +9086,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
@@ -8653,10 +9094,10 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -8665,17 +9106,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D6" s="1">
         <v>12345</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G6" t="s">
         <v>126</v>
@@ -8687,17 +9128,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D7" s="1">
         <v>12345</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G7" t="s">
         <v>126</v>
@@ -8709,17 +9150,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D8" s="1">
         <v>12345</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G8" t="s">
         <v>116</v>
@@ -8731,7 +9172,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C9" s="1">
         <v>98765</v>
@@ -8739,10 +9180,10 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G9" s="81" t="s">
-        <v>424</v>
+        <v>423</v>
+      </c>
+      <c r="G9" s="72" t="s">
+        <v>419</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -8751,7 +9192,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C10" s="1">
         <v>39946</v>
@@ -8759,10 +9200,10 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G10" s="81" t="s">
-        <v>427</v>
+        <v>423</v>
+      </c>
+      <c r="G10" s="72" t="s">
+        <v>422</v>
       </c>
       <c r="H10" s="1"/>
     </row>
@@ -8771,7 +9212,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C11" s="1">
         <v>12345</v>
@@ -8779,10 +9220,10 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G11" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="H11" s="1"/>
     </row>
@@ -8791,17 +9232,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C12" s="1">
         <v>12345</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G12" t="s">
         <v>126</v>
@@ -8813,17 +9254,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C13" s="1">
         <v>12345</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G13" t="s">
         <v>126</v>
@@ -8835,17 +9276,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C14" s="1">
         <v>12345</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G14" t="s">
         <v>116</v>
@@ -8857,7 +9298,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
@@ -8865,10 +9306,10 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G15" s="81" t="s">
-        <v>424</v>
+        <v>423</v>
+      </c>
+      <c r="G15" s="72" t="s">
+        <v>419</v>
       </c>
       <c r="H15" s="1"/>
     </row>
@@ -8877,7 +9318,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
@@ -8885,10 +9326,10 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G16" s="81" t="s">
-        <v>427</v>
+        <v>423</v>
+      </c>
+      <c r="G16" s="72" t="s">
+        <v>422</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -8896,8 +9337,8 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="70" t="s">
-        <v>374</v>
+      <c r="B17" s="66" t="s">
+        <v>372</v>
       </c>
       <c r="C17" s="1">
         <v>12345</v>
@@ -8907,10 +9348,10 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G17" s="82" t="s">
-        <v>378</v>
+        <v>423</v>
+      </c>
+      <c r="G17" s="73" t="s">
+        <v>376</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -8918,8 +9359,8 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="70" t="s">
-        <v>375</v>
+      <c r="B18" s="66" t="s">
+        <v>373</v>
       </c>
       <c r="C18" s="1">
         <v>12345</v>
@@ -8928,12 +9369,12 @@
         <v>12345</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G18" s="82" t="s">
+        <v>423</v>
+      </c>
+      <c r="G18" s="73" t="s">
         <v>126</v>
       </c>
       <c r="H18" s="1"/>
@@ -8942,8 +9383,8 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="70" t="s">
-        <v>376</v>
+      <c r="B19" s="66" t="s">
+        <v>374</v>
       </c>
       <c r="C19" s="1">
         <v>12345</v>
@@ -8952,12 +9393,12 @@
         <v>12345</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G19" s="82" t="s">
+        <v>423</v>
+      </c>
+      <c r="G19" s="73" t="s">
         <v>126</v>
       </c>
       <c r="H19" s="1"/>
@@ -8966,8 +9407,8 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="70" t="s">
-        <v>377</v>
+      <c r="B20" s="66" t="s">
+        <v>375</v>
       </c>
       <c r="C20" s="1">
         <v>12345</v>
@@ -8976,12 +9417,12 @@
         <v>12345</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G20" s="82" t="s">
+        <v>423</v>
+      </c>
+      <c r="G20" s="73" t="s">
         <v>116</v>
       </c>
       <c r="H20" s="1"/>
@@ -8990,8 +9431,8 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="70" t="s">
-        <v>430</v>
+      <c r="B21" s="66" t="s">
+        <v>425</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -8999,10 +9440,10 @@
         <v>99999999</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G21" s="81" t="s">
-        <v>431</v>
+        <v>423</v>
+      </c>
+      <c r="G21" s="72" t="s">
+        <v>426</v>
       </c>
       <c r="H21" s="1"/>
     </row>
@@ -9010,8 +9451,8 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="70" t="s">
-        <v>379</v>
+      <c r="B22" s="66" t="s">
+        <v>377</v>
       </c>
       <c r="C22" s="1">
         <v>12345</v>
@@ -9023,8 +9464,8 @@
         <v>10</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="82" t="s">
-        <v>380</v>
+      <c r="G22" s="73" t="s">
+        <v>378</v>
       </c>
       <c r="H22" s="1"/>
     </row>
@@ -9032,19 +9473,19 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="70" t="s">
-        <v>381</v>
-      </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
+      <c r="B23" s="66" t="s">
+        <v>379</v>
+      </c>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="G23" s="81" t="s">
-        <v>432</v>
+        <v>345</v>
+      </c>
+      <c r="G23" s="72" t="s">
+        <v>427</v>
       </c>
       <c r="H23" s="1"/>
     </row>
@@ -9052,19 +9493,19 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="70" t="s">
-        <v>382</v>
-      </c>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
+      <c r="B24" s="66" t="s">
+        <v>380</v>
+      </c>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="1">
         <v>908</v>
       </c>
-      <c r="G24" s="81" t="s">
-        <v>432</v>
+      <c r="G24" s="72" t="s">
+        <v>427</v>
       </c>
       <c r="H24" s="1"/>
     </row>
@@ -9072,19 +9513,19 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="70" t="s">
-        <v>383</v>
-      </c>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
+      <c r="B25" s="66" t="s">
+        <v>381</v>
+      </c>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="G25" s="81" t="s">
-        <v>432</v>
+        <v>433</v>
+      </c>
+      <c r="G25" s="72" t="s">
+        <v>427</v>
       </c>
       <c r="H25" s="1"/>
     </row>
@@ -9092,19 +9533,19 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="70" t="s">
-        <v>433</v>
-      </c>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
+      <c r="B26" s="66" t="s">
+        <v>428</v>
+      </c>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
       <c r="E26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="G26" s="81" t="s">
         <v>432</v>
+      </c>
+      <c r="G26" s="72" t="s">
+        <v>427</v>
       </c>
       <c r="H26" s="1"/>
     </row>
@@ -9112,20 +9553,20 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="70" t="s">
-        <v>420</v>
+      <c r="B27" s="66" t="s">
+        <v>415</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="81" t="s">
-        <v>436</v>
+      <c r="G27" s="72" t="s">
+        <v>431</v>
       </c>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="78"/>
+      <c r="A28" s="69"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9156,7 +9597,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>15</v>
@@ -9170,11 +9611,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -9183,11 +9624,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -9196,7 +9637,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -9207,10 +9648,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>126</v>
@@ -9222,10 +9663,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>126</v>
@@ -9237,10 +9678,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>116</v>
@@ -9252,13 +9693,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C8" s="1">
         <v>39946</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -9267,13 +9708,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C9" s="1">
         <v>1234589087</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -9305,19 +9746,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>15</v>
@@ -9331,7 +9772,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -9339,7 +9780,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -9348,7 +9789,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -9356,7 +9797,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -9365,7 +9806,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -9380,10 +9821,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -9399,10 +9840,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -9418,10 +9859,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -9437,7 +9878,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C8" s="1">
         <v>39946</v>
@@ -9447,7 +9888,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -9456,7 +9897,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C9" s="1">
         <v>1234589087</v>
@@ -9466,7 +9907,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I9" s="1"/>
     </row>
@@ -9474,8 +9915,8 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="70" t="s">
-        <v>464</v>
+      <c r="B10" s="66" t="s">
+        <v>459</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -9483,7 +9924,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="I10" s="1"/>
     </row>
@@ -9491,8 +9932,8 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="70" t="s">
-        <v>465</v>
+      <c r="B11" s="66" t="s">
+        <v>460</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -9500,7 +9941,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -9508,8 +9949,8 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="70" t="s">
-        <v>466</v>
+      <c r="B12" s="66" t="s">
+        <v>461</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -9517,7 +9958,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="I12" s="1"/>
     </row>
@@ -9525,8 +9966,8 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="70" t="s">
-        <v>467</v>
+      <c r="B13" s="66" t="s">
+        <v>462</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -9534,7 +9975,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="I13" s="1"/>
     </row>
@@ -9542,8 +9983,8 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="70" t="s">
-        <v>471</v>
+      <c r="B14" s="66" t="s">
+        <v>466</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -9551,7 +9992,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="I14" s="1"/>
     </row>
@@ -9559,8 +10000,8 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="70" t="s">
-        <v>472</v>
+      <c r="B15" s="66" t="s">
+        <v>467</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -9576,8 +10017,8 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="70" t="s">
-        <v>473</v>
+      <c r="B16" s="66" t="s">
+        <v>468</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -9593,8 +10034,8 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="70" t="s">
-        <v>474</v>
+      <c r="B17" s="66" t="s">
+        <v>469</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -9610,8 +10051,8 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="70" t="s">
-        <v>476</v>
+      <c r="B18" s="66" t="s">
+        <v>471</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -9619,7 +10060,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="I18" s="1"/>
     </row>
@@ -9627,8 +10068,8 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="70" t="s">
-        <v>477</v>
+      <c r="B19" s="66" t="s">
+        <v>472</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -9636,7 +10077,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="I19" s="1"/>
     </row>
@@ -9644,8 +10085,8 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="70" t="s">
-        <v>478</v>
+      <c r="B20" s="66" t="s">
+        <v>473</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -9661,8 +10102,8 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="70" t="s">
-        <v>479</v>
+      <c r="B21" s="66" t="s">
+        <v>474</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -9678,8 +10119,8 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="70" t="s">
-        <v>480</v>
+      <c r="B22" s="66" t="s">
+        <v>475</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -9695,8 +10136,8 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="70" t="s">
-        <v>481</v>
+      <c r="B23" s="66" t="s">
+        <v>476</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -9704,7 +10145,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -9766,19 +10207,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="266" t="s">
-        <v>486</v>
+      <c r="G2" s="290" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -9789,7 +10230,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -9798,10 +10239,10 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="G3" s="91" t="s">
-        <v>487</v>
+        <v>480</v>
+      </c>
+      <c r="G3" s="82" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -9812,19 +10253,19 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="G4" s="92" t="s">
-        <v>487</v>
+        <v>480</v>
+      </c>
+      <c r="G4" s="83" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -9835,7 +10276,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -9844,10 +10285,10 @@
         <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="G5" s="93" t="s">
-        <v>487</v>
+        <v>480</v>
+      </c>
+      <c r="G5" s="84" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -9858,7 +10299,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="4" t="s">
@@ -9867,8 +10308,8 @@
       <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="94" t="s">
-        <v>488</v>
+      <c r="G6" s="85" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -9879,17 +10320,17 @@
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="95" t="s">
-        <v>489</v>
+      <c r="G7" s="86" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -9900,15 +10341,15 @@
         <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="96" t="s">
-        <v>490</v>
+      <c r="G8" s="87" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -9916,39 +10357,39 @@
         <v>8</v>
       </c>
       <c r="B9" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="G9" s="97" t="s">
-        <v>491</v>
+      <c r="G9" s="88" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C10" s="90"/>
+      <c r="C10" s="81"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C11" s="90"/>
+      <c r="C11" s="81"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C12" s="90"/>
+      <c r="C12" s="81"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C13" s="90"/>
+      <c r="C13" s="81"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10061,7 +10502,7 @@
         <v>7771232345</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>110</v>
@@ -10069,11 +10510,11 @@
       <c r="M2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N2" s="159" t="s">
-        <v>526</v>
-      </c>
-      <c r="O2" s="159" t="s">
-        <v>525</v>
+      <c r="N2" s="150" t="s">
+        <v>521</v>
+      </c>
+      <c r="O2" s="150" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -10108,7 +10549,7 @@
         <v>7778907689</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>110</v>
@@ -10116,11 +10557,11 @@
       <c r="M3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N3" s="160" t="s">
-        <v>567</v>
-      </c>
-      <c r="O3" s="160" t="s">
-        <v>525</v>
+      <c r="N3" s="151" t="s">
+        <v>562</v>
+      </c>
+      <c r="O3" s="151" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -10155,7 +10596,7 @@
         <v>7771237890</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>110</v>
@@ -10163,11 +10604,11 @@
       <c r="M4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N4" s="161" t="s">
-        <v>568</v>
-      </c>
-      <c r="O4" s="161" t="s">
-        <v>525</v>
+      <c r="N4" s="152" t="s">
+        <v>563</v>
+      </c>
+      <c r="O4" s="152" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -10202,7 +10643,7 @@
         <v>4447895432</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>110</v>
@@ -10210,11 +10651,11 @@
       <c r="M5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N5" s="162" t="s">
-        <v>569</v>
-      </c>
-      <c r="O5" s="162" t="s">
-        <v>525</v>
+      <c r="N5" s="153" t="s">
+        <v>564</v>
+      </c>
+      <c r="O5" s="153" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -10247,7 +10688,7 @@
         <v>7779081234</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>110</v>
@@ -10255,11 +10696,11 @@
       <c r="M6" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N6" s="163" t="s">
-        <v>570</v>
-      </c>
-      <c r="O6" s="163" t="s">
-        <v>525</v>
+      <c r="N6" s="154" t="s">
+        <v>565</v>
+      </c>
+      <c r="O6" s="154" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -10294,7 +10735,7 @@
         <v>7771236789</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>110</v>
@@ -10302,11 +10743,11 @@
       <c r="M7" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N7" s="164" t="s">
-        <v>571</v>
-      </c>
-      <c r="O7" s="164" t="s">
-        <v>525</v>
+      <c r="N7" s="155" t="s">
+        <v>566</v>
+      </c>
+      <c r="O7" s="155" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -10341,7 +10782,7 @@
         <v>8786357718</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>110</v>
@@ -10349,11 +10790,11 @@
       <c r="M8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N8" s="165" t="s">
-        <v>572</v>
-      </c>
-      <c r="O8" s="165" t="s">
-        <v>525</v>
+      <c r="N8" s="156" t="s">
+        <v>567</v>
+      </c>
+      <c r="O8" s="156" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -10388,7 +10829,7 @@
         <v>4417657812</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>110</v>
@@ -10396,11 +10837,11 @@
       <c r="M9" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N9" s="206" t="s">
-        <v>594</v>
-      </c>
-      <c r="O9" s="206" t="s">
-        <v>525</v>
+      <c r="N9" s="197" t="s">
+        <v>589</v>
+      </c>
+      <c r="O9" s="197" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -10435,7 +10876,7 @@
         <v>5658901234</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>110</v>
@@ -10443,11 +10884,11 @@
       <c r="M10" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N10" s="166" t="s">
-        <v>573</v>
-      </c>
-      <c r="O10" s="166" t="s">
-        <v>525</v>
+      <c r="N10" s="157" t="s">
+        <v>568</v>
+      </c>
+      <c r="O10" s="157" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -10482,7 +10923,7 @@
         <v>8806785435</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>110</v>
@@ -10490,11 +10931,11 @@
       <c r="M11" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N11" s="167" t="s">
-        <v>574</v>
-      </c>
-      <c r="O11" s="167" t="s">
-        <v>525</v>
+      <c r="N11" s="158" t="s">
+        <v>569</v>
+      </c>
+      <c r="O11" s="158" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -10529,7 +10970,7 @@
         <v>2227658912</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>110</v>
@@ -10537,11 +10978,11 @@
       <c r="M12" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N12" s="168" t="s">
-        <v>575</v>
-      </c>
-      <c r="O12" s="168" t="s">
-        <v>525</v>
+      <c r="N12" s="159" t="s">
+        <v>570</v>
+      </c>
+      <c r="O12" s="159" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -10576,7 +11017,7 @@
         <v>7776528901</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>177</v>
@@ -10584,11 +11025,11 @@
       <c r="M13" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N13" s="169" t="s">
-        <v>576</v>
-      </c>
-      <c r="O13" s="169" t="s">
-        <v>525</v>
+      <c r="N13" s="160" t="s">
+        <v>571</v>
+      </c>
+      <c r="O13" s="160" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -10623,7 +11064,7 @@
         <v>90165328917</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>110</v>
@@ -10631,11 +11072,11 @@
       <c r="M14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N14" s="170" t="s">
-        <v>577</v>
-      </c>
-      <c r="O14" s="170" t="s">
-        <v>525</v>
+      <c r="N14" s="161" t="s">
+        <v>572</v>
+      </c>
+      <c r="O14" s="161" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -10670,7 +11111,7 @@
         <v>9992346781</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>178</v>
@@ -10678,11 +11119,11 @@
       <c r="M15" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N15" s="171" t="s">
-        <v>578</v>
-      </c>
-      <c r="O15" s="171" t="s">
-        <v>525</v>
+      <c r="N15" s="162" t="s">
+        <v>573</v>
+      </c>
+      <c r="O15" s="162" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -10717,7 +11158,7 @@
         <v>2226189271</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>179</v>
@@ -10725,11 +11166,11 @@
       <c r="M16" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N16" s="172" t="s">
-        <v>579</v>
-      </c>
-      <c r="O16" s="172" t="s">
-        <v>525</v>
+      <c r="N16" s="163" t="s">
+        <v>574</v>
+      </c>
+      <c r="O16" s="163" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -10764,19 +11205,19 @@
         <v>5557789012</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>110</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="N17" s="207" t="s">
-        <v>336</v>
-      </c>
-      <c r="O17" s="207" t="s">
-        <v>596</v>
+        <v>590</v>
+      </c>
+      <c r="N17" s="198" t="s">
+        <v>335</v>
+      </c>
+      <c r="O17" s="198" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -10811,19 +11252,19 @@
         <v>1239872361</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>110</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="N18" s="208" t="s">
-        <v>336</v>
-      </c>
-      <c r="O18" s="208" t="s">
-        <v>596</v>
+        <v>590</v>
+      </c>
+      <c r="N18" s="199" t="s">
+        <v>335</v>
+      </c>
+      <c r="O18" s="199" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -10856,7 +11297,7 @@
         <v>9991237890</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>110</v>
@@ -10864,11 +11305,11 @@
       <c r="M19" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N19" s="173" t="s">
-        <v>336</v>
-      </c>
-      <c r="O19" s="173" t="s">
-        <v>580</v>
+      <c r="N19" s="164" t="s">
+        <v>335</v>
+      </c>
+      <c r="O19" s="164" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -10903,7 +11344,7 @@
         <v>5556789087</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>110</v>
@@ -10911,11 +11352,11 @@
       <c r="M20" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N20" s="174" t="s">
-        <v>336</v>
-      </c>
-      <c r="O20" s="174" t="s">
-        <v>581</v>
+      <c r="N20" s="165" t="s">
+        <v>335</v>
+      </c>
+      <c r="O20" s="165" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -10950,7 +11391,7 @@
         <v>5554567897</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>110</v>
@@ -10958,11 +11399,11 @@
       <c r="M21" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N21" s="175" t="s">
-        <v>336</v>
-      </c>
-      <c r="O21" s="175" t="s">
-        <v>582</v>
+      <c r="N21" s="166" t="s">
+        <v>335</v>
+      </c>
+      <c r="O21" s="166" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -10997,7 +11438,7 @@
         <v>4448960786</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>110</v>
@@ -11005,11 +11446,11 @@
       <c r="M22" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N22" s="176" t="s">
-        <v>336</v>
-      </c>
-      <c r="O22" s="176" t="s">
-        <v>353</v>
+      <c r="N22" s="167" t="s">
+        <v>335</v>
+      </c>
+      <c r="O22" s="167" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -11042,7 +11483,7 @@
         <v>7776892313</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>110</v>
@@ -11050,11 +11491,11 @@
       <c r="M23" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="N23" s="177" t="s">
-        <v>336</v>
-      </c>
-      <c r="O23" s="177" t="s">
-        <v>583</v>
+      <c r="N23" s="168" t="s">
+        <v>335</v>
+      </c>
+      <c r="O23" s="168" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -11087,7 +11528,7 @@
         <v>2227657890</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>110</v>
@@ -11095,11 +11536,11 @@
       <c r="M24" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="N24" s="178" t="s">
-        <v>336</v>
-      </c>
-      <c r="O24" s="178" t="s">
-        <v>584</v>
+      <c r="N24" s="169" t="s">
+        <v>335</v>
+      </c>
+      <c r="O24" s="169" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -11134,7 +11575,7 @@
         <v>90167189172</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>110</v>
@@ -11142,11 +11583,11 @@
       <c r="M25" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N25" s="179" t="s">
-        <v>336</v>
-      </c>
-      <c r="O25" s="179" t="s">
-        <v>581</v>
+      <c r="N25" s="170" t="s">
+        <v>335</v>
+      </c>
+      <c r="O25" s="170" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -11181,7 +11622,7 @@
         <v>4417678901</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>110</v>
@@ -11189,11 +11630,11 @@
       <c r="M26" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N26" s="180" t="s">
-        <v>336</v>
-      </c>
-      <c r="O26" s="180" t="s">
-        <v>353</v>
+      <c r="N26" s="171" t="s">
+        <v>335</v>
+      </c>
+      <c r="O26" s="171" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -11226,7 +11667,7 @@
         <v>9997863271</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>110</v>
@@ -11234,11 +11675,11 @@
       <c r="M27" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="N27" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="O27" s="181" t="s">
-        <v>585</v>
+      <c r="N27" s="172" t="s">
+        <v>335</v>
+      </c>
+      <c r="O27" s="172" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -11273,7 +11714,7 @@
         <v>6557891271</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>110</v>
@@ -11281,11 +11722,11 @@
       <c r="M28" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N28" s="182" t="s">
-        <v>336</v>
-      </c>
-      <c r="O28" s="182" t="s">
-        <v>581</v>
+      <c r="N28" s="173" t="s">
+        <v>335</v>
+      </c>
+      <c r="O28" s="173" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -11320,7 +11761,7 @@
         <v>7779874561</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>110</v>
@@ -11328,11 +11769,11 @@
       <c r="M29" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N29" s="183" t="s">
-        <v>336</v>
-      </c>
-      <c r="O29" s="183" t="s">
-        <v>582</v>
+      <c r="N29" s="174" t="s">
+        <v>335</v>
+      </c>
+      <c r="O29" s="174" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -11367,7 +11808,7 @@
         <v>7779084515</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>110</v>
@@ -11375,11 +11816,11 @@
       <c r="M30" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N30" s="184" t="s">
-        <v>336</v>
-      </c>
-      <c r="O30" s="184" t="s">
-        <v>353</v>
+      <c r="N30" s="175" t="s">
+        <v>335</v>
+      </c>
+      <c r="O30" s="175" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -11412,7 +11853,7 @@
         <v>1018237829</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>110</v>
@@ -11420,11 +11861,11 @@
       <c r="M31" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N31" s="185" t="s">
-        <v>336</v>
-      </c>
-      <c r="O31" s="185" t="s">
-        <v>586</v>
+      <c r="N31" s="176" t="s">
+        <v>335</v>
+      </c>
+      <c r="O31" s="176" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -11459,7 +11900,7 @@
         <v>1015677890</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>110</v>
@@ -11467,11 +11908,11 @@
       <c r="M32" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N32" s="186" t="s">
-        <v>336</v>
-      </c>
-      <c r="O32" s="186" t="s">
-        <v>581</v>
+      <c r="N32" s="177" t="s">
+        <v>335</v>
+      </c>
+      <c r="O32" s="177" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -11506,7 +11947,7 @@
         <v>1012237893</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>110</v>
@@ -11514,11 +11955,11 @@
       <c r="M33" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N33" s="187" t="s">
-        <v>336</v>
-      </c>
-      <c r="O33" s="187" t="s">
-        <v>582</v>
+      <c r="N33" s="178" t="s">
+        <v>335</v>
+      </c>
+      <c r="O33" s="178" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
@@ -11553,7 +11994,7 @@
         <v>1016738377</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>110</v>
@@ -11561,11 +12002,11 @@
       <c r="M34" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N34" s="188" t="s">
-        <v>336</v>
-      </c>
-      <c r="O34" s="188" t="s">
-        <v>353</v>
+      <c r="N34" s="179" t="s">
+        <v>335</v>
+      </c>
+      <c r="O34" s="179" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -11598,7 +12039,7 @@
         <v>4417728910</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>110</v>
@@ -11606,11 +12047,11 @@
       <c r="M35" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="N35" s="189" t="s">
-        <v>336</v>
-      </c>
-      <c r="O35" s="189" t="s">
-        <v>587</v>
+      <c r="N35" s="180" t="s">
+        <v>335</v>
+      </c>
+      <c r="O35" s="180" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -11645,7 +12086,7 @@
         <v>5657811232</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>110</v>
@@ -11653,11 +12094,11 @@
       <c r="M36" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N36" s="190" t="s">
-        <v>336</v>
-      </c>
-      <c r="O36" s="190" t="s">
-        <v>581</v>
+      <c r="N36" s="181" t="s">
+        <v>335</v>
+      </c>
+      <c r="O36" s="181" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -11692,7 +12133,7 @@
         <v>6628725671</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>110</v>
@@ -11700,11 +12141,11 @@
       <c r="M37" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N37" s="191" t="s">
-        <v>336</v>
-      </c>
-      <c r="O37" s="191" t="s">
-        <v>352</v>
+      <c r="N37" s="182" t="s">
+        <v>335</v>
+      </c>
+      <c r="O37" s="182" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -11739,7 +12180,7 @@
         <v>5529874561</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>110</v>
@@ -11747,11 +12188,11 @@
       <c r="M38" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N38" s="192" t="s">
-        <v>336</v>
-      </c>
-      <c r="O38" s="192" t="s">
-        <v>353</v>
+      <c r="N38" s="183" t="s">
+        <v>335</v>
+      </c>
+      <c r="O38" s="183" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -11786,7 +12227,7 @@
         <v>9328982123</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>110</v>
@@ -11794,11 +12235,11 @@
       <c r="M39" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="N39" s="193" t="s">
-        <v>336</v>
-      </c>
-      <c r="O39" s="193" t="s">
-        <v>588</v>
+      <c r="N39" s="184" t="s">
+        <v>335</v>
+      </c>
+      <c r="O39" s="184" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -11831,7 +12272,7 @@
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="2" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>110</v>
@@ -11839,11 +12280,11 @@
       <c r="M40" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="N40" s="194" t="s">
-        <v>336</v>
-      </c>
-      <c r="O40" s="194" t="s">
-        <v>589</v>
+      <c r="N40" s="185" t="s">
+        <v>335</v>
+      </c>
+      <c r="O40" s="185" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -11878,7 +12319,7 @@
         <v>90</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>110</v>
@@ -11886,11 +12327,11 @@
       <c r="M41" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N41" s="195" t="s">
-        <v>336</v>
-      </c>
-      <c r="O41" s="195" t="s">
-        <v>581</v>
+      <c r="N41" s="186" t="s">
+        <v>335</v>
+      </c>
+      <c r="O41" s="186" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -11925,7 +12366,7 @@
         <v>238</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>110</v>
@@ -11933,11 +12374,11 @@
       <c r="M42" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N42" s="196" t="s">
-        <v>336</v>
-      </c>
-      <c r="O42" s="196" t="s">
-        <v>352</v>
+      <c r="N42" s="187" t="s">
+        <v>335</v>
+      </c>
+      <c r="O42" s="187" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -11972,7 +12413,7 @@
         <v>248</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>110</v>
@@ -11980,11 +12421,11 @@
       <c r="M43" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N43" s="197" t="s">
-        <v>336</v>
-      </c>
-      <c r="O43" s="197" t="s">
-        <v>353</v>
+      <c r="N43" s="188" t="s">
+        <v>335</v>
+      </c>
+      <c r="O43" s="188" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -12025,11 +12466,11 @@
       <c r="M44" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="N44" s="198" t="s">
-        <v>336</v>
-      </c>
-      <c r="O44" s="198" t="s">
-        <v>590</v>
+      <c r="N44" s="189" t="s">
+        <v>335</v>
+      </c>
+      <c r="O44" s="189" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -12072,11 +12513,11 @@
       <c r="M45" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N45" s="199" t="s">
-        <v>336</v>
-      </c>
-      <c r="O45" s="199" t="s">
-        <v>581</v>
+      <c r="N45" s="190" t="s">
+        <v>335</v>
+      </c>
+      <c r="O45" s="190" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -12119,11 +12560,11 @@
       <c r="M46" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N46" s="200" t="s">
-        <v>336</v>
-      </c>
-      <c r="O46" s="200" t="s">
-        <v>591</v>
+      <c r="N46" s="191" t="s">
+        <v>335</v>
+      </c>
+      <c r="O46" s="191" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -12166,11 +12607,11 @@
       <c r="M47" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N47" s="201" t="s">
-        <v>336</v>
-      </c>
-      <c r="O47" s="201" t="s">
-        <v>591</v>
+      <c r="N47" s="192" t="s">
+        <v>335</v>
+      </c>
+      <c r="O47" s="192" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -12213,11 +12654,11 @@
       <c r="M48" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N48" s="202" t="s">
-        <v>336</v>
-      </c>
-      <c r="O48" s="202" t="s">
-        <v>591</v>
+      <c r="N48" s="193" t="s">
+        <v>335</v>
+      </c>
+      <c r="O48" s="193" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -12261,11 +12702,11 @@
       <c r="M49" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="N49" s="203" t="s">
-        <v>336</v>
-      </c>
-      <c r="O49" s="203" t="s">
-        <v>592</v>
+      <c r="N49" s="194" t="s">
+        <v>335</v>
+      </c>
+      <c r="O49" s="194" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -12300,17 +12741,17 @@
         <v>8783426621</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N50" s="204" t="s">
-        <v>336</v>
-      </c>
-      <c r="O50" s="204" t="s">
-        <v>489</v>
+      <c r="N50" s="195" t="s">
+        <v>335</v>
+      </c>
+      <c r="O50" s="195" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
@@ -12333,46 +12774,46 @@
       <c r="M51" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="N51" s="205" t="s">
-        <v>336</v>
-      </c>
-      <c r="O51" s="205" t="s">
-        <v>593</v>
+      <c r="N51" s="196" t="s">
+        <v>335</v>
+      </c>
+      <c r="O51" s="196" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="70"/>
-      <c r="B52" s="85" t="s">
-        <v>440</v>
-      </c>
-      <c r="C52" s="70" t="s">
-        <v>441</v>
-      </c>
-      <c r="D52" s="70" t="s">
+      <c r="A52" s="66"/>
+      <c r="B52" s="76" t="s">
+        <v>435</v>
+      </c>
+      <c r="C52" s="66" t="s">
+        <v>436</v>
+      </c>
+      <c r="D52" s="66" t="s">
         <v>38</v>
       </c>
       <c r="E52" s="5">
         <v>30537</v>
       </c>
-      <c r="F52" s="70" t="s">
-        <v>442</v>
-      </c>
-      <c r="G52" s="70" t="s">
+      <c r="F52" s="66" t="s">
+        <v>437</v>
+      </c>
+      <c r="G52" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="H52" s="70" t="s">
+      <c r="H52" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="I52" s="70">
+      <c r="I52" s="66">
         <v>667875</v>
       </c>
       <c r="J52" s="8">
         <v>9996278123</v>
       </c>
-      <c r="K52" s="84" t="s">
-        <v>566</v>
-      </c>
-      <c r="L52" s="70" t="s">
+      <c r="K52" s="75" t="s">
+        <v>561</v>
+      </c>
+      <c r="L52" s="66" t="s">
         <v>110</v>
       </c>
       <c r="M52" s="1" t="s">
@@ -12506,7 +12947,7 @@
         <v>266</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>274</v>
@@ -12524,13 +12965,13 @@
         <v>7771232345</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K2" s="105" t="s">
-        <v>492</v>
+      <c r="K2" s="96" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -12541,7 +12982,7 @@
         <v>267</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>39</v>
@@ -12559,13 +13000,13 @@
         <v>7771232345</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K3" s="98" t="s">
-        <v>492</v>
+      <c r="K3" s="89" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -12576,7 +13017,7 @@
         <v>268</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>39</v>
@@ -12594,13 +13035,13 @@
         <v>7771232345</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K4" s="99" t="s">
-        <v>492</v>
+      <c r="K4" s="90" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -12611,7 +13052,7 @@
         <v>269</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>275</v>
@@ -12629,13 +13070,13 @@
         <v>7771232345</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K5" s="100" t="s">
-        <v>492</v>
+      <c r="K5" s="91" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -12646,7 +13087,7 @@
         <v>270</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>276</v>
@@ -12664,13 +13105,13 @@
         <v>7778901237</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K6" s="101" t="s">
-        <v>492</v>
+      <c r="K6" s="92" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -12681,7 +13122,7 @@
         <v>271</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>277</v>
@@ -12704,8 +13145,8 @@
       <c r="J7" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K7" s="102" t="s">
-        <v>492</v>
+      <c r="K7" s="93" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -12716,7 +13157,7 @@
         <v>282</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>277</v>
@@ -12739,8 +13180,8 @@
       <c r="J8" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K8" s="103" t="s">
-        <v>493</v>
+      <c r="K8" s="94" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -12751,7 +13192,7 @@
         <v>272</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -12762,8 +13203,8 @@
       <c r="J9" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K9" s="104" t="s">
-        <v>492</v>
+      <c r="K9" s="95" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -12783,8 +13224,8 @@
       <c r="J10" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="K10" s="106" t="s">
-        <v>494</v>
+      <c r="K10" s="97" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -12806,8 +13247,8 @@
       <c r="J11" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="K11" s="107" t="s">
-        <v>352</v>
+      <c r="K11" s="98" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -12829,8 +13270,8 @@
       <c r="J12" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="K12" s="108" t="s">
-        <v>352</v>
+      <c r="K12" s="99" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -12852,8 +13293,8 @@
       <c r="J13" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K13" s="109" t="s">
-        <v>353</v>
+      <c r="K13" s="100" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -12875,8 +13316,8 @@
       <c r="J14" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="K14" s="110" t="s">
-        <v>495</v>
+      <c r="K14" s="101" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -12898,8 +13339,8 @@
       <c r="J15" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="K15" s="111" t="s">
-        <v>495</v>
+      <c r="K15" s="102" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="72" x14ac:dyDescent="0.3">
@@ -12921,16 +13362,16 @@
       <c r="J16" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="K16" s="112" t="s">
-        <v>495</v>
+      <c r="K16" s="103" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="77"/>
-      <c r="B17" s="86" t="s">
-        <v>443</v>
-      </c>
-      <c r="C17" s="77">
+      <c r="A17" s="68"/>
+      <c r="B17" s="77" t="s">
+        <v>438</v>
+      </c>
+      <c r="C17" s="68">
         <v>12345</v>
       </c>
       <c r="J17" t="s">
@@ -12996,13 +13437,13 @@
         <v>252</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E2" s="209" t="s">
-        <v>597</v>
+      <c r="E2" s="200" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -13013,13 +13454,13 @@
         <v>252</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E3" s="210" t="s">
-        <v>597</v>
+      <c r="E3" s="201" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -13030,13 +13471,13 @@
         <v>252</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E4" s="211" t="s">
-        <v>597</v>
+      <c r="E4" s="202" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -13047,13 +13488,13 @@
         <v>252</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E5" s="212" t="s">
-        <v>597</v>
+      <c r="E5" s="203" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -13064,13 +13505,13 @@
         <v>252</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E6" s="213" t="s">
-        <v>597</v>
+      <c r="E6" s="204" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -13081,13 +13522,13 @@
         <v>252</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E7" s="214" t="s">
-        <v>597</v>
+      <c r="E7" s="205" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -13098,13 +13539,13 @@
         <v>252</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E8" s="215" t="s">
-        <v>597</v>
+      <c r="E8" s="206" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -13115,13 +13556,13 @@
         <v>252</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E9" s="216" t="s">
-        <v>597</v>
+      <c r="E9" s="207" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -13132,13 +13573,13 @@
         <v>252</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E10" s="217" t="s">
-        <v>597</v>
+      <c r="E10" s="208" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -13149,13 +13590,13 @@
         <v>252</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E11" s="218" t="s">
-        <v>597</v>
+      <c r="E11" s="209" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -13166,13 +13607,13 @@
         <v>252</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E12" s="219" t="s">
-        <v>597</v>
+      <c r="E12" s="210" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -13183,13 +13624,13 @@
         <v>252</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E13" s="220" t="s">
-        <v>597</v>
+      <c r="E13" s="211" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -13200,13 +13641,13 @@
         <v>252</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E14" s="221" t="s">
-        <v>597</v>
+      <c r="E14" s="212" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -13217,13 +13658,13 @@
         <v>252</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E15" s="222" t="s">
-        <v>597</v>
+      <c r="E15" s="213" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -13234,13 +13675,13 @@
         <v>252</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E16" s="223" t="s">
-        <v>597</v>
+      <c r="E16" s="214" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -13254,8 +13695,8 @@
       <c r="D17" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E17" s="224" t="s">
-        <v>494</v>
+      <c r="E17" s="215" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -13271,8 +13712,8 @@
       <c r="D18" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E18" s="225" t="s">
-        <v>352</v>
+      <c r="E18" s="216" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -13288,8 +13729,8 @@
       <c r="D19" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="226" t="s">
-        <v>352</v>
+      <c r="E19" s="217" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -13305,8 +13746,8 @@
       <c r="D20" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="227" t="s">
-        <v>353</v>
+      <c r="E20" s="218" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -13322,8 +13763,8 @@
       <c r="D21" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E21" s="228" t="s">
-        <v>598</v>
+      <c r="E21" s="219" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -13339,8 +13780,8 @@
       <c r="D22" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E22" s="229" t="s">
-        <v>598</v>
+      <c r="E22" s="220" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -13356,8 +13797,8 @@
       <c r="D23" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E23" s="230" t="s">
-        <v>598</v>
+      <c r="E23" s="221" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -13365,54 +13806,54 @@
         <v>23</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>323</v>
-      </c>
-      <c r="C24" s="113">
+        <v>322</v>
+      </c>
+      <c r="C24" s="104">
         <v>96501</v>
       </c>
       <c r="D24" s="52" t="s">
         <v>294</v>
       </c>
-      <c r="E24" s="231" t="s">
-        <v>599</v>
+      <c r="E24" s="222" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="158" t="s">
-        <v>364</v>
-      </c>
-      <c r="C25" s="154">
+      <c r="B25" s="149" t="s">
+        <v>363</v>
+      </c>
+      <c r="C25" s="145">
         <v>37672</v>
       </c>
-      <c r="D25" s="155" t="s">
+      <c r="D25" s="146" t="s">
         <v>255</v>
       </c>
-      <c r="E25" s="232" t="s">
-        <v>598</v>
+      <c r="E25" s="223" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="87"/>
-      <c r="B26" s="157" t="s">
-        <v>444</v>
-      </c>
-      <c r="C26" s="87">
+      <c r="A26" s="78"/>
+      <c r="B26" s="148" t="s">
+        <v>439</v>
+      </c>
+      <c r="C26" s="78">
         <v>12345</v>
       </c>
       <c r="D26" s="50" t="s">
         <v>285</v>
       </c>
-      <c r="E26" s="156"/>
+      <c r="E26" s="147"/>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="51"/>
       <c r="B27" s="50"/>
       <c r="C27" s="50"/>
       <c r="D27" s="50"/>
-      <c r="E27" s="156"/>
+      <c r="E27" s="147"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13428,8 +13869,8 @@
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13458,13 +13899,13 @@
         <v>291</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>5</v>
@@ -13475,25 +13916,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C2" s="83">
+        <v>297</v>
+      </c>
+      <c r="C2" s="74">
         <v>73735</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E2" s="1">
         <v>1000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G2" s="263" t="s">
-        <v>623</v>
-      </c>
-      <c r="H2" s="263" t="s">
-        <v>513</v>
+        <v>315</v>
+      </c>
+      <c r="G2" s="267" t="s">
+        <v>610</v>
+      </c>
+      <c r="H2" s="267" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -13501,25 +13942,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C3" s="83">
+        <v>296</v>
+      </c>
+      <c r="C3" s="74">
         <v>37705</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>311</v>
       </c>
       <c r="E3" s="1">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G3" s="264" t="s">
-        <v>624</v>
-      </c>
-      <c r="H3" s="264" t="s">
-        <v>513</v>
+        <v>315</v>
+      </c>
+      <c r="G3" s="267" t="s">
+        <v>335</v>
+      </c>
+      <c r="H3" s="267" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -13527,25 +13968,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C4" s="83">
+        <v>297</v>
+      </c>
+      <c r="C4" s="74">
         <v>73735</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E4" s="1">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G4" s="265" t="s">
-        <v>625</v>
-      </c>
-      <c r="H4" s="265" t="s">
-        <v>513</v>
+        <v>315</v>
+      </c>
+      <c r="G4" s="268" t="s">
+        <v>611</v>
+      </c>
+      <c r="H4" s="268" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -13553,25 +13994,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C5" s="83">
+        <v>296</v>
+      </c>
+      <c r="C5" s="74">
         <v>37705</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E5" s="1">
         <v>4600</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G5" s="233" t="s">
-        <v>609</v>
-      </c>
-      <c r="H5" s="233" t="s">
-        <v>513</v>
+        <v>315</v>
+      </c>
+      <c r="G5" s="269" t="s">
+        <v>612</v>
+      </c>
+      <c r="H5" s="269" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -13581,23 +14022,23 @@
       <c r="B6" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C6" s="83">
+      <c r="C6" s="74">
         <v>73735</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E6" s="1">
         <v>1200</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G6" s="234" t="s">
-        <v>610</v>
-      </c>
-      <c r="H6" s="234" t="s">
-        <v>513</v>
+        <v>315</v>
+      </c>
+      <c r="G6" s="270" t="s">
+        <v>613</v>
+      </c>
+      <c r="H6" s="270" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -13607,23 +14048,23 @@
       <c r="B7" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C7" s="83">
+      <c r="C7" s="74">
         <v>73735</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E7" s="1">
         <v>1400</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G7" s="235" t="s">
-        <v>611</v>
-      </c>
-      <c r="H7" s="235" t="s">
-        <v>513</v>
+        <v>315</v>
+      </c>
+      <c r="G7" s="271" t="s">
+        <v>614</v>
+      </c>
+      <c r="H7" s="271" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -13631,9 +14072,9 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C8" s="83">
+        <v>319</v>
+      </c>
+      <c r="C8" s="74">
         <v>73735</v>
       </c>
       <c r="D8" s="1"/>
@@ -13641,13 +14082,13 @@
         <v>600</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G8" s="236" t="s">
-        <v>612</v>
-      </c>
-      <c r="H8" s="236" t="s">
-        <v>513</v>
+        <v>315</v>
+      </c>
+      <c r="G8" s="272" t="s">
+        <v>615</v>
+      </c>
+      <c r="H8" s="272" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -13655,25 +14096,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C9" s="83">
+        <v>305</v>
+      </c>
+      <c r="C9" s="74">
         <v>98487</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E9" s="1">
         <v>500</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G9" s="237" t="s">
-        <v>613</v>
-      </c>
-      <c r="H9" s="237" t="s">
-        <v>513</v>
+        <v>315</v>
+      </c>
+      <c r="G9" s="273" t="s">
+        <v>617</v>
+      </c>
+      <c r="H9" s="273" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -13681,25 +14122,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C10" s="83">
+        <v>306</v>
+      </c>
+      <c r="C10" s="74">
         <v>98487</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E10" s="1">
         <v>501</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G10" s="238" t="s">
-        <v>614</v>
-      </c>
-      <c r="H10" s="238" t="s">
-        <v>513</v>
+        <v>315</v>
+      </c>
+      <c r="G10" s="224" t="s">
+        <v>598</v>
+      </c>
+      <c r="H10" s="224" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -13707,25 +14148,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C11" s="83">
+        <v>307</v>
+      </c>
+      <c r="C11" s="74">
         <v>98487</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E11" s="1">
         <v>100000000</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G11" s="116" t="s">
-        <v>517</v>
-      </c>
-      <c r="H11" s="116" t="s">
-        <v>513</v>
+        <v>315</v>
+      </c>
+      <c r="G11" s="107" t="s">
+        <v>512</v>
+      </c>
+      <c r="H11" s="107" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -13733,25 +14174,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C12" s="83">
+        <v>305</v>
+      </c>
+      <c r="C12" s="74">
         <v>37705</v>
       </c>
       <c r="D12" s="54" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E12" s="1">
         <v>500</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G12" s="117" t="s">
-        <v>518</v>
-      </c>
-      <c r="H12" s="117" t="s">
+        <v>315</v>
+      </c>
+      <c r="G12" s="108" t="s">
         <v>513</v>
+      </c>
+      <c r="H12" s="108" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -13759,25 +14200,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C13" s="83">
+        <v>306</v>
+      </c>
+      <c r="C13" s="74">
         <v>37705</v>
       </c>
       <c r="D13" s="54" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E13" s="1">
         <v>501</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G13" s="118" t="s">
-        <v>519</v>
-      </c>
-      <c r="H13" s="118" t="s">
-        <v>513</v>
+        <v>315</v>
+      </c>
+      <c r="G13" s="109" t="s">
+        <v>514</v>
+      </c>
+      <c r="H13" s="109" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -13785,25 +14226,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C14" s="83">
+        <v>307</v>
+      </c>
+      <c r="C14" s="74">
         <v>37705</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E14" s="1">
         <v>200000000</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G14" s="119" t="s">
-        <v>520</v>
-      </c>
-      <c r="H14" s="119" t="s">
-        <v>513</v>
+        <v>315</v>
+      </c>
+      <c r="G14" s="110" t="s">
+        <v>515</v>
+      </c>
+      <c r="H14" s="110" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -13815,19 +14256,19 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E15" s="1">
         <v>1600</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G15" s="120" t="s">
-        <v>336</v>
-      </c>
-      <c r="H15" s="120" t="s">
-        <v>521</v>
+        <v>504</v>
+      </c>
+      <c r="G15" s="111" t="s">
+        <v>335</v>
+      </c>
+      <c r="H15" s="111" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -13838,22 +14279,22 @@
         <v>256</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E16" s="1">
         <v>1000</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G16" s="121" t="s">
-        <v>336</v>
-      </c>
-      <c r="H16" s="121" t="s">
-        <v>521</v>
+        <v>504</v>
+      </c>
+      <c r="G16" s="112" t="s">
+        <v>335</v>
+      </c>
+      <c r="H16" s="112" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -13867,19 +14308,19 @@
         <v>33</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E17" s="1">
         <v>1900</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G17" s="122" t="s">
-        <v>336</v>
-      </c>
-      <c r="H17" s="122" t="s">
-        <v>521</v>
+        <v>504</v>
+      </c>
+      <c r="G17" s="113" t="s">
+        <v>335</v>
+      </c>
+      <c r="H17" s="113" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -13887,25 +14328,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="E18" s="1">
         <v>2000</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G18" s="123" t="s">
-        <v>336</v>
-      </c>
-      <c r="H18" s="123" t="s">
-        <v>521</v>
+        <v>504</v>
+      </c>
+      <c r="G18" s="114" t="s">
+        <v>335</v>
+      </c>
+      <c r="H18" s="114" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -13913,25 +14354,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C19" s="1">
         <v>1234</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E19" s="1">
         <v>1000</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G19" s="124" t="s">
-        <v>336</v>
-      </c>
-      <c r="H19" s="124" t="s">
-        <v>521</v>
+        <v>504</v>
+      </c>
+      <c r="G19" s="115" t="s">
+        <v>335</v>
+      </c>
+      <c r="H19" s="115" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -13939,23 +14380,23 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C20" s="83">
+        <v>300</v>
+      </c>
+      <c r="C20" s="74">
         <v>98487</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="G20" s="125" t="s">
-        <v>336</v>
-      </c>
-      <c r="H20" s="125" t="s">
-        <v>522</v>
+        <v>317</v>
+      </c>
+      <c r="G20" s="116" t="s">
+        <v>335</v>
+      </c>
+      <c r="H20" s="116" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -13963,25 +14404,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C21" s="83">
+        <v>301</v>
+      </c>
+      <c r="C21" s="74">
         <v>98487</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>90</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="G21" s="126" t="s">
-        <v>336</v>
-      </c>
-      <c r="H21" s="126" t="s">
-        <v>522</v>
+        <v>317</v>
+      </c>
+      <c r="G21" s="117" t="s">
+        <v>335</v>
+      </c>
+      <c r="H21" s="117" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -13989,25 +14430,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C22" s="83">
+        <v>302</v>
+      </c>
+      <c r="C22" s="74">
         <v>98487</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="G22" s="127" t="s">
-        <v>336</v>
-      </c>
-      <c r="H22" s="127" t="s">
-        <v>522</v>
+        <v>317</v>
+      </c>
+      <c r="G22" s="118" t="s">
+        <v>335</v>
+      </c>
+      <c r="H22" s="118" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -14015,25 +14456,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C23" s="83">
+        <v>303</v>
+      </c>
+      <c r="C23" s="74">
         <v>98487</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="G23" s="128" t="s">
-        <v>336</v>
-      </c>
-      <c r="H23" s="128" t="s">
-        <v>522</v>
+        <v>317</v>
+      </c>
+      <c r="G23" s="119" t="s">
+        <v>335</v>
+      </c>
+      <c r="H23" s="119" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -14041,25 +14482,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C24" s="83">
+        <v>304</v>
+      </c>
+      <c r="C24" s="74">
         <v>98487</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E24" s="1">
         <v>499</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="G24" s="129" t="s">
-        <v>336</v>
-      </c>
-      <c r="H24" s="129" t="s">
-        <v>522</v>
+        <v>317</v>
+      </c>
+      <c r="G24" s="120" t="s">
+        <v>335</v>
+      </c>
+      <c r="H24" s="120" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -14067,25 +14508,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C25" s="83">
+        <v>304</v>
+      </c>
+      <c r="C25" s="74">
         <v>98487</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E25" s="1">
         <v>499</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="G25" s="130" t="s">
-        <v>336</v>
-      </c>
-      <c r="H25" s="130" t="s">
-        <v>522</v>
+        <v>317</v>
+      </c>
+      <c r="G25" s="121" t="s">
+        <v>335</v>
+      </c>
+      <c r="H25" s="121" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -14099,13 +14540,13 @@
       <c r="D26" s="54"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="G26" s="131" t="s">
-        <v>336</v>
-      </c>
-      <c r="H26" s="131" t="s">
-        <v>521</v>
+        <v>504</v>
+      </c>
+      <c r="G26" s="122" t="s">
+        <v>335</v>
+      </c>
+      <c r="H26" s="122" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -14113,25 +14554,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C27" s="70">
+        <v>398</v>
+      </c>
+      <c r="C27" s="66">
         <v>37672</v>
       </c>
-      <c r="D27" s="70" t="s">
-        <v>451</v>
-      </c>
-      <c r="E27" s="70">
+      <c r="D27" s="66" t="s">
+        <v>446</v>
+      </c>
+      <c r="E27" s="66">
         <v>1000</v>
       </c>
-      <c r="F27" s="70" t="s">
-        <v>509</v>
-      </c>
-      <c r="G27" s="132" t="s">
-        <v>336</v>
-      </c>
-      <c r="H27" s="132" t="s">
-        <v>521</v>
+      <c r="F27" s="66" t="s">
+        <v>504</v>
+      </c>
+      <c r="G27" s="123" t="s">
+        <v>335</v>
+      </c>
+      <c r="H27" s="123" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -14148,8 +14589,8 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14168,7 +14609,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>291</v>
@@ -14185,111 +14626,105 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="F2" s="278"/>
+      <c r="F2" s="249"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>336</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="F3" s="279"/>
+        <v>452</v>
+      </c>
+      <c r="F3" s="250"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>336</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="F4" s="280"/>
+        <v>451</v>
+      </c>
+      <c r="F4" s="251"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="F5" s="281"/>
+        <v>451</v>
+      </c>
+      <c r="F5" s="252"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C6" s="1">
         <v>39946</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F6" s="282"/>
+        <v>333</v>
+      </c>
+      <c r="F6" s="253"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F7" s="283"/>
+        <v>324</v>
+      </c>
+      <c r="F7" s="254"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>134</v>
@@ -14298,87 +14733,87 @@
       <c r="E8" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="284"/>
+      <c r="F8" s="255"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="285"/>
+      <c r="F9" s="256"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="286"/>
+      <c r="F10" s="257"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C11" s="69">
+        <v>328</v>
+      </c>
+      <c r="C11" s="65">
         <v>44435</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F11" s="287"/>
+        <v>333</v>
+      </c>
+      <c r="F11" s="258"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C12" s="1">
         <v>1000001</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F12" s="288"/>
+        <v>333</v>
+      </c>
+      <c r="F12" s="259"/>
     </row>
     <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C13" s="1">
         <v>12345678901</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F13" s="289"/>
+        <v>333</v>
+      </c>
+      <c r="F13" s="260"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14394,7 +14829,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection activeCell="C2" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14413,7 +14848,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>15</v>
@@ -14427,14 +14862,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E2" s="133" t="s">
-        <v>511</v>
+        <v>334</v>
+      </c>
+      <c r="E2" s="124" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -14442,14 +14877,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C3" s="48"/>
       <c r="D3" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E3" s="134" t="s">
-        <v>511</v>
+        <v>334</v>
+      </c>
+      <c r="E3" s="125" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -14457,14 +14892,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E4" s="135" t="s">
-        <v>511</v>
+        <v>334</v>
+      </c>
+      <c r="E4" s="126" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -14472,14 +14907,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E5" s="136" t="s">
-        <v>511</v>
+        <v>334</v>
+      </c>
+      <c r="E5" s="127" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -14487,14 +14922,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C6" s="48"/>
       <c r="D6" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E6" s="137" t="s">
-        <v>511</v>
+        <v>334</v>
+      </c>
+      <c r="E6" s="128" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -14502,14 +14937,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E7" s="138" t="s">
-        <v>511</v>
+        <v>334</v>
+      </c>
+      <c r="E7" s="129" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -14517,14 +14952,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E8" s="139" t="s">
-        <v>511</v>
+        <v>334</v>
+      </c>
+      <c r="E8" s="130" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -14532,14 +14967,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C9" s="48"/>
       <c r="D9" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E9" s="140" t="s">
-        <v>511</v>
+        <v>334</v>
+      </c>
+      <c r="E9" s="131" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -14547,14 +14982,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E10" s="141" t="s">
-        <v>511</v>
+        <v>334</v>
+      </c>
+      <c r="E10" s="132" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -14562,16 +14997,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E11" s="142" t="s">
-        <v>511</v>
+        <v>334</v>
+      </c>
+      <c r="E11" s="133" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -14579,16 +15014,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E12" s="143" t="s">
-        <v>511</v>
+        <v>334</v>
+      </c>
+      <c r="E12" s="134" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -14596,16 +15031,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E13" s="144" t="s">
-        <v>511</v>
+        <v>334</v>
+      </c>
+      <c r="E13" s="135" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -14613,16 +15048,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E14" s="145" t="s">
-        <v>511</v>
+        <v>334</v>
+      </c>
+      <c r="E14" s="136" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -14630,16 +15065,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>335</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C15" s="48" t="s">
-        <v>336</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E15" s="146" t="s">
-        <v>351</v>
+      <c r="E15" s="137" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -14647,16 +15082,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E16" s="147" t="s">
-        <v>352</v>
+      <c r="E16" s="138" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -14664,16 +15099,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E17" s="148" t="s">
-        <v>352</v>
+      <c r="E17" s="139" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -14681,7 +15116,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C18" s="48" t="s">
         <v>263</v>
@@ -14689,8 +15124,8 @@
       <c r="D18" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="149" t="s">
-        <v>353</v>
+      <c r="E18" s="140" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -14698,16 +15133,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="E19" s="150" t="s">
-        <v>354</v>
+        <v>333</v>
+      </c>
+      <c r="E19" s="141" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -14715,16 +15150,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="E20" s="151" t="s">
-        <v>354</v>
+        <v>333</v>
+      </c>
+      <c r="E20" s="142" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="72" x14ac:dyDescent="0.3">
@@ -14732,27 +15167,27 @@
         <v>20</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="E21" s="152" t="s">
-        <v>354</v>
+        <v>333</v>
+      </c>
+      <c r="E21" s="143" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" s="61" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C22" s="1">
         <v>39946</v>
       </c>
       <c r="D22" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -14768,8 +15203,8 @@
   </sheetPr>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14789,22 +15224,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
@@ -14815,7 +15250,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="1"/>
@@ -14823,16 +15258,16 @@
         <v>200</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H2" s="49" t="s">
-        <v>602</v>
-      </c>
-      <c r="I2" s="239" t="s">
-        <v>350</v>
+        <v>597</v>
+      </c>
+      <c r="I2" s="274" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -14840,32 +15275,32 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C3" s="48"/>
       <c r="D3" s="1"/>
       <c r="E3" s="49">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>603</v>
-      </c>
-      <c r="I3" s="240" t="s">
-        <v>350</v>
+        <v>618</v>
+      </c>
+      <c r="I3" s="275" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="70" t="s">
-        <v>393</v>
+      <c r="B4" s="66" t="s">
+        <v>391</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -14873,31 +15308,27 @@
         <v>1000000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>604</v>
-      </c>
-      <c r="I4" s="241" t="s">
-        <v>350</v>
+        <v>619</v>
+      </c>
+      <c r="I4" s="276" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="70" t="s">
-        <v>381</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>336</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>336</v>
-      </c>
+      <c r="B5" s="66" t="s">
+        <v>379</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="1">
         <v>100</v>
       </c>
@@ -14905,28 +15336,24 @@
         <v>90</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H5" s="49" t="s">
-        <v>605</v>
-      </c>
-      <c r="I5" s="242" t="s">
-        <v>350</v>
+        <v>599</v>
+      </c>
+      <c r="I5" s="277" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="70" t="s">
-        <v>382</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>336</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>336</v>
-      </c>
+      <c r="B6" s="66" t="s">
+        <v>380</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="1">
         <v>150</v>
       </c>
@@ -14934,98 +15361,90 @@
         <v>123345</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H6" s="49" t="s">
-        <v>606</v>
-      </c>
-      <c r="I6" s="243" t="s">
-        <v>350</v>
+        <v>620</v>
+      </c>
+      <c r="I6" s="278" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="70" t="s">
-        <v>383</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>336</v>
-      </c>
+      <c r="B7" s="66" t="s">
+        <v>381</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="1">
         <v>200</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H7" s="49" t="s">
-        <v>607</v>
-      </c>
-      <c r="I7" s="244" t="s">
-        <v>350</v>
+        <v>621</v>
+      </c>
+      <c r="I7" s="279" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="70" t="s">
-        <v>385</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>336</v>
-      </c>
+      <c r="B8" s="66" t="s">
+        <v>383</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="1">
         <v>100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H8" s="49" t="s">
-        <v>608</v>
-      </c>
-      <c r="I8" s="245" t="s">
-        <v>350</v>
+        <v>616</v>
+      </c>
+      <c r="I8" s="280" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="70" t="s">
-        <v>379</v>
+      <c r="B9" s="66" t="s">
+        <v>377</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E9" s="1">
         <v>800</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H9" s="49" t="s">
-        <v>615</v>
-      </c>
-      <c r="I9" s="246" t="s">
-        <v>350</v>
+        <v>600</v>
+      </c>
+      <c r="I9" s="280" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -15033,7 +15452,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
@@ -15043,16 +15462,16 @@
         <v>100</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H10" s="49" t="s">
-        <v>616</v>
-      </c>
-      <c r="I10" s="247" t="s">
-        <v>354</v>
+        <v>600</v>
+      </c>
+      <c r="I10" s="225" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -15060,7 +15479,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>203</v>
@@ -15072,16 +15491,16 @@
         <v>100</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>126</v>
       </c>
       <c r="H11" s="49" t="s">
-        <v>616</v>
-      </c>
-      <c r="I11" s="248" t="s">
-        <v>354</v>
+        <v>600</v>
+      </c>
+      <c r="I11" s="226" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -15089,10 +15508,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D12" s="1">
         <v>500</v>
@@ -15101,16 +15520,16 @@
         <v>100</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>126</v>
       </c>
       <c r="H12" s="49" t="s">
-        <v>616</v>
-      </c>
-      <c r="I12" s="249" t="s">
-        <v>354</v>
+        <v>600</v>
+      </c>
+      <c r="I12" s="227" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -15118,10 +15537,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D13" s="1">
         <v>500</v>
@@ -15130,16 +15549,16 @@
         <v>100</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>116</v>
       </c>
       <c r="H13" s="49" t="s">
-        <v>616</v>
-      </c>
-      <c r="I13" s="250" t="s">
-        <v>354</v>
+        <v>600</v>
+      </c>
+      <c r="I13" s="228" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -15147,7 +15566,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C14" s="1">
         <v>39946</v>
@@ -15159,16 +15578,16 @@
         <v>100</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H14" s="49" t="s">
-        <v>616</v>
-      </c>
-      <c r="I14" s="251" t="s">
-        <v>354</v>
+        <v>600</v>
+      </c>
+      <c r="I14" s="229" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -15176,7 +15595,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C15" s="1">
         <v>39908</v>
@@ -15188,24 +15607,24 @@
         <v>100</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H15" s="49" t="s">
-        <v>616</v>
-      </c>
-      <c r="I15" s="252" t="s">
-        <v>354</v>
+        <v>600</v>
+      </c>
+      <c r="I15" s="230" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="70" t="s">
-        <v>374</v>
+      <c r="B16" s="66" t="s">
+        <v>372</v>
       </c>
       <c r="C16" s="1">
         <v>44566</v>
@@ -15213,118 +15632,118 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H16" s="49" t="s">
-        <v>616</v>
-      </c>
-      <c r="I16" s="254" t="s">
-        <v>619</v>
+        <v>600</v>
+      </c>
+      <c r="I16" s="232" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="70" t="s">
-        <v>375</v>
+      <c r="B17" s="66" t="s">
+        <v>373</v>
       </c>
       <c r="C17" s="1">
         <v>44566</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>126</v>
       </c>
       <c r="H17" s="49" t="s">
-        <v>616</v>
-      </c>
-      <c r="I17" s="255" t="s">
-        <v>619</v>
+        <v>600</v>
+      </c>
+      <c r="I17" s="233" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="70" t="s">
-        <v>376</v>
+      <c r="B18" s="66" t="s">
+        <v>374</v>
       </c>
       <c r="C18" s="1">
         <v>44566</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>126</v>
       </c>
       <c r="H18" s="49" t="s">
-        <v>616</v>
-      </c>
-      <c r="I18" s="256" t="s">
-        <v>619</v>
+        <v>600</v>
+      </c>
+      <c r="I18" s="234" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="70" t="s">
-        <v>377</v>
+      <c r="B19" s="66" t="s">
+        <v>375</v>
       </c>
       <c r="C19" s="1">
         <v>44566</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>116</v>
       </c>
       <c r="H19" s="49" t="s">
-        <v>616</v>
-      </c>
-      <c r="I19" s="257" t="s">
-        <v>619</v>
+        <v>600</v>
+      </c>
+      <c r="I19" s="235" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="70" t="s">
-        <v>387</v>
+      <c r="B20" s="66" t="s">
+        <v>385</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H20" s="49" t="s">
-        <v>616</v>
-      </c>
-      <c r="I20" s="253" t="s">
-        <v>354</v>
+        <v>600</v>
+      </c>
+      <c r="I20" s="231" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/SeleniumWebDriver/bin/guru99/DataFiles/Guru99_testdata.xlsx
+++ b/SeleniumWebDriver/bin/guru99/DataFiles/Guru99_testdata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22A81A4-7DAC-4DAD-B777-61F0EF284C99}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E6AE33-DE9E-440B-B9E7-C0633EE2E67C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="6" r:id="rId1"/>
@@ -22,8 +22,10 @@
     <sheet name="FundTransfer" sheetId="13" r:id="rId12"/>
     <sheet name="MiniStat" sheetId="15" r:id="rId13"/>
     <sheet name="CustStat" sheetId="16" r:id="rId14"/>
+    <sheet name="Sheet1" sheetId="19" r:id="rId15"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">FundTransfer!$G$1:$G$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">NewAcct!$F$1:$F$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">NewCust!$M$1:$M$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Withdrawal!$G$1:$G$21</definedName>
@@ -98,6 +100,30 @@
           </rPr>
           <t xml:space="preserve">
 Need to insert customer ids created as part of NewCust method</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{CE70AD60-FEA9-4507-829A-2C90D2648E35}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Test case 5 and 6 should have same customer ids as they are the case with multiple accounts for the same customer id</t>
         </r>
       </text>
     </comment>
@@ -295,7 +321,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Need to write the account numbers into excel as part of add account function</t>
+Need to write the account numbers into excel as part of add account function.  Special condition needs to be added when test case id =4</t>
         </r>
       </text>
     </comment>
@@ -338,7 +364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="644">
   <si>
     <t>testcaseID</t>
   </si>
@@ -1558,9 +1584,6 @@
     <t>Characters in payer's account number</t>
   </si>
   <si>
-    <t>Special characters inpayer's  account number</t>
-  </si>
-  <si>
     <t>Deleted payer's account number</t>
   </si>
   <si>
@@ -2173,27 +2196,9 @@
     <t>44846</t>
   </si>
   <si>
-    <t>44847</t>
-  </si>
-  <si>
-    <t>44848</t>
-  </si>
-  <si>
-    <t>44849</t>
-  </si>
-  <si>
-    <t>44850</t>
-  </si>
-  <si>
-    <t>44851</t>
-  </si>
-  <si>
     <t>600</t>
   </si>
   <si>
-    <t>44852</t>
-  </si>
-  <si>
     <t>6100</t>
   </si>
   <si>
@@ -2231,6 +2236,66 @@
   </si>
   <si>
     <t>Pass - Transaction Failed. Account Balance Low!!!</t>
+  </si>
+  <si>
+    <t>Special characters in payer's  account number</t>
+  </si>
+  <si>
+    <t>Transfer from savings to current account</t>
+  </si>
+  <si>
+    <t>savTOcur</t>
+  </si>
+  <si>
+    <t>45017</t>
+  </si>
+  <si>
+    <t>45018</t>
+  </si>
+  <si>
+    <t>45019</t>
+  </si>
+  <si>
+    <t>45020</t>
+  </si>
+  <si>
+    <t>45021</t>
+  </si>
+  <si>
+    <t>45022</t>
+  </si>
+  <si>
+    <t>45023</t>
+  </si>
+  <si>
+    <t>45024</t>
+  </si>
+  <si>
+    <t>Pass - Fund Transfer Details</t>
+  </si>
+  <si>
+    <t>Pass - Transfer Failed. Account Balance low!!</t>
+  </si>
+  <si>
+    <t>Pass - Payers account No and Payees account No Must Not be Same!!!</t>
+  </si>
+  <si>
+    <t>Fail - Message Mismatch..Please fill all fields</t>
+  </si>
+  <si>
+    <t>Pass - Amount field must not be blank</t>
+  </si>
+  <si>
+    <t>Pass - Description can not be blank</t>
+  </si>
+  <si>
+    <t>Pass - Payers Account Number must not be blankPayees Account Number must not be blankAmount field must not be blankDescription can not be blank</t>
+  </si>
+  <si>
+    <t>payers bal</t>
+  </si>
+  <si>
+    <t>payee bal</t>
   </si>
 </sst>
 </file>
@@ -2344,7 +2409,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="202">
+  <fills count="231">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3315,31 +3380,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="52"/>
       </patternFill>
     </fill>
@@ -3358,8 +3398,179 @@
         <fgColor indexed="57"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="250">
+  <borders count="277">
     <border>
       <left/>
       <right/>
@@ -3993,19 +4204,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="thin">
@@ -6547,6 +6745,426 @@
         <color indexed="8"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -7079,7 +7697,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="305">
+  <cellXfs count="335">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -7155,10 +7773,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -7176,160 +7790,160 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="65" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="69" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="71" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="73" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="74" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="75" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="76" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="77" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="78" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="79" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="80" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="81" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="82" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="83" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="84" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="85" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="86" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="87" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="88" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="89" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="90" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="91" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="92" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="93" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="94" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="95" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="96" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="97" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="98" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="99" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="100" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="101" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="102" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="103" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="69" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="71" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="73" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="74" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="75" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="76" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="77" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="78" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="79" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="80" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="81" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="82" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="83" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="84" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="85" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="53" borderId="86" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="87" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="55" borderId="88" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="89" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="57" borderId="90" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="91" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="59" borderId="92" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="93" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="94" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="95" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="96" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="97" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="65" borderId="98" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="99" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="67" borderId="100" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="101" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="69" borderId="102" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="104" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="104" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="103" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="103" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="104" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="105" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="106" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="107" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="108" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="109" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="110" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="76" borderId="111" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="112" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="78" borderId="113" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="114" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="80" borderId="115" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="81" borderId="116" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="82" borderId="117" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="83" borderId="118" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="84" borderId="119" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="85" borderId="120" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="86" borderId="121" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="87" borderId="122" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="88" borderId="123" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="89" borderId="124" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="90" borderId="125" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="91" borderId="126" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="92" borderId="127" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="93" borderId="128" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="94" borderId="129" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="95" borderId="130" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="96" borderId="131" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="97" borderId="132" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="98" borderId="133" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="99" borderId="134" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="100" borderId="135" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="101" borderId="136" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="102" borderId="137" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="103" borderId="138" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="104" borderId="139" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="105" borderId="140" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="106" borderId="141" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="107" borderId="142" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="108" borderId="143" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="109" borderId="144" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="110" borderId="145" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="111" borderId="146" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="112" borderId="147" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="113" borderId="148" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="114" borderId="149" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="115" borderId="150" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="151" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="117" borderId="152" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="118" borderId="153" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="119" borderId="154" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="120" borderId="155" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="121" borderId="156" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="122" borderId="157" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="123" borderId="158" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="159" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="125" borderId="160" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="126" borderId="161" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="127" borderId="162" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="163" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="129" borderId="164" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="130" borderId="165" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="131" borderId="166" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="132" borderId="167" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="133" borderId="168" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="134" borderId="169" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="135" borderId="170" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="171" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="137" borderId="172" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="138" borderId="173" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="139" borderId="174" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="140" borderId="175" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="141" borderId="176" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="142" borderId="177" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="143" borderId="178" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="145" borderId="179" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="146" borderId="180" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="147" borderId="181" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="148" borderId="182" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="149" borderId="183" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="150" borderId="184" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="151" borderId="185" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="152" borderId="186" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="153" borderId="187" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="154" borderId="188" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="155" borderId="189" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="156" borderId="190" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="103" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="104" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="105" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="106" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="107" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="74" borderId="108" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="75" borderId="109" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="76" borderId="110" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="111" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="78" borderId="112" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="113" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="80" borderId="114" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="81" borderId="115" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="82" borderId="116" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="83" borderId="117" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="84" borderId="118" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="85" borderId="119" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="86" borderId="120" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="121" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="88" borderId="122" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="89" borderId="123" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="90" borderId="124" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="91" borderId="125" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="92" borderId="126" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="93" borderId="127" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="94" borderId="128" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="95" borderId="129" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="96" borderId="130" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="97" borderId="131" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="98" borderId="132" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="99" borderId="133" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="100" borderId="134" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="101" borderId="135" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="102" borderId="136" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="137" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="104" borderId="138" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="105" borderId="139" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="106" borderId="140" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="107" borderId="141" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="142" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="109" borderId="143" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="110" borderId="144" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="111" borderId="145" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="112" borderId="146" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="113" borderId="147" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="114" borderId="148" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="115" borderId="149" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="150" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="117" borderId="151" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="118" borderId="152" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="119" borderId="153" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="120" borderId="154" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="121" borderId="155" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="122" borderId="156" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="123" borderId="157" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="158" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="125" borderId="159" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="126" borderId="160" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="127" borderId="161" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="162" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="129" borderId="163" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="130" borderId="164" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="131" borderId="165" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="132" borderId="166" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="133" borderId="167" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="134" borderId="168" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="135" borderId="169" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="170" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="137" borderId="171" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="138" borderId="172" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="139" borderId="173" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="140" borderId="174" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="141" borderId="175" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="142" borderId="176" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="143" borderId="177" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="145" borderId="178" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="146" borderId="179" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="147" borderId="180" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="148" borderId="181" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="149" borderId="182" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="150" borderId="183" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="151" borderId="184" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="152" borderId="185" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="153" borderId="186" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="154" borderId="187" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="155" borderId="188" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="156" borderId="189" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="157" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="157" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="157" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -7337,14 +7951,15 @@
     <xf numFmtId="0" fontId="0" fillId="144" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="159" borderId="203" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="160" borderId="204" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="161" borderId="205" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="162" borderId="206" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="163" borderId="207" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="164" borderId="208" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="165" borderId="209" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="166" borderId="210" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="159" borderId="202" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="160" borderId="203" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="161" borderId="204" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="162" borderId="205" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="163" borderId="206" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="164" borderId="207" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="165" borderId="208" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="166" borderId="209" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="190" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="191" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="192" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="193" xfId="0" applyFill="1" applyBorder="1"/>
@@ -7356,57 +7971,94 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="199" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="200" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="201" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="202" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="210" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="210" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="211" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="211" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="212" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="213" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="214" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="104" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="167" borderId="215" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="168" borderId="216" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="169" borderId="217" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="170" borderId="218" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="171" borderId="219" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="172" borderId="220" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="173" borderId="221" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="174" borderId="222" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="175" borderId="223" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="176" borderId="224" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="177" borderId="225" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="178" borderId="226" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="179" borderId="227" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="180" borderId="228" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="181" borderId="229" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="182" borderId="230" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="183" borderId="231" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="184" borderId="232" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="185" borderId="233" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="186" borderId="234" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="187" borderId="235" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="188" borderId="236" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="189" borderId="237" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="190" borderId="238" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="191" borderId="239" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="192" borderId="240" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="193" borderId="241" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="194" borderId="242" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="195" borderId="243" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="196" borderId="244" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="197" borderId="245" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="198" borderId="246" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="199" borderId="247" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="200" borderId="248" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="201" borderId="249" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="103" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="167" borderId="214" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="168" borderId="215" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="169" borderId="216" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="170" borderId="217" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="171" borderId="218" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="172" borderId="219" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="173" borderId="220" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="174" borderId="221" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="175" borderId="222" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="176" borderId="223" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="177" borderId="224" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="178" borderId="225" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="179" borderId="226" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="180" borderId="227" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="181" borderId="228" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="182" borderId="229" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="183" borderId="230" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="184" borderId="231" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="185" borderId="232" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="186" borderId="233" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="187" borderId="234" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="188" borderId="235" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="189" borderId="236" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="190" borderId="237" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="191" borderId="238" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="192" borderId="239" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="193" borderId="240" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="194" borderId="241" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="195" borderId="242" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="196" borderId="243" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="197" borderId="244" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="198" borderId="245" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="199" borderId="246" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="200" borderId="247" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="201" borderId="248" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="202" borderId="249" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="203" borderId="250" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="204" borderId="251" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="205" borderId="252" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="206" borderId="253" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="207" borderId="254" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="208" borderId="255" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="209" borderId="256" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="210" borderId="257" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="211" borderId="258" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="212" borderId="259" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="213" borderId="260" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="214" borderId="261" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="215" borderId="262" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="216" borderId="263" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="217" borderId="264" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="218" borderId="265" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="219" borderId="266" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="220" borderId="267" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="221" borderId="268" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="222" borderId="269" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="223" borderId="270" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="224" borderId="271" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="225" borderId="272" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="226" borderId="273" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="227" borderId="274" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="228" borderId="275" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="229" borderId="276" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="230" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7691,7 +8343,7 @@
   <dimension ref="B2:J62"/>
   <sheetViews>
     <sheetView topLeftCell="H13" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7705,8 +8357,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="H2" s="240" t="s">
-        <v>595</v>
+      <c r="H2" s="238" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
@@ -7720,162 +8372,162 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>
-      <c r="H6" s="236" t="s">
+      <c r="H6" s="234" t="s">
+        <v>604</v>
+      </c>
+      <c r="I6" s="234"/>
+      <c r="J6" s="234" t="s">
         <v>605</v>
-      </c>
-      <c r="I6" s="236"/>
-      <c r="J6" s="236" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="12"/>
-      <c r="H7" s="237" t="s">
-        <v>491</v>
-      </c>
-      <c r="I7" s="236" t="s">
+      <c r="H7" s="235" t="s">
+        <v>490</v>
+      </c>
+      <c r="I7" s="234" t="s">
         <v>286</v>
       </c>
-      <c r="J7" s="236" t="s">
+      <c r="J7" s="234" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
-      <c r="H8" s="238" t="s">
-        <v>492</v>
-      </c>
-      <c r="I8" s="236" t="s">
+      <c r="H8" s="236" t="s">
+        <v>491</v>
+      </c>
+      <c r="I8" s="234" t="s">
         <v>287</v>
       </c>
-      <c r="J8" s="236" t="s">
+      <c r="J8" s="234" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="24"/>
-      <c r="H9" s="238" t="s">
-        <v>493</v>
-      </c>
-      <c r="I9" s="236" t="s">
+      <c r="H9" s="236" t="s">
+        <v>492</v>
+      </c>
+      <c r="I9" s="234" t="s">
         <v>288</v>
       </c>
-      <c r="J9" s="236" t="s">
+      <c r="J9" s="234" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="13"/>
-      <c r="H10" s="236"/>
-      <c r="I10" s="239" t="s">
+      <c r="H10" s="234"/>
+      <c r="I10" s="237" t="s">
         <v>295</v>
       </c>
-      <c r="J10" s="236" t="s">
+      <c r="J10" s="234" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="14"/>
-      <c r="H11" s="236" t="s">
-        <v>494</v>
-      </c>
-      <c r="I11" s="236"/>
-      <c r="J11" s="239" t="s">
-        <v>445</v>
+      <c r="H11" s="234" t="s">
+        <v>493</v>
+      </c>
+      <c r="I11" s="234"/>
+      <c r="J11" s="237" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="25"/>
-      <c r="H12" s="236" t="s">
+      <c r="H12" s="234" t="s">
+        <v>494</v>
+      </c>
+      <c r="I12" s="234"/>
+      <c r="J12" s="234" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="77"/>
+      <c r="H13" s="234" t="s">
         <v>495</v>
       </c>
-      <c r="I12" s="236"/>
-      <c r="J12" s="236" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="79"/>
-      <c r="H13" s="236" t="s">
+      <c r="I13" s="234"/>
+      <c r="J13" s="234" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="77"/>
+      <c r="H14" s="234" t="s">
         <v>496</v>
       </c>
-      <c r="I13" s="236"/>
-      <c r="J13" s="236" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="79"/>
-      <c r="H14" s="236" t="s">
+      <c r="I14" s="234"/>
+      <c r="J14" s="234" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="77"/>
+      <c r="H15" s="234" t="s">
         <v>497</v>
       </c>
-      <c r="I14" s="236"/>
-      <c r="J14" s="236" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="79"/>
-      <c r="H15" s="236" t="s">
+      <c r="I15" s="234"/>
+      <c r="J15" s="234" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="77"/>
+      <c r="H16" s="234" t="s">
         <v>498</v>
       </c>
-      <c r="I15" s="236"/>
-      <c r="J15" s="236" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="79"/>
-      <c r="H16" s="236" t="s">
+      <c r="I16" s="234"/>
+      <c r="J16" s="234" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="77"/>
+      <c r="H17" s="234" t="s">
         <v>499</v>
       </c>
-      <c r="I16" s="236"/>
-      <c r="J16" s="236" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="79"/>
-      <c r="H17" s="236" t="s">
+      <c r="I17" s="234"/>
+      <c r="J17" s="234" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="77"/>
+      <c r="H18" s="234" t="s">
         <v>500</v>
       </c>
-      <c r="I17" s="236"/>
-      <c r="J17" s="236" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="79"/>
-      <c r="H18" s="236" t="s">
-        <v>501</v>
-      </c>
-      <c r="I18" s="236"/>
-      <c r="J18" s="236" t="s">
-        <v>440</v>
+      <c r="I18" s="234"/>
+      <c r="J18" s="234" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="15"/>
-      <c r="H19" s="236" t="s">
-        <v>502</v>
-      </c>
-      <c r="I19" s="236"/>
-      <c r="J19" s="236" t="s">
+      <c r="H19" s="234" t="s">
+        <v>501</v>
+      </c>
+      <c r="I19" s="234"/>
+      <c r="J19" s="234" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="26"/>
-      <c r="H20" s="236" t="s">
-        <v>503</v>
-      </c>
-      <c r="I20" s="236"/>
-      <c r="J20" s="236" t="s">
+      <c r="H20" s="234" t="s">
+        <v>502</v>
+      </c>
+      <c r="I20" s="234"/>
+      <c r="J20" s="234" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="79"/>
+      <c r="B21" s="77"/>
       <c r="H21" s="50"/>
       <c r="I21" s="50"/>
       <c r="J21" s="50"/>
@@ -7895,12 +8547,12 @@
         <v>290</v>
       </c>
       <c r="J23" s="57" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="29"/>
-      <c r="H24" s="303">
+      <c r="H24" s="332">
         <v>96501</v>
       </c>
       <c r="I24" s="62">
@@ -7910,7 +8562,7 @@
     </row>
     <row r="25" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="58"/>
-      <c r="H25" s="303"/>
+      <c r="H25" s="332"/>
       <c r="I25" s="62">
         <v>44566</v>
       </c>
@@ -7918,63 +8570,63 @@
     </row>
     <row r="26" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="58"/>
-      <c r="H26" s="303"/>
-      <c r="I26" s="144">
+      <c r="H26" s="332"/>
+      <c r="I26" s="142">
         <v>44604</v>
       </c>
       <c r="J26" s="55"/>
     </row>
     <row r="27" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="63"/>
-      <c r="H27" s="303"/>
+      <c r="H27" s="332"/>
       <c r="I27" s="64"/>
       <c r="J27" s="55"/>
     </row>
     <row r="28" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="63"/>
-      <c r="H28" s="303"/>
+      <c r="H28" s="332"/>
       <c r="I28" s="64"/>
       <c r="J28" s="55"/>
     </row>
     <row r="29" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="58"/>
-      <c r="H29" s="303"/>
+      <c r="H29" s="332"/>
       <c r="I29" s="64"/>
       <c r="J29" s="55"/>
     </row>
     <row r="30" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="16"/>
-      <c r="H30" s="302"/>
+      <c r="H30" s="331"/>
       <c r="I30" s="55"/>
       <c r="J30" s="55"/>
     </row>
     <row r="31" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="17"/>
-      <c r="H31" s="302"/>
+      <c r="H31" s="331"/>
       <c r="I31" s="55"/>
       <c r="J31" s="55"/>
     </row>
     <row r="32" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="18"/>
-      <c r="H32" s="302"/>
+      <c r="H32" s="331"/>
       <c r="I32" s="55"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="19"/>
-      <c r="H33" s="302"/>
+      <c r="H33" s="331"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="20"/>
-      <c r="H34" s="302"/>
+      <c r="H34" s="331"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="21"/>
-      <c r="H35" s="302"/>
+      <c r="H35" s="331"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
@@ -7986,96 +8638,96 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="31"/>
-      <c r="E38" s="304" t="s">
-        <v>505</v>
+      <c r="E38" s="333" t="s">
+        <v>504</v>
       </c>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="32"/>
-      <c r="E39" s="304"/>
-      <c r="F39" s="105" t="s">
+      <c r="E39" s="333"/>
+      <c r="F39" s="103" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="33"/>
-      <c r="E40" s="304"/>
-      <c r="F40" s="105" t="s">
+      <c r="E40" s="333"/>
+      <c r="F40" s="103" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="34"/>
-      <c r="E41" s="304"/>
-      <c r="F41" s="105" t="s">
+      <c r="E41" s="333"/>
+      <c r="F41" s="103" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="35"/>
-      <c r="E42" s="304"/>
-      <c r="F42" s="105" t="s">
+      <c r="E42" s="333"/>
+      <c r="F42" s="103" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="E43" s="304"/>
-      <c r="F43" s="105" t="s">
+      <c r="E43" s="333"/>
+      <c r="F43" s="103" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="36"/>
-      <c r="E44" s="304"/>
-      <c r="F44" s="105" t="s">
+      <c r="E44" s="333"/>
+      <c r="F44" s="103" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="37"/>
-      <c r="E45" s="304"/>
-      <c r="F45" s="105" t="s">
+      <c r="E45" s="333"/>
+      <c r="F45" s="103" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="38"/>
-      <c r="E46" s="304"/>
-      <c r="F46" s="105" t="s">
+      <c r="E46" s="333"/>
+      <c r="F46" s="103" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="39"/>
-      <c r="E47" s="304"/>
-      <c r="F47" s="105" t="s">
+      <c r="E47" s="333"/>
+      <c r="F47" s="103" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="40"/>
-      <c r="E48" s="304"/>
-      <c r="F48" s="105" t="s">
+      <c r="E48" s="333"/>
+      <c r="F48" s="103" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E49" s="304"/>
-      <c r="F49" s="105" t="s">
+      <c r="E49" s="333"/>
+      <c r="F49" s="103" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E50" s="304"/>
-      <c r="F50" s="105" t="s">
+      <c r="E50" s="333"/>
+      <c r="F50" s="103" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="41"/>
-      <c r="E51" s="304"/>
-      <c r="F51" s="106" t="s">
+      <c r="E51" s="333"/>
+      <c r="F51" s="104" t="s">
         <v>251</v>
       </c>
     </row>
@@ -8158,15 +8810,15 @@
         <v>339</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>348</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>607</v>
-      </c>
-      <c r="F2" s="241" t="s">
+        <v>606</v>
+      </c>
+      <c r="F2" s="239" t="s">
         <v>349</v>
       </c>
     </row>
@@ -8184,9 +8836,9 @@
         <v>348</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>608</v>
-      </c>
-      <c r="F3" s="242" t="s">
+        <v>607</v>
+      </c>
+      <c r="F3" s="240" t="s">
         <v>349</v>
       </c>
     </row>
@@ -8204,7 +8856,7 @@
       <c r="E4" s="49" t="s">
         <v>335</v>
       </c>
-      <c r="F4" s="243" t="s">
+      <c r="F4" s="241" t="s">
         <v>350</v>
       </c>
     </row>
@@ -8224,7 +8876,7 @@
       <c r="E5" s="49" t="s">
         <v>335</v>
       </c>
-      <c r="F5" s="244" t="s">
+      <c r="F5" s="242" t="s">
         <v>351</v>
       </c>
     </row>
@@ -8244,7 +8896,7 @@
       <c r="E6" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="F6" s="245" t="s">
+      <c r="F6" s="243" t="s">
         <v>351</v>
       </c>
     </row>
@@ -8264,7 +8916,7 @@
       <c r="E7" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="F7" s="246" t="s">
+      <c r="F7" s="244" t="s">
         <v>352</v>
       </c>
     </row>
@@ -8284,7 +8936,7 @@
       <c r="E8" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="F8" s="247" t="s">
+      <c r="F8" s="245" t="s">
         <v>353</v>
       </c>
     </row>
@@ -8304,7 +8956,7 @@
       <c r="E9" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="F9" s="248" t="s">
+      <c r="F9" s="246" t="s">
         <v>353</v>
       </c>
     </row>
@@ -8332,7 +8984,7 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF92D050"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:I23"/>
   <sheetViews>
@@ -8374,7 +9026,7 @@
       <c r="H1" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="I1" s="266" t="s">
+      <c r="I1" s="264" t="s">
         <v>5</v>
       </c>
     </row>
@@ -8400,10 +9052,10 @@
       <c r="G2" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="H2" s="261" t="s">
-        <v>622</v>
-      </c>
-      <c r="I2" s="281" t="s">
+      <c r="H2" s="259" t="s">
+        <v>615</v>
+      </c>
+      <c r="I2" s="272" t="s">
         <v>349</v>
       </c>
     </row>
@@ -8412,7 +9064,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>335</v>
@@ -8429,10 +9081,10 @@
       <c r="G3" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="H3" s="261" t="s">
-        <v>623</v>
-      </c>
-      <c r="I3" s="282" t="s">
+      <c r="H3" s="259" t="s">
+        <v>616</v>
+      </c>
+      <c r="I3" s="273" t="s">
         <v>349</v>
       </c>
     </row>
@@ -8458,10 +9110,10 @@
       <c r="G4" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="H4" s="261" t="s">
-        <v>624</v>
-      </c>
-      <c r="I4" s="283" t="s">
+      <c r="H4" s="259" t="s">
+        <v>617</v>
+      </c>
+      <c r="I4" s="274" t="s">
         <v>349</v>
       </c>
     </row>
@@ -8487,10 +9139,10 @@
       <c r="G5" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="H5" s="262" t="s">
-        <v>622</v>
-      </c>
-      <c r="I5" s="284" t="s">
+      <c r="H5" s="260" t="s">
+        <v>615</v>
+      </c>
+      <c r="I5" s="275" t="s">
         <v>349</v>
       </c>
     </row>
@@ -8516,10 +9168,10 @@
       <c r="G6" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="H6" s="262" t="s">
-        <v>625</v>
-      </c>
-      <c r="I6" s="285" t="s">
+      <c r="H6" s="260" t="s">
+        <v>618</v>
+      </c>
+      <c r="I6" s="276" t="s">
         <v>349</v>
       </c>
     </row>
@@ -8545,10 +9197,10 @@
       <c r="G7" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="H7" s="262" t="s">
-        <v>616</v>
-      </c>
-      <c r="I7" s="286" t="s">
+      <c r="H7" s="260" t="s">
+        <v>610</v>
+      </c>
+      <c r="I7" s="277" t="s">
         <v>349</v>
       </c>
     </row>
@@ -8574,10 +9226,10 @@
       <c r="G8" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="H8" s="262" t="s">
-        <v>626</v>
-      </c>
-      <c r="I8" s="287" t="s">
+      <c r="H8" s="260" t="s">
+        <v>619</v>
+      </c>
+      <c r="I8" s="278" t="s">
         <v>349</v>
       </c>
     </row>
@@ -8591,7 +9243,7 @@
       <c r="C9" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D9" s="144" t="s">
+      <c r="D9" s="142" t="s">
         <v>335</v>
       </c>
       <c r="E9" s="1">
@@ -8601,10 +9253,10 @@
       <c r="G9" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="H9" s="262" t="s">
-        <v>627</v>
-      </c>
-      <c r="I9" s="288" t="s">
+      <c r="H9" s="260" t="s">
+        <v>620</v>
+      </c>
+      <c r="I9" s="279" t="s">
         <v>349</v>
       </c>
     </row>
@@ -8628,10 +9280,10 @@
       <c r="G10" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="H10" s="263" t="s">
-        <v>600</v>
-      </c>
-      <c r="I10" s="289" t="s">
+      <c r="H10" s="261" t="s">
+        <v>599</v>
+      </c>
+      <c r="I10" s="280" t="s">
         <v>353</v>
       </c>
     </row>
@@ -8657,10 +9309,10 @@
       <c r="G11" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H11" s="264" t="s">
-        <v>600</v>
-      </c>
-      <c r="I11" s="291" t="s">
+      <c r="H11" s="262" t="s">
+        <v>599</v>
+      </c>
+      <c r="I11" s="281" t="s">
         <v>353</v>
       </c>
     </row>
@@ -8686,10 +9338,10 @@
       <c r="G12" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H12" s="264" t="s">
-        <v>600</v>
-      </c>
-      <c r="I12" s="292" t="s">
+      <c r="H12" s="262" t="s">
+        <v>599</v>
+      </c>
+      <c r="I12" s="282" t="s">
         <v>353</v>
       </c>
     </row>
@@ -8715,10 +9367,10 @@
       <c r="G13" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H13" s="264" t="s">
-        <v>600</v>
-      </c>
-      <c r="I13" s="293" t="s">
+      <c r="H13" s="262" t="s">
+        <v>599</v>
+      </c>
+      <c r="I13" s="283" t="s">
         <v>353</v>
       </c>
     </row>
@@ -8744,10 +9396,10 @@
       <c r="G14" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="H14" s="264" t="s">
-        <v>600</v>
-      </c>
-      <c r="I14" s="294" t="s">
+      <c r="H14" s="262" t="s">
+        <v>599</v>
+      </c>
+      <c r="I14" s="284" t="s">
         <v>353</v>
       </c>
     </row>
@@ -8773,10 +9425,10 @@
       <c r="G15" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="H15" s="265" t="s">
-        <v>600</v>
-      </c>
-      <c r="I15" s="295" t="s">
+      <c r="H15" s="263" t="s">
+        <v>599</v>
+      </c>
+      <c r="I15" s="285" t="s">
         <v>353</v>
       </c>
     </row>
@@ -8800,11 +9452,11 @@
       <c r="G16" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="H16" s="262" t="s">
-        <v>600</v>
-      </c>
-      <c r="I16" s="296" t="s">
-        <v>628</v>
+      <c r="H16" s="260" t="s">
+        <v>599</v>
+      </c>
+      <c r="I16" s="286" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -8829,11 +9481,11 @@
       <c r="G17" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H17" s="262" t="s">
-        <v>600</v>
-      </c>
-      <c r="I17" s="297" t="s">
-        <v>628</v>
+      <c r="H17" s="260" t="s">
+        <v>599</v>
+      </c>
+      <c r="I17" s="287" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -8858,11 +9510,11 @@
       <c r="G18" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H18" s="262" t="s">
-        <v>600</v>
-      </c>
-      <c r="I18" s="298" t="s">
-        <v>629</v>
+      <c r="H18" s="260" t="s">
+        <v>599</v>
+      </c>
+      <c r="I18" s="291" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -8887,11 +9539,11 @@
       <c r="G19" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H19" s="262" t="s">
-        <v>600</v>
-      </c>
-      <c r="I19" s="299" t="s">
-        <v>628</v>
+      <c r="H19" s="260" t="s">
+        <v>599</v>
+      </c>
+      <c r="I19" s="288" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -8908,10 +9560,10 @@
       <c r="G20" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="H20" s="262" t="s">
-        <v>600</v>
-      </c>
-      <c r="I20" s="300" t="s">
+      <c r="H20" s="260" t="s">
+        <v>599</v>
+      </c>
+      <c r="I20" s="289" t="s">
         <v>353</v>
       </c>
     </row>
@@ -8937,11 +9589,11 @@
       <c r="G21" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="H21" s="262" t="s">
-        <v>600</v>
-      </c>
-      <c r="I21" s="301" t="s">
-        <v>630</v>
+      <c r="H21" s="260" t="s">
+        <v>599</v>
+      </c>
+      <c r="I21" s="290" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -8976,10 +9628,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8988,7 +9640,7 @@
     <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="133.5546875" style="73" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="38.88671875" style="71" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -9010,7 +9662,7 @@
       <c r="F1" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="69" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -9024,18 +9676,24 @@
       <c r="B2" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
+      <c r="C2" s="72">
+        <v>45017</v>
+      </c>
+      <c r="D2" s="72">
+        <v>45024</v>
+      </c>
       <c r="E2" s="1">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G2" s="70" t="s">
-        <v>427</v>
-      </c>
-      <c r="H2" s="1"/>
+        <v>422</v>
+      </c>
+      <c r="G2" s="293" t="s">
+        <v>426</v>
+      </c>
+      <c r="H2" s="304" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -9044,529 +9702,632 @@
       <c r="B3" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
+      <c r="C3" s="72">
+        <v>45018</v>
+      </c>
+      <c r="D3" s="72">
+        <v>45023</v>
+      </c>
       <c r="E3" s="1">
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G3" s="70" t="s">
-        <v>427</v>
-      </c>
-      <c r="H3" s="1"/>
+        <v>422</v>
+      </c>
+      <c r="G3" s="293" t="s">
+        <v>426</v>
+      </c>
+      <c r="H3" s="305" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C4" s="1">
-        <v>12345</v>
-      </c>
-      <c r="D4" s="1">
-        <v>12345</v>
+      <c r="B4" s="66" t="s">
+        <v>379</v>
+      </c>
+      <c r="C4" s="72">
+        <v>45019</v>
+      </c>
+      <c r="D4" s="72">
+        <v>45022</v>
       </c>
       <c r="E4" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="G4" s="72" t="s">
-        <v>400</v>
-      </c>
-      <c r="H4" s="1"/>
+        <v>345</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>426</v>
+      </c>
+      <c r="H4" s="306" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1">
-        <v>12345</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G5" t="s">
-        <v>429</v>
-      </c>
-      <c r="H5" s="1"/>
+      <c r="B5" s="66" t="s">
+        <v>380</v>
+      </c>
+      <c r="C5" s="72">
+        <v>45020</v>
+      </c>
+      <c r="D5" s="72">
+        <v>45021</v>
+      </c>
+      <c r="E5" s="1">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1">
+        <v>908</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>426</v>
+      </c>
+      <c r="H5" s="307" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D6" s="1">
-        <v>12345</v>
-      </c>
-      <c r="E6" s="1"/>
+      <c r="B6" s="66" t="s">
+        <v>381</v>
+      </c>
+      <c r="C6" s="72">
+        <v>45021</v>
+      </c>
+      <c r="D6" s="72">
+        <v>45020</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
       <c r="F6" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H6" s="1"/>
+        <v>432</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>426</v>
+      </c>
+      <c r="H6" s="308" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D7" s="1">
-        <v>12345</v>
-      </c>
-      <c r="E7" s="1"/>
+      <c r="B7" s="66" t="s">
+        <v>427</v>
+      </c>
+      <c r="C7" s="72">
+        <v>45022</v>
+      </c>
+      <c r="D7" s="72">
+        <v>45019</v>
+      </c>
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
       <c r="F7" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H7" s="1"/>
+        <v>431</v>
+      </c>
+      <c r="G7" s="70" t="s">
+        <v>426</v>
+      </c>
+      <c r="H7" s="309" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D8" s="1">
-        <v>12345</v>
-      </c>
-      <c r="E8" s="1"/>
+      <c r="B8" s="66" t="s">
+        <v>625</v>
+      </c>
+      <c r="C8" s="72">
+        <v>45023</v>
+      </c>
+      <c r="D8" s="72">
+        <v>45018</v>
+      </c>
+      <c r="E8" s="1">
+        <v>10</v>
+      </c>
       <c r="F8" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H8" s="1"/>
+        <v>626</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>426</v>
+      </c>
+      <c r="H8" s="310" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C9" s="1">
-        <v>98765</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="B9" s="66" t="s">
+        <v>424</v>
+      </c>
+      <c r="C9" s="72">
+        <v>45024</v>
+      </c>
+      <c r="D9" s="72">
+        <v>45017</v>
+      </c>
+      <c r="E9" s="1">
+        <v>99999999</v>
+      </c>
       <c r="F9" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G9" s="72" t="s">
-        <v>419</v>
-      </c>
-      <c r="H9" s="1"/>
+        <v>422</v>
+      </c>
+      <c r="G9" s="70" t="s">
+        <v>425</v>
+      </c>
+      <c r="H9" s="311" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="C10" s="1">
-        <v>39946</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+        <v>12345</v>
+      </c>
+      <c r="D10" s="1">
+        <v>12345</v>
+      </c>
+      <c r="E10" s="1">
+        <v>10</v>
+      </c>
       <c r="F10" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G10" s="72" t="s">
-        <v>422</v>
-      </c>
-      <c r="H10" s="1"/>
+        <v>433</v>
+      </c>
+      <c r="G10" s="70" t="s">
+        <v>400</v>
+      </c>
+      <c r="H10" s="312" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C11" s="1">
+        <v>403</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
         <v>12345</v>
       </c>
-      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G11" t="s">
-        <v>430</v>
-      </c>
-      <c r="H11" s="1"/>
+        <v>422</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="H11" s="313" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C12" s="1">
+        <v>404</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D12" s="1">
         <v>12345</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G12" t="s">
+        <v>422</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="314" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C13" s="1">
+        <v>405</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D13" s="1">
         <v>12345</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G13" t="s">
+        <v>422</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="315" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C14" s="1">
+        <v>624</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D14" s="1">
         <v>12345</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>421</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G14" t="s">
+        <v>422</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="316" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1">
+        <v>406</v>
+      </c>
+      <c r="C15" s="1">
         <v>98765</v>
       </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G15" s="72" t="s">
-        <v>419</v>
-      </c>
-      <c r="H15" s="1"/>
+        <v>422</v>
+      </c>
+      <c r="G15" s="70" t="s">
+        <v>418</v>
+      </c>
+      <c r="H15" s="317" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1">
+        <v>407</v>
+      </c>
+      <c r="C16" s="1">
         <v>39946</v>
       </c>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G16" s="72" t="s">
         <v>422</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="G16" s="70" t="s">
+        <v>421</v>
+      </c>
+      <c r="H16" s="318" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="66" t="s">
-        <v>372</v>
+      <c r="B17" s="1" t="s">
+        <v>408</v>
       </c>
       <c r="C17" s="1">
         <v>12345</v>
       </c>
-      <c r="D17" s="1">
-        <v>12345</v>
-      </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G17" s="73" t="s">
-        <v>376</v>
-      </c>
-      <c r="H17" s="1"/>
+        <v>422</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H17" s="319" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="66" t="s">
-        <v>373</v>
+      <c r="B18" s="1" t="s">
+        <v>409</v>
       </c>
       <c r="C18" s="1">
         <v>12345</v>
       </c>
-      <c r="D18" s="1">
-        <v>12345</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>420</v>
-      </c>
+      <c r="D18" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G18" s="73" t="s">
+        <v>422</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="320" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="66" t="s">
-        <v>374</v>
+      <c r="B19" s="1" t="s">
+        <v>410</v>
       </c>
       <c r="C19" s="1">
         <v>12345</v>
       </c>
-      <c r="D19" s="1">
-        <v>12345</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>355</v>
-      </c>
+      <c r="D19" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G19" s="73" t="s">
+        <v>422</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="321" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="66" t="s">
-        <v>375</v>
+      <c r="B20" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="C20" s="1">
         <v>12345</v>
       </c>
-      <c r="D20" s="1">
-        <v>12345</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>424</v>
-      </c>
+      <c r="D20" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G20" s="73" t="s">
+        <v>422</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="322" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="66" t="s">
-        <v>425</v>
+      <c r="B21" s="1" t="s">
+        <v>412</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1">
-        <v>99999999</v>
-      </c>
+      <c r="D21" s="1">
+        <v>98765</v>
+      </c>
+      <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G21" s="72" t="s">
-        <v>426</v>
-      </c>
-      <c r="H21" s="1"/>
+        <v>422</v>
+      </c>
+      <c r="G21" s="70" t="s">
+        <v>418</v>
+      </c>
+      <c r="H21" s="323" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="66" t="s">
-        <v>377</v>
-      </c>
-      <c r="C22" s="1">
-        <v>12345</v>
-      </c>
+      <c r="B22" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="1">
-        <v>12345</v>
-      </c>
-      <c r="E22" s="1">
-        <v>10</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="73" t="s">
-        <v>378</v>
-      </c>
-      <c r="H22" s="1"/>
+        <v>39946</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G22" s="70" t="s">
+        <v>421</v>
+      </c>
+      <c r="H22" s="324" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="66" t="s">
-        <v>379</v>
-      </c>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="C23" s="1">
+        <v>12345</v>
+      </c>
+      <c r="D23" s="1">
+        <v>12345</v>
+      </c>
+      <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="G23" s="72" t="s">
-        <v>427</v>
-      </c>
-      <c r="H23" s="1"/>
+        <v>422</v>
+      </c>
+      <c r="G23" s="70" t="s">
+        <v>376</v>
+      </c>
+      <c r="H23" s="325" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="66" t="s">
-        <v>380</v>
-      </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>908</v>
-      </c>
-      <c r="G24" s="72" t="s">
-        <v>427</v>
-      </c>
-      <c r="H24" s="1"/>
+        <v>373</v>
+      </c>
+      <c r="C24" s="1">
+        <v>12345</v>
+      </c>
+      <c r="D24" s="1">
+        <v>12345</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G24" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="H24" s="326" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="66" t="s">
-        <v>381</v>
-      </c>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="1">
-        <v>1</v>
+        <v>374</v>
+      </c>
+      <c r="C25" s="1">
+        <v>12345</v>
+      </c>
+      <c r="D25" s="1">
+        <v>12345</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="G25" s="72" t="s">
-        <v>427</v>
-      </c>
-      <c r="H25" s="1"/>
+        <v>422</v>
+      </c>
+      <c r="G25" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="H25" s="327" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="66" t="s">
-        <v>428</v>
-      </c>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="1">
-        <v>1</v>
+        <v>375</v>
+      </c>
+      <c r="C26" s="1">
+        <v>12345</v>
+      </c>
+      <c r="D26" s="1">
+        <v>12345</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>423</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="G26" s="72" t="s">
-        <v>427</v>
-      </c>
-      <c r="H26" s="1"/>
+        <v>422</v>
+      </c>
+      <c r="G26" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" s="328" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="66" t="s">
-        <v>415</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+        <v>377</v>
+      </c>
+      <c r="C27" s="1">
+        <v>12345</v>
+      </c>
+      <c r="D27" s="1">
+        <v>456789</v>
+      </c>
+      <c r="E27" s="1">
+        <v>10</v>
+      </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="72" t="s">
-        <v>431</v>
-      </c>
-      <c r="H27" s="1"/>
+      <c r="G27" s="70" t="s">
+        <v>378</v>
+      </c>
+      <c r="H27" s="329" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="69"/>
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="66" t="s">
+        <v>414</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="70" t="s">
+        <v>430</v>
+      </c>
+      <c r="H28" s="330" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="292"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="294"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9615,7 +10376,7 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -9628,7 +10389,7 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -9651,7 +10412,7 @@
         <v>341</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>126</v>
@@ -9749,16 +10510,16 @@
         <v>321</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>457</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>458</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>15</v>
@@ -9780,7 +10541,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -9797,7 +10558,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -9824,7 +10585,7 @@
         <v>341</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -9916,7 +10677,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -9924,7 +10685,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I10" s="1"/>
     </row>
@@ -9933,7 +10694,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -9941,7 +10702,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -9950,7 +10711,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -9958,7 +10719,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I12" s="1"/>
     </row>
@@ -9967,7 +10728,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="66" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -9975,7 +10736,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I13" s="1"/>
     </row>
@@ -9984,7 +10745,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="66" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -9992,7 +10753,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I14" s="1"/>
     </row>
@@ -10001,7 +10762,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="66" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -10018,7 +10779,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="66" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -10035,7 +10796,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="66" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -10052,7 +10813,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="66" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -10060,7 +10821,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I18" s="1"/>
     </row>
@@ -10069,7 +10830,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="66" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -10077,7 +10838,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I19" s="1"/>
     </row>
@@ -10086,7 +10847,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -10103,7 +10864,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -10120,7 +10881,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="66" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -10137,7 +10898,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="66" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -10145,13 +10906,243 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DEDB03B-A773-4874-89A6-6F3D5DF617D7}">
+  <dimension ref="F2:L10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F2" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="3" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F3" s="72">
+        <v>45017</v>
+      </c>
+      <c r="G3" s="72">
+        <v>45024</v>
+      </c>
+      <c r="H3" s="334">
+        <v>980</v>
+      </c>
+      <c r="I3" s="334">
+        <v>510</v>
+      </c>
+      <c r="J3" s="1">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <f>H3-J3</f>
+        <v>970</v>
+      </c>
+      <c r="L3">
+        <f>I3+J3</f>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="4" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F4" s="72">
+        <v>45018</v>
+      </c>
+      <c r="G4" s="72">
+        <v>45023</v>
+      </c>
+      <c r="H4" s="334">
+        <v>480</v>
+      </c>
+      <c r="I4" s="334">
+        <v>510</v>
+      </c>
+      <c r="J4" s="1">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K10" si="0">H4-J4</f>
+        <v>460</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L10" si="1">I4+J4</f>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="5" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F5" s="72">
+        <v>45019</v>
+      </c>
+      <c r="G5" s="72">
+        <v>45022</v>
+      </c>
+      <c r="H5" s="334">
+        <v>5979</v>
+      </c>
+      <c r="I5" s="334">
+        <v>1329</v>
+      </c>
+      <c r="J5" s="1">
+        <v>30</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>5949</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="6" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F6" s="72">
+        <v>45020</v>
+      </c>
+      <c r="G6" s="72">
+        <v>45021</v>
+      </c>
+      <c r="H6" s="334">
+        <v>4579</v>
+      </c>
+      <c r="I6" s="334">
+        <v>1139</v>
+      </c>
+      <c r="J6" s="1">
+        <v>40</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>4539</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="7" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F7" s="72">
+        <v>45021</v>
+      </c>
+      <c r="G7" s="72">
+        <v>45020</v>
+      </c>
+      <c r="H7" s="334">
+        <v>1189</v>
+      </c>
+      <c r="I7" s="334"/>
+      <c r="J7" s="1">
+        <v>50</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>1139</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F8" s="72">
+        <v>45022</v>
+      </c>
+      <c r="G8" s="72">
+        <v>45019</v>
+      </c>
+      <c r="H8" s="334">
+        <v>1389</v>
+      </c>
+      <c r="I8" s="334"/>
+      <c r="J8" s="1">
+        <v>60</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>1329</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F9" s="72">
+        <v>45023</v>
+      </c>
+      <c r="G9" s="72">
+        <v>45018</v>
+      </c>
+      <c r="H9" s="334">
+        <v>580</v>
+      </c>
+      <c r="I9" s="334"/>
+      <c r="J9" s="1">
+        <v>70</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>510</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="F10" s="72">
+        <v>45024</v>
+      </c>
+      <c r="G10" s="72">
+        <v>45017</v>
+      </c>
+      <c r="H10" s="334">
+        <v>510</v>
+      </c>
+      <c r="I10" s="334"/>
+      <c r="J10" s="1">
+        <v>99999999</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>-99999489</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>99999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -10207,19 +11198,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>478</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="290" t="s">
-        <v>481</v>
+      <c r="G2" s="303" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -10230,7 +11221,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -10239,10 +11230,10 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="G3" s="82" t="s">
-        <v>482</v>
+        <v>479</v>
+      </c>
+      <c r="G3" s="80" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -10253,19 +11244,19 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="G4" s="83" t="s">
-        <v>482</v>
+        <v>479</v>
+      </c>
+      <c r="G4" s="81" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -10276,7 +11267,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -10285,10 +11276,10 @@
         <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="G5" s="84" t="s">
-        <v>482</v>
+        <v>479</v>
+      </c>
+      <c r="G5" s="82" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -10299,7 +11290,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="4" t="s">
@@ -10308,8 +11299,8 @@
       <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="85" t="s">
-        <v>483</v>
+      <c r="G6" s="83" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -10320,17 +11311,17 @@
         <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="86" t="s">
-        <v>484</v>
+      <c r="G7" s="84" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -10341,15 +11332,15 @@
         <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="87" t="s">
-        <v>485</v>
+      <c r="G8" s="85" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -10360,36 +11351,36 @@
         <v>336</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>478</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="G9" s="88" t="s">
-        <v>486</v>
+      <c r="G9" s="86" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C10" s="81"/>
+      <c r="C10" s="79"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C11" s="81"/>
+      <c r="C11" s="79"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C12" s="81"/>
+      <c r="C12" s="79"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C13" s="81"/>
+      <c r="C13" s="79"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10502,7 +11493,7 @@
         <v>7771232345</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>110</v>
@@ -10510,11 +11501,11 @@
       <c r="M2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N2" s="150" t="s">
-        <v>521</v>
-      </c>
-      <c r="O2" s="150" t="s">
+      <c r="N2" s="148" t="s">
         <v>520</v>
+      </c>
+      <c r="O2" s="148" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -10549,7 +11540,7 @@
         <v>7778907689</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>110</v>
@@ -10557,11 +11548,11 @@
       <c r="M3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N3" s="151" t="s">
-        <v>562</v>
-      </c>
-      <c r="O3" s="151" t="s">
-        <v>520</v>
+      <c r="N3" s="149" t="s">
+        <v>561</v>
+      </c>
+      <c r="O3" s="149" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -10596,7 +11587,7 @@
         <v>7771237890</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>110</v>
@@ -10604,11 +11595,11 @@
       <c r="M4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N4" s="152" t="s">
-        <v>563</v>
-      </c>
-      <c r="O4" s="152" t="s">
-        <v>520</v>
+      <c r="N4" s="150" t="s">
+        <v>562</v>
+      </c>
+      <c r="O4" s="150" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -10643,7 +11634,7 @@
         <v>4447895432</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>110</v>
@@ -10651,11 +11642,11 @@
       <c r="M5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N5" s="153" t="s">
-        <v>564</v>
-      </c>
-      <c r="O5" s="153" t="s">
-        <v>520</v>
+      <c r="N5" s="151" t="s">
+        <v>563</v>
+      </c>
+      <c r="O5" s="151" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -10688,7 +11679,7 @@
         <v>7779081234</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>110</v>
@@ -10696,11 +11687,11 @@
       <c r="M6" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N6" s="154" t="s">
-        <v>565</v>
-      </c>
-      <c r="O6" s="154" t="s">
-        <v>520</v>
+      <c r="N6" s="152" t="s">
+        <v>564</v>
+      </c>
+      <c r="O6" s="152" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -10735,7 +11726,7 @@
         <v>7771236789</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>110</v>
@@ -10743,11 +11734,11 @@
       <c r="M7" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N7" s="155" t="s">
-        <v>566</v>
-      </c>
-      <c r="O7" s="155" t="s">
-        <v>520</v>
+      <c r="N7" s="153" t="s">
+        <v>565</v>
+      </c>
+      <c r="O7" s="153" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -10782,7 +11773,7 @@
         <v>8786357718</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>110</v>
@@ -10790,11 +11781,11 @@
       <c r="M8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N8" s="156" t="s">
-        <v>567</v>
-      </c>
-      <c r="O8" s="156" t="s">
-        <v>520</v>
+      <c r="N8" s="154" t="s">
+        <v>566</v>
+      </c>
+      <c r="O8" s="154" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -10829,7 +11820,7 @@
         <v>4417657812</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>110</v>
@@ -10837,11 +11828,11 @@
       <c r="M9" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N9" s="197" t="s">
-        <v>589</v>
-      </c>
-      <c r="O9" s="197" t="s">
-        <v>520</v>
+      <c r="N9" s="195" t="s">
+        <v>588</v>
+      </c>
+      <c r="O9" s="195" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -10876,7 +11867,7 @@
         <v>5658901234</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>110</v>
@@ -10884,11 +11875,11 @@
       <c r="M10" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N10" s="157" t="s">
-        <v>568</v>
-      </c>
-      <c r="O10" s="157" t="s">
-        <v>520</v>
+      <c r="N10" s="155" t="s">
+        <v>567</v>
+      </c>
+      <c r="O10" s="155" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -10923,7 +11914,7 @@
         <v>8806785435</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>110</v>
@@ -10931,11 +11922,11 @@
       <c r="M11" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N11" s="158" t="s">
-        <v>569</v>
-      </c>
-      <c r="O11" s="158" t="s">
-        <v>520</v>
+      <c r="N11" s="156" t="s">
+        <v>568</v>
+      </c>
+      <c r="O11" s="156" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -10970,7 +11961,7 @@
         <v>2227658912</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>110</v>
@@ -10978,11 +11969,11 @@
       <c r="M12" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N12" s="159" t="s">
-        <v>570</v>
-      </c>
-      <c r="O12" s="159" t="s">
-        <v>520</v>
+      <c r="N12" s="157" t="s">
+        <v>569</v>
+      </c>
+      <c r="O12" s="157" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -11017,7 +12008,7 @@
         <v>7776528901</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>177</v>
@@ -11025,11 +12016,11 @@
       <c r="M13" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N13" s="160" t="s">
-        <v>571</v>
-      </c>
-      <c r="O13" s="160" t="s">
-        <v>520</v>
+      <c r="N13" s="158" t="s">
+        <v>570</v>
+      </c>
+      <c r="O13" s="158" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -11064,7 +12055,7 @@
         <v>90165328917</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>110</v>
@@ -11072,11 +12063,11 @@
       <c r="M14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N14" s="161" t="s">
-        <v>572</v>
-      </c>
-      <c r="O14" s="161" t="s">
-        <v>520</v>
+      <c r="N14" s="159" t="s">
+        <v>571</v>
+      </c>
+      <c r="O14" s="159" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -11111,7 +12102,7 @@
         <v>9992346781</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>178</v>
@@ -11119,11 +12110,11 @@
       <c r="M15" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N15" s="162" t="s">
-        <v>573</v>
-      </c>
-      <c r="O15" s="162" t="s">
-        <v>520</v>
+      <c r="N15" s="160" t="s">
+        <v>572</v>
+      </c>
+      <c r="O15" s="160" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -11158,7 +12149,7 @@
         <v>2226189271</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>179</v>
@@ -11166,11 +12157,11 @@
       <c r="M16" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N16" s="163" t="s">
-        <v>574</v>
-      </c>
-      <c r="O16" s="163" t="s">
-        <v>520</v>
+      <c r="N16" s="161" t="s">
+        <v>573</v>
+      </c>
+      <c r="O16" s="161" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -11205,19 +12196,19 @@
         <v>5557789012</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>110</v>
       </c>
       <c r="M17" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="N17" s="196" t="s">
+        <v>335</v>
+      </c>
+      <c r="O17" s="196" t="s">
         <v>590</v>
-      </c>
-      <c r="N17" s="198" t="s">
-        <v>335</v>
-      </c>
-      <c r="O17" s="198" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -11252,19 +12243,19 @@
         <v>1239872361</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>110</v>
       </c>
       <c r="M18" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="N18" s="197" t="s">
+        <v>335</v>
+      </c>
+      <c r="O18" s="197" t="s">
         <v>590</v>
-      </c>
-      <c r="N18" s="199" t="s">
-        <v>335</v>
-      </c>
-      <c r="O18" s="199" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -11297,7 +12288,7 @@
         <v>9991237890</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>110</v>
@@ -11305,11 +12296,11 @@
       <c r="M19" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N19" s="164" t="s">
+      <c r="N19" s="162" t="s">
         <v>335</v>
       </c>
-      <c r="O19" s="164" t="s">
-        <v>575</v>
+      <c r="O19" s="162" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -11344,7 +12335,7 @@
         <v>5556789087</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>110</v>
@@ -11352,11 +12343,11 @@
       <c r="M20" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N20" s="165" t="s">
+      <c r="N20" s="163" t="s">
         <v>335</v>
       </c>
-      <c r="O20" s="165" t="s">
-        <v>576</v>
+      <c r="O20" s="163" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -11391,7 +12382,7 @@
         <v>5554567897</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>110</v>
@@ -11399,11 +12390,11 @@
       <c r="M21" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N21" s="166" t="s">
+      <c r="N21" s="164" t="s">
         <v>335</v>
       </c>
-      <c r="O21" s="166" t="s">
-        <v>577</v>
+      <c r="O21" s="164" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -11438,7 +12429,7 @@
         <v>4448960786</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>110</v>
@@ -11446,10 +12437,10 @@
       <c r="M22" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N22" s="167" t="s">
+      <c r="N22" s="165" t="s">
         <v>335</v>
       </c>
-      <c r="O22" s="167" t="s">
+      <c r="O22" s="165" t="s">
         <v>352</v>
       </c>
     </row>
@@ -11483,7 +12474,7 @@
         <v>7776892313</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>110</v>
@@ -11491,11 +12482,11 @@
       <c r="M23" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="N23" s="168" t="s">
+      <c r="N23" s="166" t="s">
         <v>335</v>
       </c>
-      <c r="O23" s="168" t="s">
-        <v>578</v>
+      <c r="O23" s="166" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -11528,7 +12519,7 @@
         <v>2227657890</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>110</v>
@@ -11536,11 +12527,11 @@
       <c r="M24" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="N24" s="169" t="s">
+      <c r="N24" s="167" t="s">
         <v>335</v>
       </c>
-      <c r="O24" s="169" t="s">
-        <v>579</v>
+      <c r="O24" s="167" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -11575,7 +12566,7 @@
         <v>90167189172</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>110</v>
@@ -11583,11 +12574,11 @@
       <c r="M25" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N25" s="170" t="s">
+      <c r="N25" s="168" t="s">
         <v>335</v>
       </c>
-      <c r="O25" s="170" t="s">
-        <v>576</v>
+      <c r="O25" s="168" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -11622,7 +12613,7 @@
         <v>4417678901</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>110</v>
@@ -11630,10 +12621,10 @@
       <c r="M26" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N26" s="171" t="s">
+      <c r="N26" s="169" t="s">
         <v>335</v>
       </c>
-      <c r="O26" s="171" t="s">
+      <c r="O26" s="169" t="s">
         <v>352</v>
       </c>
     </row>
@@ -11667,7 +12658,7 @@
         <v>9997863271</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>110</v>
@@ -11675,11 +12666,11 @@
       <c r="M27" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="N27" s="172" t="s">
+      <c r="N27" s="170" t="s">
         <v>335</v>
       </c>
-      <c r="O27" s="172" t="s">
-        <v>580</v>
+      <c r="O27" s="170" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -11714,7 +12705,7 @@
         <v>6557891271</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>110</v>
@@ -11722,11 +12713,11 @@
       <c r="M28" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N28" s="173" t="s">
+      <c r="N28" s="171" t="s">
         <v>335</v>
       </c>
-      <c r="O28" s="173" t="s">
-        <v>576</v>
+      <c r="O28" s="171" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -11761,7 +12752,7 @@
         <v>7779874561</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>110</v>
@@ -11769,11 +12760,11 @@
       <c r="M29" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N29" s="174" t="s">
+      <c r="N29" s="172" t="s">
         <v>335</v>
       </c>
-      <c r="O29" s="174" t="s">
-        <v>577</v>
+      <c r="O29" s="172" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -11808,7 +12799,7 @@
         <v>7779084515</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>110</v>
@@ -11816,10 +12807,10 @@
       <c r="M30" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N30" s="175" t="s">
+      <c r="N30" s="173" t="s">
         <v>335</v>
       </c>
-      <c r="O30" s="175" t="s">
+      <c r="O30" s="173" t="s">
         <v>352</v>
       </c>
     </row>
@@ -11853,7 +12844,7 @@
         <v>1018237829</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>110</v>
@@ -11861,11 +12852,11 @@
       <c r="M31" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N31" s="176" t="s">
+      <c r="N31" s="174" t="s">
         <v>335</v>
       </c>
-      <c r="O31" s="176" t="s">
-        <v>581</v>
+      <c r="O31" s="174" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -11900,7 +12891,7 @@
         <v>1015677890</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>110</v>
@@ -11908,11 +12899,11 @@
       <c r="M32" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N32" s="177" t="s">
+      <c r="N32" s="175" t="s">
         <v>335</v>
       </c>
-      <c r="O32" s="177" t="s">
-        <v>576</v>
+      <c r="O32" s="175" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -11947,7 +12938,7 @@
         <v>1012237893</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>110</v>
@@ -11955,11 +12946,11 @@
       <c r="M33" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N33" s="178" t="s">
+      <c r="N33" s="176" t="s">
         <v>335</v>
       </c>
-      <c r="O33" s="178" t="s">
-        <v>577</v>
+      <c r="O33" s="176" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
@@ -11994,7 +12985,7 @@
         <v>1016738377</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>110</v>
@@ -12002,10 +12993,10 @@
       <c r="M34" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N34" s="179" t="s">
+      <c r="N34" s="177" t="s">
         <v>335</v>
       </c>
-      <c r="O34" s="179" t="s">
+      <c r="O34" s="177" t="s">
         <v>352</v>
       </c>
     </row>
@@ -12039,7 +13030,7 @@
         <v>4417728910</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>110</v>
@@ -12047,11 +13038,11 @@
       <c r="M35" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="N35" s="180" t="s">
+      <c r="N35" s="178" t="s">
         <v>335</v>
       </c>
-      <c r="O35" s="180" t="s">
-        <v>582</v>
+      <c r="O35" s="178" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -12086,7 +13077,7 @@
         <v>5657811232</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>110</v>
@@ -12094,11 +13085,11 @@
       <c r="M36" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N36" s="181" t="s">
+      <c r="N36" s="179" t="s">
         <v>335</v>
       </c>
-      <c r="O36" s="181" t="s">
-        <v>576</v>
+      <c r="O36" s="179" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -12133,7 +13124,7 @@
         <v>6628725671</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>110</v>
@@ -12141,10 +13132,10 @@
       <c r="M37" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N37" s="182" t="s">
+      <c r="N37" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="O37" s="182" t="s">
+      <c r="O37" s="180" t="s">
         <v>351</v>
       </c>
     </row>
@@ -12180,7 +13171,7 @@
         <v>5529874561</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>110</v>
@@ -12188,10 +13179,10 @@
       <c r="M38" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N38" s="183" t="s">
+      <c r="N38" s="181" t="s">
         <v>335</v>
       </c>
-      <c r="O38" s="183" t="s">
+      <c r="O38" s="181" t="s">
         <v>352</v>
       </c>
     </row>
@@ -12227,7 +13218,7 @@
         <v>9328982123</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>110</v>
@@ -12235,11 +13226,11 @@
       <c r="M39" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="N39" s="184" t="s">
+      <c r="N39" s="182" t="s">
         <v>335</v>
       </c>
-      <c r="O39" s="184" t="s">
-        <v>583</v>
+      <c r="O39" s="182" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -12272,7 +13263,7 @@
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>110</v>
@@ -12280,11 +13271,11 @@
       <c r="M40" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="N40" s="185" t="s">
+      <c r="N40" s="183" t="s">
         <v>335</v>
       </c>
-      <c r="O40" s="185" t="s">
-        <v>584</v>
+      <c r="O40" s="183" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -12319,7 +13310,7 @@
         <v>90</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>110</v>
@@ -12327,11 +13318,11 @@
       <c r="M41" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N41" s="186" t="s">
+      <c r="N41" s="184" t="s">
         <v>335</v>
       </c>
-      <c r="O41" s="186" t="s">
-        <v>576</v>
+      <c r="O41" s="184" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -12366,7 +13357,7 @@
         <v>238</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>110</v>
@@ -12374,10 +13365,10 @@
       <c r="M42" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N42" s="187" t="s">
+      <c r="N42" s="185" t="s">
         <v>335</v>
       </c>
-      <c r="O42" s="187" t="s">
+      <c r="O42" s="185" t="s">
         <v>351</v>
       </c>
     </row>
@@ -12413,7 +13404,7 @@
         <v>248</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>110</v>
@@ -12421,10 +13412,10 @@
       <c r="M43" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N43" s="188" t="s">
+      <c r="N43" s="186" t="s">
         <v>335</v>
       </c>
-      <c r="O43" s="188" t="s">
+      <c r="O43" s="186" t="s">
         <v>352</v>
       </c>
     </row>
@@ -12466,11 +13457,11 @@
       <c r="M44" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="N44" s="189" t="s">
+      <c r="N44" s="187" t="s">
         <v>335</v>
       </c>
-      <c r="O44" s="189" t="s">
-        <v>585</v>
+      <c r="O44" s="187" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -12513,11 +13504,11 @@
       <c r="M45" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N45" s="190" t="s">
+      <c r="N45" s="188" t="s">
         <v>335</v>
       </c>
-      <c r="O45" s="190" t="s">
-        <v>576</v>
+      <c r="O45" s="188" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -12560,11 +13551,11 @@
       <c r="M46" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N46" s="191" t="s">
+      <c r="N46" s="189" t="s">
         <v>335</v>
       </c>
-      <c r="O46" s="191" t="s">
-        <v>586</v>
+      <c r="O46" s="189" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -12607,11 +13598,11 @@
       <c r="M47" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N47" s="192" t="s">
+      <c r="N47" s="190" t="s">
         <v>335</v>
       </c>
-      <c r="O47" s="192" t="s">
-        <v>586</v>
+      <c r="O47" s="190" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -12654,11 +13645,11 @@
       <c r="M48" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N48" s="193" t="s">
+      <c r="N48" s="191" t="s">
         <v>335</v>
       </c>
-      <c r="O48" s="193" t="s">
-        <v>586</v>
+      <c r="O48" s="191" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -12702,11 +13693,11 @@
       <c r="M49" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="N49" s="194" t="s">
+      <c r="N49" s="192" t="s">
         <v>335</v>
       </c>
-      <c r="O49" s="194" t="s">
-        <v>587</v>
+      <c r="O49" s="192" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -12741,17 +13732,17 @@
         <v>8783426621</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N50" s="195" t="s">
+      <c r="N50" s="193" t="s">
         <v>335</v>
       </c>
-      <c r="O50" s="195" t="s">
-        <v>484</v>
+      <c r="O50" s="193" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
@@ -12774,20 +13765,20 @@
       <c r="M51" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="N51" s="196" t="s">
+      <c r="N51" s="194" t="s">
         <v>335</v>
       </c>
-      <c r="O51" s="196" t="s">
-        <v>588</v>
+      <c r="O51" s="194" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="66"/>
-      <c r="B52" s="76" t="s">
+      <c r="B52" s="74" t="s">
+        <v>434</v>
+      </c>
+      <c r="C52" s="66" t="s">
         <v>435</v>
-      </c>
-      <c r="C52" s="66" t="s">
-        <v>436</v>
       </c>
       <c r="D52" s="66" t="s">
         <v>38</v>
@@ -12796,7 +13787,7 @@
         <v>30537</v>
       </c>
       <c r="F52" s="66" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G52" s="66" t="s">
         <v>89</v>
@@ -12810,8 +13801,8 @@
       <c r="J52" s="8">
         <v>9996278123</v>
       </c>
-      <c r="K52" s="75" t="s">
-        <v>561</v>
+      <c r="K52" s="73" t="s">
+        <v>560</v>
       </c>
       <c r="L52" s="66" t="s">
         <v>110</v>
@@ -12889,7 +13880,7 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -12947,7 +13938,7 @@
         <v>266</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>274</v>
@@ -12965,13 +13956,13 @@
         <v>7771232345</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K2" s="96" t="s">
-        <v>487</v>
+      <c r="K2" s="94" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -12982,7 +13973,7 @@
         <v>267</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>39</v>
@@ -13000,13 +13991,13 @@
         <v>7771232345</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K3" s="89" t="s">
-        <v>487</v>
+      <c r="K3" s="87" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -13017,7 +14008,7 @@
         <v>268</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>39</v>
@@ -13035,13 +14026,13 @@
         <v>7771232345</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K4" s="90" t="s">
-        <v>487</v>
+      <c r="K4" s="88" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -13052,7 +14043,7 @@
         <v>269</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>275</v>
@@ -13070,13 +14061,13 @@
         <v>7771232345</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K5" s="91" t="s">
-        <v>487</v>
+      <c r="K5" s="89" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -13087,7 +14078,7 @@
         <v>270</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>276</v>
@@ -13105,13 +14096,13 @@
         <v>7778901237</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K6" s="92" t="s">
-        <v>487</v>
+      <c r="K6" s="90" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -13122,7 +14113,7 @@
         <v>271</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>277</v>
@@ -13145,8 +14136,8 @@
       <c r="J7" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K7" s="93" t="s">
-        <v>487</v>
+      <c r="K7" s="91" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -13157,7 +14148,7 @@
         <v>282</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>277</v>
@@ -13180,8 +14171,8 @@
       <c r="J8" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K8" s="94" t="s">
-        <v>488</v>
+      <c r="K8" s="92" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13192,7 +14183,7 @@
         <v>272</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -13203,8 +14194,8 @@
       <c r="J9" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K9" s="95" t="s">
-        <v>487</v>
+      <c r="K9" s="93" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -13224,8 +14215,8 @@
       <c r="J10" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="K10" s="97" t="s">
-        <v>489</v>
+      <c r="K10" s="95" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -13247,7 +14238,7 @@
       <c r="J11" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="K11" s="98" t="s">
+      <c r="K11" s="96" t="s">
         <v>351</v>
       </c>
     </row>
@@ -13270,7 +14261,7 @@
       <c r="J12" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="K12" s="99" t="s">
+      <c r="K12" s="97" t="s">
         <v>351</v>
       </c>
     </row>
@@ -13293,7 +14284,7 @@
       <c r="J13" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K13" s="100" t="s">
+      <c r="K13" s="98" t="s">
         <v>352</v>
       </c>
     </row>
@@ -13316,8 +14307,8 @@
       <c r="J14" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="K14" s="101" t="s">
-        <v>490</v>
+      <c r="K14" s="99" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -13339,8 +14330,8 @@
       <c r="J15" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="K15" s="102" t="s">
-        <v>490</v>
+      <c r="K15" s="100" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="72" x14ac:dyDescent="0.3">
@@ -13362,14 +14353,14 @@
       <c r="J16" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="K16" s="103" t="s">
-        <v>490</v>
+      <c r="K16" s="101" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="68"/>
-      <c r="B17" s="77" t="s">
-        <v>438</v>
+      <c r="B17" s="75" t="s">
+        <v>437</v>
       </c>
       <c r="C17" s="68">
         <v>12345</v>
@@ -13400,8 +14391,8 @@
   </sheetPr>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13442,8 +14433,8 @@
       <c r="D2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E2" s="200" t="s">
-        <v>592</v>
+      <c r="E2" s="198" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -13459,8 +14450,8 @@
       <c r="D3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E3" s="201" t="s">
-        <v>592</v>
+      <c r="E3" s="199" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -13476,8 +14467,8 @@
       <c r="D4" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E4" s="202" t="s">
-        <v>592</v>
+      <c r="E4" s="200" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -13493,8 +14484,8 @@
       <c r="D5" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E5" s="203" t="s">
-        <v>592</v>
+      <c r="E5" s="201" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -13510,8 +14501,8 @@
       <c r="D6" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E6" s="204" t="s">
-        <v>592</v>
+      <c r="E6" s="202" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -13527,8 +14518,8 @@
       <c r="D7" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E7" s="205" t="s">
-        <v>592</v>
+      <c r="E7" s="203" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -13544,8 +14535,8 @@
       <c r="D8" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E8" s="206" t="s">
-        <v>592</v>
+      <c r="E8" s="204" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -13561,8 +14552,8 @@
       <c r="D9" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E9" s="207" t="s">
-        <v>592</v>
+      <c r="E9" s="205" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -13578,8 +14569,8 @@
       <c r="D10" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E10" s="208" t="s">
-        <v>592</v>
+      <c r="E10" s="206" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -13595,8 +14586,8 @@
       <c r="D11" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E11" s="209" t="s">
-        <v>592</v>
+      <c r="E11" s="207" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -13612,8 +14603,8 @@
       <c r="D12" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E12" s="210" t="s">
-        <v>592</v>
+      <c r="E12" s="208" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -13629,8 +14620,8 @@
       <c r="D13" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E13" s="211" t="s">
-        <v>592</v>
+      <c r="E13" s="209" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -13646,8 +14637,8 @@
       <c r="D14" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E14" s="212" t="s">
-        <v>592</v>
+      <c r="E14" s="210" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -13663,8 +14654,8 @@
       <c r="D15" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E15" s="213" t="s">
-        <v>592</v>
+      <c r="E15" s="211" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -13680,8 +14671,8 @@
       <c r="D16" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E16" s="214" t="s">
-        <v>592</v>
+      <c r="E16" s="212" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -13695,8 +14686,8 @@
       <c r="D17" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E17" s="215" t="s">
-        <v>489</v>
+      <c r="E17" s="213" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -13712,7 +14703,7 @@
       <c r="D18" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E18" s="216" t="s">
+      <c r="E18" s="214" t="s">
         <v>351</v>
       </c>
     </row>
@@ -13729,7 +14720,7 @@
       <c r="D19" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="217" t="s">
+      <c r="E19" s="215" t="s">
         <v>351</v>
       </c>
     </row>
@@ -13746,7 +14737,7 @@
       <c r="D20" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="218" t="s">
+      <c r="E20" s="216" t="s">
         <v>352</v>
       </c>
     </row>
@@ -13763,8 +14754,8 @@
       <c r="D21" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E21" s="219" t="s">
-        <v>593</v>
+      <c r="E21" s="217" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -13780,8 +14771,8 @@
       <c r="D22" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E22" s="220" t="s">
-        <v>593</v>
+      <c r="E22" s="218" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -13797,8 +14788,8 @@
       <c r="D23" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E23" s="221" t="s">
-        <v>593</v>
+      <c r="E23" s="219" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -13808,52 +14799,52 @@
       <c r="B24" s="59" t="s">
         <v>322</v>
       </c>
-      <c r="C24" s="104">
+      <c r="C24" s="102">
         <v>96501</v>
       </c>
       <c r="D24" s="52" t="s">
         <v>294</v>
       </c>
-      <c r="E24" s="222" t="s">
-        <v>594</v>
+      <c r="E24" s="220" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="149" t="s">
+      <c r="B25" s="147" t="s">
         <v>363</v>
       </c>
-      <c r="C25" s="145">
+      <c r="C25" s="143">
         <v>37672</v>
       </c>
-      <c r="D25" s="146" t="s">
+      <c r="D25" s="144" t="s">
         <v>255</v>
       </c>
-      <c r="E25" s="223" t="s">
-        <v>593</v>
+      <c r="E25" s="221" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="78"/>
-      <c r="B26" s="148" t="s">
-        <v>439</v>
-      </c>
-      <c r="C26" s="78">
+      <c r="A26" s="76"/>
+      <c r="B26" s="146" t="s">
+        <v>438</v>
+      </c>
+      <c r="C26" s="76">
         <v>12345</v>
       </c>
       <c r="D26" s="50" t="s">
         <v>285</v>
       </c>
-      <c r="E26" s="147"/>
+      <c r="E26" s="145"/>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="51"/>
       <c r="B27" s="50"/>
       <c r="C27" s="50"/>
       <c r="D27" s="50"/>
-      <c r="E27" s="147"/>
+      <c r="E27" s="145"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13870,7 +14861,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13918,7 +14909,7 @@
       <c r="B2" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C2" s="74">
+      <c r="C2" s="72">
         <v>73735</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -13930,11 +14921,11 @@
       <c r="F2" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G2" s="267" t="s">
-        <v>610</v>
-      </c>
-      <c r="H2" s="267" t="s">
-        <v>508</v>
+      <c r="G2" s="295" t="s">
+        <v>627</v>
+      </c>
+      <c r="H2" s="295" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -13944,7 +14935,7 @@
       <c r="B3" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C3" s="74">
+      <c r="C3" s="72">
         <v>37705</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -13956,11 +14947,11 @@
       <c r="F3" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G3" s="267" t="s">
-        <v>335</v>
-      </c>
-      <c r="H3" s="267" t="s">
-        <v>508</v>
+      <c r="G3" s="296" t="s">
+        <v>628</v>
+      </c>
+      <c r="H3" s="296" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -13970,7 +14961,7 @@
       <c r="B4" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C4" s="74">
+      <c r="C4" s="72">
         <v>73735</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -13982,11 +14973,11 @@
       <c r="F4" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G4" s="268" t="s">
-        <v>611</v>
-      </c>
-      <c r="H4" s="268" t="s">
-        <v>508</v>
+      <c r="G4" s="297" t="s">
+        <v>629</v>
+      </c>
+      <c r="H4" s="297" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -13996,7 +14987,7 @@
       <c r="B5" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C5" s="74">
+      <c r="C5" s="72">
         <v>37705</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -14008,11 +14999,11 @@
       <c r="F5" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G5" s="269" t="s">
-        <v>612</v>
-      </c>
-      <c r="H5" s="269" t="s">
-        <v>508</v>
+      <c r="G5" s="298" t="s">
+        <v>630</v>
+      </c>
+      <c r="H5" s="298" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -14022,7 +15013,7 @@
       <c r="B6" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C6" s="74">
+      <c r="C6" s="102">
         <v>73735</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -14034,11 +15025,11 @@
       <c r="F6" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G6" s="270" t="s">
-        <v>613</v>
-      </c>
-      <c r="H6" s="270" t="s">
-        <v>508</v>
+      <c r="G6" s="299" t="s">
+        <v>631</v>
+      </c>
+      <c r="H6" s="299" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -14048,7 +15039,7 @@
       <c r="B7" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C7" s="74">
+      <c r="C7" s="102">
         <v>73735</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -14060,11 +15051,11 @@
       <c r="F7" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G7" s="271" t="s">
-        <v>614</v>
-      </c>
-      <c r="H7" s="271" t="s">
-        <v>508</v>
+      <c r="G7" s="300" t="s">
+        <v>632</v>
+      </c>
+      <c r="H7" s="300" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -14074,7 +15065,7 @@
       <c r="B8" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C8" s="74">
+      <c r="C8" s="72">
         <v>73735</v>
       </c>
       <c r="D8" s="1"/>
@@ -14084,11 +15075,11 @@
       <c r="F8" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G8" s="272" t="s">
-        <v>615</v>
-      </c>
-      <c r="H8" s="272" t="s">
-        <v>508</v>
+      <c r="G8" s="301" t="s">
+        <v>633</v>
+      </c>
+      <c r="H8" s="301" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -14098,7 +15089,7 @@
       <c r="B9" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C9" s="74">
+      <c r="C9" s="72">
         <v>98487</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -14110,11 +15101,11 @@
       <c r="F9" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G9" s="273" t="s">
-        <v>617</v>
-      </c>
-      <c r="H9" s="273" t="s">
-        <v>508</v>
+      <c r="G9" s="302" t="s">
+        <v>634</v>
+      </c>
+      <c r="H9" s="302" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -14124,7 +15115,7 @@
       <c r="B10" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C10" s="74">
+      <c r="C10" s="72">
         <v>98487</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -14136,11 +15127,11 @@
       <c r="F10" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G10" s="224" t="s">
-        <v>598</v>
-      </c>
-      <c r="H10" s="224" t="s">
-        <v>508</v>
+      <c r="G10" s="222" t="s">
+        <v>597</v>
+      </c>
+      <c r="H10" s="222" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -14150,7 +15141,7 @@
       <c r="B11" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C11" s="74">
+      <c r="C11" s="72">
         <v>98487</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -14162,11 +15153,11 @@
       <c r="F11" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G11" s="107" t="s">
-        <v>512</v>
-      </c>
-      <c r="H11" s="107" t="s">
-        <v>508</v>
+      <c r="G11" s="105" t="s">
+        <v>511</v>
+      </c>
+      <c r="H11" s="105" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -14176,7 +15167,7 @@
       <c r="B12" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C12" s="74">
+      <c r="C12" s="72">
         <v>37705</v>
       </c>
       <c r="D12" s="54" t="s">
@@ -14188,11 +15179,11 @@
       <c r="F12" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G12" s="108" t="s">
-        <v>513</v>
-      </c>
-      <c r="H12" s="108" t="s">
-        <v>508</v>
+      <c r="G12" s="106" t="s">
+        <v>512</v>
+      </c>
+      <c r="H12" s="106" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -14202,7 +15193,7 @@
       <c r="B13" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C13" s="74">
+      <c r="C13" s="72">
         <v>37705</v>
       </c>
       <c r="D13" s="54" t="s">
@@ -14214,11 +15205,11 @@
       <c r="F13" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G13" s="109" t="s">
-        <v>514</v>
-      </c>
-      <c r="H13" s="109" t="s">
-        <v>508</v>
+      <c r="G13" s="107" t="s">
+        <v>513</v>
+      </c>
+      <c r="H13" s="107" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -14228,7 +15219,7 @@
       <c r="B14" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C14" s="74">
+      <c r="C14" s="72">
         <v>37705</v>
       </c>
       <c r="D14" s="54" t="s">
@@ -14240,11 +15231,11 @@
       <c r="F14" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G14" s="110" t="s">
-        <v>515</v>
-      </c>
-      <c r="H14" s="110" t="s">
-        <v>508</v>
+      <c r="G14" s="108" t="s">
+        <v>514</v>
+      </c>
+      <c r="H14" s="108" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -14262,13 +15253,13 @@
         <v>1600</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G15" s="111" t="s">
+        <v>503</v>
+      </c>
+      <c r="G15" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="H15" s="111" t="s">
-        <v>516</v>
+      <c r="H15" s="109" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -14288,13 +15279,13 @@
         <v>1000</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G16" s="112" t="s">
+        <v>503</v>
+      </c>
+      <c r="G16" s="110" t="s">
         <v>335</v>
       </c>
-      <c r="H16" s="112" t="s">
-        <v>516</v>
+      <c r="H16" s="110" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -14314,13 +15305,13 @@
         <v>1900</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G17" s="113" t="s">
+        <v>503</v>
+      </c>
+      <c r="G17" s="111" t="s">
         <v>335</v>
       </c>
-      <c r="H17" s="113" t="s">
-        <v>516</v>
+      <c r="H17" s="111" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -14340,13 +15331,13 @@
         <v>2000</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G18" s="114" t="s">
+        <v>503</v>
+      </c>
+      <c r="G18" s="112" t="s">
         <v>335</v>
       </c>
-      <c r="H18" s="114" t="s">
-        <v>516</v>
+      <c r="H18" s="112" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -14366,13 +15357,13 @@
         <v>1000</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G19" s="115" t="s">
+        <v>503</v>
+      </c>
+      <c r="G19" s="113" t="s">
         <v>335</v>
       </c>
-      <c r="H19" s="115" t="s">
-        <v>516</v>
+      <c r="H19" s="113" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -14382,7 +15373,7 @@
       <c r="B20" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C20" s="74">
+      <c r="C20" s="72">
         <v>98487</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -14392,11 +15383,11 @@
       <c r="F20" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G20" s="116" t="s">
+      <c r="G20" s="114" t="s">
         <v>335</v>
       </c>
-      <c r="H20" s="116" t="s">
-        <v>517</v>
+      <c r="H20" s="114" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -14406,7 +15397,7 @@
       <c r="B21" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C21" s="74">
+      <c r="C21" s="72">
         <v>98487</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -14418,11 +15409,11 @@
       <c r="F21" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G21" s="117" t="s">
+      <c r="G21" s="115" t="s">
         <v>335</v>
       </c>
-      <c r="H21" s="117" t="s">
-        <v>517</v>
+      <c r="H21" s="115" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -14432,7 +15423,7 @@
       <c r="B22" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C22" s="74">
+      <c r="C22" s="72">
         <v>98487</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -14444,11 +15435,11 @@
       <c r="F22" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G22" s="118" t="s">
+      <c r="G22" s="116" t="s">
         <v>335</v>
       </c>
-      <c r="H22" s="118" t="s">
-        <v>517</v>
+      <c r="H22" s="116" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -14458,7 +15449,7 @@
       <c r="B23" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C23" s="74">
+      <c r="C23" s="72">
         <v>98487</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -14470,11 +15461,11 @@
       <c r="F23" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G23" s="119" t="s">
+      <c r="G23" s="117" t="s">
         <v>335</v>
       </c>
-      <c r="H23" s="119" t="s">
-        <v>517</v>
+      <c r="H23" s="117" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -14484,7 +15475,7 @@
       <c r="B24" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C24" s="74">
+      <c r="C24" s="72">
         <v>98487</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -14496,11 +15487,11 @@
       <c r="F24" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G24" s="120" t="s">
+      <c r="G24" s="118" t="s">
         <v>335</v>
       </c>
-      <c r="H24" s="120" t="s">
-        <v>517</v>
+      <c r="H24" s="118" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -14510,7 +15501,7 @@
       <c r="B25" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C25" s="74">
+      <c r="C25" s="72">
         <v>98487</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -14522,11 +15513,11 @@
       <c r="F25" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G25" s="121" t="s">
+      <c r="G25" s="119" t="s">
         <v>335</v>
       </c>
-      <c r="H25" s="121" t="s">
-        <v>517</v>
+      <c r="H25" s="119" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -14540,13 +15531,13 @@
       <c r="D26" s="54"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G26" s="122" t="s">
+        <v>503</v>
+      </c>
+      <c r="G26" s="120" t="s">
         <v>335</v>
       </c>
-      <c r="H26" s="122" t="s">
-        <v>516</v>
+      <c r="H26" s="120" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -14560,24 +15551,24 @@
         <v>37672</v>
       </c>
       <c r="D27" s="66" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E27" s="66">
         <v>1000</v>
       </c>
       <c r="F27" s="66" t="s">
-        <v>504</v>
-      </c>
-      <c r="G27" s="123" t="s">
+        <v>503</v>
+      </c>
+      <c r="G27" s="121" t="s">
         <v>335</v>
       </c>
-      <c r="H27" s="123" t="s">
-        <v>516</v>
+      <c r="H27" s="121" t="s">
+        <v>515</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -14589,7 +15580,7 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
@@ -14626,55 +15617,55 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>311</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="F2" s="249"/>
+        <v>451</v>
+      </c>
+      <c r="F2" s="247"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>310</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="F3" s="250"/>
+        <v>451</v>
+      </c>
+      <c r="F3" s="248"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>310</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="F4" s="251"/>
+        <v>450</v>
+      </c>
+      <c r="F4" s="249"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>335</v>
@@ -14683,16 +15674,16 @@
         <v>311</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="F5" s="252"/>
+        <v>450</v>
+      </c>
+      <c r="F5" s="250"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C6" s="1">
         <v>39946</v>
@@ -14703,7 +15694,7 @@
       <c r="E6" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="F6" s="253"/>
+      <c r="F6" s="251"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -14717,7 +15708,7 @@
       <c r="E7" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="F7" s="254"/>
+      <c r="F7" s="252"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -14733,7 +15724,7 @@
       <c r="E8" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="255"/>
+      <c r="F8" s="253"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -14749,7 +15740,7 @@
       <c r="E9" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="256"/>
+      <c r="F9" s="254"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -14759,13 +15750,13 @@
         <v>327</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="257"/>
+      <c r="F10" s="255"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -14781,7 +15772,7 @@
       <c r="E11" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="F11" s="258"/>
+      <c r="F11" s="256"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -14797,7 +15788,7 @@
       <c r="E12" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="F12" s="259"/>
+      <c r="F12" s="257"/>
     </row>
     <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -14813,7 +15804,7 @@
       <c r="E13" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="F13" s="260"/>
+      <c r="F13" s="258"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14868,8 +15859,8 @@
       <c r="D2" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E2" s="124" t="s">
-        <v>506</v>
+      <c r="E2" s="122" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -14883,8 +15874,8 @@
       <c r="D3" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E3" s="125" t="s">
-        <v>506</v>
+      <c r="E3" s="123" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -14898,8 +15889,8 @@
       <c r="D4" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E4" s="126" t="s">
-        <v>506</v>
+      <c r="E4" s="124" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -14913,8 +15904,8 @@
       <c r="D5" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E5" s="127" t="s">
-        <v>506</v>
+      <c r="E5" s="125" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -14928,8 +15919,8 @@
       <c r="D6" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E6" s="128" t="s">
-        <v>506</v>
+      <c r="E6" s="126" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -14943,8 +15934,8 @@
       <c r="D7" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E7" s="129" t="s">
-        <v>506</v>
+      <c r="E7" s="127" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -14958,8 +15949,8 @@
       <c r="D8" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E8" s="130" t="s">
-        <v>506</v>
+      <c r="E8" s="128" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -14973,8 +15964,8 @@
       <c r="D9" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E9" s="131" t="s">
-        <v>506</v>
+      <c r="E9" s="129" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -14988,8 +15979,8 @@
       <c r="D10" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E10" s="132" t="s">
-        <v>506</v>
+      <c r="E10" s="130" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -15005,8 +15996,8 @@
       <c r="D11" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E11" s="133" t="s">
-        <v>506</v>
+      <c r="E11" s="131" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -15022,8 +16013,8 @@
       <c r="D12" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E12" s="134" t="s">
-        <v>506</v>
+      <c r="E12" s="132" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -15039,8 +16030,8 @@
       <c r="D13" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E13" s="135" t="s">
-        <v>506</v>
+      <c r="E13" s="133" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -15056,8 +16047,8 @@
       <c r="D14" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E14" s="136" t="s">
-        <v>506</v>
+      <c r="E14" s="134" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -15073,7 +16064,7 @@
       <c r="D15" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E15" s="137" t="s">
+      <c r="E15" s="135" t="s">
         <v>350</v>
       </c>
     </row>
@@ -15090,7 +16081,7 @@
       <c r="D16" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E16" s="138" t="s">
+      <c r="E16" s="136" t="s">
         <v>351</v>
       </c>
     </row>
@@ -15107,7 +16098,7 @@
       <c r="D17" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E17" s="139" t="s">
+      <c r="E17" s="137" t="s">
         <v>351</v>
       </c>
     </row>
@@ -15124,7 +16115,7 @@
       <c r="D18" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="140" t="s">
+      <c r="E18" s="138" t="s">
         <v>352</v>
       </c>
     </row>
@@ -15136,12 +16127,12 @@
         <v>328</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E19" s="141" t="s">
+      <c r="E19" s="139" t="s">
         <v>353</v>
       </c>
     </row>
@@ -15153,12 +16144,12 @@
         <v>329</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E20" s="142" t="s">
+      <c r="E20" s="140" t="s">
         <v>353</v>
       </c>
     </row>
@@ -15170,12 +16161,12 @@
         <v>330</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E21" s="143" t="s">
+      <c r="E21" s="141" t="s">
         <v>353</v>
       </c>
     </row>
@@ -15203,7 +16194,7 @@
   </sheetPr>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -15264,9 +16255,9 @@
         <v>359</v>
       </c>
       <c r="H2" s="49" t="s">
-        <v>597</v>
-      </c>
-      <c r="I2" s="274" t="s">
+        <v>596</v>
+      </c>
+      <c r="I2" s="265" t="s">
         <v>349</v>
       </c>
     </row>
@@ -15289,9 +16280,9 @@
         <v>359</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>618</v>
-      </c>
-      <c r="I3" s="275" t="s">
+        <v>611</v>
+      </c>
+      <c r="I3" s="266" t="s">
         <v>349</v>
       </c>
     </row>
@@ -15314,9 +16305,9 @@
         <v>359</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>619</v>
-      </c>
-      <c r="I4" s="276" t="s">
+        <v>612</v>
+      </c>
+      <c r="I4" s="267" t="s">
         <v>349</v>
       </c>
     </row>
@@ -15339,9 +16330,9 @@
         <v>359</v>
       </c>
       <c r="H5" s="49" t="s">
-        <v>599</v>
-      </c>
-      <c r="I5" s="277" t="s">
+        <v>598</v>
+      </c>
+      <c r="I5" s="268" t="s">
         <v>349</v>
       </c>
     </row>
@@ -15364,9 +16355,9 @@
         <v>359</v>
       </c>
       <c r="H6" s="49" t="s">
-        <v>620</v>
-      </c>
-      <c r="I6" s="278" t="s">
+        <v>613</v>
+      </c>
+      <c r="I6" s="269" t="s">
         <v>349</v>
       </c>
     </row>
@@ -15389,9 +16380,9 @@
         <v>359</v>
       </c>
       <c r="H7" s="49" t="s">
-        <v>621</v>
-      </c>
-      <c r="I7" s="279" t="s">
+        <v>614</v>
+      </c>
+      <c r="I7" s="270" t="s">
         <v>349</v>
       </c>
     </row>
@@ -15414,9 +16405,9 @@
         <v>359</v>
       </c>
       <c r="H8" s="49" t="s">
-        <v>616</v>
-      </c>
-      <c r="I8" s="280" t="s">
+        <v>610</v>
+      </c>
+      <c r="I8" s="271" t="s">
         <v>349</v>
       </c>
     </row>
@@ -15441,9 +16432,9 @@
         <v>359</v>
       </c>
       <c r="H9" s="49" t="s">
-        <v>600</v>
-      </c>
-      <c r="I9" s="280" t="s">
+        <v>599</v>
+      </c>
+      <c r="I9" s="271" t="s">
         <v>349</v>
       </c>
     </row>
@@ -15468,9 +16459,9 @@
         <v>324</v>
       </c>
       <c r="H10" s="49" t="s">
-        <v>600</v>
-      </c>
-      <c r="I10" s="225" t="s">
+        <v>599</v>
+      </c>
+      <c r="I10" s="223" t="s">
         <v>353</v>
       </c>
     </row>
@@ -15497,9 +16488,9 @@
         <v>126</v>
       </c>
       <c r="H11" s="49" t="s">
-        <v>600</v>
-      </c>
-      <c r="I11" s="226" t="s">
+        <v>599</v>
+      </c>
+      <c r="I11" s="224" t="s">
         <v>353</v>
       </c>
     </row>
@@ -15526,9 +16517,9 @@
         <v>126</v>
       </c>
       <c r="H12" s="49" t="s">
-        <v>600</v>
-      </c>
-      <c r="I12" s="227" t="s">
+        <v>599</v>
+      </c>
+      <c r="I12" s="225" t="s">
         <v>353</v>
       </c>
     </row>
@@ -15555,9 +16546,9 @@
         <v>116</v>
       </c>
       <c r="H13" s="49" t="s">
-        <v>600</v>
-      </c>
-      <c r="I13" s="228" t="s">
+        <v>599</v>
+      </c>
+      <c r="I13" s="226" t="s">
         <v>353</v>
       </c>
     </row>
@@ -15584,9 +16575,9 @@
         <v>333</v>
       </c>
       <c r="H14" s="49" t="s">
-        <v>600</v>
-      </c>
-      <c r="I14" s="229" t="s">
+        <v>599</v>
+      </c>
+      <c r="I14" s="227" t="s">
         <v>353</v>
       </c>
     </row>
@@ -15607,15 +16598,15 @@
         <v>100</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>333</v>
       </c>
       <c r="H15" s="49" t="s">
-        <v>600</v>
-      </c>
-      <c r="I15" s="230" t="s">
+        <v>599</v>
+      </c>
+      <c r="I15" s="228" t="s">
         <v>353</v>
       </c>
     </row>
@@ -15638,10 +16629,10 @@
         <v>376</v>
       </c>
       <c r="H16" s="49" t="s">
-        <v>600</v>
-      </c>
-      <c r="I16" s="232" t="s">
-        <v>603</v>
+        <v>599</v>
+      </c>
+      <c r="I16" s="230" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -15659,16 +16650,16 @@
         <v>345</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>126</v>
       </c>
       <c r="H17" s="49" t="s">
-        <v>600</v>
-      </c>
-      <c r="I17" s="233" t="s">
-        <v>603</v>
+        <v>599</v>
+      </c>
+      <c r="I17" s="231" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -15683,7 +16674,7 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>370</v>
@@ -15692,10 +16683,10 @@
         <v>126</v>
       </c>
       <c r="H18" s="49" t="s">
-        <v>600</v>
-      </c>
-      <c r="I18" s="234" t="s">
-        <v>603</v>
+        <v>599</v>
+      </c>
+      <c r="I18" s="232" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -15710,7 +16701,7 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>369</v>
@@ -15719,10 +16710,10 @@
         <v>116</v>
       </c>
       <c r="H19" s="49" t="s">
-        <v>600</v>
-      </c>
-      <c r="I19" s="235" t="s">
-        <v>603</v>
+        <v>599</v>
+      </c>
+      <c r="I19" s="233" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -15740,9 +16731,9 @@
         <v>386</v>
       </c>
       <c r="H20" s="49" t="s">
-        <v>600</v>
-      </c>
-      <c r="I20" s="231" t="s">
+        <v>599</v>
+      </c>
+      <c r="I20" s="229" t="s">
         <v>353</v>
       </c>
     </row>

--- a/SeleniumWebDriver/bin/guru99/DataFiles/Guru99_testdata.xlsx
+++ b/SeleniumWebDriver/bin/guru99/DataFiles/Guru99_testdata.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E6AE33-DE9E-440B-B9E7-C0633EE2E67C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D43455-9E0B-4820-8394-44E193062904}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="6" r:id="rId1"/>
@@ -364,7 +364,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="647">
   <si>
     <t>testcaseID</t>
   </si>
@@ -2296,6 +2296,15 @@
   </si>
   <si>
     <t>payee bal</t>
+  </si>
+  <si>
+    <t>mngr142473</t>
+  </si>
+  <si>
+    <t>savings</t>
+  </si>
+  <si>
+    <t>Account number without any transactions</t>
   </si>
 </sst>
 </file>
@@ -3470,11 +3479,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="52"/>
       </patternFill>
     </fill>
@@ -3567,6 +3571,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
       </patternFill>
     </fill>
   </fills>
@@ -7697,7 +7706,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="335">
+  <cellXfs count="334">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -7766,7 +7775,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -8048,7 +8056,8 @@
     <xf numFmtId="0" fontId="0" fillId="226" borderId="273" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="227" borderId="274" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="228" borderId="275" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="229" borderId="276" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="229" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="230" borderId="276" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8058,7 +8067,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="230" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8343,7 +8351,7 @@
   <dimension ref="B2:J62"/>
   <sheetViews>
     <sheetView topLeftCell="H13" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="H24" sqref="H24:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8357,7 +8365,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="H2" s="238" t="s">
+      <c r="H2" s="237" t="s">
         <v>594</v>
       </c>
     </row>
@@ -8372,162 +8380,162 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>
-      <c r="H6" s="234" t="s">
+      <c r="H6" s="233" t="s">
         <v>604</v>
       </c>
-      <c r="I6" s="234"/>
-      <c r="J6" s="234" t="s">
+      <c r="I6" s="233"/>
+      <c r="J6" s="233" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="12"/>
-      <c r="H7" s="235" t="s">
+      <c r="H7" s="234" t="s">
         <v>490</v>
       </c>
-      <c r="I7" s="234" t="s">
+      <c r="I7" s="233" t="s">
         <v>286</v>
       </c>
-      <c r="J7" s="234" t="s">
+      <c r="J7" s="233" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
-      <c r="H8" s="236" t="s">
+      <c r="H8" s="235" t="s">
         <v>491</v>
       </c>
-      <c r="I8" s="234" t="s">
+      <c r="I8" s="233" t="s">
         <v>287</v>
       </c>
-      <c r="J8" s="234" t="s">
+      <c r="J8" s="233" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="24"/>
-      <c r="H9" s="236" t="s">
+      <c r="H9" s="235" t="s">
         <v>492</v>
       </c>
-      <c r="I9" s="234" t="s">
+      <c r="I9" s="233" t="s">
         <v>288</v>
       </c>
-      <c r="J9" s="234" t="s">
+      <c r="J9" s="233" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="13"/>
-      <c r="H10" s="234"/>
-      <c r="I10" s="237" t="s">
+      <c r="H10" s="233"/>
+      <c r="I10" s="236" t="s">
         <v>295</v>
       </c>
-      <c r="J10" s="234" t="s">
+      <c r="J10" s="233" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="14"/>
-      <c r="H11" s="234" t="s">
+      <c r="H11" s="233" t="s">
         <v>493</v>
       </c>
-      <c r="I11" s="234"/>
-      <c r="J11" s="237" t="s">
+      <c r="I11" s="233"/>
+      <c r="J11" s="236" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="25"/>
-      <c r="H12" s="234" t="s">
+      <c r="H12" s="233" t="s">
         <v>494</v>
       </c>
-      <c r="I12" s="234"/>
-      <c r="J12" s="234" t="s">
+      <c r="I12" s="233"/>
+      <c r="J12" s="233" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="77"/>
-      <c r="H13" s="234" t="s">
+      <c r="B13" s="76"/>
+      <c r="H13" s="233" t="s">
         <v>495</v>
       </c>
-      <c r="I13" s="234"/>
-      <c r="J13" s="234" t="s">
+      <c r="I13" s="233"/>
+      <c r="J13" s="233" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="77"/>
-      <c r="H14" s="234" t="s">
+      <c r="B14" s="76"/>
+      <c r="H14" s="233" t="s">
         <v>496</v>
       </c>
-      <c r="I14" s="234"/>
-      <c r="J14" s="234" t="s">
+      <c r="I14" s="233"/>
+      <c r="J14" s="233" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="77"/>
-      <c r="H15" s="234" t="s">
+      <c r="B15" s="76"/>
+      <c r="H15" s="233" t="s">
         <v>497</v>
       </c>
-      <c r="I15" s="234"/>
-      <c r="J15" s="234" t="s">
+      <c r="I15" s="233"/>
+      <c r="J15" s="233" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="77"/>
-      <c r="H16" s="234" t="s">
+      <c r="B16" s="76"/>
+      <c r="H16" s="233" t="s">
         <v>498</v>
       </c>
-      <c r="I16" s="234"/>
-      <c r="J16" s="234" t="s">
+      <c r="I16" s="233"/>
+      <c r="J16" s="233" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="77"/>
-      <c r="H17" s="234" t="s">
+      <c r="B17" s="76"/>
+      <c r="H17" s="233" t="s">
         <v>499</v>
       </c>
-      <c r="I17" s="234"/>
-      <c r="J17" s="234" t="s">
+      <c r="I17" s="233"/>
+      <c r="J17" s="233" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="77"/>
-      <c r="H18" s="234" t="s">
+      <c r="B18" s="76"/>
+      <c r="H18" s="233" t="s">
         <v>500</v>
       </c>
-      <c r="I18" s="234"/>
-      <c r="J18" s="234" t="s">
+      <c r="I18" s="233"/>
+      <c r="J18" s="233" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="15"/>
-      <c r="H19" s="234" t="s">
+      <c r="H19" s="233" t="s">
         <v>501</v>
       </c>
-      <c r="I19" s="234"/>
-      <c r="J19" s="234" t="s">
+      <c r="I19" s="233"/>
+      <c r="J19" s="233" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="26"/>
-      <c r="H20" s="234" t="s">
+      <c r="H20" s="233" t="s">
         <v>502</v>
       </c>
-      <c r="I20" s="234"/>
-      <c r="J20" s="234" t="s">
+      <c r="I20" s="233"/>
+      <c r="J20" s="233" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="77"/>
+      <c r="B21" s="76"/>
       <c r="H21" s="50"/>
       <c r="I21" s="50"/>
       <c r="J21" s="50"/>
@@ -8550,48 +8558,54 @@
         <v>517</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="29"/>
       <c r="H24" s="332">
-        <v>96501</v>
-      </c>
-      <c r="I24" s="62">
-        <v>44363</v>
-      </c>
-      <c r="J24" s="55"/>
+        <v>62422</v>
+      </c>
+      <c r="I24">
+        <v>45565</v>
+      </c>
+      <c r="J24" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="25" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="58"/>
       <c r="H25" s="332"/>
-      <c r="I25" s="62">
-        <v>44566</v>
-      </c>
-      <c r="J25" s="55"/>
+      <c r="I25">
+        <v>45566</v>
+      </c>
+      <c r="J25" s="55" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="26" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="58"/>
       <c r="H26" s="332"/>
-      <c r="I26" s="142">
-        <v>44604</v>
-      </c>
-      <c r="J26" s="55"/>
+      <c r="I26" s="53">
+        <v>45567</v>
+      </c>
+      <c r="J26" s="55" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="27" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="63"/>
+      <c r="B27" s="62"/>
       <c r="H27" s="332"/>
-      <c r="I27" s="64"/>
+      <c r="I27" s="63"/>
       <c r="J27" s="55"/>
     </row>
     <row r="28" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="63"/>
+      <c r="B28" s="62"/>
       <c r="H28" s="332"/>
-      <c r="I28" s="64"/>
+      <c r="I28" s="63"/>
       <c r="J28" s="55"/>
     </row>
     <row r="29" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="58"/>
       <c r="H29" s="332"/>
-      <c r="I29" s="64"/>
+      <c r="I29" s="63"/>
       <c r="J29" s="55"/>
     </row>
     <row r="30" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -8646,88 +8660,88 @@
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="32"/>
       <c r="E39" s="333"/>
-      <c r="F39" s="103" t="s">
+      <c r="F39" s="102" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="33"/>
       <c r="E40" s="333"/>
-      <c r="F40" s="103" t="s">
+      <c r="F40" s="102" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="34"/>
       <c r="E41" s="333"/>
-      <c r="F41" s="103" t="s">
+      <c r="F41" s="102" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="35"/>
       <c r="E42" s="333"/>
-      <c r="F42" s="103" t="s">
+      <c r="F42" s="102" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E43" s="333"/>
-      <c r="F43" s="103" t="s">
+      <c r="F43" s="102" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="36"/>
       <c r="E44" s="333"/>
-      <c r="F44" s="103" t="s">
+      <c r="F44" s="102" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="37"/>
       <c r="E45" s="333"/>
-      <c r="F45" s="103" t="s">
+      <c r="F45" s="102" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="38"/>
       <c r="E46" s="333"/>
-      <c r="F46" s="103" t="s">
+      <c r="F46" s="102" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="39"/>
       <c r="E47" s="333"/>
-      <c r="F47" s="103" t="s">
+      <c r="F47" s="102" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="40"/>
       <c r="E48" s="333"/>
-      <c r="F48" s="103" t="s">
+      <c r="F48" s="102" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E49" s="333"/>
-      <c r="F49" s="103" t="s">
+      <c r="F49" s="102" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E50" s="333"/>
-      <c r="F50" s="103" t="s">
+      <c r="F50" s="102" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="41"/>
       <c r="E51" s="333"/>
-      <c r="F51" s="104" t="s">
+      <c r="F51" s="103" t="s">
         <v>251</v>
       </c>
     </row>
@@ -8772,7 +8786,7 @@
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8818,7 +8832,7 @@
       <c r="E2" s="49" t="s">
         <v>606</v>
       </c>
-      <c r="F2" s="239" t="s">
+      <c r="F2" s="238" t="s">
         <v>349</v>
       </c>
     </row>
@@ -8838,7 +8852,7 @@
       <c r="E3" s="49" t="s">
         <v>607</v>
       </c>
-      <c r="F3" s="240" t="s">
+      <c r="F3" s="239" t="s">
         <v>349</v>
       </c>
     </row>
@@ -8856,7 +8870,7 @@
       <c r="E4" s="49" t="s">
         <v>335</v>
       </c>
-      <c r="F4" s="241" t="s">
+      <c r="F4" s="240" t="s">
         <v>350</v>
       </c>
     </row>
@@ -8876,7 +8890,7 @@
       <c r="E5" s="49" t="s">
         <v>335</v>
       </c>
-      <c r="F5" s="242" t="s">
+      <c r="F5" s="241" t="s">
         <v>351</v>
       </c>
     </row>
@@ -8896,7 +8910,7 @@
       <c r="E6" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="F6" s="243" t="s">
+      <c r="F6" s="242" t="s">
         <v>351</v>
       </c>
     </row>
@@ -8916,7 +8930,7 @@
       <c r="E7" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="F7" s="244" t="s">
+      <c r="F7" s="243" t="s">
         <v>352</v>
       </c>
     </row>
@@ -8936,7 +8950,7 @@
       <c r="E8" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="F8" s="245" t="s">
+      <c r="F8" s="244" t="s">
         <v>353</v>
       </c>
     </row>
@@ -8956,7 +8970,7 @@
       <c r="E9" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="F9" s="246" t="s">
+      <c r="F9" s="245" t="s">
         <v>353</v>
       </c>
     </row>
@@ -8988,7 +9002,7 @@
   </sheetPr>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -9026,7 +9040,7 @@
       <c r="H1" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="I1" s="264" t="s">
+      <c r="I1" s="263" t="s">
         <v>5</v>
       </c>
     </row>
@@ -9037,7 +9051,7 @@
       <c r="B2" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="64" t="s">
         <v>335</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -9052,10 +9066,10 @@
       <c r="G2" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="H2" s="259" t="s">
+      <c r="H2" s="258" t="s">
         <v>615</v>
       </c>
-      <c r="I2" s="272" t="s">
+      <c r="I2" s="271" t="s">
         <v>349</v>
       </c>
     </row>
@@ -9081,10 +9095,10 @@
       <c r="G3" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="H3" s="259" t="s">
+      <c r="H3" s="258" t="s">
         <v>616</v>
       </c>
-      <c r="I3" s="273" t="s">
+      <c r="I3" s="272" t="s">
         <v>349</v>
       </c>
     </row>
@@ -9110,10 +9124,10 @@
       <c r="G4" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="H4" s="259" t="s">
+      <c r="H4" s="258" t="s">
         <v>617</v>
       </c>
-      <c r="I4" s="274" t="s">
+      <c r="I4" s="273" t="s">
         <v>349</v>
       </c>
     </row>
@@ -9121,10 +9135,10 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="65" t="s">
         <v>379</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="64" t="s">
         <v>335</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -9139,10 +9153,10 @@
       <c r="G5" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="H5" s="260" t="s">
+      <c r="H5" s="259" t="s">
         <v>615</v>
       </c>
-      <c r="I5" s="275" t="s">
+      <c r="I5" s="274" t="s">
         <v>349</v>
       </c>
     </row>
@@ -9150,10 +9164,10 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="65" t="s">
         <v>380</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="64" t="s">
         <v>335</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -9168,10 +9182,10 @@
       <c r="G6" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="H6" s="260" t="s">
+      <c r="H6" s="259" t="s">
         <v>618</v>
       </c>
-      <c r="I6" s="276" t="s">
+      <c r="I6" s="275" t="s">
         <v>349</v>
       </c>
     </row>
@@ -9179,10 +9193,10 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="65" t="s">
         <v>381</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="64" t="s">
         <v>335</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -9197,10 +9211,10 @@
       <c r="G7" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="H7" s="260" t="s">
+      <c r="H7" s="259" t="s">
         <v>610</v>
       </c>
-      <c r="I7" s="277" t="s">
+      <c r="I7" s="276" t="s">
         <v>349</v>
       </c>
     </row>
@@ -9208,10 +9222,10 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="65" t="s">
         <v>383</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="64" t="s">
         <v>335</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -9226,10 +9240,10 @@
       <c r="G8" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="H8" s="260" t="s">
+      <c r="H8" s="259" t="s">
         <v>619</v>
       </c>
-      <c r="I8" s="278" t="s">
+      <c r="I8" s="277" t="s">
         <v>349</v>
       </c>
     </row>
@@ -9237,13 +9251,13 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="65" t="s">
         <v>377</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D9" s="142" t="s">
+      <c r="D9" s="141" t="s">
         <v>335</v>
       </c>
       <c r="E9" s="1">
@@ -9253,10 +9267,10 @@
       <c r="G9" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="H9" s="260" t="s">
+      <c r="H9" s="259" t="s">
         <v>620</v>
       </c>
-      <c r="I9" s="279" t="s">
+      <c r="I9" s="278" t="s">
         <v>349</v>
       </c>
     </row>
@@ -9280,10 +9294,10 @@
       <c r="G10" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="H10" s="261" t="s">
+      <c r="H10" s="260" t="s">
         <v>599</v>
       </c>
-      <c r="I10" s="280" t="s">
+      <c r="I10" s="279" t="s">
         <v>353</v>
       </c>
     </row>
@@ -9309,10 +9323,10 @@
       <c r="G11" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H11" s="262" t="s">
+      <c r="H11" s="261" t="s">
         <v>599</v>
       </c>
-      <c r="I11" s="281" t="s">
+      <c r="I11" s="280" t="s">
         <v>353</v>
       </c>
     </row>
@@ -9338,10 +9352,10 @@
       <c r="G12" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H12" s="262" t="s">
+      <c r="H12" s="261" t="s">
         <v>599</v>
       </c>
-      <c r="I12" s="282" t="s">
+      <c r="I12" s="281" t="s">
         <v>353</v>
       </c>
     </row>
@@ -9367,10 +9381,10 @@
       <c r="G13" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H13" s="262" t="s">
+      <c r="H13" s="261" t="s">
         <v>599</v>
       </c>
-      <c r="I13" s="283" t="s">
+      <c r="I13" s="282" t="s">
         <v>353</v>
       </c>
     </row>
@@ -9396,10 +9410,10 @@
       <c r="G14" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="H14" s="262" t="s">
+      <c r="H14" s="261" t="s">
         <v>599</v>
       </c>
-      <c r="I14" s="284" t="s">
+      <c r="I14" s="283" t="s">
         <v>353</v>
       </c>
     </row>
@@ -9425,10 +9439,10 @@
       <c r="G15" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="H15" s="263" t="s">
+      <c r="H15" s="262" t="s">
         <v>599</v>
       </c>
-      <c r="I15" s="285" t="s">
+      <c r="I15" s="284" t="s">
         <v>353</v>
       </c>
     </row>
@@ -9436,7 +9450,7 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="65" t="s">
         <v>372</v>
       </c>
       <c r="C16" s="1">
@@ -9452,10 +9466,10 @@
       <c r="G16" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="H16" s="260" t="s">
+      <c r="H16" s="259" t="s">
         <v>599</v>
       </c>
-      <c r="I16" s="286" t="s">
+      <c r="I16" s="285" t="s">
         <v>621</v>
       </c>
     </row>
@@ -9463,7 +9477,7 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="65" t="s">
         <v>373</v>
       </c>
       <c r="C17" s="1">
@@ -9481,10 +9495,10 @@
       <c r="G17" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H17" s="260" t="s">
+      <c r="H17" s="259" t="s">
         <v>599</v>
       </c>
-      <c r="I17" s="287" t="s">
+      <c r="I17" s="286" t="s">
         <v>621</v>
       </c>
     </row>
@@ -9492,7 +9506,7 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="65" t="s">
         <v>374</v>
       </c>
       <c r="C18" s="1">
@@ -9510,10 +9524,10 @@
       <c r="G18" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H18" s="260" t="s">
+      <c r="H18" s="259" t="s">
         <v>599</v>
       </c>
-      <c r="I18" s="291" t="s">
+      <c r="I18" s="290" t="s">
         <v>622</v>
       </c>
     </row>
@@ -9521,7 +9535,7 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="65" t="s">
         <v>375</v>
       </c>
       <c r="C19" s="1">
@@ -9539,10 +9553,10 @@
       <c r="G19" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H19" s="260" t="s">
+      <c r="H19" s="259" t="s">
         <v>599</v>
       </c>
-      <c r="I19" s="288" t="s">
+      <c r="I19" s="287" t="s">
         <v>621</v>
       </c>
     </row>
@@ -9550,7 +9564,7 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="65" t="s">
         <v>385</v>
       </c>
       <c r="C20" s="1"/>
@@ -9560,10 +9574,10 @@
       <c r="G20" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="H20" s="260" t="s">
+      <c r="H20" s="259" t="s">
         <v>599</v>
       </c>
-      <c r="I20" s="289" t="s">
+      <c r="I20" s="288" t="s">
         <v>353</v>
       </c>
     </row>
@@ -9571,7 +9585,7 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="65" t="s">
         <v>394</v>
       </c>
       <c r="C21" s="1">
@@ -9589,19 +9603,19 @@
       <c r="G21" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="H21" s="260" t="s">
+      <c r="H21" s="259" t="s">
         <v>599</v>
       </c>
-      <c r="I21" s="290" t="s">
+      <c r="I21" s="289" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="65" t="s">
         <v>395</v>
       </c>
-      <c r="C23" s="67">
+      <c r="C23" s="66">
         <v>39978</v>
       </c>
       <c r="D23" s="1">
@@ -9630,7 +9644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -9640,7 +9654,7 @@
     <col min="2" max="2" width="39" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="38.88671875" style="71" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="38.88671875" style="70" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -9662,7 +9676,7 @@
       <c r="F1" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="68" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -9676,10 +9690,10 @@
       <c r="B2" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C2" s="72">
+      <c r="C2" s="71">
         <v>45017</v>
       </c>
-      <c r="D2" s="72">
+      <c r="D2" s="71">
         <v>45024</v>
       </c>
       <c r="E2" s="1">
@@ -9688,10 +9702,10 @@
       <c r="F2" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G2" s="293" t="s">
+      <c r="G2" s="292" t="s">
         <v>426</v>
       </c>
-      <c r="H2" s="304" t="s">
+      <c r="H2" s="302" t="s">
         <v>635</v>
       </c>
     </row>
@@ -9702,10 +9716,10 @@
       <c r="B3" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C3" s="72">
+      <c r="C3" s="71">
         <v>45018</v>
       </c>
-      <c r="D3" s="72">
+      <c r="D3" s="71">
         <v>45023</v>
       </c>
       <c r="E3" s="1">
@@ -9714,10 +9728,10 @@
       <c r="F3" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G3" s="293" t="s">
+      <c r="G3" s="292" t="s">
         <v>426</v>
       </c>
-      <c r="H3" s="305" t="s">
+      <c r="H3" s="303" t="s">
         <v>635</v>
       </c>
     </row>
@@ -9725,13 +9739,13 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="65" t="s">
         <v>379</v>
       </c>
-      <c r="C4" s="72">
+      <c r="C4" s="71">
         <v>45019</v>
       </c>
-      <c r="D4" s="72">
+      <c r="D4" s="71">
         <v>45022</v>
       </c>
       <c r="E4" s="1">
@@ -9740,10 +9754,10 @@
       <c r="F4" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="69" t="s">
         <v>426</v>
       </c>
-      <c r="H4" s="306" t="s">
+      <c r="H4" s="304" t="s">
         <v>635</v>
       </c>
     </row>
@@ -9751,13 +9765,13 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="65" t="s">
         <v>380</v>
       </c>
-      <c r="C5" s="72">
+      <c r="C5" s="71">
         <v>45020</v>
       </c>
-      <c r="D5" s="72">
+      <c r="D5" s="71">
         <v>45021</v>
       </c>
       <c r="E5" s="1">
@@ -9766,10 +9780,10 @@
       <c r="F5" s="1">
         <v>908</v>
       </c>
-      <c r="G5" s="70" t="s">
+      <c r="G5" s="69" t="s">
         <v>426</v>
       </c>
-      <c r="H5" s="307" t="s">
+      <c r="H5" s="305" t="s">
         <v>635</v>
       </c>
     </row>
@@ -9777,13 +9791,13 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="65" t="s">
         <v>381</v>
       </c>
-      <c r="C6" s="72">
+      <c r="C6" s="71">
         <v>45021</v>
       </c>
-      <c r="D6" s="72">
+      <c r="D6" s="71">
         <v>45020</v>
       </c>
       <c r="E6" s="1">
@@ -9792,10 +9806,10 @@
       <c r="F6" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="G6" s="70" t="s">
+      <c r="G6" s="69" t="s">
         <v>426</v>
       </c>
-      <c r="H6" s="308" t="s">
+      <c r="H6" s="306" t="s">
         <v>635</v>
       </c>
     </row>
@@ -9803,13 +9817,13 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="65" t="s">
         <v>427</v>
       </c>
-      <c r="C7" s="72">
+      <c r="C7" s="71">
         <v>45022</v>
       </c>
-      <c r="D7" s="72">
+      <c r="D7" s="71">
         <v>45019</v>
       </c>
       <c r="E7" s="1">
@@ -9818,10 +9832,10 @@
       <c r="F7" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="G7" s="70" t="s">
+      <c r="G7" s="69" t="s">
         <v>426</v>
       </c>
-      <c r="H7" s="309" t="s">
+      <c r="H7" s="307" t="s">
         <v>635</v>
       </c>
     </row>
@@ -9829,13 +9843,13 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="65" t="s">
         <v>625</v>
       </c>
-      <c r="C8" s="72">
+      <c r="C8" s="71">
         <v>45023</v>
       </c>
-      <c r="D8" s="72">
+      <c r="D8" s="71">
         <v>45018</v>
       </c>
       <c r="E8" s="1">
@@ -9844,10 +9858,10 @@
       <c r="F8" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="G8" s="70" t="s">
+      <c r="G8" s="69" t="s">
         <v>426</v>
       </c>
-      <c r="H8" s="310" t="s">
+      <c r="H8" s="308" t="s">
         <v>635</v>
       </c>
     </row>
@@ -9855,13 +9869,13 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="65" t="s">
         <v>424</v>
       </c>
-      <c r="C9" s="72">
+      <c r="C9" s="71">
         <v>45024</v>
       </c>
-      <c r="D9" s="72">
+      <c r="D9" s="71">
         <v>45017</v>
       </c>
       <c r="E9" s="1">
@@ -9870,10 +9884,10 @@
       <c r="F9" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G9" s="70" t="s">
+      <c r="G9" s="69" t="s">
         <v>425</v>
       </c>
-      <c r="H9" s="311" t="s">
+      <c r="H9" s="309" t="s">
         <v>636</v>
       </c>
     </row>
@@ -9896,10 +9910,10 @@
       <c r="F10" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="G10" s="70" t="s">
+      <c r="G10" s="69" t="s">
         <v>400</v>
       </c>
-      <c r="H10" s="312" t="s">
+      <c r="H10" s="310" t="s">
         <v>637</v>
       </c>
     </row>
@@ -9921,7 +9935,7 @@
       <c r="G11" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="H11" s="313" t="s">
+      <c r="H11" s="311" t="s">
         <v>638</v>
       </c>
     </row>
@@ -9945,7 +9959,7 @@
       <c r="G12" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H12" s="314" t="s">
+      <c r="H12" s="312" t="s">
         <v>638</v>
       </c>
     </row>
@@ -9969,7 +9983,7 @@
       <c r="G13" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H13" s="315" t="s">
+      <c r="H13" s="313" t="s">
         <v>638</v>
       </c>
     </row>
@@ -9993,7 +10007,7 @@
       <c r="G14" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H14" s="316" t="s">
+      <c r="H14" s="314" t="s">
         <v>638</v>
       </c>
     </row>
@@ -10012,10 +10026,10 @@
       <c r="F15" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G15" s="70" t="s">
+      <c r="G15" s="69" t="s">
         <v>418</v>
       </c>
-      <c r="H15" s="317" t="s">
+      <c r="H15" s="315" t="s">
         <v>638</v>
       </c>
     </row>
@@ -10034,10 +10048,10 @@
       <c r="F16" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G16" s="70" t="s">
+      <c r="G16" s="69" t="s">
         <v>421</v>
       </c>
-      <c r="H16" s="318" t="s">
+      <c r="H16" s="316" t="s">
         <v>638</v>
       </c>
     </row>
@@ -10059,7 +10073,7 @@
       <c r="G17" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="H17" s="319" t="s">
+      <c r="H17" s="317" t="s">
         <v>638</v>
       </c>
     </row>
@@ -10083,7 +10097,7 @@
       <c r="G18" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H18" s="320" t="s">
+      <c r="H18" s="318" t="s">
         <v>638</v>
       </c>
     </row>
@@ -10107,7 +10121,7 @@
       <c r="G19" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H19" s="321" t="s">
+      <c r="H19" s="319" t="s">
         <v>638</v>
       </c>
     </row>
@@ -10131,7 +10145,7 @@
       <c r="G20" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H20" s="322" t="s">
+      <c r="H20" s="320" t="s">
         <v>638</v>
       </c>
     </row>
@@ -10150,10 +10164,10 @@
       <c r="F21" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G21" s="70" t="s">
+      <c r="G21" s="69" t="s">
         <v>418</v>
       </c>
-      <c r="H21" s="323" t="s">
+      <c r="H21" s="321" t="s">
         <v>638</v>
       </c>
     </row>
@@ -10172,10 +10186,10 @@
       <c r="F22" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G22" s="70" t="s">
+      <c r="G22" s="69" t="s">
         <v>421</v>
       </c>
-      <c r="H22" s="324" t="s">
+      <c r="H22" s="322" t="s">
         <v>638</v>
       </c>
     </row>
@@ -10183,7 +10197,7 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="65" t="s">
         <v>372</v>
       </c>
       <c r="C23" s="1">
@@ -10196,10 +10210,10 @@
       <c r="F23" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G23" s="70" t="s">
+      <c r="G23" s="69" t="s">
         <v>376</v>
       </c>
-      <c r="H23" s="325" t="s">
+      <c r="H23" s="323" t="s">
         <v>639</v>
       </c>
     </row>
@@ -10207,7 +10221,7 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="65" t="s">
         <v>373</v>
       </c>
       <c r="C24" s="1">
@@ -10222,10 +10236,10 @@
       <c r="F24" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G24" s="70" t="s">
+      <c r="G24" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="H24" s="326" t="s">
+      <c r="H24" s="324" t="s">
         <v>351</v>
       </c>
     </row>
@@ -10233,7 +10247,7 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="65" t="s">
         <v>374</v>
       </c>
       <c r="C25" s="1">
@@ -10248,10 +10262,10 @@
       <c r="F25" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G25" s="70" t="s">
+      <c r="G25" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="H25" s="327" t="s">
+      <c r="H25" s="325" t="s">
         <v>351</v>
       </c>
     </row>
@@ -10259,7 +10273,7 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="65" t="s">
         <v>375</v>
       </c>
       <c r="C26" s="1">
@@ -10274,10 +10288,10 @@
       <c r="F26" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G26" s="70" t="s">
+      <c r="G26" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="H26" s="328" t="s">
+      <c r="H26" s="326" t="s">
         <v>352</v>
       </c>
     </row>
@@ -10285,7 +10299,7 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="65" t="s">
         <v>377</v>
       </c>
       <c r="C27" s="1">
@@ -10298,10 +10312,10 @@
         <v>10</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="70" t="s">
+      <c r="G27" s="69" t="s">
         <v>378</v>
       </c>
-      <c r="H27" s="329" t="s">
+      <c r="H27" s="327" t="s">
         <v>640</v>
       </c>
     </row>
@@ -10309,25 +10323,25 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="65" t="s">
         <v>414</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="70" t="s">
+      <c r="G28" s="69" t="s">
         <v>430</v>
       </c>
-      <c r="H28" s="330" t="s">
+      <c r="H28" s="328" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G29" s="292"/>
+      <c r="G29" s="291"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="294"/>
+      <c r="B33" s="293"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10337,16 +10351,16 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="40.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -10401,7 +10415,9 @@
         <v>323</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" t="s">
+        <v>324</v>
+      </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -10472,12 +10488,25 @@
         <v>343</v>
       </c>
       <c r="C9" s="1">
-        <v>1234589087</v>
+        <v>12345890871</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>333</v>
       </c>
       <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="65">
+        <v>9</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>646</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10676,7 +10705,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="65" t="s">
         <v>458</v>
       </c>
       <c r="C10" s="1"/>
@@ -10693,7 +10722,7 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="65" t="s">
         <v>459</v>
       </c>
       <c r="C11" s="1"/>
@@ -10710,7 +10739,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="65" t="s">
         <v>460</v>
       </c>
       <c r="C12" s="1"/>
@@ -10727,7 +10756,7 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="65" t="s">
         <v>461</v>
       </c>
       <c r="C13" s="1"/>
@@ -10744,7 +10773,7 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="65" t="s">
         <v>465</v>
       </c>
       <c r="C14" s="1"/>
@@ -10761,7 +10790,7 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="65" t="s">
         <v>466</v>
       </c>
       <c r="C15" s="1"/>
@@ -10778,7 +10807,7 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="65" t="s">
         <v>467</v>
       </c>
       <c r="C16" s="1"/>
@@ -10795,7 +10824,7 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="65" t="s">
         <v>468</v>
       </c>
       <c r="C17" s="1"/>
@@ -10812,7 +10841,7 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="65" t="s">
         <v>470</v>
       </c>
       <c r="C18" s="1"/>
@@ -10829,7 +10858,7 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="65" t="s">
         <v>471</v>
       </c>
       <c r="C19" s="1"/>
@@ -10846,7 +10875,7 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="65" t="s">
         <v>472</v>
       </c>
       <c r="C20" s="1"/>
@@ -10863,7 +10892,7 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="65" t="s">
         <v>473</v>
       </c>
       <c r="C21" s="1"/>
@@ -10880,7 +10909,7 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="65" t="s">
         <v>474</v>
       </c>
       <c r="C22" s="1"/>
@@ -10897,7 +10926,7 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="65" t="s">
         <v>475</v>
       </c>
       <c r="C23" s="1"/>
@@ -10950,16 +10979,16 @@
       </c>
     </row>
     <row r="3" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F3" s="72">
+      <c r="F3" s="71">
         <v>45017</v>
       </c>
-      <c r="G3" s="72">
+      <c r="G3" s="71">
         <v>45024</v>
       </c>
-      <c r="H3" s="334">
+      <c r="H3" s="329">
         <v>980</v>
       </c>
-      <c r="I3" s="334">
+      <c r="I3" s="329">
         <v>510</v>
       </c>
       <c r="J3" s="1">
@@ -10975,16 +11004,16 @@
       </c>
     </row>
     <row r="4" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F4" s="72">
+      <c r="F4" s="71">
         <v>45018</v>
       </c>
-      <c r="G4" s="72">
+      <c r="G4" s="71">
         <v>45023</v>
       </c>
-      <c r="H4" s="334">
+      <c r="H4" s="329">
         <v>480</v>
       </c>
-      <c r="I4" s="334">
+      <c r="I4" s="329">
         <v>510</v>
       </c>
       <c r="J4" s="1">
@@ -11000,16 +11029,16 @@
       </c>
     </row>
     <row r="5" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F5" s="72">
+      <c r="F5" s="71">
         <v>45019</v>
       </c>
-      <c r="G5" s="72">
+      <c r="G5" s="71">
         <v>45022</v>
       </c>
-      <c r="H5" s="334">
+      <c r="H5" s="329">
         <v>5979</v>
       </c>
-      <c r="I5" s="334">
+      <c r="I5" s="329">
         <v>1329</v>
       </c>
       <c r="J5" s="1">
@@ -11025,16 +11054,16 @@
       </c>
     </row>
     <row r="6" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F6" s="72">
+      <c r="F6" s="71">
         <v>45020</v>
       </c>
-      <c r="G6" s="72">
+      <c r="G6" s="71">
         <v>45021</v>
       </c>
-      <c r="H6" s="334">
+      <c r="H6" s="329">
         <v>4579</v>
       </c>
-      <c r="I6" s="334">
+      <c r="I6" s="329">
         <v>1139</v>
       </c>
       <c r="J6" s="1">
@@ -11050,16 +11079,16 @@
       </c>
     </row>
     <row r="7" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F7" s="72">
+      <c r="F7" s="71">
         <v>45021</v>
       </c>
-      <c r="G7" s="72">
+      <c r="G7" s="71">
         <v>45020</v>
       </c>
-      <c r="H7" s="334">
+      <c r="H7" s="329">
         <v>1189</v>
       </c>
-      <c r="I7" s="334"/>
+      <c r="I7" s="329"/>
       <c r="J7" s="1">
         <v>50</v>
       </c>
@@ -11073,16 +11102,16 @@
       </c>
     </row>
     <row r="8" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F8" s="72">
+      <c r="F8" s="71">
         <v>45022</v>
       </c>
-      <c r="G8" s="72">
+      <c r="G8" s="71">
         <v>45019</v>
       </c>
-      <c r="H8" s="334">
+      <c r="H8" s="329">
         <v>1389</v>
       </c>
-      <c r="I8" s="334"/>
+      <c r="I8" s="329"/>
       <c r="J8" s="1">
         <v>60</v>
       </c>
@@ -11096,16 +11125,16 @@
       </c>
     </row>
     <row r="9" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F9" s="72">
+      <c r="F9" s="71">
         <v>45023</v>
       </c>
-      <c r="G9" s="72">
+      <c r="G9" s="71">
         <v>45018</v>
       </c>
-      <c r="H9" s="334">
+      <c r="H9" s="329">
         <v>580</v>
       </c>
-      <c r="I9" s="334"/>
+      <c r="I9" s="329"/>
       <c r="J9" s="1">
         <v>70</v>
       </c>
@@ -11119,16 +11148,16 @@
       </c>
     </row>
     <row r="10" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F10" s="72">
+      <c r="F10" s="71">
         <v>45024</v>
       </c>
-      <c r="G10" s="72">
+      <c r="G10" s="71">
         <v>45017</v>
       </c>
-      <c r="H10" s="334">
+      <c r="H10" s="329">
         <v>510</v>
       </c>
-      <c r="I10" s="334"/>
+      <c r="I10" s="329"/>
       <c r="J10" s="1">
         <v>99999999</v>
       </c>
@@ -11149,12 +11178,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
-    <tabColor theme="9"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11201,7 +11230,7 @@
         <v>478</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>476</v>
+        <v>644</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>477</v>
@@ -11209,7 +11238,7 @@
       <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="303" t="s">
+      <c r="G2" s="330" t="s">
         <v>480</v>
       </c>
     </row>
@@ -11232,7 +11261,7 @@
       <c r="F3" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="G3" s="80" t="s">
+      <c r="G3" s="79" t="s">
         <v>481</v>
       </c>
     </row>
@@ -11255,7 +11284,7 @@
       <c r="F4" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="G4" s="81" t="s">
+      <c r="G4" s="80" t="s">
         <v>481</v>
       </c>
     </row>
@@ -11278,7 +11307,7 @@
       <c r="F5" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="G5" s="82" t="s">
+      <c r="G5" s="81" t="s">
         <v>481</v>
       </c>
     </row>
@@ -11299,7 +11328,7 @@
       <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="83" t="s">
+      <c r="G6" s="82" t="s">
         <v>482</v>
       </c>
     </row>
@@ -11320,7 +11349,7 @@
       <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="84" t="s">
+      <c r="G7" s="83" t="s">
         <v>483</v>
       </c>
     </row>
@@ -11339,7 +11368,7 @@
       <c r="F8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="85" t="s">
+      <c r="G8" s="84" t="s">
         <v>484</v>
       </c>
     </row>
@@ -11354,7 +11383,7 @@
         <v>478</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>476</v>
+        <v>644</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>477</v>
@@ -11362,25 +11391,25 @@
       <c r="F9" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="G9" s="86" t="s">
+      <c r="G9" s="85" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C10" s="79"/>
+      <c r="C10" s="78"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C11" s="79"/>
+      <c r="C11" s="78"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C12" s="79"/>
+      <c r="C12" s="78"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C13" s="79"/>
+      <c r="C13" s="78"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -11501,10 +11530,10 @@
       <c r="M2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N2" s="148" t="s">
+      <c r="N2" s="147" t="s">
         <v>520</v>
       </c>
-      <c r="O2" s="148" t="s">
+      <c r="O2" s="147" t="s">
         <v>519</v>
       </c>
     </row>
@@ -11548,10 +11577,10 @@
       <c r="M3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N3" s="149" t="s">
+      <c r="N3" s="148" t="s">
         <v>561</v>
       </c>
-      <c r="O3" s="149" t="s">
+      <c r="O3" s="148" t="s">
         <v>519</v>
       </c>
     </row>
@@ -11595,10 +11624,10 @@
       <c r="M4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N4" s="150" t="s">
+      <c r="N4" s="149" t="s">
         <v>562</v>
       </c>
-      <c r="O4" s="150" t="s">
+      <c r="O4" s="149" t="s">
         <v>519</v>
       </c>
     </row>
@@ -11642,10 +11671,10 @@
       <c r="M5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N5" s="151" t="s">
+      <c r="N5" s="150" t="s">
         <v>563</v>
       </c>
-      <c r="O5" s="151" t="s">
+      <c r="O5" s="150" t="s">
         <v>519</v>
       </c>
     </row>
@@ -11687,10 +11716,10 @@
       <c r="M6" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N6" s="152" t="s">
+      <c r="N6" s="151" t="s">
         <v>564</v>
       </c>
-      <c r="O6" s="152" t="s">
+      <c r="O6" s="151" t="s">
         <v>519</v>
       </c>
     </row>
@@ -11734,10 +11763,10 @@
       <c r="M7" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N7" s="153" t="s">
+      <c r="N7" s="152" t="s">
         <v>565</v>
       </c>
-      <c r="O7" s="153" t="s">
+      <c r="O7" s="152" t="s">
         <v>519</v>
       </c>
     </row>
@@ -11781,10 +11810,10 @@
       <c r="M8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N8" s="154" t="s">
+      <c r="N8" s="153" t="s">
         <v>566</v>
       </c>
-      <c r="O8" s="154" t="s">
+      <c r="O8" s="153" t="s">
         <v>519</v>
       </c>
     </row>
@@ -11828,10 +11857,10 @@
       <c r="M9" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N9" s="195" t="s">
+      <c r="N9" s="194" t="s">
         <v>588</v>
       </c>
-      <c r="O9" s="195" t="s">
+      <c r="O9" s="194" t="s">
         <v>519</v>
       </c>
     </row>
@@ -11875,10 +11904,10 @@
       <c r="M10" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N10" s="155" t="s">
+      <c r="N10" s="154" t="s">
         <v>567</v>
       </c>
-      <c r="O10" s="155" t="s">
+      <c r="O10" s="154" t="s">
         <v>519</v>
       </c>
     </row>
@@ -11922,10 +11951,10 @@
       <c r="M11" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N11" s="156" t="s">
+      <c r="N11" s="155" t="s">
         <v>568</v>
       </c>
-      <c r="O11" s="156" t="s">
+      <c r="O11" s="155" t="s">
         <v>519</v>
       </c>
     </row>
@@ -11969,10 +11998,10 @@
       <c r="M12" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N12" s="157" t="s">
+      <c r="N12" s="156" t="s">
         <v>569</v>
       </c>
-      <c r="O12" s="157" t="s">
+      <c r="O12" s="156" t="s">
         <v>519</v>
       </c>
     </row>
@@ -12016,10 +12045,10 @@
       <c r="M13" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N13" s="158" t="s">
+      <c r="N13" s="157" t="s">
         <v>570</v>
       </c>
-      <c r="O13" s="158" t="s">
+      <c r="O13" s="157" t="s">
         <v>519</v>
       </c>
     </row>
@@ -12063,10 +12092,10 @@
       <c r="M14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N14" s="159" t="s">
+      <c r="N14" s="158" t="s">
         <v>571</v>
       </c>
-      <c r="O14" s="159" t="s">
+      <c r="O14" s="158" t="s">
         <v>519</v>
       </c>
     </row>
@@ -12110,10 +12139,10 @@
       <c r="M15" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N15" s="160" t="s">
+      <c r="N15" s="159" t="s">
         <v>572</v>
       </c>
-      <c r="O15" s="160" t="s">
+      <c r="O15" s="159" t="s">
         <v>519</v>
       </c>
     </row>
@@ -12157,10 +12186,10 @@
       <c r="M16" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N16" s="161" t="s">
+      <c r="N16" s="160" t="s">
         <v>573</v>
       </c>
-      <c r="O16" s="161" t="s">
+      <c r="O16" s="160" t="s">
         <v>519</v>
       </c>
     </row>
@@ -12204,10 +12233,10 @@
       <c r="M17" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="N17" s="196" t="s">
+      <c r="N17" s="195" t="s">
         <v>335</v>
       </c>
-      <c r="O17" s="196" t="s">
+      <c r="O17" s="195" t="s">
         <v>590</v>
       </c>
     </row>
@@ -12251,10 +12280,10 @@
       <c r="M18" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="N18" s="197" t="s">
+      <c r="N18" s="196" t="s">
         <v>335</v>
       </c>
-      <c r="O18" s="197" t="s">
+      <c r="O18" s="196" t="s">
         <v>590</v>
       </c>
     </row>
@@ -12296,10 +12325,10 @@
       <c r="M19" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N19" s="162" t="s">
+      <c r="N19" s="161" t="s">
         <v>335</v>
       </c>
-      <c r="O19" s="162" t="s">
+      <c r="O19" s="161" t="s">
         <v>574</v>
       </c>
     </row>
@@ -12343,10 +12372,10 @@
       <c r="M20" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N20" s="163" t="s">
+      <c r="N20" s="162" t="s">
         <v>335</v>
       </c>
-      <c r="O20" s="163" t="s">
+      <c r="O20" s="162" t="s">
         <v>575</v>
       </c>
     </row>
@@ -12390,10 +12419,10 @@
       <c r="M21" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N21" s="164" t="s">
+      <c r="N21" s="163" t="s">
         <v>335</v>
       </c>
-      <c r="O21" s="164" t="s">
+      <c r="O21" s="163" t="s">
         <v>576</v>
       </c>
     </row>
@@ -12437,10 +12466,10 @@
       <c r="M22" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N22" s="165" t="s">
+      <c r="N22" s="164" t="s">
         <v>335</v>
       </c>
-      <c r="O22" s="165" t="s">
+      <c r="O22" s="164" t="s">
         <v>352</v>
       </c>
     </row>
@@ -12482,10 +12511,10 @@
       <c r="M23" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="N23" s="166" t="s">
+      <c r="N23" s="165" t="s">
         <v>335</v>
       </c>
-      <c r="O23" s="166" t="s">
+      <c r="O23" s="165" t="s">
         <v>577</v>
       </c>
     </row>
@@ -12527,10 +12556,10 @@
       <c r="M24" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="N24" s="167" t="s">
+      <c r="N24" s="166" t="s">
         <v>335</v>
       </c>
-      <c r="O24" s="167" t="s">
+      <c r="O24" s="166" t="s">
         <v>578</v>
       </c>
     </row>
@@ -12574,10 +12603,10 @@
       <c r="M25" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N25" s="168" t="s">
+      <c r="N25" s="167" t="s">
         <v>335</v>
       </c>
-      <c r="O25" s="168" t="s">
+      <c r="O25" s="167" t="s">
         <v>575</v>
       </c>
     </row>
@@ -12621,10 +12650,10 @@
       <c r="M26" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N26" s="169" t="s">
+      <c r="N26" s="168" t="s">
         <v>335</v>
       </c>
-      <c r="O26" s="169" t="s">
+      <c r="O26" s="168" t="s">
         <v>352</v>
       </c>
     </row>
@@ -12666,10 +12695,10 @@
       <c r="M27" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="N27" s="170" t="s">
+      <c r="N27" s="169" t="s">
         <v>335</v>
       </c>
-      <c r="O27" s="170" t="s">
+      <c r="O27" s="169" t="s">
         <v>579</v>
       </c>
     </row>
@@ -12713,10 +12742,10 @@
       <c r="M28" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N28" s="171" t="s">
+      <c r="N28" s="170" t="s">
         <v>335</v>
       </c>
-      <c r="O28" s="171" t="s">
+      <c r="O28" s="170" t="s">
         <v>575</v>
       </c>
     </row>
@@ -12760,10 +12789,10 @@
       <c r="M29" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N29" s="172" t="s">
+      <c r="N29" s="171" t="s">
         <v>335</v>
       </c>
-      <c r="O29" s="172" t="s">
+      <c r="O29" s="171" t="s">
         <v>576</v>
       </c>
     </row>
@@ -12807,10 +12836,10 @@
       <c r="M30" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N30" s="173" t="s">
+      <c r="N30" s="172" t="s">
         <v>335</v>
       </c>
-      <c r="O30" s="173" t="s">
+      <c r="O30" s="172" t="s">
         <v>352</v>
       </c>
     </row>
@@ -12852,10 +12881,10 @@
       <c r="M31" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N31" s="174" t="s">
+      <c r="N31" s="173" t="s">
         <v>335</v>
       </c>
-      <c r="O31" s="174" t="s">
+      <c r="O31" s="173" t="s">
         <v>580</v>
       </c>
     </row>
@@ -12899,10 +12928,10 @@
       <c r="M32" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N32" s="175" t="s">
+      <c r="N32" s="174" t="s">
         <v>335</v>
       </c>
-      <c r="O32" s="175" t="s">
+      <c r="O32" s="174" t="s">
         <v>575</v>
       </c>
     </row>
@@ -12946,10 +12975,10 @@
       <c r="M33" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N33" s="176" t="s">
+      <c r="N33" s="175" t="s">
         <v>335</v>
       </c>
-      <c r="O33" s="176" t="s">
+      <c r="O33" s="175" t="s">
         <v>576</v>
       </c>
     </row>
@@ -12993,10 +13022,10 @@
       <c r="M34" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N34" s="177" t="s">
+      <c r="N34" s="176" t="s">
         <v>335</v>
       </c>
-      <c r="O34" s="177" t="s">
+      <c r="O34" s="176" t="s">
         <v>352</v>
       </c>
     </row>
@@ -13038,10 +13067,10 @@
       <c r="M35" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="N35" s="178" t="s">
+      <c r="N35" s="177" t="s">
         <v>335</v>
       </c>
-      <c r="O35" s="178" t="s">
+      <c r="O35" s="177" t="s">
         <v>581</v>
       </c>
     </row>
@@ -13085,10 +13114,10 @@
       <c r="M36" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N36" s="179" t="s">
+      <c r="N36" s="178" t="s">
         <v>335</v>
       </c>
-      <c r="O36" s="179" t="s">
+      <c r="O36" s="178" t="s">
         <v>575</v>
       </c>
     </row>
@@ -13132,10 +13161,10 @@
       <c r="M37" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N37" s="180" t="s">
+      <c r="N37" s="179" t="s">
         <v>335</v>
       </c>
-      <c r="O37" s="180" t="s">
+      <c r="O37" s="179" t="s">
         <v>351</v>
       </c>
     </row>
@@ -13179,10 +13208,10 @@
       <c r="M38" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N38" s="181" t="s">
+      <c r="N38" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="O38" s="181" t="s">
+      <c r="O38" s="180" t="s">
         <v>352</v>
       </c>
     </row>
@@ -13226,10 +13255,10 @@
       <c r="M39" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="N39" s="182" t="s">
+      <c r="N39" s="181" t="s">
         <v>335</v>
       </c>
-      <c r="O39" s="182" t="s">
+      <c r="O39" s="181" t="s">
         <v>582</v>
       </c>
     </row>
@@ -13271,10 +13300,10 @@
       <c r="M40" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="N40" s="183" t="s">
+      <c r="N40" s="182" t="s">
         <v>335</v>
       </c>
-      <c r="O40" s="183" t="s">
+      <c r="O40" s="182" t="s">
         <v>583</v>
       </c>
     </row>
@@ -13318,10 +13347,10 @@
       <c r="M41" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N41" s="184" t="s">
+      <c r="N41" s="183" t="s">
         <v>335</v>
       </c>
-      <c r="O41" s="184" t="s">
+      <c r="O41" s="183" t="s">
         <v>575</v>
       </c>
     </row>
@@ -13365,10 +13394,10 @@
       <c r="M42" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N42" s="185" t="s">
+      <c r="N42" s="184" t="s">
         <v>335</v>
       </c>
-      <c r="O42" s="185" t="s">
+      <c r="O42" s="184" t="s">
         <v>351</v>
       </c>
     </row>
@@ -13412,10 +13441,10 @@
       <c r="M43" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N43" s="186" t="s">
+      <c r="N43" s="185" t="s">
         <v>335</v>
       </c>
-      <c r="O43" s="186" t="s">
+      <c r="O43" s="185" t="s">
         <v>352</v>
       </c>
     </row>
@@ -13457,10 +13486,10 @@
       <c r="M44" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="N44" s="187" t="s">
+      <c r="N44" s="186" t="s">
         <v>335</v>
       </c>
-      <c r="O44" s="187" t="s">
+      <c r="O44" s="186" t="s">
         <v>584</v>
       </c>
     </row>
@@ -13504,10 +13533,10 @@
       <c r="M45" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N45" s="188" t="s">
+      <c r="N45" s="187" t="s">
         <v>335</v>
       </c>
-      <c r="O45" s="188" t="s">
+      <c r="O45" s="187" t="s">
         <v>575</v>
       </c>
     </row>
@@ -13551,10 +13580,10 @@
       <c r="M46" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N46" s="189" t="s">
+      <c r="N46" s="188" t="s">
         <v>335</v>
       </c>
-      <c r="O46" s="189" t="s">
+      <c r="O46" s="188" t="s">
         <v>585</v>
       </c>
     </row>
@@ -13598,10 +13627,10 @@
       <c r="M47" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N47" s="190" t="s">
+      <c r="N47" s="189" t="s">
         <v>335</v>
       </c>
-      <c r="O47" s="190" t="s">
+      <c r="O47" s="189" t="s">
         <v>585</v>
       </c>
     </row>
@@ -13645,10 +13674,10 @@
       <c r="M48" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N48" s="191" t="s">
+      <c r="N48" s="190" t="s">
         <v>335</v>
       </c>
-      <c r="O48" s="191" t="s">
+      <c r="O48" s="190" t="s">
         <v>585</v>
       </c>
     </row>
@@ -13693,10 +13722,10 @@
       <c r="M49" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="N49" s="192" t="s">
+      <c r="N49" s="191" t="s">
         <v>335</v>
       </c>
-      <c r="O49" s="192" t="s">
+      <c r="O49" s="191" t="s">
         <v>586</v>
       </c>
     </row>
@@ -13738,10 +13767,10 @@
       <c r="M50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N50" s="193" t="s">
+      <c r="N50" s="192" t="s">
         <v>335</v>
       </c>
-      <c r="O50" s="193" t="s">
+      <c r="O50" s="192" t="s">
         <v>483</v>
       </c>
     </row>
@@ -13765,46 +13794,46 @@
       <c r="M51" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="N51" s="194" t="s">
+      <c r="N51" s="193" t="s">
         <v>335</v>
       </c>
-      <c r="O51" s="194" t="s">
+      <c r="O51" s="193" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="66"/>
-      <c r="B52" s="74" t="s">
+      <c r="A52" s="65"/>
+      <c r="B52" s="73" t="s">
         <v>434</v>
       </c>
-      <c r="C52" s="66" t="s">
+      <c r="C52" s="65" t="s">
         <v>435</v>
       </c>
-      <c r="D52" s="66" t="s">
+      <c r="D52" s="65" t="s">
         <v>38</v>
       </c>
       <c r="E52" s="5">
         <v>30537</v>
       </c>
-      <c r="F52" s="66" t="s">
+      <c r="F52" s="65" t="s">
         <v>436</v>
       </c>
-      <c r="G52" s="66" t="s">
+      <c r="G52" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="H52" s="66" t="s">
+      <c r="H52" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="I52" s="66">
+      <c r="I52" s="65">
         <v>667875</v>
       </c>
       <c r="J52" s="8">
         <v>9996278123</v>
       </c>
-      <c r="K52" s="73" t="s">
+      <c r="K52" s="72" t="s">
         <v>560</v>
       </c>
-      <c r="L52" s="66" t="s">
+      <c r="L52" s="65" t="s">
         <v>110</v>
       </c>
       <c r="M52" s="1" t="s">
@@ -13961,7 +13990,7 @@
       <c r="J2" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K2" s="94" t="s">
+      <c r="K2" s="93" t="s">
         <v>486</v>
       </c>
     </row>
@@ -13996,7 +14025,7 @@
       <c r="J3" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K3" s="87" t="s">
+      <c r="K3" s="86" t="s">
         <v>486</v>
       </c>
     </row>
@@ -14031,7 +14060,7 @@
       <c r="J4" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="87" t="s">
         <v>486</v>
       </c>
     </row>
@@ -14066,7 +14095,7 @@
       <c r="J5" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K5" s="89" t="s">
+      <c r="K5" s="88" t="s">
         <v>486</v>
       </c>
     </row>
@@ -14101,7 +14130,7 @@
       <c r="J6" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K6" s="90" t="s">
+      <c r="K6" s="89" t="s">
         <v>486</v>
       </c>
     </row>
@@ -14136,7 +14165,7 @@
       <c r="J7" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K7" s="91" t="s">
+      <c r="K7" s="90" t="s">
         <v>486</v>
       </c>
     </row>
@@ -14171,7 +14200,7 @@
       <c r="J8" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K8" s="92" t="s">
+      <c r="K8" s="91" t="s">
         <v>487</v>
       </c>
     </row>
@@ -14194,7 +14223,7 @@
       <c r="J9" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K9" s="93" t="s">
+      <c r="K9" s="92" t="s">
         <v>486</v>
       </c>
     </row>
@@ -14215,7 +14244,7 @@
       <c r="J10" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="K10" s="95" t="s">
+      <c r="K10" s="94" t="s">
         <v>488</v>
       </c>
     </row>
@@ -14238,7 +14267,7 @@
       <c r="J11" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="K11" s="96" t="s">
+      <c r="K11" s="95" t="s">
         <v>351</v>
       </c>
     </row>
@@ -14261,7 +14290,7 @@
       <c r="J12" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="K12" s="97" t="s">
+      <c r="K12" s="96" t="s">
         <v>351</v>
       </c>
     </row>
@@ -14284,7 +14313,7 @@
       <c r="J13" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K13" s="98" t="s">
+      <c r="K13" s="97" t="s">
         <v>352</v>
       </c>
     </row>
@@ -14307,7 +14336,7 @@
       <c r="J14" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="K14" s="99" t="s">
+      <c r="K14" s="98" t="s">
         <v>489</v>
       </c>
     </row>
@@ -14330,7 +14359,7 @@
       <c r="J15" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="K15" s="100" t="s">
+      <c r="K15" s="99" t="s">
         <v>489</v>
       </c>
     </row>
@@ -14353,16 +14382,16 @@
       <c r="J16" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="K16" s="101" t="s">
+      <c r="K16" s="100" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="68"/>
-      <c r="B17" s="75" t="s">
+      <c r="A17" s="67"/>
+      <c r="B17" s="74" t="s">
         <v>437</v>
       </c>
-      <c r="C17" s="68">
+      <c r="C17" s="67">
         <v>12345</v>
       </c>
       <c r="J17" t="s">
@@ -14433,7 +14462,7 @@
       <c r="D2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E2" s="198" t="s">
+      <c r="E2" s="197" t="s">
         <v>591</v>
       </c>
     </row>
@@ -14450,7 +14479,7 @@
       <c r="D3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E3" s="199" t="s">
+      <c r="E3" s="198" t="s">
         <v>591</v>
       </c>
     </row>
@@ -14467,7 +14496,7 @@
       <c r="D4" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E4" s="200" t="s">
+      <c r="E4" s="199" t="s">
         <v>591</v>
       </c>
     </row>
@@ -14484,7 +14513,7 @@
       <c r="D5" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E5" s="201" t="s">
+      <c r="E5" s="200" t="s">
         <v>591</v>
       </c>
     </row>
@@ -14501,7 +14530,7 @@
       <c r="D6" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E6" s="202" t="s">
+      <c r="E6" s="201" t="s">
         <v>591</v>
       </c>
     </row>
@@ -14518,7 +14547,7 @@
       <c r="D7" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E7" s="203" t="s">
+      <c r="E7" s="202" t="s">
         <v>591</v>
       </c>
     </row>
@@ -14535,7 +14564,7 @@
       <c r="D8" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E8" s="204" t="s">
+      <c r="E8" s="203" t="s">
         <v>591</v>
       </c>
     </row>
@@ -14552,7 +14581,7 @@
       <c r="D9" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E9" s="205" t="s">
+      <c r="E9" s="204" t="s">
         <v>591</v>
       </c>
     </row>
@@ -14569,7 +14598,7 @@
       <c r="D10" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E10" s="206" t="s">
+      <c r="E10" s="205" t="s">
         <v>591</v>
       </c>
     </row>
@@ -14586,7 +14615,7 @@
       <c r="D11" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E11" s="207" t="s">
+      <c r="E11" s="206" t="s">
         <v>591</v>
       </c>
     </row>
@@ -14603,7 +14632,7 @@
       <c r="D12" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E12" s="208" t="s">
+      <c r="E12" s="207" t="s">
         <v>591</v>
       </c>
     </row>
@@ -14620,7 +14649,7 @@
       <c r="D13" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E13" s="209" t="s">
+      <c r="E13" s="208" t="s">
         <v>591</v>
       </c>
     </row>
@@ -14637,7 +14666,7 @@
       <c r="D14" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E14" s="210" t="s">
+      <c r="E14" s="209" t="s">
         <v>591</v>
       </c>
     </row>
@@ -14654,7 +14683,7 @@
       <c r="D15" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E15" s="211" t="s">
+      <c r="E15" s="210" t="s">
         <v>591</v>
       </c>
     </row>
@@ -14671,7 +14700,7 @@
       <c r="D16" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E16" s="212" t="s">
+      <c r="E16" s="211" t="s">
         <v>591</v>
       </c>
     </row>
@@ -14686,7 +14715,7 @@
       <c r="D17" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E17" s="213" t="s">
+      <c r="E17" s="212" t="s">
         <v>488</v>
       </c>
     </row>
@@ -14703,7 +14732,7 @@
       <c r="D18" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E18" s="214" t="s">
+      <c r="E18" s="213" t="s">
         <v>351</v>
       </c>
     </row>
@@ -14720,7 +14749,7 @@
       <c r="D19" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="215" t="s">
+      <c r="E19" s="214" t="s">
         <v>351</v>
       </c>
     </row>
@@ -14737,7 +14766,7 @@
       <c r="D20" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="216" t="s">
+      <c r="E20" s="215" t="s">
         <v>352</v>
       </c>
     </row>
@@ -14754,7 +14783,7 @@
       <c r="D21" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E21" s="217" t="s">
+      <c r="E21" s="216" t="s">
         <v>592</v>
       </c>
     </row>
@@ -14771,7 +14800,7 @@
       <c r="D22" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E22" s="218" t="s">
+      <c r="E22" s="217" t="s">
         <v>592</v>
       </c>
     </row>
@@ -14788,7 +14817,7 @@
       <c r="D23" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E23" s="219" t="s">
+      <c r="E23" s="218" t="s">
         <v>592</v>
       </c>
     </row>
@@ -14799,13 +14828,13 @@
       <c r="B24" s="59" t="s">
         <v>322</v>
       </c>
-      <c r="C24" s="102">
+      <c r="C24" s="101">
         <v>96501</v>
       </c>
       <c r="D24" s="52" t="s">
         <v>294</v>
       </c>
-      <c r="E24" s="220" t="s">
+      <c r="E24" s="219" t="s">
         <v>593</v>
       </c>
     </row>
@@ -14813,38 +14842,38 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="147" t="s">
+      <c r="B25" s="146" t="s">
         <v>363</v>
       </c>
-      <c r="C25" s="143">
+      <c r="C25" s="142">
         <v>37672</v>
       </c>
-      <c r="D25" s="144" t="s">
+      <c r="D25" s="143" t="s">
         <v>255</v>
       </c>
-      <c r="E25" s="221" t="s">
+      <c r="E25" s="220" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="76"/>
-      <c r="B26" s="146" t="s">
+      <c r="A26" s="75"/>
+      <c r="B26" s="145" t="s">
         <v>438</v>
       </c>
-      <c r="C26" s="76">
+      <c r="C26" s="75">
         <v>12345</v>
       </c>
       <c r="D26" s="50" t="s">
         <v>285</v>
       </c>
-      <c r="E26" s="145"/>
+      <c r="E26" s="144"/>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="51"/>
       <c r="B27" s="50"/>
       <c r="C27" s="50"/>
       <c r="D27" s="50"/>
-      <c r="E27" s="145"/>
+      <c r="E27" s="144"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14861,7 +14890,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14909,7 +14938,7 @@
       <c r="B2" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C2" s="72">
+      <c r="C2" s="71">
         <v>73735</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -14921,10 +14950,10 @@
       <c r="F2" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G2" s="295" t="s">
+      <c r="G2" s="294" t="s">
         <v>627</v>
       </c>
-      <c r="H2" s="295" t="s">
+      <c r="H2" s="294" t="s">
         <v>507</v>
       </c>
     </row>
@@ -14935,7 +14964,7 @@
       <c r="B3" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C3" s="72">
+      <c r="C3" s="71">
         <v>37705</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -14947,10 +14976,10 @@
       <c r="F3" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G3" s="296" t="s">
+      <c r="G3" s="295" t="s">
         <v>628</v>
       </c>
-      <c r="H3" s="296" t="s">
+      <c r="H3" s="295" t="s">
         <v>507</v>
       </c>
     </row>
@@ -14961,7 +14990,7 @@
       <c r="B4" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C4" s="72">
+      <c r="C4" s="71">
         <v>73735</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -14973,10 +15002,10 @@
       <c r="F4" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G4" s="297" t="s">
+      <c r="G4" s="296" t="s">
         <v>629</v>
       </c>
-      <c r="H4" s="297" t="s">
+      <c r="H4" s="296" t="s">
         <v>507</v>
       </c>
     </row>
@@ -14987,7 +15016,7 @@
       <c r="B5" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C5" s="72">
+      <c r="C5" s="71">
         <v>37705</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -14999,10 +15028,10 @@
       <c r="F5" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G5" s="298" t="s">
+      <c r="G5" s="297" t="s">
         <v>630</v>
       </c>
-      <c r="H5" s="298" t="s">
+      <c r="H5" s="297" t="s">
         <v>507</v>
       </c>
     </row>
@@ -15013,7 +15042,7 @@
       <c r="B6" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C6" s="102">
+      <c r="C6" s="101">
         <v>73735</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -15025,10 +15054,10 @@
       <c r="F6" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G6" s="299" t="s">
+      <c r="G6" s="298" t="s">
         <v>631</v>
       </c>
-      <c r="H6" s="299" t="s">
+      <c r="H6" s="298" t="s">
         <v>507</v>
       </c>
     </row>
@@ -15039,7 +15068,7 @@
       <c r="B7" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C7" s="102">
+      <c r="C7" s="101">
         <v>73735</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -15051,10 +15080,10 @@
       <c r="F7" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G7" s="300" t="s">
+      <c r="G7" s="299" t="s">
         <v>632</v>
       </c>
-      <c r="H7" s="300" t="s">
+      <c r="H7" s="299" t="s">
         <v>507</v>
       </c>
     </row>
@@ -15065,7 +15094,7 @@
       <c r="B8" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C8" s="72">
+      <c r="C8" s="71">
         <v>73735</v>
       </c>
       <c r="D8" s="1"/>
@@ -15075,10 +15104,10 @@
       <c r="F8" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G8" s="301" t="s">
+      <c r="G8" s="300" t="s">
         <v>633</v>
       </c>
-      <c r="H8" s="301" t="s">
+      <c r="H8" s="300" t="s">
         <v>507</v>
       </c>
     </row>
@@ -15089,7 +15118,7 @@
       <c r="B9" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C9" s="72">
+      <c r="C9" s="71">
         <v>98487</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -15101,10 +15130,10 @@
       <c r="F9" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G9" s="302" t="s">
+      <c r="G9" s="301" t="s">
         <v>634</v>
       </c>
-      <c r="H9" s="302" t="s">
+      <c r="H9" s="301" t="s">
         <v>507</v>
       </c>
     </row>
@@ -15115,7 +15144,7 @@
       <c r="B10" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C10" s="72">
+      <c r="C10" s="71">
         <v>98487</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -15127,10 +15156,10 @@
       <c r="F10" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G10" s="222" t="s">
+      <c r="G10" s="221" t="s">
         <v>597</v>
       </c>
-      <c r="H10" s="222" t="s">
+      <c r="H10" s="221" t="s">
         <v>507</v>
       </c>
     </row>
@@ -15141,7 +15170,7 @@
       <c r="B11" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C11" s="72">
+      <c r="C11" s="71">
         <v>98487</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -15153,10 +15182,10 @@
       <c r="F11" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G11" s="105" t="s">
+      <c r="G11" s="104" t="s">
         <v>511</v>
       </c>
-      <c r="H11" s="105" t="s">
+      <c r="H11" s="104" t="s">
         <v>507</v>
       </c>
     </row>
@@ -15167,7 +15196,7 @@
       <c r="B12" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C12" s="72">
+      <c r="C12" s="71">
         <v>37705</v>
       </c>
       <c r="D12" s="54" t="s">
@@ -15179,10 +15208,10 @@
       <c r="F12" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G12" s="106" t="s">
+      <c r="G12" s="105" t="s">
         <v>512</v>
       </c>
-      <c r="H12" s="106" t="s">
+      <c r="H12" s="105" t="s">
         <v>507</v>
       </c>
     </row>
@@ -15193,7 +15222,7 @@
       <c r="B13" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C13" s="72">
+      <c r="C13" s="71">
         <v>37705</v>
       </c>
       <c r="D13" s="54" t="s">
@@ -15205,10 +15234,10 @@
       <c r="F13" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G13" s="107" t="s">
+      <c r="G13" s="106" t="s">
         <v>513</v>
       </c>
-      <c r="H13" s="107" t="s">
+      <c r="H13" s="106" t="s">
         <v>507</v>
       </c>
     </row>
@@ -15219,7 +15248,7 @@
       <c r="B14" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C14" s="72">
+      <c r="C14" s="71">
         <v>37705</v>
       </c>
       <c r="D14" s="54" t="s">
@@ -15231,10 +15260,10 @@
       <c r="F14" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G14" s="108" t="s">
+      <c r="G14" s="107" t="s">
         <v>514</v>
       </c>
-      <c r="H14" s="108" t="s">
+      <c r="H14" s="107" t="s">
         <v>507</v>
       </c>
     </row>
@@ -15255,10 +15284,10 @@
       <c r="F15" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="G15" s="109" t="s">
+      <c r="G15" s="108" t="s">
         <v>335</v>
       </c>
-      <c r="H15" s="109" t="s">
+      <c r="H15" s="108" t="s">
         <v>515</v>
       </c>
     </row>
@@ -15281,10 +15310,10 @@
       <c r="F16" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="G16" s="110" t="s">
+      <c r="G16" s="109" t="s">
         <v>335</v>
       </c>
-      <c r="H16" s="110" t="s">
+      <c r="H16" s="109" t="s">
         <v>515</v>
       </c>
     </row>
@@ -15307,10 +15336,10 @@
       <c r="F17" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="G17" s="111" t="s">
+      <c r="G17" s="110" t="s">
         <v>335</v>
       </c>
-      <c r="H17" s="111" t="s">
+      <c r="H17" s="110" t="s">
         <v>515</v>
       </c>
     </row>
@@ -15333,10 +15362,10 @@
       <c r="F18" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="G18" s="112" t="s">
+      <c r="G18" s="111" t="s">
         <v>335</v>
       </c>
-      <c r="H18" s="112" t="s">
+      <c r="H18" s="111" t="s">
         <v>515</v>
       </c>
     </row>
@@ -15359,10 +15388,10 @@
       <c r="F19" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="G19" s="113" t="s">
+      <c r="G19" s="112" t="s">
         <v>335</v>
       </c>
-      <c r="H19" s="113" t="s">
+      <c r="H19" s="112" t="s">
         <v>515</v>
       </c>
     </row>
@@ -15373,7 +15402,7 @@
       <c r="B20" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C20" s="72">
+      <c r="C20" s="71">
         <v>98487</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -15383,10 +15412,10 @@
       <c r="F20" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G20" s="114" t="s">
+      <c r="G20" s="113" t="s">
         <v>335</v>
       </c>
-      <c r="H20" s="114" t="s">
+      <c r="H20" s="113" t="s">
         <v>516</v>
       </c>
     </row>
@@ -15397,7 +15426,7 @@
       <c r="B21" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C21" s="72">
+      <c r="C21" s="71">
         <v>98487</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -15409,10 +15438,10 @@
       <c r="F21" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G21" s="115" t="s">
+      <c r="G21" s="114" t="s">
         <v>335</v>
       </c>
-      <c r="H21" s="115" t="s">
+      <c r="H21" s="114" t="s">
         <v>516</v>
       </c>
     </row>
@@ -15423,7 +15452,7 @@
       <c r="B22" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C22" s="72">
+      <c r="C22" s="71">
         <v>98487</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -15435,10 +15464,10 @@
       <c r="F22" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G22" s="116" t="s">
+      <c r="G22" s="115" t="s">
         <v>335</v>
       </c>
-      <c r="H22" s="116" t="s">
+      <c r="H22" s="115" t="s">
         <v>516</v>
       </c>
     </row>
@@ -15449,7 +15478,7 @@
       <c r="B23" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C23" s="72">
+      <c r="C23" s="71">
         <v>98487</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -15461,10 +15490,10 @@
       <c r="F23" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G23" s="117" t="s">
+      <c r="G23" s="116" t="s">
         <v>335</v>
       </c>
-      <c r="H23" s="117" t="s">
+      <c r="H23" s="116" t="s">
         <v>516</v>
       </c>
     </row>
@@ -15475,7 +15504,7 @@
       <c r="B24" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C24" s="72">
+      <c r="C24" s="71">
         <v>98487</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -15487,10 +15516,10 @@
       <c r="F24" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G24" s="118" t="s">
+      <c r="G24" s="117" t="s">
         <v>335</v>
       </c>
-      <c r="H24" s="118" t="s">
+      <c r="H24" s="117" t="s">
         <v>516</v>
       </c>
     </row>
@@ -15501,7 +15530,7 @@
       <c r="B25" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C25" s="72">
+      <c r="C25" s="71">
         <v>98487</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -15513,10 +15542,10 @@
       <c r="F25" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G25" s="119" t="s">
+      <c r="G25" s="118" t="s">
         <v>335</v>
       </c>
-      <c r="H25" s="119" t="s">
+      <c r="H25" s="118" t="s">
         <v>516</v>
       </c>
     </row>
@@ -15533,10 +15562,10 @@
       <c r="F26" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="G26" s="120" t="s">
+      <c r="G26" s="119" t="s">
         <v>335</v>
       </c>
-      <c r="H26" s="120" t="s">
+      <c r="H26" s="119" t="s">
         <v>515</v>
       </c>
     </row>
@@ -15547,22 +15576,22 @@
       <c r="B27" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C27" s="66">
+      <c r="C27" s="65">
         <v>37672</v>
       </c>
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="65" t="s">
         <v>445</v>
       </c>
-      <c r="E27" s="66">
+      <c r="E27" s="65">
         <v>1000</v>
       </c>
-      <c r="F27" s="66" t="s">
+      <c r="F27" s="65" t="s">
         <v>503</v>
       </c>
-      <c r="G27" s="121" t="s">
+      <c r="G27" s="120" t="s">
         <v>335</v>
       </c>
-      <c r="H27" s="121" t="s">
+      <c r="H27" s="120" t="s">
         <v>515</v>
       </c>
     </row>
@@ -15626,7 +15655,7 @@
       <c r="E2" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="F2" s="247"/>
+      <c r="F2" s="246"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -15642,7 +15671,7 @@
       <c r="E3" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="F3" s="248"/>
+      <c r="F3" s="247"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -15658,7 +15687,7 @@
       <c r="E4" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="F4" s="249"/>
+      <c r="F4" s="248"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -15676,7 +15705,7 @@
       <c r="E5" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="F5" s="250"/>
+      <c r="F5" s="249"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -15694,7 +15723,7 @@
       <c r="E6" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="F6" s="251"/>
+      <c r="F6" s="250"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -15708,7 +15737,7 @@
       <c r="E7" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="F7" s="252"/>
+      <c r="F7" s="251"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -15724,7 +15753,7 @@
       <c r="E8" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="253"/>
+      <c r="F8" s="252"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -15740,7 +15769,7 @@
       <c r="E9" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="254"/>
+      <c r="F9" s="253"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -15756,7 +15785,7 @@
       <c r="E10" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="255"/>
+      <c r="F10" s="254"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -15765,14 +15794,14 @@
       <c r="B11" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C11" s="65">
+      <c r="C11" s="64">
         <v>44435</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="F11" s="256"/>
+      <c r="F11" s="255"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -15788,7 +15817,7 @@
       <c r="E12" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="F12" s="257"/>
+      <c r="F12" s="256"/>
     </row>
     <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -15804,7 +15833,7 @@
       <c r="E13" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="F13" s="258"/>
+      <c r="F13" s="257"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15859,7 +15888,7 @@
       <c r="D2" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E2" s="122" t="s">
+      <c r="E2" s="121" t="s">
         <v>505</v>
       </c>
     </row>
@@ -15874,7 +15903,7 @@
       <c r="D3" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E3" s="123" t="s">
+      <c r="E3" s="122" t="s">
         <v>505</v>
       </c>
     </row>
@@ -15889,7 +15918,7 @@
       <c r="D4" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E4" s="124" t="s">
+      <c r="E4" s="123" t="s">
         <v>505</v>
       </c>
     </row>
@@ -15904,7 +15933,7 @@
       <c r="D5" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E5" s="125" t="s">
+      <c r="E5" s="124" t="s">
         <v>505</v>
       </c>
     </row>
@@ -15919,7 +15948,7 @@
       <c r="D6" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E6" s="126" t="s">
+      <c r="E6" s="125" t="s">
         <v>505</v>
       </c>
     </row>
@@ -15934,7 +15963,7 @@
       <c r="D7" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E7" s="127" t="s">
+      <c r="E7" s="126" t="s">
         <v>505</v>
       </c>
     </row>
@@ -15949,7 +15978,7 @@
       <c r="D8" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E8" s="128" t="s">
+      <c r="E8" s="127" t="s">
         <v>505</v>
       </c>
     </row>
@@ -15964,7 +15993,7 @@
       <c r="D9" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E9" s="129" t="s">
+      <c r="E9" s="128" t="s">
         <v>505</v>
       </c>
     </row>
@@ -15979,7 +16008,7 @@
       <c r="D10" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E10" s="130" t="s">
+      <c r="E10" s="129" t="s">
         <v>505</v>
       </c>
     </row>
@@ -15996,7 +16025,7 @@
       <c r="D11" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E11" s="131" t="s">
+      <c r="E11" s="130" t="s">
         <v>505</v>
       </c>
     </row>
@@ -16013,7 +16042,7 @@
       <c r="D12" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E12" s="132" t="s">
+      <c r="E12" s="131" t="s">
         <v>505</v>
       </c>
     </row>
@@ -16030,7 +16059,7 @@
       <c r="D13" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E13" s="133" t="s">
+      <c r="E13" s="132" t="s">
         <v>505</v>
       </c>
     </row>
@@ -16047,7 +16076,7 @@
       <c r="D14" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E14" s="134" t="s">
+      <c r="E14" s="133" t="s">
         <v>505</v>
       </c>
     </row>
@@ -16064,7 +16093,7 @@
       <c r="D15" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E15" s="135" t="s">
+      <c r="E15" s="134" t="s">
         <v>350</v>
       </c>
     </row>
@@ -16081,7 +16110,7 @@
       <c r="D16" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E16" s="136" t="s">
+      <c r="E16" s="135" t="s">
         <v>351</v>
       </c>
     </row>
@@ -16098,7 +16127,7 @@
       <c r="D17" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E17" s="137" t="s">
+      <c r="E17" s="136" t="s">
         <v>351</v>
       </c>
     </row>
@@ -16115,7 +16144,7 @@
       <c r="D18" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="138" t="s">
+      <c r="E18" s="137" t="s">
         <v>352</v>
       </c>
     </row>
@@ -16132,7 +16161,7 @@
       <c r="D19" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E19" s="139" t="s">
+      <c r="E19" s="138" t="s">
         <v>353</v>
       </c>
     </row>
@@ -16149,7 +16178,7 @@
       <c r="D20" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E20" s="140" t="s">
+      <c r="E20" s="139" t="s">
         <v>353</v>
       </c>
     </row>
@@ -16166,7 +16195,7 @@
       <c r="D21" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E21" s="141" t="s">
+      <c r="E21" s="140" t="s">
         <v>353</v>
       </c>
     </row>
@@ -16195,7 +16224,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G2" sqref="G2:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16257,7 +16286,7 @@
       <c r="H2" s="49" t="s">
         <v>596</v>
       </c>
-      <c r="I2" s="265" t="s">
+      <c r="I2" s="264" t="s">
         <v>349</v>
       </c>
     </row>
@@ -16282,7 +16311,7 @@
       <c r="H3" s="49" t="s">
         <v>611</v>
       </c>
-      <c r="I3" s="266" t="s">
+      <c r="I3" s="265" t="s">
         <v>349</v>
       </c>
     </row>
@@ -16290,7 +16319,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="65" t="s">
         <v>391</v>
       </c>
       <c r="C4" s="1"/>
@@ -16307,7 +16336,7 @@
       <c r="H4" s="49" t="s">
         <v>612</v>
       </c>
-      <c r="I4" s="267" t="s">
+      <c r="I4" s="266" t="s">
         <v>349</v>
       </c>
     </row>
@@ -16315,7 +16344,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="65" t="s">
         <v>379</v>
       </c>
       <c r="C5" s="48"/>
@@ -16332,7 +16361,7 @@
       <c r="H5" s="49" t="s">
         <v>598</v>
       </c>
-      <c r="I5" s="268" t="s">
+      <c r="I5" s="267" t="s">
         <v>349</v>
       </c>
     </row>
@@ -16340,7 +16369,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="65" t="s">
         <v>380</v>
       </c>
       <c r="C6" s="48"/>
@@ -16357,7 +16386,7 @@
       <c r="H6" s="49" t="s">
         <v>613</v>
       </c>
-      <c r="I6" s="269" t="s">
+      <c r="I6" s="268" t="s">
         <v>349</v>
       </c>
     </row>
@@ -16365,7 +16394,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="65" t="s">
         <v>381</v>
       </c>
       <c r="C7" s="1"/>
@@ -16382,7 +16411,7 @@
       <c r="H7" s="49" t="s">
         <v>614</v>
       </c>
-      <c r="I7" s="270" t="s">
+      <c r="I7" s="269" t="s">
         <v>349</v>
       </c>
     </row>
@@ -16390,7 +16419,7 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="65" t="s">
         <v>383</v>
       </c>
       <c r="C8" s="1"/>
@@ -16407,7 +16436,7 @@
       <c r="H8" s="49" t="s">
         <v>610</v>
       </c>
-      <c r="I8" s="271" t="s">
+      <c r="I8" s="270" t="s">
         <v>349</v>
       </c>
     </row>
@@ -16415,7 +16444,7 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="65" t="s">
         <v>377</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -16434,7 +16463,7 @@
       <c r="H9" s="49" t="s">
         <v>599</v>
       </c>
-      <c r="I9" s="271" t="s">
+      <c r="I9" s="270" t="s">
         <v>349</v>
       </c>
     </row>
@@ -16461,7 +16490,7 @@
       <c r="H10" s="49" t="s">
         <v>599</v>
       </c>
-      <c r="I10" s="223" t="s">
+      <c r="I10" s="222" t="s">
         <v>353</v>
       </c>
     </row>
@@ -16490,7 +16519,7 @@
       <c r="H11" s="49" t="s">
         <v>599</v>
       </c>
-      <c r="I11" s="224" t="s">
+      <c r="I11" s="223" t="s">
         <v>353</v>
       </c>
     </row>
@@ -16519,7 +16548,7 @@
       <c r="H12" s="49" t="s">
         <v>599</v>
       </c>
-      <c r="I12" s="225" t="s">
+      <c r="I12" s="224" t="s">
         <v>353</v>
       </c>
     </row>
@@ -16548,7 +16577,7 @@
       <c r="H13" s="49" t="s">
         <v>599</v>
       </c>
-      <c r="I13" s="226" t="s">
+      <c r="I13" s="225" t="s">
         <v>353</v>
       </c>
     </row>
@@ -16577,7 +16606,7 @@
       <c r="H14" s="49" t="s">
         <v>599</v>
       </c>
-      <c r="I14" s="227" t="s">
+      <c r="I14" s="226" t="s">
         <v>353</v>
       </c>
     </row>
@@ -16606,7 +16635,7 @@
       <c r="H15" s="49" t="s">
         <v>599</v>
       </c>
-      <c r="I15" s="228" t="s">
+      <c r="I15" s="227" t="s">
         <v>353</v>
       </c>
     </row>
@@ -16614,7 +16643,7 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="65" t="s">
         <v>372</v>
       </c>
       <c r="C16" s="1">
@@ -16631,7 +16660,7 @@
       <c r="H16" s="49" t="s">
         <v>599</v>
       </c>
-      <c r="I16" s="230" t="s">
+      <c r="I16" s="229" t="s">
         <v>602</v>
       </c>
     </row>
@@ -16639,7 +16668,7 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="65" t="s">
         <v>373</v>
       </c>
       <c r="C17" s="1">
@@ -16658,7 +16687,7 @@
       <c r="H17" s="49" t="s">
         <v>599</v>
       </c>
-      <c r="I17" s="231" t="s">
+      <c r="I17" s="230" t="s">
         <v>602</v>
       </c>
     </row>
@@ -16666,7 +16695,7 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="65" t="s">
         <v>374</v>
       </c>
       <c r="C18" s="1">
@@ -16685,7 +16714,7 @@
       <c r="H18" s="49" t="s">
         <v>599</v>
       </c>
-      <c r="I18" s="232" t="s">
+      <c r="I18" s="231" t="s">
         <v>602</v>
       </c>
     </row>
@@ -16693,7 +16722,7 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="65" t="s">
         <v>375</v>
       </c>
       <c r="C19" s="1">
@@ -16712,7 +16741,7 @@
       <c r="H19" s="49" t="s">
         <v>599</v>
       </c>
-      <c r="I19" s="233" t="s">
+      <c r="I19" s="232" t="s">
         <v>602</v>
       </c>
     </row>
@@ -16720,7 +16749,7 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="65" t="s">
         <v>385</v>
       </c>
       <c r="C20" s="1"/>
@@ -16733,7 +16762,7 @@
       <c r="H20" s="49" t="s">
         <v>599</v>
       </c>
-      <c r="I20" s="229" t="s">
+      <c r="I20" s="228" t="s">
         <v>353</v>
       </c>
     </row>
